--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -53,7 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003388D5"/>
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,7 +63,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
+        <fgColor rgb="003388D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -786,7 +786,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
@@ -803,10 +803,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>27</v>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>27</v>
@@ -829,10 +829,8 @@
       <c r="R2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T2" s="7" t="inlineStr">
         <is>
@@ -986,7 +984,7 @@
           <t>221172@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1005,10 +1003,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>27</v>
@@ -1020,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>27</v>
@@ -1031,10 +1029,8 @@
       <c r="R3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S3" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -1188,7 +1184,7 @@
           <t>221173@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1207,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>27</v>
@@ -1222,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>27</v>
@@ -1233,10 +1229,8 @@
       <c r="R4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S4" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="inlineStr">
         <is>
@@ -1390,7 +1384,7 @@
           <t>221175@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1409,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="6" t="n">
         <v>27</v>
@@ -1424,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>27</v>
@@ -1435,10 +1429,8 @@
       <c r="R5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -1592,7 +1584,7 @@
           <t>221176@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1611,10 +1603,10 @@
         <v>21</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>27</v>
@@ -1626,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>27</v>
@@ -1637,10 +1629,8 @@
       <c r="R6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S6" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T6" s="7" t="inlineStr">
         <is>
@@ -1796,7 +1786,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
@@ -1813,10 +1803,10 @@
         <v>20</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>27</v>
@@ -1828,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>27</v>
@@ -1839,10 +1829,8 @@
       <c r="R7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S7" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T7" s="7" t="inlineStr">
         <is>
@@ -1998,7 +1986,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
@@ -2015,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" s="6" t="n">
         <v>27</v>
@@ -2030,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>27</v>
@@ -2041,10 +2029,8 @@
       <c r="R8" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T8" s="7" t="inlineStr">
         <is>
@@ -2200,7 +2186,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -2217,10 +2203,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>27</v>
@@ -2232,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>27</v>
@@ -2243,10 +2229,8 @@
       <c r="R9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S9" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T9" s="7" t="inlineStr">
         <is>
@@ -2402,7 +2386,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
@@ -2419,10 +2403,10 @@
         <v>20</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>27</v>
@@ -2434,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>27</v>
@@ -2445,10 +2429,8 @@
       <c r="R10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S10" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T10" s="7" t="inlineStr">
         <is>
@@ -2604,7 +2586,7 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
@@ -2621,10 +2603,10 @@
         <v>20</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>27</v>
@@ -2636,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>27</v>
@@ -2647,10 +2629,8 @@
       <c r="R11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S11" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T11" s="7" t="inlineStr">
         <is>
@@ -2804,7 +2784,7 @@
           <t>221186@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -2823,10 +2803,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>27</v>
@@ -2838,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>27</v>
@@ -2849,10 +2829,8 @@
       <c r="R12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S12" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -3006,7 +2984,7 @@
           <t>221187@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3025,10 +3003,10 @@
         <v>21</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>27</v>
@@ -3040,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>27</v>
@@ -3051,10 +3029,8 @@
       <c r="R13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S13" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -3208,7 +3184,7 @@
           <t>221188@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3227,10 +3203,10 @@
         <v>21</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>27</v>
@@ -3242,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>27</v>
@@ -3253,10 +3229,8 @@
       <c r="R14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S14" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T14" s="7" t="inlineStr">
         <is>
@@ -3412,7 +3386,7 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
@@ -3429,10 +3403,10 @@
         <v>20</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>27</v>
@@ -3444,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>27</v>
@@ -3455,10 +3429,8 @@
       <c r="R15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S15" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -3612,7 +3584,7 @@
           <t>221190@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3631,10 +3603,10 @@
         <v>21</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>27</v>
@@ -3646,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>27</v>
@@ -3657,10 +3629,8 @@
       <c r="R16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S16" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -3816,7 +3786,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
@@ -3833,10 +3803,10 @@
         <v>20</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>27</v>
@@ -3848,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>27</v>
@@ -3859,10 +3829,8 @@
       <c r="R17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S17" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T17" s="7" t="inlineStr">
         <is>
@@ -4016,7 +3984,7 @@
           <t>221192@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4035,10 +4003,10 @@
         <v>21</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>27</v>
@@ -4050,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>27</v>
@@ -4061,10 +4029,8 @@
       <c r="R18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S18" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T18" s="7" t="inlineStr">
         <is>
@@ -4218,7 +4184,7 @@
           <t>221193@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4237,10 +4203,10 @@
         <v>21</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="6" t="n">
         <v>27</v>
@@ -4252,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>27</v>
@@ -4263,10 +4229,8 @@
       <c r="R19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S19" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T19" s="7" t="inlineStr">
         <is>
@@ -4420,7 +4384,7 @@
           <t>221194@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4439,10 +4403,10 @@
         <v>21</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" s="6" t="n">
         <v>27</v>
@@ -4454,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="7" t="n">
         <v>27</v>
@@ -4465,10 +4429,8 @@
       <c r="R20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S20" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T20" s="7" t="inlineStr">
         <is>
@@ -4622,7 +4584,7 @@
           <t>221195@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4641,10 +4603,10 @@
         <v>21</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="6" t="n">
         <v>27</v>
@@ -4656,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>27</v>
@@ -4667,10 +4629,8 @@
       <c r="R21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -4824,7 +4784,7 @@
           <t>221196@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4843,10 +4803,10 @@
         <v>21</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>27</v>
@@ -4858,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>27</v>
@@ -4869,10 +4829,8 @@
       <c r="R22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T22" s="7" t="inlineStr">
         <is>
@@ -5028,7 +4986,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
@@ -5045,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" s="6" t="n">
         <v>27</v>
@@ -5060,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>27</v>
@@ -5071,10 +5029,8 @@
       <c r="R23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S23" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T23" s="7" t="inlineStr">
         <is>
@@ -5228,7 +5184,7 @@
           <t>221198@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5247,10 +5203,10 @@
         <v>21</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" s="6" t="n">
         <v>27</v>
@@ -5262,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>27</v>
@@ -5273,10 +5229,8 @@
       <c r="R24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S24" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -5430,7 +5384,7 @@
           <t>221199@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5449,10 +5403,10 @@
         <v>21</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" s="6" t="n">
         <v>27</v>
@@ -5464,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>27</v>
@@ -5475,10 +5429,8 @@
       <c r="R25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S25" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T25" s="7" t="inlineStr">
         <is>
@@ -5632,7 +5584,7 @@
           <t>221200@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5651,10 +5603,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>27</v>
@@ -5666,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="7" t="n">
         <v>27</v>
@@ -5677,10 +5629,8 @@
       <c r="R26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S26" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T26" s="7" t="inlineStr">
         <is>
@@ -5836,7 +5786,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
@@ -5853,10 +5803,10 @@
         <v>20</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>27</v>
@@ -5868,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="7" t="n">
         <v>27</v>
@@ -5879,10 +5829,8 @@
       <c r="R27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S27" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -6038,7 +5986,7 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
@@ -6055,10 +6003,10 @@
         <v>20</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K28" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="6" t="n">
         <v>27</v>
@@ -6070,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>27</v>
@@ -6081,10 +6029,8 @@
       <c r="R28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S28" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T28" s="7" t="inlineStr">
         <is>
@@ -6240,7 +6186,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
@@ -6257,10 +6203,10 @@
         <v>20</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K29" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="6" t="n">
         <v>27</v>
@@ -6272,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>27</v>
@@ -6283,10 +6229,8 @@
       <c r="R29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S29" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T29" s="7" t="inlineStr">
         <is>
@@ -6442,7 +6386,7 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
@@ -6459,10 +6403,10 @@
         <v>20</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>27</v>
@@ -6474,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="7" t="n">
         <v>27</v>
@@ -6485,10 +6429,8 @@
       <c r="R30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S30" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T30" s="7" t="inlineStr">
         <is>
@@ -6644,7 +6586,7 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
@@ -6661,10 +6603,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="6" t="n">
         <v>27</v>
@@ -6676,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="7" t="n">
         <v>27</v>
@@ -6687,10 +6629,8 @@
       <c r="R31" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S31" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T31" s="7" t="inlineStr">
         <is>
@@ -6846,7 +6786,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
@@ -6863,10 +6803,10 @@
         <v>20</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="6" t="n">
         <v>27</v>
@@ -6878,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="7" t="n">
         <v>27</v>
@@ -6889,10 +6829,8 @@
       <c r="R32" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S32" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T32" s="7" t="inlineStr">
         <is>
@@ -7046,7 +6984,7 @@
           <t>221213@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7065,10 +7003,10 @@
         <v>21</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="6" t="n">
         <v>27</v>
@@ -7080,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>27</v>
@@ -7091,10 +7029,8 @@
       <c r="R33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S33" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T33" s="7" t="inlineStr">
         <is>
@@ -7250,7 +7186,7 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
@@ -7267,10 +7203,10 @@
         <v>20</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>27</v>
@@ -7282,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>27</v>
@@ -7293,10 +7229,8 @@
       <c r="R34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S34" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T34" s="7" t="inlineStr">
         <is>
@@ -7452,7 +7386,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
@@ -7469,10 +7403,10 @@
         <v>20</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="6" t="n">
         <v>27</v>
@@ -7484,7 +7418,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="7" t="n">
         <v>27</v>
@@ -7495,10 +7429,8 @@
       <c r="R35" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S35" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T35" s="7" t="inlineStr">
         <is>
@@ -7654,7 +7586,7 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
@@ -7671,10 +7603,10 @@
         <v>20</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K36" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="6" t="n">
         <v>27</v>
@@ -7686,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>27</v>
@@ -7697,10 +7629,8 @@
       <c r="R36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S36" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T36" s="7" t="inlineStr">
         <is>
@@ -7854,7 +7784,7 @@
           <t>221220@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7873,10 +7803,10 @@
         <v>21</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="6" t="n">
         <v>27</v>
@@ -7888,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>27</v>
@@ -7899,10 +7829,8 @@
       <c r="R37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S37" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -8056,7 +7984,7 @@
           <t>221221@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="F38" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -8075,10 +8003,10 @@
         <v>21</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="6" t="n">
         <v>27</v>
@@ -8090,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P38" s="7" t="n">
         <v>27</v>
@@ -8101,10 +8029,8 @@
       <c r="R38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S38" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T38" s="7" t="inlineStr">
         <is>
@@ -8260,7 +8186,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
@@ -8277,10 +8203,10 @@
         <v>20</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="6" t="n">
         <v>27</v>
@@ -8292,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="7" t="n">
         <v>27</v>
@@ -8303,10 +8229,8 @@
       <c r="R39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S39" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -8462,7 +8386,7 @@
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
@@ -8479,10 +8403,10 @@
         <v>20</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K40" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" s="6" t="n">
         <v>27</v>
@@ -8494,7 +8418,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="7" t="n">
         <v>27</v>
@@ -8505,10 +8429,8 @@
       <c r="R40" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S40" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -8662,7 +8584,7 @@
           <t>221226@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -8681,10 +8603,10 @@
         <v>21</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K41" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" s="6" t="n">
         <v>27</v>
@@ -8696,7 +8618,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="7" t="n">
         <v>27</v>
@@ -8707,10 +8629,8 @@
       <c r="R41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S41" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T41" s="7" t="inlineStr">
         <is>
@@ -8864,7 +8784,7 @@
           <t>221230@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="F42" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -8883,10 +8803,10 @@
         <v>21</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K42" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="6" t="n">
         <v>27</v>
@@ -8898,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" s="7" t="n">
         <v>27</v>
@@ -8909,10 +8829,8 @@
       <c r="R42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S42" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T42" s="7" t="inlineStr">
         <is>
@@ -9068,7 +8986,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
@@ -9085,10 +9003,10 @@
         <v>20</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="6" t="n">
         <v>27</v>
@@ -9100,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>27</v>
@@ -9111,10 +9029,8 @@
       <c r="R43" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S43" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T43" s="7" t="inlineStr">
         <is>
@@ -9270,7 +9186,7 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
@@ -9287,10 +9203,10 @@
         <v>20</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="6" t="n">
         <v>27</v>
@@ -9302,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="7" t="n">
         <v>27</v>
@@ -9313,10 +9229,8 @@
       <c r="R44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S44" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T44" s="7" t="inlineStr">
         <is>
@@ -9472,7 +9386,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
@@ -9489,10 +9403,10 @@
         <v>20</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="6" t="n">
         <v>27</v>
@@ -9504,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="7" t="n">
         <v>27</v>
@@ -9515,10 +9429,8 @@
       <c r="R45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S45" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T45" s="7" t="inlineStr">
         <is>
@@ -9672,7 +9584,7 @@
           <t>221239@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -9691,10 +9603,10 @@
         <v>21</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" s="6" t="n">
         <v>27</v>
@@ -9706,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>27</v>
@@ -9717,10 +9629,8 @@
       <c r="R46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S46" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -9876,7 +9786,7 @@
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
@@ -9893,10 +9803,10 @@
         <v>20</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K47" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47" s="6" t="n">
         <v>27</v>
@@ -9908,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="7" t="n">
         <v>27</v>
@@ -9919,10 +9829,8 @@
       <c r="R47" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S47" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T47" s="7" t="inlineStr">
         <is>
@@ -10076,7 +9984,7 @@
           <t>221241@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F48" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10095,10 +10003,10 @@
         <v>21</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K48" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="6" t="n">
         <v>27</v>
@@ -10110,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P48" s="7" t="n">
         <v>27</v>
@@ -10121,10 +10029,8 @@
       <c r="R48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S48" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T48" s="7" t="inlineStr">
         <is>
@@ -10278,7 +10184,7 @@
           <t>221242@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10297,10 +10203,10 @@
         <v>21</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49" s="6" t="n">
         <v>27</v>
@@ -10312,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="7" t="n">
         <v>27</v>
@@ -10323,10 +10229,8 @@
       <c r="R49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S49" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T49" s="7" t="inlineStr">
         <is>
@@ -10482,7 +10386,7 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
@@ -10499,10 +10403,10 @@
         <v>20</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" s="6" t="n">
         <v>27</v>
@@ -10514,7 +10418,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="7" t="n">
         <v>27</v>
@@ -10525,10 +10429,8 @@
       <c r="R50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S50" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T50" s="7" t="inlineStr">
         <is>
@@ -10684,7 +10586,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
@@ -10701,10 +10603,10 @@
         <v>20</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="6" t="n">
         <v>27</v>
@@ -10716,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="7" t="n">
         <v>27</v>
@@ -10727,10 +10629,8 @@
       <c r="R51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S51" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T51" s="7" t="inlineStr">
         <is>
@@ -10884,7 +10784,7 @@
           <t>221245@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10903,10 +10803,10 @@
         <v>21</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K52" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" s="6" t="n">
         <v>27</v>
@@ -10918,7 +10818,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="7" t="n">
         <v>27</v>
@@ -10929,10 +10829,8 @@
       <c r="R52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S52" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T52" s="7" t="inlineStr">
         <is>
@@ -11088,7 +10986,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
@@ -11105,10 +11003,10 @@
         <v>20</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K53" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" s="6" t="n">
         <v>27</v>
@@ -11120,7 +11018,7 @@
         <v>1</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="7" t="n">
         <v>27</v>
@@ -11131,10 +11029,8 @@
       <c r="R53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S53" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T53" s="7" t="inlineStr">
         <is>
@@ -11290,7 +11186,7 @@
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G54" s="5" t="inlineStr">
@@ -11307,10 +11203,10 @@
         <v>20</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K54" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="6" t="n">
         <v>27</v>
@@ -11322,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" s="7" t="n">
         <v>27</v>
@@ -11333,10 +11229,8 @@
       <c r="R54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S54" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T54" s="7" t="inlineStr">
         <is>
@@ -11492,7 +11386,7 @@
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
@@ -11509,10 +11403,10 @@
         <v>20</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="6" t="n">
         <v>27</v>
@@ -11524,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" s="7" t="n">
         <v>27</v>
@@ -11535,10 +11429,8 @@
       <c r="R55" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S55" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T55" s="7" t="inlineStr">
         <is>
@@ -11692,7 +11584,7 @@
           <t>221253@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="F56" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11711,10 +11603,10 @@
         <v>21</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="6" t="n">
         <v>27</v>
@@ -11726,7 +11618,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" s="7" t="n">
         <v>27</v>
@@ -11737,10 +11629,8 @@
       <c r="R56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S56" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -11896,7 +11786,7 @@
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
@@ -11913,10 +11803,10 @@
         <v>20</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="6" t="n">
         <v>27</v>
@@ -11928,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="7" t="n">
         <v>27</v>
@@ -11939,10 +11829,8 @@
       <c r="R57" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S57" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T57" s="7" t="inlineStr">
         <is>
@@ -12096,7 +11984,7 @@
           <t>221259@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12115,10 +12003,10 @@
         <v>21</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K58" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="6" t="n">
         <v>27</v>
@@ -12130,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P58" s="7" t="n">
         <v>27</v>
@@ -12141,10 +12029,8 @@
       <c r="R58" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S58" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T58" s="7" t="inlineStr">
         <is>
@@ -12300,7 +12186,7 @@
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G59" s="5" t="inlineStr">
@@ -12317,10 +12203,10 @@
         <v>20</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K59" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="6" t="n">
         <v>27</v>
@@ -12332,7 +12218,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="7" t="n">
         <v>27</v>
@@ -12343,10 +12229,8 @@
       <c r="R59" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S59" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -12500,7 +12384,7 @@
           <t>221267@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12519,10 +12403,10 @@
         <v>21</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K60" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="6" t="n">
         <v>27</v>
@@ -12534,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>27</v>
@@ -12545,10 +12429,8 @@
       <c r="R60" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S60" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T60" s="7" t="inlineStr">
         <is>
@@ -12702,7 +12584,7 @@
           <t>221269@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F61" s="4" t="inlineStr">
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -12721,10 +12603,10 @@
         <v>19</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K61" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="6" t="n">
         <v>27</v>
@@ -12736,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="7" t="n">
         <v>27</v>
@@ -12747,10 +12629,8 @@
       <c r="R61" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S61" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -12904,7 +12784,7 @@
           <t>221272@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F62" s="4" t="inlineStr">
+      <c r="F62" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -12923,10 +12803,10 @@
         <v>19</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K62" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="6" t="n">
         <v>27</v>
@@ -12938,7 +12818,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P62" s="7" t="n">
         <v>27</v>
@@ -12949,10 +12829,8 @@
       <c r="R62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S62" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -13106,7 +12984,7 @@
           <t>221273@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F63" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13125,10 +13003,10 @@
         <v>21</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K63" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="6" t="n">
         <v>27</v>
@@ -13140,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="7" t="n">
         <v>27</v>
@@ -13151,10 +13029,8 @@
       <c r="R63" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S63" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T63" s="7" t="inlineStr">
         <is>
@@ -13308,7 +13184,7 @@
           <t>221275@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13327,10 +13203,10 @@
         <v>21</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K64" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="6" t="n">
         <v>27</v>
@@ -13342,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P64" s="7" t="n">
         <v>27</v>
@@ -13353,10 +13229,8 @@
       <c r="R64" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S64" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T64" s="7" t="inlineStr">
         <is>
@@ -13512,7 +13386,7 @@
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G65" s="5" t="inlineStr">
@@ -13529,10 +13403,10 @@
         <v>20</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K65" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="6" t="n">
         <v>27</v>
@@ -13544,7 +13418,7 @@
         <v>1</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" s="7" t="n">
         <v>27</v>
@@ -13555,10 +13429,8 @@
       <c r="R65" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S65" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T65" s="7" t="inlineStr">
         <is>
@@ -13714,7 +13586,7 @@
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G66" s="5" t="inlineStr">
@@ -13731,10 +13603,10 @@
         <v>20</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K66" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="6" t="n">
         <v>27</v>
@@ -13746,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="7" t="n">
         <v>27</v>
@@ -13757,10 +13629,8 @@
       <c r="R66" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S66" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T66" s="7" t="inlineStr">
         <is>
@@ -13914,7 +13784,7 @@
           <t>221285@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F67" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13933,10 +13803,10 @@
         <v>21</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K67" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67" s="6" t="n">
         <v>27</v>
@@ -13948,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P67" s="7" t="n">
         <v>27</v>
@@ -13959,10 +13829,8 @@
       <c r="R67" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S67" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T67" s="7" t="inlineStr">
         <is>
@@ -14118,7 +13986,7 @@
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G68" s="5" t="inlineStr">
@@ -14135,10 +14003,10 @@
         <v>20</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K68" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" s="6" t="n">
         <v>27</v>
@@ -14150,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P68" s="7" t="n">
         <v>27</v>
@@ -14161,10 +14029,8 @@
       <c r="R68" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S68" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T68" s="7" t="inlineStr">
         <is>
@@ -14318,7 +14184,7 @@
           <t>221292@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F69" s="8" t="inlineStr">
+      <c r="F69" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14337,10 +14203,10 @@
         <v>21</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K69" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" s="6" t="n">
         <v>27</v>
@@ -14352,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P69" s="7" t="n">
         <v>27</v>
@@ -14363,10 +14229,8 @@
       <c r="R69" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S69" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T69" s="7" t="inlineStr">
         <is>
@@ -14522,7 +14386,7 @@
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G70" s="5" t="inlineStr">
@@ -14539,10 +14403,10 @@
         <v>20</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K70" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="6" t="n">
         <v>27</v>
@@ -14554,7 +14418,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="7" t="n">
         <v>27</v>
@@ -14565,10 +14429,8 @@
       <c r="R70" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S70" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T70" s="7" t="inlineStr">
         <is>
@@ -14722,7 +14584,7 @@
           <t>221300@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F71" s="8" t="inlineStr">
+      <c r="F71" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14741,10 +14603,10 @@
         <v>21</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K71" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="6" t="n">
         <v>27</v>
@@ -14756,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P71" s="7" t="n">
         <v>27</v>
@@ -14767,10 +14629,8 @@
       <c r="R71" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S71" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S71" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T71" s="7" t="inlineStr">
         <is>
@@ -14926,7 +14786,7 @@
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G72" s="5" t="inlineStr">
@@ -14943,10 +14803,10 @@
         <v>20</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K72" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" s="6" t="n">
         <v>27</v>
@@ -14958,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>27</v>
@@ -14969,10 +14829,8 @@
       <c r="R72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S72" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S72" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T72" s="7" t="inlineStr">
         <is>
@@ -15128,7 +14986,7 @@
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G73" s="5" t="inlineStr">
@@ -15145,10 +15003,10 @@
         <v>20</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K73" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73" s="6" t="n">
         <v>27</v>
@@ -15160,7 +15018,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="7" t="n">
         <v>27</v>
@@ -15171,10 +15029,8 @@
       <c r="R73" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S73" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -15328,7 +15184,7 @@
           <t>221306@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F74" s="8" t="inlineStr">
+      <c r="F74" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15347,10 +15203,10 @@
         <v>21</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K74" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="6" t="n">
         <v>27</v>
@@ -15362,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>27</v>
@@ -15373,10 +15229,8 @@
       <c r="R74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S74" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S74" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T74" s="7" t="inlineStr">
         <is>
@@ -15532,7 +15386,7 @@
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G75" s="5" t="inlineStr">
@@ -15549,10 +15403,10 @@
         <v>20</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K75" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" s="6" t="n">
         <v>27</v>
@@ -15564,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>27</v>
@@ -15575,10 +15429,8 @@
       <c r="R75" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S75" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -15732,7 +15584,7 @@
           <t>221313@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F76" s="4" t="inlineStr">
+      <c r="F76" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -15751,10 +15603,10 @@
         <v>19</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K76" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="6" t="n">
         <v>27</v>
@@ -15766,7 +15618,7 @@
         <v>2</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P76" s="7" t="n">
         <v>27</v>
@@ -15777,10 +15629,8 @@
       <c r="R76" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S76" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -15934,7 +15784,7 @@
           <t>221315@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="F77" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15953,10 +15803,10 @@
         <v>21</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K77" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77" s="6" t="n">
         <v>27</v>
@@ -15968,7 +15818,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P77" s="7" t="n">
         <v>27</v>
@@ -15979,10 +15829,8 @@
       <c r="R77" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S77" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -16138,7 +15986,7 @@
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G78" s="5" t="inlineStr">
@@ -16155,10 +16003,10 @@
         <v>20</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K78" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78" s="6" t="n">
         <v>27</v>
@@ -16170,7 +16018,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" s="7" t="n">
         <v>27</v>
@@ -16181,10 +16029,8 @@
       <c r="R78" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S78" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -16340,7 +16186,7 @@
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G79" s="5" t="inlineStr">
@@ -16357,10 +16203,10 @@
         <v>20</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K79" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="6" t="n">
         <v>27</v>
@@ -16372,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" s="7" t="n">
         <v>27</v>
@@ -16383,10 +16229,8 @@
       <c r="R79" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S79" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T79" s="7" t="inlineStr">
         <is>
@@ -16542,7 +16386,7 @@
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G80" s="5" t="inlineStr">
@@ -16559,10 +16403,10 @@
         <v>20</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K80" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="6" t="n">
         <v>27</v>
@@ -16574,7 +16418,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" s="7" t="n">
         <v>27</v>
@@ -16585,10 +16429,8 @@
       <c r="R80" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S80" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S80" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T80" s="7" t="inlineStr">
         <is>
@@ -16742,7 +16584,7 @@
           <t>221334@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F81" s="8" t="inlineStr">
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16761,10 +16603,10 @@
         <v>21</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K81" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" s="6" t="n">
         <v>27</v>
@@ -16776,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" s="7" t="n">
         <v>27</v>
@@ -16787,10 +16629,8 @@
       <c r="R81" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S81" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S81" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T81" s="7" t="inlineStr">
         <is>
@@ -16946,7 +16786,7 @@
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G82" s="5" t="inlineStr">
@@ -16963,10 +16803,10 @@
         <v>20</v>
       </c>
       <c r="J82" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K82" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82" s="6" t="n">
         <v>27</v>
@@ -16978,7 +16818,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" s="7" t="n">
         <v>27</v>
@@ -16989,10 +16829,8 @@
       <c r="R82" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S82" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -17148,7 +16986,7 @@
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G83" s="5" t="inlineStr">
@@ -17165,10 +17003,10 @@
         <v>20</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K83" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" s="6" t="n">
         <v>27</v>
@@ -17180,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" s="7" t="n">
         <v>27</v>
@@ -17191,10 +17029,8 @@
       <c r="R83" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S83" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T83" s="7" t="inlineStr">
         <is>
@@ -17348,7 +17184,7 @@
           <t>221372@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="8" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17367,10 +17203,10 @@
         <v>21</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K84" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" s="6" t="n">
         <v>27</v>
@@ -17382,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="7" t="n">
         <v>27</v>
@@ -17393,10 +17229,8 @@
       <c r="R84" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S84" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S84" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T84" s="7" t="inlineStr">
         <is>
@@ -17550,7 +17384,7 @@
           <t>221379@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F85" s="8" t="inlineStr">
+      <c r="F85" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17569,10 +17403,10 @@
         <v>21</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K85" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85" s="6" t="n">
         <v>27</v>
@@ -17584,7 +17418,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" s="7" t="n">
         <v>27</v>
@@ -17595,10 +17429,8 @@
       <c r="R85" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S85" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S85" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T85" s="7" t="inlineStr">
         <is>
@@ -17752,7 +17584,7 @@
           <t>221382@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F86" s="4" t="inlineStr">
+      <c r="F86" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -17771,10 +17603,10 @@
         <v>19</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K86" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L86" s="6" t="n">
         <v>27</v>
@@ -17786,7 +17618,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P86" s="7" t="n">
         <v>27</v>
@@ -17797,10 +17629,8 @@
       <c r="R86" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S86" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S86" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T86" s="7" t="inlineStr">
         <is>
@@ -17956,7 +17786,7 @@
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G87" s="5" t="inlineStr">
@@ -17973,10 +17803,10 @@
         <v>20</v>
       </c>
       <c r="J87" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K87" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" s="6" t="n">
         <v>27</v>
@@ -17988,7 +17818,7 @@
         <v>1</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" s="7" t="n">
         <v>27</v>
@@ -17999,10 +17829,8 @@
       <c r="R87" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S87" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -18158,7 +17986,7 @@
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G88" s="5" t="inlineStr">
@@ -18175,10 +18003,10 @@
         <v>20</v>
       </c>
       <c r="J88" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K88" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L88" s="6" t="n">
         <v>27</v>
@@ -18190,7 +18018,7 @@
         <v>1</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" s="7" t="n">
         <v>27</v>
@@ -18201,10 +18029,8 @@
       <c r="R88" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S88" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T88" s="7" t="inlineStr">
         <is>
@@ -18358,7 +18184,7 @@
           <t>221396@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F89" s="8" t="inlineStr">
+      <c r="F89" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18377,10 +18203,10 @@
         <v>21</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K89" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L89" s="6" t="n">
         <v>27</v>
@@ -18392,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P89" s="7" t="n">
         <v>27</v>
@@ -18403,10 +18229,8 @@
       <c r="R89" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S89" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S89" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T89" s="7" t="inlineStr">
         <is>
@@ -18560,7 +18384,7 @@
           <t>221399@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F90" s="8" t="inlineStr">
+      <c r="F90" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18579,10 +18403,10 @@
         <v>21</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K90" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" s="6" t="n">
         <v>27</v>
@@ -18594,7 +18418,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>27</v>
@@ -18605,10 +18429,8 @@
       <c r="R90" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S90" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S90" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T90" s="7" t="inlineStr">
         <is>
@@ -18762,7 +18584,7 @@
           <t>221402@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F91" s="8" t="inlineStr">
+      <c r="F91" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18781,10 +18603,10 @@
         <v>21</v>
       </c>
       <c r="J91" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K91" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L91" s="6" t="n">
         <v>27</v>
@@ -18796,7 +18618,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P91" s="7" t="n">
         <v>27</v>
@@ -18807,10 +18629,8 @@
       <c r="R91" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S91" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S91" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T91" s="7" t="inlineStr">
         <is>
@@ -18964,7 +18784,7 @@
           <t>221419@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18983,10 +18803,10 @@
         <v>21</v>
       </c>
       <c r="J92" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K92" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" s="6" t="n">
         <v>27</v>
@@ -18998,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>27</v>
@@ -19009,10 +18829,8 @@
       <c r="R92" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S92" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T92" s="7" t="inlineStr">
         <is>
@@ -19168,7 +18986,7 @@
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G93" s="5" t="inlineStr">
@@ -19185,10 +19003,10 @@
         <v>20</v>
       </c>
       <c r="J93" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K93" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L93" s="6" t="n">
         <v>27</v>
@@ -19200,7 +19018,7 @@
         <v>1</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93" s="7" t="n">
         <v>27</v>
@@ -19211,10 +19029,8 @@
       <c r="R93" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S93" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S93" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -19368,7 +19184,7 @@
           <t>221425@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F94" s="8" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19387,10 +19203,10 @@
         <v>21</v>
       </c>
       <c r="J94" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K94" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L94" s="6" t="n">
         <v>27</v>
@@ -19402,7 +19218,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>27</v>
@@ -19413,10 +19229,8 @@
       <c r="R94" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S94" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T94" s="7" t="inlineStr">
         <is>
@@ -19572,7 +19386,7 @@
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G95" s="5" t="inlineStr">
@@ -19589,10 +19403,10 @@
         <v>20</v>
       </c>
       <c r="J95" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K95" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="6" t="n">
         <v>27</v>
@@ -19604,7 +19418,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>27</v>
@@ -19615,10 +19429,8 @@
       <c r="R95" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S95" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -19772,7 +19584,7 @@
           <t>221434@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F96" s="8" t="inlineStr">
+      <c r="F96" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19791,10 +19603,10 @@
         <v>21</v>
       </c>
       <c r="J96" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K96" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L96" s="6" t="n">
         <v>27</v>
@@ -19806,7 +19618,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P96" s="7" t="n">
         <v>27</v>
@@ -19817,10 +19629,8 @@
       <c r="R96" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S96" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S96" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T96" s="7" t="inlineStr">
         <is>
@@ -19976,7 +19786,7 @@
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G97" s="5" t="inlineStr">
@@ -19993,10 +19803,10 @@
         <v>20</v>
       </c>
       <c r="J97" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K97" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97" s="6" t="n">
         <v>27</v>
@@ -20008,7 +19818,7 @@
         <v>1</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P97" s="7" t="n">
         <v>27</v>
@@ -20019,10 +19829,8 @@
       <c r="R97" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S97" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T97" s="7" t="inlineStr">
         <is>
@@ -20178,7 +19986,7 @@
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G98" s="5" t="inlineStr">
@@ -20195,10 +20003,10 @@
         <v>20</v>
       </c>
       <c r="J98" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K98" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" s="6" t="n">
         <v>27</v>
@@ -20210,7 +20018,7 @@
         <v>1</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" s="7" t="n">
         <v>27</v>
@@ -20221,10 +20029,8 @@
       <c r="R98" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S98" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S98" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T98" s="7" t="inlineStr">
         <is>
@@ -20378,7 +20184,7 @@
           <t>221445@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F99" s="4" t="inlineStr">
+      <c r="F99" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -20397,10 +20203,10 @@
         <v>19</v>
       </c>
       <c r="J99" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K99" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" s="6" t="n">
         <v>27</v>
@@ -20412,7 +20218,7 @@
         <v>2</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P99" s="7" t="n">
         <v>27</v>
@@ -20423,10 +20229,8 @@
       <c r="R99" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S99" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S99" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T99" s="7" t="inlineStr">
         <is>
@@ -20580,7 +20384,7 @@
           <t>221451@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F100" s="8" t="inlineStr">
+      <c r="F100" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -20599,10 +20403,10 @@
         <v>21</v>
       </c>
       <c r="J100" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K100" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" s="6" t="n">
         <v>27</v>
@@ -20614,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P100" s="7" t="n">
         <v>27</v>
@@ -20625,10 +20429,8 @@
       <c r="R100" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S100" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T100" s="7" t="inlineStr">
         <is>
@@ -20784,7 +20586,7 @@
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G101" s="5" t="inlineStr">
@@ -20801,10 +20603,10 @@
         <v>20</v>
       </c>
       <c r="J101" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K101" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101" s="6" t="n">
         <v>27</v>
@@ -20816,7 +20618,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" s="7" t="n">
         <v>27</v>
@@ -20827,10 +20629,8 @@
       <c r="R101" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S101" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S101" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T101" s="7" t="inlineStr">
         <is>
@@ -20984,7 +20784,7 @@
           <t>221453@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F102" s="8" t="inlineStr">
+      <c r="F102" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21003,10 +20803,10 @@
         <v>21</v>
       </c>
       <c r="J102" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K102" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102" s="6" t="n">
         <v>27</v>
@@ -21018,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P102" s="7" t="n">
         <v>27</v>
@@ -21029,10 +20829,8 @@
       <c r="R102" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S102" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T102" s="7" t="inlineStr">
         <is>
@@ -21186,7 +20984,7 @@
           <t>221454@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F103" s="4" t="inlineStr">
+      <c r="F103" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -21205,10 +21003,10 @@
         <v>19</v>
       </c>
       <c r="J103" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K103" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103" s="6" t="n">
         <v>27</v>
@@ -21220,7 +21018,7 @@
         <v>2</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P103" s="7" t="n">
         <v>27</v>
@@ -21231,10 +21029,8 @@
       <c r="R103" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S103" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S103" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T103" s="7" t="inlineStr">
         <is>
@@ -21388,7 +21184,7 @@
           <t>221455@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F104" s="8" t="inlineStr">
+      <c r="F104" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21407,10 +21203,10 @@
         <v>21</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K104" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104" s="6" t="n">
         <v>27</v>
@@ -21422,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" s="7" t="n">
         <v>27</v>
@@ -21433,10 +21229,8 @@
       <c r="R104" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S104" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S104" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T104" s="7" t="inlineStr">
         <is>
@@ -21590,7 +21384,7 @@
           <t>221456@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F105" s="8" t="inlineStr">
+      <c r="F105" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21609,10 +21403,10 @@
         <v>21</v>
       </c>
       <c r="J105" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K105" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" s="6" t="n">
         <v>27</v>
@@ -21624,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" s="7" t="n">
         <v>27</v>
@@ -21635,10 +21429,8 @@
       <c r="R105" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S105" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S105" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T105" s="7" t="inlineStr">
         <is>
@@ -21792,7 +21584,7 @@
           <t>221457@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F106" s="8" t="inlineStr">
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21811,10 +21603,10 @@
         <v>21</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K106" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L106" s="6" t="n">
         <v>27</v>
@@ -21826,7 +21618,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" s="7" t="n">
         <v>27</v>
@@ -21837,10 +21629,8 @@
       <c r="R106" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S106" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S106" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T106" s="7" t="inlineStr">
         <is>
@@ -21994,7 +21784,7 @@
           <t>221462@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F107" s="8" t="inlineStr">
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22013,10 +21803,10 @@
         <v>21</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K107" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" s="6" t="n">
         <v>27</v>
@@ -22028,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" s="7" t="n">
         <v>27</v>
@@ -22039,10 +21829,8 @@
       <c r="R107" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S107" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S107" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T107" s="7" t="inlineStr">
         <is>
@@ -22198,7 +21986,7 @@
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G108" s="5" t="inlineStr">
@@ -22215,10 +22003,10 @@
         <v>20</v>
       </c>
       <c r="J108" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K108" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108" s="6" t="n">
         <v>27</v>
@@ -22230,7 +22018,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" s="7" t="n">
         <v>27</v>
@@ -22241,10 +22029,8 @@
       <c r="R108" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S108" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S108" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T108" s="7" t="inlineStr">
         <is>
@@ -22398,7 +22184,7 @@
           <t>221465@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F109" s="8" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22417,10 +22203,10 @@
         <v>21</v>
       </c>
       <c r="J109" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K109" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109" s="6" t="n">
         <v>27</v>
@@ -22432,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P109" s="7" t="n">
         <v>27</v>
@@ -22443,10 +22229,8 @@
       <c r="R109" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S109" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T109" s="7" t="inlineStr">
         <is>
@@ -22600,7 +22384,7 @@
           <t>221467@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F110" s="8" t="inlineStr">
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22619,10 +22403,10 @@
         <v>21</v>
       </c>
       <c r="J110" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K110" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110" s="6" t="n">
         <v>27</v>
@@ -22634,7 +22418,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" s="7" t="n">
         <v>27</v>
@@ -22645,10 +22429,8 @@
       <c r="R110" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S110" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T110" s="7" t="inlineStr">
         <is>
@@ -22802,7 +22584,7 @@
           <t>221469@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F111" s="8" t="inlineStr">
+      <c r="F111" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22821,10 +22603,10 @@
         <v>21</v>
       </c>
       <c r="J111" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K111" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L111" s="6" t="n">
         <v>27</v>
@@ -22836,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P111" s="7" t="n">
         <v>27</v>
@@ -22847,10 +22629,8 @@
       <c r="R111" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S111" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T111" s="7" t="inlineStr">
         <is>
@@ -23006,7 +22786,7 @@
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G112" s="5" t="inlineStr">
@@ -23023,10 +22803,10 @@
         <v>20</v>
       </c>
       <c r="J112" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K112" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112" s="6" t="n">
         <v>27</v>
@@ -23038,7 +22818,7 @@
         <v>1</v>
       </c>
       <c r="O112" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="7" t="n">
         <v>27</v>
@@ -23049,10 +22829,8 @@
       <c r="R112" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S112" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T112" s="7" t="inlineStr">
         <is>
@@ -23206,7 +22984,7 @@
           <t>221482@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F113" s="8" t="inlineStr">
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23225,10 +23003,10 @@
         <v>21</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K113" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L113" s="6" t="n">
         <v>27</v>
@@ -23240,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P113" s="7" t="n">
         <v>27</v>
@@ -23251,10 +23029,8 @@
       <c r="R113" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S113" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T113" s="7" t="inlineStr">
         <is>
@@ -23408,7 +23184,7 @@
           <t>221492@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F114" s="8" t="inlineStr">
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23427,10 +23203,10 @@
         <v>21</v>
       </c>
       <c r="J114" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K114" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L114" s="6" t="n">
         <v>27</v>
@@ -23442,7 +23218,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P114" s="7" t="n">
         <v>27</v>
@@ -23453,10 +23229,8 @@
       <c r="R114" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S114" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S114" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T114" s="7" t="inlineStr">
         <is>
@@ -23610,7 +23384,7 @@
           <t>221497@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F115" s="8" t="inlineStr">
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23629,10 +23403,10 @@
         <v>21</v>
       </c>
       <c r="J115" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K115" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L115" s="6" t="n">
         <v>27</v>
@@ -23644,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" s="7" t="n">
         <v>27</v>
@@ -23655,10 +23429,8 @@
       <c r="R115" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S115" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S115" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T115" s="7" t="inlineStr">
         <is>
@@ -23812,7 +23584,7 @@
           <t>221499@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F116" s="8" t="inlineStr">
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -23831,10 +23603,10 @@
         <v>21</v>
       </c>
       <c r="J116" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K116" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116" s="6" t="n">
         <v>27</v>
@@ -23846,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P116" s="7" t="n">
         <v>27</v>
@@ -23857,10 +23629,8 @@
       <c r="R116" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S116" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S116" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T116" s="7" t="inlineStr">
         <is>
@@ -24014,7 +23784,7 @@
           <t>221501@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F117" s="8" t="inlineStr">
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -24033,10 +23803,10 @@
         <v>21</v>
       </c>
       <c r="J117" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K117" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L117" s="6" t="n">
         <v>27</v>
@@ -24048,7 +23818,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P117" s="7" t="n">
         <v>27</v>
@@ -24059,10 +23829,8 @@
       <c r="R117" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S117" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S117" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T117" s="7" t="inlineStr">
         <is>
@@ -24216,7 +23984,7 @@
           <t>221503@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F118" s="4" t="inlineStr">
+      <c r="F118" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -24235,10 +24003,10 @@
         <v>19</v>
       </c>
       <c r="J118" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K118" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" s="6" t="n">
         <v>27</v>
@@ -24250,7 +24018,7 @@
         <v>2</v>
       </c>
       <c r="O118" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P118" s="7" t="n">
         <v>27</v>
@@ -24261,10 +24029,8 @@
       <c r="R118" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S118" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S118" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T118" s="7" t="inlineStr">
         <is>
@@ -24420,7 +24186,7 @@
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G119" s="5" t="inlineStr">
@@ -24437,10 +24203,10 @@
         <v>20</v>
       </c>
       <c r="J119" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K119" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L119" s="6" t="n">
         <v>27</v>
@@ -24452,7 +24218,7 @@
         <v>1</v>
       </c>
       <c r="O119" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" s="7" t="n">
         <v>27</v>
@@ -24463,10 +24229,8 @@
       <c r="R119" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S119" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S119" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T119" s="7" t="inlineStr">
         <is>
@@ -24620,7 +24384,7 @@
           <t>221519@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F120" s="8" t="inlineStr">
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -24639,10 +24403,10 @@
         <v>21</v>
       </c>
       <c r="J120" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K120" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L120" s="6" t="n">
         <v>27</v>
@@ -24654,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P120" s="7" t="n">
         <v>27</v>
@@ -24665,10 +24429,8 @@
       <c r="R120" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S120" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S120" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T120" s="7" t="inlineStr">
         <is>
@@ -24824,7 +24586,7 @@
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G121" s="5" t="inlineStr">
@@ -24841,10 +24603,10 @@
         <v>20</v>
       </c>
       <c r="J121" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K121" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121" s="6" t="n">
         <v>27</v>
@@ -24856,7 +24618,7 @@
         <v>1</v>
       </c>
       <c r="O121" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="7" t="n">
         <v>27</v>
@@ -24867,10 +24629,8 @@
       <c r="R121" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S121" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T121" s="7" t="inlineStr">
         <is>
@@ -25026,7 +24786,7 @@
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G122" s="5" t="inlineStr">
@@ -25043,10 +24803,10 @@
         <v>20</v>
       </c>
       <c r="J122" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K122" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L122" s="6" t="n">
         <v>27</v>
@@ -25058,7 +24818,7 @@
         <v>1</v>
       </c>
       <c r="O122" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="7" t="n">
         <v>27</v>
@@ -25069,10 +24829,8 @@
       <c r="R122" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S122" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T122" s="7" t="inlineStr">
         <is>
@@ -25228,7 +24986,7 @@
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G123" s="5" t="inlineStr">
@@ -25245,10 +25003,10 @@
         <v>20</v>
       </c>
       <c r="J123" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K123" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L123" s="6" t="n">
         <v>27</v>
@@ -25260,7 +25018,7 @@
         <v>1</v>
       </c>
       <c r="O123" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" s="7" t="n">
         <v>27</v>
@@ -25271,10 +25029,8 @@
       <c r="R123" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S123" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S123" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T123" s="7" t="inlineStr">
         <is>
@@ -25428,7 +25184,7 @@
           <t>221533@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="8" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25447,10 +25203,10 @@
         <v>21</v>
       </c>
       <c r="J124" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K124" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" s="6" t="n">
         <v>27</v>
@@ -25462,7 +25218,7 @@
         <v>0</v>
       </c>
       <c r="O124" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P124" s="7" t="n">
         <v>27</v>
@@ -25473,10 +25229,8 @@
       <c r="R124" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S124" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S124" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T124" s="7" t="inlineStr">
         <is>
@@ -25630,7 +25384,7 @@
           <t>221535@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F125" s="8" t="inlineStr">
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25649,10 +25403,10 @@
         <v>21</v>
       </c>
       <c r="J125" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K125" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125" s="6" t="n">
         <v>27</v>
@@ -25664,7 +25418,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P125" s="7" t="n">
         <v>27</v>
@@ -25675,10 +25429,8 @@
       <c r="R125" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S125" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S125" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T125" s="7" t="inlineStr">
         <is>
@@ -25832,7 +25584,7 @@
           <t>221538@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F126" s="8" t="inlineStr">
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25851,10 +25603,10 @@
         <v>21</v>
       </c>
       <c r="J126" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K126" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" s="6" t="n">
         <v>27</v>
@@ -25866,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P126" s="7" t="n">
         <v>27</v>
@@ -25877,10 +25629,8 @@
       <c r="R126" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S126" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S126" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T126" s="7" t="inlineStr">
         <is>
@@ -26034,7 +25784,7 @@
           <t>221542@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F127" s="8" t="inlineStr">
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26053,10 +25803,10 @@
         <v>21</v>
       </c>
       <c r="J127" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K127" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127" s="6" t="n">
         <v>27</v>
@@ -26068,7 +25818,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127" s="7" t="n">
         <v>27</v>
@@ -26079,10 +25829,8 @@
       <c r="R127" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S127" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S127" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T127" s="7" t="inlineStr">
         <is>
@@ -26236,7 +25984,7 @@
           <t>221547@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26255,10 +26003,10 @@
         <v>21</v>
       </c>
       <c r="J128" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K128" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L128" s="6" t="n">
         <v>27</v>
@@ -26270,7 +26018,7 @@
         <v>0</v>
       </c>
       <c r="O128" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P128" s="7" t="n">
         <v>27</v>
@@ -26281,10 +26029,8 @@
       <c r="R128" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S128" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S128" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T128" s="7" t="inlineStr">
         <is>
@@ -26438,7 +26184,7 @@
           <t>221548@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26457,10 +26203,10 @@
         <v>21</v>
       </c>
       <c r="J129" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K129" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129" s="6" t="n">
         <v>27</v>
@@ -26472,7 +26218,7 @@
         <v>0</v>
       </c>
       <c r="O129" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P129" s="7" t="n">
         <v>27</v>
@@ -26483,10 +26229,8 @@
       <c r="R129" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S129" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S129" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T129" s="7" t="inlineStr">
         <is>
@@ -26640,7 +26384,7 @@
           <t>221552@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="8" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26659,10 +26403,10 @@
         <v>21</v>
       </c>
       <c r="J130" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K130" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L130" s="6" t="n">
         <v>27</v>
@@ -26674,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="O130" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" s="7" t="n">
         <v>27</v>
@@ -26685,10 +26429,8 @@
       <c r="R130" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S130" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S130" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T130" s="7" t="inlineStr">
         <is>
@@ -26842,7 +26584,7 @@
           <t>221556@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="8" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26861,10 +26603,10 @@
         <v>21</v>
       </c>
       <c r="J131" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K131" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131" s="6" t="n">
         <v>27</v>
@@ -26876,7 +26618,7 @@
         <v>0</v>
       </c>
       <c r="O131" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" s="7" t="n">
         <v>27</v>
@@ -26887,10 +26629,8 @@
       <c r="R131" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S131" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S131" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T131" s="7" t="inlineStr">
         <is>
@@ -27044,7 +26784,7 @@
           <t>221560@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F132" s="8" t="inlineStr">
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27063,10 +26803,10 @@
         <v>21</v>
       </c>
       <c r="J132" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K132" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132" s="6" t="n">
         <v>27</v>
@@ -27078,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P132" s="7" t="n">
         <v>27</v>
@@ -27089,10 +26829,8 @@
       <c r="R132" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S132" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S132" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T132" s="7" t="inlineStr">
         <is>
@@ -27246,7 +26984,7 @@
           <t>221707@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F133" s="8" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27265,10 +27003,10 @@
         <v>21</v>
       </c>
       <c r="J133" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K133" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L133" s="6" t="n">
         <v>27</v>
@@ -27280,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="O133" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" s="7" t="n">
         <v>27</v>
@@ -27291,10 +27029,8 @@
       <c r="R133" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S133" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S133" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T133" s="7" t="inlineStr">
         <is>
@@ -27450,7 +27186,7 @@
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G134" s="5" t="inlineStr">
@@ -27467,10 +27203,10 @@
         <v>20</v>
       </c>
       <c r="J134" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K134" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L134" s="6" t="n">
         <v>27</v>
@@ -27482,7 +27218,7 @@
         <v>1</v>
       </c>
       <c r="O134" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="7" t="n">
         <v>27</v>
@@ -27493,10 +27229,8 @@
       <c r="R134" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S134" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S134" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T134" s="7" t="inlineStr">
         <is>
@@ -27650,7 +27384,7 @@
           <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="8" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27669,10 +27403,10 @@
         <v>21</v>
       </c>
       <c r="J135" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K135" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135" s="6" t="n">
         <v>27</v>
@@ -27684,7 +27418,7 @@
         <v>0</v>
       </c>
       <c r="O135" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P135" s="7" t="n">
         <v>27</v>
@@ -27695,10 +27429,8 @@
       <c r="R135" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S135" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S135" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T135" s="7" t="inlineStr">
         <is>
@@ -27852,7 +27584,7 @@
           <t>221872@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F136" s="8" t="inlineStr">
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27871,10 +27603,10 @@
         <v>21</v>
       </c>
       <c r="J136" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K136" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L136" s="6" t="n">
         <v>27</v>
@@ -27886,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="O136" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P136" s="7" t="n">
         <v>27</v>
@@ -27897,10 +27629,8 @@
       <c r="R136" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S136" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S136" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T136" s="7" t="inlineStr">
         <is>
@@ -28056,7 +27786,7 @@
       </c>
       <c r="F137" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G137" s="5" t="inlineStr">
@@ -28073,10 +27803,10 @@
         <v>20</v>
       </c>
       <c r="J137" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K137" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L137" s="6" t="n">
         <v>27</v>
@@ -28088,7 +27818,7 @@
         <v>1</v>
       </c>
       <c r="O137" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P137" s="7" t="n">
         <v>27</v>
@@ -28099,10 +27829,8 @@
       <c r="R137" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S137" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S137" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T137" s="7" t="inlineStr">
         <is>
@@ -28256,7 +27984,7 @@
           <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="8" t="inlineStr">
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28275,10 +28003,10 @@
         <v>21</v>
       </c>
       <c r="J138" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K138" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L138" s="6" t="n">
         <v>27</v>
@@ -28290,7 +28018,7 @@
         <v>0</v>
       </c>
       <c r="O138" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P138" s="7" t="n">
         <v>27</v>
@@ -28301,10 +28029,8 @@
       <c r="R138" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S138" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S138" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T138" s="7" t="inlineStr">
         <is>
@@ -28458,7 +28184,7 @@
           <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="8" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28477,10 +28203,10 @@
         <v>21</v>
       </c>
       <c r="J139" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K139" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L139" s="6" t="n">
         <v>27</v>
@@ -28492,7 +28218,7 @@
         <v>0</v>
       </c>
       <c r="O139" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" s="7" t="n">
         <v>27</v>
@@ -28503,10 +28229,8 @@
       <c r="R139" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S139" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S139" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T139" s="7" t="inlineStr">
         <is>
@@ -28660,7 +28384,7 @@
           <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="8" t="inlineStr">
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28679,10 +28403,10 @@
         <v>21</v>
       </c>
       <c r="J140" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K140" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L140" s="6" t="n">
         <v>27</v>
@@ -28694,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="O140" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" s="7" t="n">
         <v>27</v>
@@ -28705,10 +28429,8 @@
       <c r="R140" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S140" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S140" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T140" s="7" t="inlineStr">
         <is>
@@ -28862,7 +28584,7 @@
           <t>221591@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F141" s="8" t="inlineStr">
+      <c r="F141" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28881,10 +28603,10 @@
         <v>21</v>
       </c>
       <c r="J141" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K141" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L141" s="6" t="n">
         <v>27</v>
@@ -28896,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P141" s="7" t="n">
         <v>27</v>
@@ -28907,10 +28629,8 @@
       <c r="R141" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S141" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S141" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T141" s="7" t="inlineStr">
         <is>
@@ -29064,7 +28784,7 @@
           <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F142" s="8" t="inlineStr">
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29083,10 +28803,10 @@
         <v>21</v>
       </c>
       <c r="J142" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K142" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142" s="6" t="n">
         <v>27</v>
@@ -29098,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="O142" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P142" s="7" t="n">
         <v>27</v>
@@ -29109,10 +28829,8 @@
       <c r="R142" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S142" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S142" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T142" s="7" t="inlineStr">
         <is>
@@ -29266,7 +28984,7 @@
           <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="8" t="inlineStr">
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29285,10 +29003,10 @@
         <v>21</v>
       </c>
       <c r="J143" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K143" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L143" s="6" t="n">
         <v>27</v>
@@ -29300,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P143" s="7" t="n">
         <v>27</v>
@@ -29311,10 +29029,8 @@
       <c r="R143" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S143" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S143" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T143" s="7" t="inlineStr">
         <is>
@@ -29468,7 +29184,7 @@
           <t>221595@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F144" s="8" t="inlineStr">
+      <c r="F144" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29487,10 +29203,10 @@
         <v>21</v>
       </c>
       <c r="J144" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K144" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L144" s="6" t="n">
         <v>27</v>
@@ -29502,7 +29218,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P144" s="7" t="n">
         <v>27</v>
@@ -29513,10 +29229,8 @@
       <c r="R144" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S144" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S144" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T144" s="7" t="inlineStr">
         <is>
@@ -29670,7 +29384,7 @@
           <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="8" t="inlineStr">
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29689,10 +29403,10 @@
         <v>21</v>
       </c>
       <c r="J145" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K145" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L145" s="6" t="n">
         <v>27</v>
@@ -29704,7 +29418,7 @@
         <v>0</v>
       </c>
       <c r="O145" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" s="7" t="n">
         <v>27</v>
@@ -29715,10 +29429,8 @@
       <c r="R145" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S145" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S145" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T145" s="7" t="inlineStr">
         <is>
@@ -29872,7 +29584,7 @@
           <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="8" t="inlineStr">
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29891,10 +29603,10 @@
         <v>21</v>
       </c>
       <c r="J146" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K146" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L146" s="6" t="n">
         <v>27</v>
@@ -29906,7 +29618,7 @@
         <v>0</v>
       </c>
       <c r="O146" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P146" s="7" t="n">
         <v>27</v>
@@ -29917,10 +29629,8 @@
       <c r="R146" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S146" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S146" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T146" s="7" t="inlineStr">
         <is>
@@ -30076,7 +29786,7 @@
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G147" s="5" t="inlineStr">
@@ -30093,10 +29803,10 @@
         <v>20</v>
       </c>
       <c r="J147" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K147" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L147" s="6" t="n">
         <v>27</v>
@@ -30108,7 +29818,7 @@
         <v>1</v>
       </c>
       <c r="O147" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="7" t="n">
         <v>27</v>
@@ -30119,10 +29829,8 @@
       <c r="R147" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S147" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S147" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T147" s="7" t="inlineStr">
         <is>
@@ -30276,7 +29984,7 @@
           <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="8" t="inlineStr">
+      <c r="F148" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30295,10 +30003,10 @@
         <v>21</v>
       </c>
       <c r="J148" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K148" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L148" s="6" t="n">
         <v>27</v>
@@ -30310,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="O148" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" s="7" t="n">
         <v>27</v>
@@ -30321,10 +30029,8 @@
       <c r="R148" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S148" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S148" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T148" s="7" t="inlineStr">
         <is>
@@ -30478,7 +30184,7 @@
           <t>221615@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F149" s="8" t="inlineStr">
+      <c r="F149" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30497,10 +30203,10 @@
         <v>21</v>
       </c>
       <c r="J149" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K149" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L149" s="6" t="n">
         <v>27</v>
@@ -30512,7 +30218,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P149" s="7" t="n">
         <v>27</v>
@@ -30523,10 +30229,8 @@
       <c r="R149" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S149" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S149" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T149" s="7" t="inlineStr">
         <is>
@@ -30680,7 +30384,7 @@
           <t>221616@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F150" s="8" t="inlineStr">
+      <c r="F150" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30699,10 +30403,10 @@
         <v>21</v>
       </c>
       <c r="J150" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K150" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L150" s="6" t="n">
         <v>27</v>
@@ -30714,7 +30418,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P150" s="7" t="n">
         <v>27</v>
@@ -30725,10 +30429,8 @@
       <c r="R150" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S150" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S150" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T150" s="7" t="inlineStr">
         <is>
@@ -30882,7 +30584,7 @@
           <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="8" t="inlineStr">
+      <c r="F151" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30901,10 +30603,10 @@
         <v>21</v>
       </c>
       <c r="J151" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K151" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L151" s="6" t="n">
         <v>27</v>
@@ -30916,7 +30618,7 @@
         <v>0</v>
       </c>
       <c r="O151" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P151" s="7" t="n">
         <v>27</v>
@@ -30927,10 +30629,8 @@
       <c r="R151" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S151" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S151" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T151" s="7" t="inlineStr">
         <is>
@@ -31084,7 +30784,7 @@
           <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="8" t="inlineStr">
+      <c r="F152" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31103,10 +30803,10 @@
         <v>21</v>
       </c>
       <c r="J152" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K152" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L152" s="6" t="n">
         <v>27</v>
@@ -31118,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="O152" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P152" s="7" t="n">
         <v>27</v>
@@ -31129,10 +30829,8 @@
       <c r="R152" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S152" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S152" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T152" s="7" t="inlineStr">
         <is>
@@ -31286,7 +30984,7 @@
           <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="8" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31305,10 +31003,10 @@
         <v>21</v>
       </c>
       <c r="J153" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K153" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L153" s="6" t="n">
         <v>27</v>
@@ -31320,7 +31018,7 @@
         <v>0</v>
       </c>
       <c r="O153" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P153" s="7" t="n">
         <v>27</v>
@@ -31331,10 +31029,8 @@
       <c r="R153" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S153" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S153" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T153" s="7" t="inlineStr">
         <is>
@@ -31488,7 +31184,7 @@
           <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F154" s="8" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31507,10 +31203,10 @@
         <v>21</v>
       </c>
       <c r="J154" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K154" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L154" s="6" t="n">
         <v>27</v>
@@ -31522,7 +31218,7 @@
         <v>0</v>
       </c>
       <c r="O154" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P154" s="7" t="n">
         <v>27</v>
@@ -31533,10 +31229,8 @@
       <c r="R154" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S154" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S154" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T154" s="7" t="inlineStr">
         <is>
@@ -31690,7 +31384,7 @@
           <t>221633@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F155" s="8" t="inlineStr">
+      <c r="F155" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31709,10 +31403,10 @@
         <v>21</v>
       </c>
       <c r="J155" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K155" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L155" s="6" t="n">
         <v>27</v>
@@ -31724,7 +31418,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P155" s="7" t="n">
         <v>27</v>
@@ -31735,10 +31429,8 @@
       <c r="R155" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S155" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S155" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T155" s="7" t="inlineStr">
         <is>
@@ -31892,7 +31584,7 @@
           <t>221642@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="8" t="inlineStr">
+      <c r="F156" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31911,10 +31603,10 @@
         <v>21</v>
       </c>
       <c r="J156" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K156" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L156" s="6" t="n">
         <v>27</v>
@@ -31926,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="O156" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P156" s="7" t="n">
         <v>27</v>
@@ -31937,10 +31629,8 @@
       <c r="R156" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S156" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S156" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T156" s="7" t="inlineStr">
         <is>
@@ -32094,7 +31784,7 @@
           <t>221652@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="8" t="inlineStr">
+      <c r="F157" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32113,10 +31803,10 @@
         <v>21</v>
       </c>
       <c r="J157" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K157" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L157" s="6" t="n">
         <v>27</v>
@@ -32128,7 +31818,7 @@
         <v>0</v>
       </c>
       <c r="O157" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P157" s="7" t="n">
         <v>27</v>
@@ -32139,10 +31829,8 @@
       <c r="R157" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S157" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S157" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T157" s="7" t="inlineStr">
         <is>
@@ -32298,7 +31986,7 @@
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="5" t="inlineStr">
@@ -32315,10 +32003,10 @@
         <v>20</v>
       </c>
       <c r="J158" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K158" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L158" s="6" t="n">
         <v>27</v>
@@ -32330,7 +32018,7 @@
         <v>1</v>
       </c>
       <c r="O158" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="7" t="n">
         <v>27</v>
@@ -32341,10 +32029,8 @@
       <c r="R158" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S158" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S158" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T158" s="7" t="inlineStr">
         <is>
@@ -32498,7 +32184,7 @@
           <t>221658@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="8" t="inlineStr">
+      <c r="F159" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32517,10 +32203,10 @@
         <v>21</v>
       </c>
       <c r="J159" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K159" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L159" s="6" t="n">
         <v>27</v>
@@ -32532,7 +32218,7 @@
         <v>0</v>
       </c>
       <c r="O159" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P159" s="7" t="n">
         <v>27</v>
@@ -32543,10 +32229,8 @@
       <c r="R159" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S159" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S159" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T159" s="7" t="inlineStr">
         <is>
@@ -32700,7 +32384,7 @@
           <t>221673@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F160" s="8" t="inlineStr">
+      <c r="F160" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32719,10 +32403,10 @@
         <v>21</v>
       </c>
       <c r="J160" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K160" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L160" s="6" t="n">
         <v>27</v>
@@ -32734,7 +32418,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P160" s="7" t="n">
         <v>27</v>
@@ -32745,10 +32429,8 @@
       <c r="R160" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S160" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S160" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T160" s="7" t="inlineStr">
         <is>
@@ -32902,7 +32584,7 @@
           <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="F161" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33106,7 +32788,7 @@
           <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="4" t="inlineStr">
+      <c r="F162" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33310,7 +32992,7 @@
           <t>221677@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="F163" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33514,7 +33196,7 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="4" t="inlineStr">
+      <c r="F164" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33718,7 +33400,7 @@
           <t>221686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="F165" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33922,7 +33604,7 @@
           <t>221688@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F166" s="4" t="inlineStr">
+      <c r="F166" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34126,7 +33808,7 @@
           <t>221689@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F167" s="4" t="inlineStr">
+      <c r="F167" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34330,7 +34012,7 @@
           <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="4" t="inlineStr">
+      <c r="F168" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34534,7 +34216,7 @@
           <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="F169" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34738,7 +34420,7 @@
           <t>221700@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="4" t="inlineStr">
+      <c r="F170" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34942,7 +34624,7 @@
           <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="F171" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35146,7 +34828,7 @@
           <t>221702@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="4" t="inlineStr">
+      <c r="F172" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35350,7 +35032,7 @@
           <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="F173" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35554,7 +35236,7 @@
           <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="4" t="inlineStr">
+      <c r="F174" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35758,7 +35440,7 @@
           <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="4" t="inlineStr">
+      <c r="F175" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35962,7 +35644,7 @@
           <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="4" t="inlineStr">
+      <c r="F176" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36166,7 +35848,7 @@
           <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="F177" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36370,7 +36052,7 @@
           <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="4" t="inlineStr">
+      <c r="F178" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36574,7 +36256,7 @@
           <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="4" t="inlineStr">
+      <c r="F179" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36778,7 +36460,7 @@
           <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="4" t="inlineStr">
+      <c r="F180" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36982,7 +36664,7 @@
           <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="4" t="inlineStr">
+      <c r="F181" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37186,7 +36868,7 @@
           <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="4" t="inlineStr">
+      <c r="F182" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37390,7 +37072,7 @@
           <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="4" t="inlineStr">
+      <c r="F183" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37594,7 +37276,7 @@
           <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="4" t="inlineStr">
+      <c r="F184" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37798,7 +37480,7 @@
           <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="4" t="inlineStr">
+      <c r="F185" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38002,7 +37684,7 @@
           <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="4" t="inlineStr">
+      <c r="F186" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38206,7 +37888,7 @@
           <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="4" t="inlineStr">
+      <c r="F187" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38410,7 +38092,7 @@
           <t>221761@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="4" t="inlineStr">
+      <c r="F188" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38614,7 +38296,7 @@
           <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="4" t="inlineStr">
+      <c r="F189" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38818,7 +38500,7 @@
           <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="4" t="inlineStr">
+      <c r="F190" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39022,7 +38704,7 @@
           <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="4" t="inlineStr">
+      <c r="F191" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39226,7 +38908,7 @@
           <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="4" t="inlineStr">
+      <c r="F192" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39430,7 +39112,7 @@
           <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="4" t="inlineStr">
+      <c r="F193" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39634,7 +39316,7 @@
           <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="4" t="inlineStr">
+      <c r="F194" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39838,7 +39520,7 @@
           <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="F195" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40042,7 +39724,7 @@
           <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="4" t="inlineStr">
+      <c r="F196" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40246,7 +39928,7 @@
           <t>221797@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr">
+      <c r="F197" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40450,7 +40132,7 @@
           <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="4" t="inlineStr">
+      <c r="F198" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40654,7 +40336,7 @@
           <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F199" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40858,7 +40540,7 @@
           <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr">
+      <c r="F200" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41062,7 +40744,7 @@
           <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr">
+      <c r="F201" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41266,7 +40948,7 @@
           <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F202" s="4" t="inlineStr">
+      <c r="F202" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41470,7 +41152,7 @@
           <t>221817@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
+      <c r="F203" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41674,7 +41356,7 @@
           <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="4" t="inlineStr">
+      <c r="F204" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41878,7 +41560,7 @@
           <t>221832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F205" s="4" t="inlineStr">
+      <c r="F205" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42082,7 +41764,7 @@
           <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="4" t="inlineStr">
+      <c r="F206" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42286,7 +41968,7 @@
           <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
+      <c r="F207" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42490,7 +42172,7 @@
           <t>221844@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F208" s="4" t="inlineStr">
+      <c r="F208" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42694,7 +42376,7 @@
           <t>221847@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="4" t="inlineStr">
+      <c r="F209" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42898,7 +42580,7 @@
           <t>221853@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="4" t="inlineStr">
+      <c r="F210" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43102,7 +42784,7 @@
           <t>221854@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F211" s="4" t="inlineStr">
+      <c r="F211" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43306,7 +42988,7 @@
           <t>221859@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="4" t="inlineStr">
+      <c r="F212" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43510,7 +43192,7 @@
           <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="4" t="inlineStr">
+      <c r="F213" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43714,7 +43396,7 @@
           <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="4" t="inlineStr">
+      <c r="F214" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43918,7 +43600,7 @@
           <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F215" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44122,7 +43804,7 @@
           <t>221877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="4" t="inlineStr">
+      <c r="F216" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44326,7 +44008,7 @@
           <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="4" t="inlineStr">
+      <c r="F217" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44530,7 +44212,7 @@
           <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="4" t="inlineStr">
+      <c r="F218" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44734,7 +44416,7 @@
           <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr">
+      <c r="F219" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44938,7 +44620,7 @@
           <t>221891@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="4" t="inlineStr">
+      <c r="F220" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45142,7 +44824,7 @@
           <t>221896@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr">
+      <c r="F221" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45346,7 +45028,7 @@
           <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F222" s="4" t="inlineStr">
+      <c r="F222" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45550,7 +45232,7 @@
           <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr">
+      <c r="F223" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45754,7 +45436,7 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="4" t="inlineStr">
+      <c r="F224" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45958,7 +45640,7 @@
           <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
+      <c r="F225" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46162,7 +45844,7 @@
           <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="4" t="inlineStr">
+      <c r="F226" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46366,7 +46048,7 @@
           <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="4" t="inlineStr">
+      <c r="F227" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46570,7 +46252,7 @@
           <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="4" t="inlineStr">
+      <c r="F228" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46774,7 +46456,7 @@
           <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="4" t="inlineStr">
+      <c r="F229" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46978,7 +46660,7 @@
           <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F230" s="4" t="inlineStr">
+      <c r="F230" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47182,7 +46864,7 @@
           <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="4" t="inlineStr">
+      <c r="F231" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47386,7 +47068,7 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="4" t="inlineStr">
+      <c r="F232" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47590,7 +47272,7 @@
           <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr">
+      <c r="F233" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47794,7 +47476,7 @@
           <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F234" s="4" t="inlineStr">
+      <c r="F234" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47998,7 +47680,7 @@
           <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F235" s="4" t="inlineStr">
+      <c r="F235" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48202,7 +47884,7 @@
           <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="4" t="inlineStr">
+      <c r="F236" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48406,7 +48088,7 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr">
+      <c r="F237" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48610,7 +48292,7 @@
           <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="4" t="inlineStr">
+      <c r="F238" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48814,7 +48496,7 @@
           <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F239" s="4" t="inlineStr">
+      <c r="F239" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49018,7 +48700,7 @@
           <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="4" t="inlineStr">
+      <c r="F240" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49222,7 +48904,7 @@
           <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="4" t="inlineStr">
+      <c r="F241" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49426,7 +49108,7 @@
           <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="4" t="inlineStr">
+      <c r="F242" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49630,7 +49312,7 @@
           <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="4" t="inlineStr">
+      <c r="F243" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49834,7 +49516,7 @@
           <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F244" s="4" t="inlineStr">
+      <c r="F244" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50038,7 +49720,7 @@
           <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="4" t="inlineStr">
+      <c r="F245" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50242,7 +49924,7 @@
           <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="4" t="inlineStr">
+      <c r="F246" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50446,7 +50128,7 @@
           <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr">
+      <c r="F247" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50650,7 +50332,7 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="4" t="inlineStr">
+      <c r="F248" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50854,7 +50536,7 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="4" t="inlineStr">
+      <c r="F249" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51058,7 +50740,7 @@
           <t>210421@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F250" s="4" t="inlineStr">
+      <c r="F250" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51262,7 +50944,7 @@
           <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
+      <c r="F251" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51466,7 +51148,7 @@
           <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="4" t="inlineStr">
+      <c r="F252" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51670,7 +51352,7 @@
           <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F253" s="4" t="inlineStr">
+      <c r="F253" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51874,7 +51556,7 @@
           <t>222080@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F254" s="4" t="inlineStr">
+      <c r="F254" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52078,7 +51760,7 @@
           <t>222081@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F255" s="4" t="inlineStr">
+      <c r="F255" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52282,7 +51964,7 @@
           <t>222083@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F256" s="4" t="inlineStr">
+      <c r="F256" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52486,7 +52168,7 @@
           <t>222085@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F257" s="4" t="inlineStr">
+      <c r="F257" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52690,7 +52372,7 @@
           <t>222089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F258" s="4" t="inlineStr">
+      <c r="F258" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52894,7 +52576,7 @@
           <t>222091@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F259" s="4" t="inlineStr">
+      <c r="F259" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53098,7 +52780,7 @@
           <t>222094@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F260" s="4" t="inlineStr">
+      <c r="F260" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53302,7 +52984,7 @@
           <t>222096@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F261" s="4" t="inlineStr">
+      <c r="F261" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53506,7 +53188,7 @@
           <t>222098@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F262" s="4" t="inlineStr">
+      <c r="F262" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53710,7 +53392,7 @@
           <t>222102@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F263" s="4" t="inlineStr">
+      <c r="F263" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53914,7 +53596,7 @@
           <t>222106@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F264" s="4" t="inlineStr">
+      <c r="F264" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54118,7 +53800,7 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="4" t="inlineStr">
+      <c r="F265" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54322,7 +54004,7 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="4" t="inlineStr">
+      <c r="F266" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54526,7 +54208,7 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="4" t="inlineStr">
+      <c r="F267" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54730,7 +54412,7 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="4" t="inlineStr">
+      <c r="F268" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54934,7 +54616,7 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="4" t="inlineStr">
+      <c r="F269" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55138,7 +54820,7 @@
           <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F270" s="4" t="inlineStr">
+      <c r="F270" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55342,7 +55024,7 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="4" t="inlineStr">
+      <c r="F271" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55546,7 +55228,7 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="4" t="inlineStr">
+      <c r="F272" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55750,7 +55432,7 @@
           <t>210703@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F273" s="4" t="inlineStr">
+      <c r="F273" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55954,7 +55636,7 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="4" t="inlineStr">
+      <c r="F274" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56158,7 +55840,7 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="4" t="inlineStr">
+      <c r="F275" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56362,7 +56044,7 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="4" t="inlineStr">
+      <c r="F276" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56566,7 +56248,7 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="4" t="inlineStr">
+      <c r="F277" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56770,7 +56452,7 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="4" t="inlineStr">
+      <c r="F278" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56974,7 +56656,7 @@
           <t>210832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F279" s="4" t="inlineStr">
+      <c r="F279" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57178,7 +56860,7 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="4" t="inlineStr">
+      <c r="F280" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57382,7 +57064,7 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="4" t="inlineStr">
+      <c r="F281" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57586,7 +57268,7 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="4" t="inlineStr">
+      <c r="F282" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57790,7 +57472,7 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="4" t="inlineStr">
+      <c r="F283" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57994,7 +57676,7 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="4" t="inlineStr">
+      <c r="F284" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58198,7 +57880,7 @@
           <t>210887@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F285" s="4" t="inlineStr">
+      <c r="F285" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58402,7 +58084,7 @@
           <t>210892@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F286" s="4" t="inlineStr">
+      <c r="F286" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58606,7 +58288,7 @@
           <t>210902@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F287" s="4" t="inlineStr">
+      <c r="F287" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58810,7 +58492,7 @@
           <t>210905@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F288" s="4" t="inlineStr">
+      <c r="F288" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59014,7 +58696,7 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="4" t="inlineStr">
+      <c r="F289" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59218,7 +58900,7 @@
           <t>210921@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F290" s="4" t="inlineStr">
+      <c r="F290" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59422,7 +59104,7 @@
           <t>210927@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F291" s="4" t="inlineStr">
+      <c r="F291" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59626,7 +59308,7 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="4" t="inlineStr">
+      <c r="F292" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59830,7 +59512,7 @@
           <t>201577@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F293" s="4" t="inlineStr">
+      <c r="F293" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60034,7 +59716,7 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="4" t="inlineStr">
+      <c r="F294" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60238,7 +59920,7 @@
           <t>210939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F295" s="4" t="inlineStr">
+      <c r="F295" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60442,7 +60124,7 @@
           <t>210941@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F296" s="4" t="inlineStr">
+      <c r="F296" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60646,7 +60328,7 @@
           <t>210947@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F297" s="4" t="inlineStr">
+      <c r="F297" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60850,7 +60532,7 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="4" t="inlineStr">
+      <c r="F298" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61054,7 +60736,7 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="4" t="inlineStr">
+      <c r="F299" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61258,7 +60940,7 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="4" t="inlineStr">
+      <c r="F300" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61462,7 +61144,7 @@
           <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F301" s="4" t="inlineStr">
+      <c r="F301" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61666,7 +61348,7 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="4" t="inlineStr">
+      <c r="F302" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61870,7 +61552,7 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="4" t="inlineStr">
+      <c r="F303" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62074,7 +61756,7 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="4" t="inlineStr">
+      <c r="F304" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62278,7 +61960,7 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="4" t="inlineStr">
+      <c r="F305" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62482,7 +62164,7 @@
           <t>211025@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F306" s="4" t="inlineStr">
+      <c r="F306" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62686,7 +62368,7 @@
           <t>211029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F307" s="4" t="inlineStr">
+      <c r="F307" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62890,7 +62572,7 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="4" t="inlineStr">
+      <c r="F308" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63094,7 +62776,7 @@
           <t>211048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F309" s="4" t="inlineStr">
+      <c r="F309" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63298,7 +62980,7 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="4" t="inlineStr">
+      <c r="F310" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63502,7 +63184,7 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="4" t="inlineStr">
+      <c r="F311" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63706,7 +63388,7 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="4" t="inlineStr">
+      <c r="F312" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63910,7 +63592,7 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="4" t="inlineStr">
+      <c r="F313" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64114,7 +63796,7 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="4" t="inlineStr">
+      <c r="F314" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64318,7 +64000,7 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="4" t="inlineStr">
+      <c r="F315" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64522,7 +64204,7 @@
           <t>220467@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F316" s="4" t="inlineStr">
+      <c r="F316" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64726,7 +64408,7 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="4" t="inlineStr">
+      <c r="F317" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64930,7 +64612,7 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="4" t="inlineStr">
+      <c r="F318" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -65134,7 +64816,7 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="4" t="inlineStr">
+      <c r="F319" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -65338,7 +65020,7 @@
           <t>223002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F320" s="4" t="inlineStr">
+      <c r="F320" s="8" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$153</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="I12" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="6" t="n">
         <v>25</v>
@@ -2815,16 +2815,16 @@
         <v>27</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="7" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="I13" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="6" t="n">
         <v>25</v>
@@ -3015,16 +3015,16 @@
         <v>27</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="7" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="I19" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>25</v>
@@ -4215,16 +4215,16 @@
         <v>27</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="7" t="n">
         <v>0</v>
@@ -4984,14 +4984,14 @@
           <t>221197@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23" s="6" t="n">
         <v>25</v>
@@ -5015,16 +5015,16 @@
         <v>27</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="7" t="n">
         <v>1</v>
@@ -6384,14 +6384,14 @@
           <t>221205@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="I30" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="6" t="n">
         <v>25</v>
@@ -6415,16 +6415,16 @@
         <v>27</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q30" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" s="7" t="n">
         <v>1</v>
@@ -7584,14 +7584,14 @@
           <t>221218@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
@@ -7600,7 +7600,7 @@
         </is>
       </c>
       <c r="I36" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="6" t="n">
         <v>25</v>
@@ -7615,16 +7615,16 @@
         <v>27</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q36" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R36" s="7" t="n">
         <v>1</v>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="I37" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="6" t="n">
         <v>25</v>
@@ -7815,16 +7815,16 @@
         <v>27</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q37" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="7" t="n">
         <v>0</v>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="I46" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" s="6" t="n">
         <v>25</v>
@@ -9615,16 +9615,16 @@
         <v>27</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q46" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="7" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
@@ -10200,7 +10200,7 @@
         </is>
       </c>
       <c r="I49" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J49" s="6" t="n">
         <v>25</v>
@@ -10215,16 +10215,16 @@
         <v>27</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P49" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q49" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="7" t="n">
         <v>0</v>
@@ -22784,14 +22784,14 @@
           <t>221472@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F112" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G112" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H112" s="5" t="inlineStr">
@@ -22800,7 +22800,7 @@
         </is>
       </c>
       <c r="I112" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J112" s="6" t="n">
         <v>25</v>
@@ -22815,16 +22815,16 @@
         <v>27</v>
       </c>
       <c r="N112" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O112" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q112" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R112" s="7" t="n">
         <v>0</v>
@@ -24584,14 +24584,14 @@
           <t>221526@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F121" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F121" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G121" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H121" s="5" t="inlineStr">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="I121" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J121" s="6" t="n">
         <v>25</v>
@@ -24615,16 +24615,16 @@
         <v>27</v>
       </c>
       <c r="N121" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P121" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q121" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R121" s="7" t="n">
         <v>0</v>
@@ -24984,14 +24984,14 @@
           <t>221532@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F123" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G123" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H123" s="5" t="inlineStr">
@@ -25000,7 +25000,7 @@
         </is>
       </c>
       <c r="I123" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J123" s="6" t="n">
         <v>25</v>
@@ -25015,16 +25015,16 @@
         <v>27</v>
       </c>
       <c r="N123" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O123" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q123" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R123" s="7" t="n">
         <v>0</v>
@@ -27184,14 +27184,14 @@
           <t>221709@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F134" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G134" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H134" s="5" t="inlineStr">
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="I134" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J134" s="6" t="n">
         <v>25</v>
@@ -27215,16 +27215,16 @@
         <v>27</v>
       </c>
       <c r="N134" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O134" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q134" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R134" s="7" t="n">
         <v>0</v>
@@ -29784,14 +29784,14 @@
           <t>221605@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F147" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G147" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H147" s="5" t="inlineStr">
@@ -29800,7 +29800,7 @@
         </is>
       </c>
       <c r="I147" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J147" s="6" t="n">
         <v>25</v>
@@ -29815,16 +29815,16 @@
         <v>27</v>
       </c>
       <c r="N147" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O147" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P147" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q147" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R147" s="7" t="n">
         <v>0</v>
@@ -31591,7 +31591,7 @@
       </c>
       <c r="G156" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H156" s="5" t="inlineStr">
@@ -31600,7 +31600,7 @@
         </is>
       </c>
       <c r="I156" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J156" s="6" t="n">
         <v>25</v>
@@ -31615,16 +31615,16 @@
         <v>27</v>
       </c>
       <c r="N156" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O156" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P156" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q156" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R156" s="7" t="n">
         <v>0</v>
@@ -31984,14 +31984,14 @@
           <t>221655@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F158" s="8" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G158" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H158" s="5" t="inlineStr">
@@ -32000,7 +32000,7 @@
         </is>
       </c>
       <c r="I158" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J158" s="6" t="n">
         <v>25</v>
@@ -32015,16 +32015,16 @@
         <v>27</v>
       </c>
       <c r="N158" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O158" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P158" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q158" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R158" s="7" t="n">
         <v>0</v>
@@ -65210,7 +65210,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K137"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -68657,12 +68657,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>221208</t>
+          <t>221472</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>مصطفى جمال محمد معتمد</t>
+          <t>حسام عمار عبدالله جعوان</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -68672,12 +68672,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>221208@med.asu.edu.eg</t>
+          <t>221472@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -68687,7 +68687,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -68697,29 +68697,29 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>11:41:33</t>
+          <t>11:42:52</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>221244</t>
+          <t>221709</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>يوسف أيمن أحمد يوسف الجعار</t>
+          <t>يقين ناصر الشريف</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -68729,12 +68729,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>221244@med.asu.edu.eg</t>
+          <t>221709@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -68744,7 +68744,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -68754,29 +68754,29 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>11:41:36</t>
+          <t>11:43:13</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>221223</t>
+          <t>221526</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>نور احمد جابر احمد</t>
+          <t>رزان محمد الصادق على الشيخ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -68786,12 +68786,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>221223@med.asu.edu.eg</t>
+          <t>221526@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -68801,7 +68801,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -68811,29 +68811,29 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>11:41:44</t>
+          <t>11:43:40</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>221204</t>
+          <t>221532</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>مريم أسامة نشأت بسطا</t>
+          <t>عائشة عمر عثمان نورى</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -68843,12 +68843,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>221204@med.asu.edu.eg</t>
+          <t>221532@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -68858,7 +68858,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -68868,29 +68868,29 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11:41:51</t>
+          <t>11:44:07</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>B1A2</t>
+          <t>B1C1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>221222</t>
+          <t>221208</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>نور أحمد سمير علي</t>
+          <t>مصطفى جمال محمد معتمد</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -68905,7 +68905,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>221222@med.asu.edu.eg</t>
+          <t>221208@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -68930,7 +68930,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>11:41:54</t>
+          <t>11:41:33</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -68942,12 +68942,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>221203</t>
+          <t>221244</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>مريم عمرو محمد عادل عبد الرحمن</t>
+          <t>يوسف أيمن أحمد يوسف الجعار</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -68962,7 +68962,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>221203@med.asu.edu.eg</t>
+          <t>221244@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -68987,7 +68987,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>11:41:56</t>
+          <t>11:41:36</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -68999,12 +68999,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>221216</t>
+          <t>221223</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ميار طه يوسف عمار</t>
+          <t>نور احمد جابر احمد</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -69019,7 +69019,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>221216@med.asu.edu.eg</t>
+          <t>221223@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -69044,7 +69044,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>11:41:58</t>
+          <t>11:41:44</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -69056,12 +69056,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>221205</t>
+          <t>221204</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>مريم حسين محمد عبدالسلام</t>
+          <t>مريم أسامة نشأت بسطا</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -69076,7 +69076,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>221205@med.asu.edu.eg</t>
+          <t>221204@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -69101,7 +69101,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>11:43:35</t>
+          <t>11:41:51</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -69113,12 +69113,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>221243</t>
+          <t>221222</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>يوسف أسامه يسين عبد العظيم</t>
+          <t>نور أحمد سمير علي</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -69133,7 +69133,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>221243@med.asu.edu.eg</t>
+          <t>221222@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -69158,7 +69158,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>11:43:51</t>
+          <t>11:41:54</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -69170,12 +69170,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>221218</t>
+          <t>221203</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>مينا مدحت خلف ناشد سليمان</t>
+          <t>مريم عمرو محمد عادل عبد الرحمن</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -69190,7 +69190,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>221218@med.asu.edu.eg</t>
+          <t>221203@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -69215,7 +69215,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>11:44:39</t>
+          <t>11:41:56</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -69227,12 +69227,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>221238</t>
+          <t>221216</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>يوسف ابراهيم محمود محمود محمد سالم</t>
+          <t>ميار طه يوسف عمار</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -69247,7 +69247,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>221238@med.asu.edu.eg</t>
+          <t>221216@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -69272,7 +69272,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>11:35:26</t>
+          <t>11:41:58</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -69284,12 +69284,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>221215</t>
+          <t>221205</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>مي محمد عبد المنعم محمد بكر</t>
+          <t>مريم حسين محمد عبدالسلام</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -69304,7 +69304,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>221215@med.asu.edu.eg</t>
+          <t>221205@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -69329,7 +69329,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>11:35:28</t>
+          <t>11:43:35</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -69341,12 +69341,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>221246</t>
+          <t>221243</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>جوليا سامى لبيب عبد الملك</t>
+          <t>يوسف أسامه يسين عبد العظيم</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -69361,7 +69361,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>221246@med.asu.edu.eg</t>
+          <t>221243@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -69386,7 +69386,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>11:35:30</t>
+          <t>11:43:51</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -69398,12 +69398,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>221240</t>
+          <t>221218</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>يوسف احمد السيد رفاعي دراز</t>
+          <t>مينا مدحت خلف ناشد سليمان</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -69418,7 +69418,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>221240@med.asu.edu.eg</t>
+          <t>221218@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -69443,7 +69443,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>11:35:31</t>
+          <t>11:44:39</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -69455,12 +69455,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>221236</t>
+          <t>221238</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ياسين شاهين محمد خليفة</t>
+          <t>يوسف ابراهيم محمود محمود محمد سالم</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -69475,7 +69475,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>221236@med.asu.edu.eg</t>
+          <t>221238@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -69500,7 +69500,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>11:35:34</t>
+          <t>11:35:26</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -69512,12 +69512,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>221231</t>
+          <t>221215</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>هدى ابوالخير عبدالعظيم سكرمه</t>
+          <t>مي محمد عبد المنعم محمد بكر</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -69532,7 +69532,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>221231@med.asu.edu.eg</t>
+          <t>221215@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -69557,7 +69557,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>11:35:36</t>
+          <t>11:35:28</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -69569,12 +69569,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>221212</t>
+          <t>221246</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>منة مدحت سالم علي</t>
+          <t>جوليا سامى لبيب عبد الملك</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -69589,7 +69589,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>221212@med.asu.edu.eg</t>
+          <t>221246@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -69614,7 +69614,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>11:35:37</t>
+          <t>11:35:30</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -69626,12 +69626,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>221249</t>
+          <t>221240</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ليان محمد خليل لافي</t>
+          <t>يوسف احمد السيد رفاعي دراز</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -69646,7 +69646,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>221249@med.asu.edu.eg</t>
+          <t>221240@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -69656,7 +69656,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -69666,12 +69666,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>23/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>11:56:36</t>
+          <t>11:35:31</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -69683,12 +69683,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>221203</t>
+          <t>221236</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>مريم عمرو محمد عادل عبد الرحمن</t>
+          <t>ياسين شاهين محمد خليفة</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -69703,7 +69703,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>221203@med.asu.edu.eg</t>
+          <t>221236@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -69713,7 +69713,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -69723,12 +69723,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>11:33:34</t>
+          <t>11:35:34</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -69740,12 +69740,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>221244</t>
+          <t>221231</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>يوسف أيمن أحمد يوسف الجعار</t>
+          <t>هدى ابوالخير عبدالعظيم سكرمه</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -69760,7 +69760,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>221244@med.asu.edu.eg</t>
+          <t>221231@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -69770,7 +69770,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -69780,12 +69780,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>11:33:43</t>
+          <t>11:35:36</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -69797,12 +69797,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>221231</t>
+          <t>221212</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>هدى ابوالخير عبدالعظيم سكرمه</t>
+          <t>منة مدحت سالم علي</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -69817,7 +69817,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>221231@med.asu.edu.eg</t>
+          <t>221212@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -69827,7 +69827,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -69837,12 +69837,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>11:33:48</t>
+          <t>11:35:37</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -69854,12 +69854,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>221204</t>
+          <t>221249</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>مريم أسامة نشأت بسطا</t>
+          <t>ليان محمد خليل لافي</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -69874,7 +69874,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>221204@med.asu.edu.eg</t>
+          <t>221249@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -69884,7 +69884,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -69894,12 +69894,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>11:33:50</t>
+          <t>11:56:36</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -69911,12 +69911,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>221213</t>
+          <t>221203</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>منه كريم السعيد الملخاني</t>
+          <t>مريم عمرو محمد عادل عبد الرحمن</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -69931,7 +69931,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>221213@med.asu.edu.eg</t>
+          <t>221203@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -69956,7 +69956,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>11:33:51</t>
+          <t>11:33:34</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -69968,12 +69968,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>221246</t>
+          <t>221244</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>جوليا سامى لبيب عبد الملك</t>
+          <t>يوسف أيمن أحمد يوسف الجعار</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -69988,7 +69988,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>221246@med.asu.edu.eg</t>
+          <t>221244@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -70013,7 +70013,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>11:33:53</t>
+          <t>11:33:43</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -70025,12 +70025,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>221215</t>
+          <t>221231</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>مي محمد عبد المنعم محمد بكر</t>
+          <t>هدى ابوالخير عبدالعظيم سكرمه</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -70045,7 +70045,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>221215@med.asu.edu.eg</t>
+          <t>221231@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -70070,7 +70070,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>11:33:55</t>
+          <t>11:33:48</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -70082,12 +70082,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>221223</t>
+          <t>221204</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>نور احمد جابر احمد</t>
+          <t>مريم أسامة نشأت بسطا</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -70102,7 +70102,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>221223@med.asu.edu.eg</t>
+          <t>221204@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -70127,7 +70127,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>11:33:59</t>
+          <t>11:33:50</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -70139,12 +70139,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>221222</t>
+          <t>221213</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>نور أحمد سمير علي</t>
+          <t>منه كريم السعيد الملخاني</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -70159,7 +70159,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>221222@med.asu.edu.eg</t>
+          <t>221213@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -70184,7 +70184,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>11:34:07</t>
+          <t>11:33:51</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -70196,12 +70196,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>221238</t>
+          <t>221246</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>يوسف ابراهيم محمود محمود محمد سالم</t>
+          <t>جوليا سامى لبيب عبد الملك</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -70216,7 +70216,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>221238@med.asu.edu.eg</t>
+          <t>221246@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -70241,7 +70241,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>11:34:15</t>
+          <t>11:33:53</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -70253,12 +70253,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>221245</t>
+          <t>221215</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>يوسف شعبان عبدالقوي عبدالله</t>
+          <t>مي محمد عبد المنعم محمد بكر</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -70273,7 +70273,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>221245@med.asu.edu.eg</t>
+          <t>221215@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -70298,7 +70298,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>11:34:18</t>
+          <t>11:33:55</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -70310,12 +70310,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>221212</t>
+          <t>221223</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>منة مدحت سالم علي</t>
+          <t>نور احمد جابر احمد</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -70330,7 +70330,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>221212@med.asu.edu.eg</t>
+          <t>221223@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -70355,7 +70355,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>11:34:23</t>
+          <t>11:33:59</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -70367,12 +70367,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>221236</t>
+          <t>221222</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ياسين شاهين محمد خليفة</t>
+          <t>نور أحمد سمير علي</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -70387,7 +70387,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>221236@med.asu.edu.eg</t>
+          <t>221222@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -70412,7 +70412,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>11:34:27</t>
+          <t>11:34:07</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -70424,12 +70424,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>221243</t>
+          <t>221238</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>يوسف أسامه يسين عبد العظيم</t>
+          <t>يوسف ابراهيم محمود محمود محمد سالم</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -70444,7 +70444,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>221243@med.asu.edu.eg</t>
+          <t>221238@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -70469,7 +70469,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>11:35:25</t>
+          <t>11:34:15</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -70481,12 +70481,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>221226</t>
+          <t>221245</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>نورا هاني أحمد سيف</t>
+          <t>يوسف شعبان عبدالقوي عبدالله</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -70501,7 +70501,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>221226@med.asu.edu.eg</t>
+          <t>221245@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -70526,7 +70526,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>11:37:07</t>
+          <t>11:34:18</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -70538,12 +70538,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>221191</t>
+          <t>221212</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>محمد خلف سلمان سلطان</t>
+          <t>منة مدحت سالم علي</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -70553,12 +70553,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>221191@med.asu.edu.eg</t>
+          <t>221212@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -70568,7 +70568,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -70578,29 +70578,29 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>11:41:35</t>
+          <t>11:34:23</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>221201</t>
+          <t>221236</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>محمد وائل ادريس محمود</t>
+          <t>ياسين شاهين محمد خليفة</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -70610,12 +70610,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>221201@med.asu.edu.eg</t>
+          <t>221236@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -70625,7 +70625,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -70635,29 +70635,29 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>11:41:38</t>
+          <t>11:34:27</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>221185</t>
+          <t>221243</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>مايكل عادل ميخائيل فهمى شنوده</t>
+          <t>يوسف أسامه يسين عبد العظيم</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -70667,12 +70667,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>221185@med.asu.edu.eg</t>
+          <t>221243@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -70682,7 +70682,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -70692,29 +70692,29 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>11:41:39</t>
+          <t>11:35:25</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>221171</t>
+          <t>221226</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>فادي ياسر جورج تادرس</t>
+          <t>نورا هاني أحمد سيف</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -70724,12 +70724,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>221171@med.asu.edu.eg</t>
+          <t>221226@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -70739,7 +70739,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -70749,29 +70749,29 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>11:41:41</t>
+          <t>11:37:07</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>221177</t>
+          <t>221218</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>كريم احمد محمد جمال الدين محمد امين</t>
+          <t>مينا مدحت خلف ناشد سليمان</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -70781,12 +70781,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>221177@med.asu.edu.eg</t>
+          <t>221218@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -70796,7 +70796,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -70806,29 +70806,29 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>11:41:42</t>
+          <t>11:44:38</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>221184</t>
+          <t>221242</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ماجده محمود عبدالهادي محمد محمود</t>
+          <t>يوسف الشقيري عبدالفضيل السيد</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -70838,12 +70838,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>221184@med.asu.edu.eg</t>
+          <t>221242@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -70853,7 +70853,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -70863,29 +70863,29 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>11:41:46</t>
+          <t>11:45:28</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>221180</t>
+          <t>221239</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>لمار هيثم محمد فاروق محمد</t>
+          <t>يوسف احمد احمد النجار</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -70895,12 +70895,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>221180@med.asu.edu.eg</t>
+          <t>221239@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -70910,7 +70910,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -70920,29 +70920,29 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>11:41:47</t>
+          <t>11:46:33</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>221182</t>
+          <t>221205</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ليديا موريس أنيس سعيد</t>
+          <t>مريم حسين محمد عبدالسلام</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -70952,12 +70952,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>221182@med.asu.edu.eg</t>
+          <t>221205@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -70967,7 +70967,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -70977,29 +70977,29 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>11:41:59</t>
+          <t>11:47:44</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>221189</t>
+          <t>221220</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>محمد احمد محمد جمال الدين محمد امين</t>
+          <t>نادين محمود سعيد زكي</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -71009,12 +71009,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>221189@med.asu.edu.eg</t>
+          <t>221220@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -71024,7 +71024,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -71034,29 +71034,29 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>11:42:02</t>
+          <t>11:47:59</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>B1A1</t>
+          <t>B1A2</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>221197</t>
+          <t>221191</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>محمد علاء مدحت حسن</t>
+          <t>محمد خلف سلمان سلطان</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -71071,7 +71071,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>221197@med.asu.edu.eg</t>
+          <t>221191@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -71096,7 +71096,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>11:43:15</t>
+          <t>11:41:35</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -71108,12 +71108,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>221177</t>
+          <t>221201</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>كريم احمد محمد جمال الدين محمد امين</t>
+          <t>محمد وائل ادريس محمود</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -71128,7 +71128,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>221177@med.asu.edu.eg</t>
+          <t>221201@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -71138,7 +71138,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -71148,12 +71148,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>11:33:11</t>
+          <t>11:41:38</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -71165,12 +71165,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>221184</t>
+          <t>221185</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ماجده محمود عبدالهادي محمد محمود</t>
+          <t>مايكل عادل ميخائيل فهمى شنوده</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -71185,7 +71185,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>221184@med.asu.edu.eg</t>
+          <t>221185@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -71195,7 +71195,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -71205,12 +71205,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>11:33:16</t>
+          <t>11:41:39</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -71222,12 +71222,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>221173</t>
+          <t>221171</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>فاطمة الزهراء محمد ابراهيم راجح</t>
+          <t>فادي ياسر جورج تادرس</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -71242,7 +71242,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>221173@med.asu.edu.eg</t>
+          <t>221171@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -71252,7 +71252,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -71262,12 +71262,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>11:33:18</t>
+          <t>11:41:41</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -71279,12 +71279,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>221192</t>
+          <t>221177</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>محمد شريف سمير مصطفى الزهوى</t>
+          <t>كريم احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -71299,7 +71299,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>221192@med.asu.edu.eg</t>
+          <t>221177@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -71309,7 +71309,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -71319,12 +71319,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>11:33:20</t>
+          <t>11:41:42</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -71336,12 +71336,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>221198</t>
+          <t>221184</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>محمد عمادالدين محمد ابوزيد</t>
+          <t>ماجده محمود عبدالهادي محمد محمود</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -71356,7 +71356,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>221198@med.asu.edu.eg</t>
+          <t>221184@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -71366,7 +71366,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -71376,12 +71376,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>11:33:22</t>
+          <t>11:41:46</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -71393,12 +71393,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>221185</t>
+          <t>221180</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>مايكل عادل ميخائيل فهمى شنوده</t>
+          <t>لمار هيثم محمد فاروق محمد</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -71413,7 +71413,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>221185@med.asu.edu.eg</t>
+          <t>221180@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -71423,7 +71423,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -71433,12 +71433,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>11:33:24</t>
+          <t>11:41:47</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -71450,12 +71450,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>221201</t>
+          <t>221182</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>محمد وائل ادريس محمود</t>
+          <t>ليديا موريس أنيس سعيد</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -71470,7 +71470,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>221201@med.asu.edu.eg</t>
+          <t>221182@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -71480,7 +71480,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -71490,12 +71490,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>11:33:27</t>
+          <t>11:41:59</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -71507,12 +71507,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>221191</t>
+          <t>221189</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>محمد خلف سلمان سلطان</t>
+          <t>محمد احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -71527,7 +71527,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>221191@med.asu.edu.eg</t>
+          <t>221189@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -71537,7 +71537,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -71547,12 +71547,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>11:33:31</t>
+          <t>11:42:02</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -71564,12 +71564,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>221171</t>
+          <t>221197</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>فادي ياسر جورج تادرس</t>
+          <t>محمد علاء مدحت حسن</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -71584,7 +71584,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>221171@med.asu.edu.eg</t>
+          <t>221197@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -71594,7 +71594,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -71604,12 +71604,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>11:33:32</t>
+          <t>11:43:15</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -71621,12 +71621,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>221188</t>
+          <t>221177</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>محمد ابراهيم عبد الغفار ابووازن</t>
+          <t>كريم احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -71641,7 +71641,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>221188@med.asu.edu.eg</t>
+          <t>221177@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -71666,7 +71666,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>11:33:37</t>
+          <t>11:33:11</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -71678,12 +71678,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>221176</t>
+          <t>221184</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>قاسم محمد عابد ربيع السحيتى</t>
+          <t>ماجده محمود عبدالهادي محمد محمود</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -71698,7 +71698,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>221176@med.asu.edu.eg</t>
+          <t>221184@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -71723,7 +71723,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>11:33:39</t>
+          <t>11:33:16</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -71735,12 +71735,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>221200</t>
+          <t>221173</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>محمد نبيل عبدالملك احمد ابو الخير</t>
+          <t>فاطمة الزهراء محمد ابراهيم راجح</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -71755,7 +71755,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>221200@med.asu.edu.eg</t>
+          <t>221173@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -71780,7 +71780,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>11:33:42</t>
+          <t>11:33:18</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -71792,12 +71792,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>221182</t>
+          <t>221192</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ليديا موريس أنيس سعيد</t>
+          <t>محمد شريف سمير مصطفى الزهوى</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -71812,7 +71812,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>221182@med.asu.edu.eg</t>
+          <t>221192@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -71837,7 +71837,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>11:33:57</t>
+          <t>11:33:20</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -71849,12 +71849,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>221190</t>
+          <t>221198</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>محمد حمدي محمد صقر الهتير</t>
+          <t>محمد عمادالدين محمد ابوزيد</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -71869,7 +71869,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>221190@med.asu.edu.eg</t>
+          <t>221198@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -71894,7 +71894,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>11:34:11</t>
+          <t>11:33:22</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -71906,12 +71906,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>221172</t>
+          <t>221185</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>فارس محمد رجب احمد العدوي</t>
+          <t>مايكل عادل ميخائيل فهمى شنوده</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -71926,7 +71926,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>221172@med.asu.edu.eg</t>
+          <t>221185@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -71951,7 +71951,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>11:34:16</t>
+          <t>11:33:24</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -71963,12 +71963,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>221199</t>
+          <t>221201</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>محمد عمرو حسين منصور</t>
+          <t>محمد وائل ادريس محمود</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -71983,7 +71983,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>221199@med.asu.edu.eg</t>
+          <t>221201@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -72008,7 +72008,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>11:34:20</t>
+          <t>11:33:27</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -72020,12 +72020,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>221194</t>
+          <t>221191</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>محمد عبد الكريم رمضان بكري سالم</t>
+          <t>محمد خلف سلمان سلطان</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -72040,7 +72040,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>221194@med.asu.edu.eg</t>
+          <t>221191@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -72065,7 +72065,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>11:34:25</t>
+          <t>11:33:31</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -72077,12 +72077,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>221189</t>
+          <t>221171</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>محمد احمد محمد جمال الدين محمد امين</t>
+          <t>فادي ياسر جورج تادرس</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -72097,7 +72097,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>221189@med.asu.edu.eg</t>
+          <t>221171@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -72122,7 +72122,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>11:35:37</t>
+          <t>11:33:32</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -72134,12 +72134,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>221605</t>
+          <t>221188</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>يمنى عماد يسن محمود</t>
+          <t>محمد ابراهيم عبد الغفار ابووازن</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -72149,12 +72149,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>221605@med.asu.edu.eg</t>
+          <t>221188@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -72164,7 +72164,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -72174,29 +72174,29 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>23/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>11:55:24</t>
+          <t>11:33:37</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>221655</t>
+          <t>221176</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>أماني شوقي حسن احمد</t>
+          <t>قاسم محمد عابد ربيع السحيتى</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -72206,12 +72206,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>221655@med.asu.edu.eg</t>
+          <t>221176@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -72221,7 +72221,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -72231,29 +72231,29 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>23/11/2025</t>
+          <t>24/11/2025</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>11:57:48</t>
+          <t>11:33:39</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>221585</t>
+          <t>221200</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>محمد احمد حسان عبد الهادى</t>
+          <t>محمد نبيل عبدالملك احمد ابو الخير</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -72263,12 +72263,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>221585@med.asu.edu.eg</t>
+          <t>221200@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -72293,24 +72293,24 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>11:33:14</t>
+          <t>11:33:42</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>221621</t>
+          <t>221182</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>عبدالرحمن مصطفى حاج حسين</t>
+          <t>ليديا موريس أنيس سعيد</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -72320,12 +72320,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>221621@med.asu.edu.eg</t>
+          <t>221182@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -72350,24 +72350,24 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>11:33:45</t>
+          <t>11:33:57</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>221608</t>
+          <t>221190</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>فريد محمد فراس قاوجي</t>
+          <t>محمد حمدي محمد صقر الهتير</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -72377,12 +72377,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>221608@med.asu.edu.eg</t>
+          <t>221190@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -72407,24 +72407,24 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>11:34:21</t>
+          <t>11:34:11</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>221568</t>
+          <t>221172</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>عبدالله الصادق عبدالله محمد</t>
+          <t>فارس محمد رجب احمد العدوي</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -72434,12 +72434,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>221568@med.asu.edu.eg</t>
+          <t>221172@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -72464,24 +72464,24 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>11:34:29</t>
+          <t>11:34:16</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>221199</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>مصطفى احمد حوا</t>
+          <t>محمد عمرو حسين منصور</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -72491,12 +72491,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>221594@med.asu.edu.eg</t>
+          <t>221199@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -72521,24 +72521,24 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>11:34:36</t>
+          <t>11:34:20</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>221592</t>
+          <t>221194</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>مهدي عارف عمر حبابه</t>
+          <t>محمد عبد الكريم رمضان بكري سالم</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -72548,12 +72548,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>221592@med.asu.edu.eg</t>
+          <t>221194@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -72578,24 +72578,24 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>11:34:38</t>
+          <t>11:34:25</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>221624</t>
+          <t>221189</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ميسم الزاكى الياس احمدون</t>
+          <t>محمد احمد محمد جمال الدين محمد امين</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -72605,12 +72605,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>221624@med.asu.edu.eg</t>
+          <t>221189@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -72635,24 +72635,24 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>11:34:40</t>
+          <t>11:35:37</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>221596</t>
+          <t>221197</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>طيف عبود بشير محمد</t>
+          <t>محمد علاء مدحت حسن</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -72662,12 +72662,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>221596@med.asu.edu.eg</t>
+          <t>221197@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -72692,24 +72692,24 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>11:34:41</t>
+          <t>11:44:31</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>221658</t>
+          <t>221186</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>روين محمد أحمد بورجي</t>
+          <t>محسن محمود محسن محود السيد</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -72719,12 +72719,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>221658@med.asu.edu.eg</t>
+          <t>221186@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -72749,24 +72749,24 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>11:34:45</t>
+          <t>11:45:09</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>221627</t>
+          <t>221187</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>جودى عدنان رسلان</t>
+          <t>محمد عبد الفتاح عبد البديع فياض</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -72776,12 +72776,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>221627@med.asu.edu.eg</t>
+          <t>221187@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -72806,24 +72806,24 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>11:34:47</t>
+          <t>11:47:10</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>221628</t>
+          <t>221193</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ريم احمد غزال</t>
+          <t>محمد صلاح رمضان عبد الحميد</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -72833,12 +72833,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>221628@med.asu.edu.eg</t>
+          <t>221193@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -72863,24 +72863,24 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>11:34:49</t>
+          <t>11:47:28</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>B1C2</t>
+          <t>B1A1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>221652</t>
+          <t>221605</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>يامن احمد محمد خالد صب لبن</t>
+          <t>يمنى عماد يسن محمود</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -72895,7 +72895,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>221652@med.asu.edu.eg</t>
+          <t>221605@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -72905,7 +72905,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -72915,12 +72915,12 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>11:34:53</t>
+          <t>11:55:24</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -72932,12 +72932,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>221603</t>
+          <t>221655</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>محمد نصرالدين محمد خليفة</t>
+          <t>أماني شوقي حسن احمد</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -72952,7 +72952,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>221603@med.asu.edu.eg</t>
+          <t>221655@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -72962,7 +72962,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -72972,12 +72972,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>24/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>11:37:29</t>
+          <t>11:57:48</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -72989,62 +72989,974 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>221585</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>محمد احمد حسان عبد الهادى</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>221585@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>11:33:14</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>221621</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>عبدالرحمن مصطفى حاج حسين</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>221621@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>11:33:45</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>221608</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>فريد محمد فراس قاوجي</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>221608@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>11:34:21</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>221568</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>عبدالله الصادق عبدالله محمد</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>221568@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>11:34:29</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>221594</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>مصطفى احمد حوا</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>221594@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>11:34:36</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>221592</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>مهدي عارف عمر حبابه</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>221592@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>11:34:38</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>221624</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>ميسم الزاكى الياس احمدون</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>221624@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>11:34:40</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>221596</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>طيف عبود بشير محمد</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>221596@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>11:34:41</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>221658</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>روين محمد أحمد بورجي</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>221658@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>11:34:45</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>221627</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>جودى عدنان رسلان</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>221627@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>11:34:47</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>221628</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>ريم احمد غزال</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>221628@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>11:34:49</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>221652</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>يامن احمد محمد خالد صب لبن</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>221652@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>11:34:53</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>221603</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>محمد نصرالدين محمد خليفة</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>221603@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>11:37:29</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
           <t>221581</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>عمار بدرالدين محمد نور حمد</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Year 4</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>24/11/2025</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>11:39:39</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>221605</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>يمنى عماد يسن محمود</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>221605@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>11:40:58</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>221655</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>أماني شوقي حسن احمد</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>221655@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>11:42:05</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>221642</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>فاطمة محمد عبد الله عبد الرازق</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>B1C2</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>221642@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>24/11/2025</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>11:48:34</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>B1C2</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K137"/>
+  <autoFilter ref="A1:K153"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -39,7 +39,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -53,7 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003388D5"/>
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,7 +63,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
+        <fgColor rgb="00FFB97D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003388D5"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -111,7 +116,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -495,7 +503,7 @@
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
@@ -786,7 +794,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
@@ -803,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>27</v>
@@ -818,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>27</v>
@@ -832,10 +840,8 @@
       <c r="S2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T2" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U2" s="7" t="inlineStr">
         <is>
@@ -984,7 +990,7 @@
           <t>221172@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1003,10 +1009,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>27</v>
@@ -1018,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>27</v>
@@ -1032,10 +1038,8 @@
       <c r="S3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T3" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U3" s="7" t="inlineStr">
         <is>
@@ -1184,7 +1188,7 @@
           <t>221173@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1203,10 +1207,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>27</v>
@@ -1218,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>27</v>
@@ -1232,10 +1236,8 @@
       <c r="S4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T4" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U4" s="7" t="inlineStr">
         <is>
@@ -1386,7 +1388,7 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
@@ -1403,10 +1405,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="6" t="n">
         <v>27</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>27</v>
@@ -1432,10 +1434,8 @@
       <c r="S5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T5" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U5" s="7" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
           <t>221176@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1603,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>27</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>27</v>
@@ -1632,10 +1632,8 @@
       <c r="S6" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T6" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U6" s="7" t="inlineStr">
         <is>
@@ -1786,7 +1784,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
@@ -1803,10 +1801,10 @@
         <v>19</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>27</v>
@@ -1818,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>27</v>
@@ -1832,10 +1830,8 @@
       <c r="S7" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U7" s="7" t="inlineStr">
         <is>
@@ -1984,7 +1980,7 @@
           <t>221180@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -2003,10 +1999,10 @@
         <v>20</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" s="6" t="n">
         <v>27</v>
@@ -2018,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>27</v>
@@ -2032,10 +2028,8 @@
       <c r="S8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T8" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U8" s="7" t="inlineStr">
         <is>
@@ -2186,7 +2180,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -2203,10 +2197,10 @@
         <v>19</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>27</v>
@@ -2218,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>27</v>
@@ -2232,10 +2226,8 @@
       <c r="S9" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T9" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U9" s="7" t="inlineStr">
         <is>
@@ -2386,7 +2378,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
@@ -2403,10 +2395,10 @@
         <v>19</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>27</v>
@@ -2418,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>27</v>
@@ -2432,10 +2424,8 @@
       <c r="S10" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T10" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U10" s="7" t="inlineStr">
         <is>
@@ -2586,7 +2576,7 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
@@ -2603,10 +2593,10 @@
         <v>19</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>27</v>
@@ -2618,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>27</v>
@@ -2632,10 +2622,8 @@
       <c r="S11" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T11" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U11" s="7" t="inlineStr">
         <is>
@@ -2784,7 +2772,7 @@
           <t>221186@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -2803,10 +2791,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>27</v>
@@ -2818,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>27</v>
@@ -2832,10 +2820,8 @@
       <c r="S12" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U12" s="7" t="inlineStr">
         <is>
@@ -2984,7 +2970,7 @@
           <t>221187@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3003,10 +2989,10 @@
         <v>20</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>27</v>
@@ -3018,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>27</v>
@@ -3032,10 +3018,8 @@
       <c r="S13" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T13" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U13" s="7" t="inlineStr">
         <is>
@@ -3184,7 +3168,7 @@
           <t>221188@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3203,10 +3187,10 @@
         <v>20</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>27</v>
@@ -3218,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>27</v>
@@ -3232,10 +3216,8 @@
       <c r="S14" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T14" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U14" s="7" t="inlineStr">
         <is>
@@ -3386,7 +3368,7 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
@@ -3403,10 +3385,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>27</v>
@@ -3418,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>27</v>
@@ -3432,10 +3414,8 @@
       <c r="S15" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T15" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U15" s="7" t="inlineStr">
         <is>
@@ -3584,7 +3564,7 @@
           <t>221190@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3603,10 +3583,10 @@
         <v>20</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>27</v>
@@ -3618,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>27</v>
@@ -3632,10 +3612,8 @@
       <c r="S16" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T16" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U16" s="7" t="inlineStr">
         <is>
@@ -3786,7 +3764,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
@@ -3803,10 +3781,10 @@
         <v>19</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>27</v>
@@ -3818,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>27</v>
@@ -3832,10 +3810,8 @@
       <c r="S17" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T17" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U17" s="7" t="inlineStr">
         <is>
@@ -3984,7 +3960,7 @@
           <t>221192@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4003,10 +3979,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>27</v>
@@ -4018,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>27</v>
@@ -4032,10 +4008,8 @@
       <c r="S18" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T18" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U18" s="7" t="inlineStr">
         <is>
@@ -4184,7 +4158,7 @@
           <t>221193@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4203,10 +4177,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="6" t="n">
         <v>27</v>
@@ -4218,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>27</v>
@@ -4232,10 +4206,8 @@
       <c r="S19" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T19" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U19" s="7" t="inlineStr">
         <is>
@@ -4384,7 +4356,7 @@
           <t>221194@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4403,10 +4375,10 @@
         <v>20</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" s="6" t="n">
         <v>27</v>
@@ -4418,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="7" t="n">
         <v>27</v>
@@ -4432,10 +4404,8 @@
       <c r="S20" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U20" s="7" t="inlineStr">
         <is>
@@ -4586,7 +4556,7 @@
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
@@ -4603,10 +4573,10 @@
         <v>21</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="6" t="n">
         <v>27</v>
@@ -4618,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>27</v>
@@ -4632,10 +4602,8 @@
       <c r="S21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T21" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U21" s="7" t="inlineStr">
         <is>
@@ -4786,7 +4754,7 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
@@ -4803,10 +4771,10 @@
         <v>21</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>27</v>
@@ -4818,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>27</v>
@@ -4832,10 +4800,8 @@
       <c r="S22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T22" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U22" s="7" t="inlineStr">
         <is>
@@ -4986,7 +4952,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
@@ -5003,10 +4969,10 @@
         <v>19</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23" s="6" t="n">
         <v>27</v>
@@ -5018,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>27</v>
@@ -5032,10 +4998,8 @@
       <c r="S23" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T23" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U23" s="7" t="inlineStr">
         <is>
@@ -5184,7 +5148,7 @@
           <t>221198@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5203,10 +5167,10 @@
         <v>20</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="6" t="n">
         <v>27</v>
@@ -5218,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>27</v>
@@ -5232,10 +5196,8 @@
       <c r="S24" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T24" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U24" s="7" t="inlineStr">
         <is>
@@ -5384,7 +5346,7 @@
           <t>221199@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5403,10 +5365,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" s="6" t="n">
         <v>27</v>
@@ -5418,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>27</v>
@@ -5432,10 +5394,8 @@
       <c r="S25" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T25" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U25" s="7" t="inlineStr">
         <is>
@@ -5584,7 +5544,7 @@
           <t>221200@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5603,10 +5563,10 @@
         <v>20</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>27</v>
@@ -5618,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="7" t="n">
         <v>27</v>
@@ -5632,10 +5592,8 @@
       <c r="S26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T26" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U26" s="7" t="inlineStr">
         <is>
@@ -5786,7 +5744,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
@@ -5803,10 +5761,10 @@
         <v>19</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>27</v>
@@ -5818,7 +5776,7 @@
         <v>2</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="7" t="n">
         <v>27</v>
@@ -5832,10 +5790,8 @@
       <c r="S27" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T27" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U27" s="7" t="inlineStr">
         <is>
@@ -5986,7 +5942,7 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
@@ -6003,10 +5959,10 @@
         <v>19</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="6" t="n">
         <v>27</v>
@@ -6018,7 +5974,7 @@
         <v>2</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>27</v>
@@ -6032,10 +5988,8 @@
       <c r="S28" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T28" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U28" s="7" t="inlineStr">
         <is>
@@ -6186,7 +6140,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
@@ -6203,10 +6157,10 @@
         <v>19</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" s="6" t="n">
         <v>27</v>
@@ -6218,7 +6172,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>27</v>
@@ -6232,10 +6186,8 @@
       <c r="S29" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T29" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U29" s="7" t="inlineStr">
         <is>
@@ -6386,7 +6338,7 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
@@ -6403,10 +6355,10 @@
         <v>19</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>27</v>
@@ -6418,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="7" t="n">
         <v>27</v>
@@ -6432,10 +6384,8 @@
       <c r="S30" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T30" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U30" s="7" t="inlineStr">
         <is>
@@ -6584,7 +6534,7 @@
           <t>221208@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -6603,10 +6553,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31" s="6" t="n">
         <v>27</v>
@@ -6618,7 +6568,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="7" t="n">
         <v>27</v>
@@ -6632,10 +6582,8 @@
       <c r="S31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T31" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U31" s="7" t="inlineStr">
         <is>
@@ -6786,7 +6734,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
@@ -6803,10 +6751,10 @@
         <v>19</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32" s="6" t="n">
         <v>27</v>
@@ -6818,7 +6766,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="7" t="n">
         <v>27</v>
@@ -6832,10 +6780,8 @@
       <c r="S32" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T32" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U32" s="7" t="inlineStr">
         <is>
@@ -6984,7 +6930,7 @@
           <t>221213@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7003,10 +6949,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L33" s="6" t="n">
         <v>27</v>
@@ -7018,7 +6964,7 @@
         <v>1</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>27</v>
@@ -7032,10 +6978,8 @@
       <c r="S33" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T33" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U33" s="7" t="inlineStr">
         <is>
@@ -7186,7 +7130,7 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
@@ -7203,10 +7147,10 @@
         <v>19</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>27</v>
@@ -7218,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>27</v>
@@ -7232,10 +7176,8 @@
       <c r="S34" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T34" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U34" s="7" t="inlineStr">
         <is>
@@ -7384,7 +7326,7 @@
           <t>221216@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7403,10 +7345,10 @@
         <v>20</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" s="6" t="n">
         <v>27</v>
@@ -7418,7 +7360,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="7" t="n">
         <v>27</v>
@@ -7432,10 +7374,8 @@
       <c r="S35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T35" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U35" s="7" t="inlineStr">
         <is>
@@ -7586,7 +7526,7 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
@@ -7603,10 +7543,10 @@
         <v>19</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K36" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="6" t="n">
         <v>27</v>
@@ -7618,7 +7558,7 @@
         <v>2</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>27</v>
@@ -7632,10 +7572,8 @@
       <c r="S36" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T36" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U36" s="7" t="inlineStr">
         <is>
@@ -7784,7 +7722,7 @@
           <t>221220@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7803,10 +7741,10 @@
         <v>20</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" s="6" t="n">
         <v>27</v>
@@ -7818,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>27</v>
@@ -7832,10 +7770,8 @@
       <c r="S37" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T37" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U37" s="7" t="inlineStr">
         <is>
@@ -7986,7 +7922,7 @@
       </c>
       <c r="F38" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
@@ -8003,10 +7939,10 @@
         <v>21</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38" s="6" t="n">
         <v>27</v>
@@ -8018,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="7" t="n">
         <v>27</v>
@@ -8032,10 +7968,8 @@
       <c r="S38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T38" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U38" s="7" t="inlineStr">
         <is>
@@ -8186,7 +8120,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
@@ -8203,10 +8137,10 @@
         <v>19</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" s="6" t="n">
         <v>27</v>
@@ -8218,7 +8152,7 @@
         <v>2</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="7" t="n">
         <v>27</v>
@@ -8232,10 +8166,8 @@
       <c r="S39" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T39" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U39" s="7" t="inlineStr">
         <is>
@@ -8386,7 +8318,7 @@
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
@@ -8403,10 +8335,10 @@
         <v>19</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K40" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="6" t="n">
         <v>27</v>
@@ -8418,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="7" t="n">
         <v>27</v>
@@ -8432,10 +8364,8 @@
       <c r="S40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T40" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U40" s="7" t="inlineStr">
         <is>
@@ -8584,7 +8514,7 @@
           <t>221226@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -8603,10 +8533,10 @@
         <v>20</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K41" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" s="6" t="n">
         <v>27</v>
@@ -8618,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="7" t="n">
         <v>27</v>
@@ -8632,10 +8562,8 @@
       <c r="S41" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T41" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U41" s="7" t="inlineStr">
         <is>
@@ -8786,7 +8714,7 @@
       </c>
       <c r="F42" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
@@ -8803,10 +8731,10 @@
         <v>21</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K42" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42" s="6" t="n">
         <v>27</v>
@@ -8818,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42" s="7" t="n">
         <v>27</v>
@@ -8832,10 +8760,8 @@
       <c r="S42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T42" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U42" s="7" t="inlineStr">
         <is>
@@ -8986,7 +8912,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
@@ -9003,10 +8929,10 @@
         <v>19</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" s="6" t="n">
         <v>27</v>
@@ -9018,7 +8944,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>27</v>
@@ -9032,10 +8958,8 @@
       <c r="S43" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T43" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U43" s="7" t="inlineStr">
         <is>
@@ -9186,7 +9110,7 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
@@ -9203,10 +9127,10 @@
         <v>19</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L44" s="6" t="n">
         <v>27</v>
@@ -9218,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="7" t="n">
         <v>27</v>
@@ -9232,10 +9156,8 @@
       <c r="S44" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T44" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U44" s="7" t="inlineStr">
         <is>
@@ -9386,7 +9308,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
@@ -9403,10 +9325,10 @@
         <v>19</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" s="6" t="n">
         <v>27</v>
@@ -9418,7 +9340,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="7" t="n">
         <v>27</v>
@@ -9432,10 +9354,8 @@
       <c r="S45" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T45" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U45" s="7" t="inlineStr">
         <is>
@@ -9584,7 +9504,7 @@
           <t>221239@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -9603,10 +9523,10 @@
         <v>20</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K46" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46" s="6" t="n">
         <v>27</v>
@@ -9618,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>27</v>
@@ -9632,10 +9552,8 @@
       <c r="S46" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T46" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U46" s="7" t="inlineStr">
         <is>
@@ -9784,7 +9702,7 @@
           <t>221240@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -9803,10 +9721,10 @@
         <v>20</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K47" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" s="6" t="n">
         <v>27</v>
@@ -9818,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="7" t="n">
         <v>27</v>
@@ -9832,10 +9750,8 @@
       <c r="S47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T47" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U47" s="7" t="inlineStr">
         <is>
@@ -9986,7 +9902,7 @@
       </c>
       <c r="F48" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
@@ -10003,10 +9919,10 @@
         <v>21</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K48" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48" s="6" t="n">
         <v>27</v>
@@ -10018,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P48" s="7" t="n">
         <v>27</v>
@@ -10032,10 +9948,8 @@
       <c r="S48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T48" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U48" s="7" t="inlineStr">
         <is>
@@ -10184,7 +10098,7 @@
           <t>221242@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10203,10 +10117,10 @@
         <v>20</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49" s="6" t="n">
         <v>27</v>
@@ -10218,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="7" t="n">
         <v>27</v>
@@ -10232,10 +10146,8 @@
       <c r="S49" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T49" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U49" s="7" t="inlineStr">
         <is>
@@ -10386,7 +10298,7 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
@@ -10403,10 +10315,10 @@
         <v>19</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" s="6" t="n">
         <v>27</v>
@@ -10418,7 +10330,7 @@
         <v>2</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="7" t="n">
         <v>27</v>
@@ -10432,10 +10344,8 @@
       <c r="S50" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T50" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U50" s="7" t="inlineStr">
         <is>
@@ -10586,7 +10496,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
@@ -10603,10 +10513,10 @@
         <v>19</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="6" t="n">
         <v>27</v>
@@ -10618,7 +10528,7 @@
         <v>2</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="7" t="n">
         <v>27</v>
@@ -10632,10 +10542,8 @@
       <c r="S51" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T51" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U51" s="7" t="inlineStr">
         <is>
@@ -10784,7 +10692,7 @@
           <t>221245@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10803,10 +10711,10 @@
         <v>20</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K52" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L52" s="6" t="n">
         <v>27</v>
@@ -10818,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="7" t="n">
         <v>27</v>
@@ -10832,10 +10740,8 @@
       <c r="S52" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T52" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U52" s="7" t="inlineStr">
         <is>
@@ -10986,7 +10892,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
@@ -11003,10 +10909,10 @@
         <v>19</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K53" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L53" s="6" t="n">
         <v>27</v>
@@ -11018,7 +10924,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="7" t="n">
         <v>27</v>
@@ -11032,10 +10938,8 @@
       <c r="S53" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T53" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U53" s="7" t="inlineStr">
         <is>
@@ -11184,7 +11088,7 @@
           <t>221249@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11203,10 +11107,10 @@
         <v>20</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K54" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L54" s="6" t="n">
         <v>27</v>
@@ -11218,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="7" t="n">
         <v>27</v>
@@ -11232,10 +11136,8 @@
       <c r="S54" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T54" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U54" s="7" t="inlineStr">
         <is>
@@ -11384,7 +11286,7 @@
           <t>221251@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11403,10 +11305,10 @@
         <v>20</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L55" s="6" t="n">
         <v>27</v>
@@ -11418,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="7" t="n">
         <v>27</v>
@@ -11432,10 +11334,8 @@
       <c r="S55" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T55" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U55" s="7" t="inlineStr">
         <is>
@@ -11586,7 +11486,7 @@
       </c>
       <c r="F56" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G56" s="5" t="inlineStr">
@@ -11603,10 +11503,10 @@
         <v>21</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L56" s="6" t="n">
         <v>27</v>
@@ -11618,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56" s="7" t="n">
         <v>27</v>
@@ -11632,10 +11532,8 @@
       <c r="S56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T56" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U56" s="7" t="inlineStr">
         <is>
@@ -11784,7 +11682,7 @@
           <t>221258@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11803,10 +11701,10 @@
         <v>20</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" s="6" t="n">
         <v>27</v>
@@ -11818,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="7" t="n">
         <v>27</v>
@@ -11832,10 +11730,8 @@
       <c r="S57" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T57" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U57" s="7" t="inlineStr">
         <is>
@@ -11986,7 +11882,7 @@
       </c>
       <c r="F58" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G58" s="5" t="inlineStr">
@@ -12003,10 +11899,10 @@
         <v>21</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K58" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" s="6" t="n">
         <v>27</v>
@@ -12018,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="7" t="n">
         <v>27</v>
@@ -12032,10 +11928,8 @@
       <c r="S58" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T58" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U58" s="7" t="inlineStr">
         <is>
@@ -12184,7 +12078,7 @@
           <t>221261@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12203,10 +12097,10 @@
         <v>20</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K59" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" s="6" t="n">
         <v>27</v>
@@ -12218,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="7" t="n">
         <v>27</v>
@@ -12232,10 +12126,8 @@
       <c r="S59" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T59" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U59" s="7" t="inlineStr">
         <is>
@@ -12384,7 +12276,7 @@
           <t>221267@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12403,10 +12295,10 @@
         <v>20</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K60" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L60" s="6" t="n">
         <v>27</v>
@@ -12418,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>27</v>
@@ -12432,10 +12324,8 @@
       <c r="S60" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T60" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U60" s="7" t="inlineStr">
         <is>
@@ -12586,7 +12476,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
@@ -12603,10 +12493,10 @@
         <v>19</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K61" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L61" s="6" t="n">
         <v>27</v>
@@ -12618,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="7" t="n">
         <v>27</v>
@@ -12632,10 +12522,8 @@
       <c r="S61" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T61" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U61" s="7" t="inlineStr">
         <is>
@@ -12786,7 +12674,7 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G62" s="5" t="inlineStr">
@@ -12803,10 +12691,10 @@
         <v>19</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K62" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L62" s="6" t="n">
         <v>27</v>
@@ -12818,7 +12706,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="7" t="n">
         <v>27</v>
@@ -12832,10 +12720,8 @@
       <c r="S62" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T62" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U62" s="7" t="inlineStr">
         <is>
@@ -12986,7 +12872,7 @@
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
@@ -13003,10 +12889,10 @@
         <v>21</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K63" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L63" s="6" t="n">
         <v>27</v>
@@ -13018,7 +12904,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" s="7" t="n">
         <v>27</v>
@@ -13032,10 +12918,8 @@
       <c r="S63" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T63" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U63" s="7" t="inlineStr">
         <is>
@@ -13186,7 +13070,7 @@
       </c>
       <c r="F64" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G64" s="5" t="inlineStr">
@@ -13203,10 +13087,10 @@
         <v>21</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K64" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" s="6" t="n">
         <v>27</v>
@@ -13218,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" s="7" t="n">
         <v>27</v>
@@ -13232,10 +13116,8 @@
       <c r="S64" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T64" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U64" s="7" t="inlineStr">
         <is>
@@ -13384,7 +13266,7 @@
           <t>221277@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13403,10 +13285,10 @@
         <v>20</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K65" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65" s="6" t="n">
         <v>27</v>
@@ -13418,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="7" t="n">
         <v>27</v>
@@ -13432,10 +13314,8 @@
       <c r="S65" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T65" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U65" s="7" t="inlineStr">
         <is>
@@ -13584,7 +13464,7 @@
           <t>221280@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13603,10 +13483,10 @@
         <v>20</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K66" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" s="6" t="n">
         <v>27</v>
@@ -13618,7 +13498,7 @@
         <v>1</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" s="7" t="n">
         <v>27</v>
@@ -13632,10 +13512,8 @@
       <c r="S66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T66" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U66" s="7" t="inlineStr">
         <is>
@@ -13786,7 +13664,7 @@
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G67" s="5" t="inlineStr">
@@ -13803,10 +13681,10 @@
         <v>21</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K67" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L67" s="6" t="n">
         <v>27</v>
@@ -13818,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" s="7" t="n">
         <v>27</v>
@@ -13832,10 +13710,8 @@
       <c r="S67" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T67" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U67" s="7" t="inlineStr">
         <is>
@@ -13984,7 +13860,7 @@
           <t>221287@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14003,10 +13879,10 @@
         <v>20</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K68" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L68" s="6" t="n">
         <v>27</v>
@@ -14018,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="7" t="n">
         <v>27</v>
@@ -14032,10 +13908,8 @@
       <c r="S68" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T68" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U68" s="7" t="inlineStr">
         <is>
@@ -14186,7 +14060,7 @@
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G69" s="5" t="inlineStr">
@@ -14203,10 +14077,10 @@
         <v>21</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K69" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="6" t="n">
         <v>27</v>
@@ -14218,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P69" s="7" t="n">
         <v>27</v>
@@ -14232,10 +14106,8 @@
       <c r="S69" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T69" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U69" s="7" t="inlineStr">
         <is>
@@ -14384,7 +14256,7 @@
           <t>221299@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F70" s="8" t="inlineStr">
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14403,10 +14275,10 @@
         <v>20</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K70" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L70" s="6" t="n">
         <v>27</v>
@@ -14418,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P70" s="7" t="n">
         <v>27</v>
@@ -14432,10 +14304,8 @@
       <c r="S70" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T70" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U70" s="7" t="inlineStr">
         <is>
@@ -14586,7 +14456,7 @@
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G71" s="5" t="inlineStr">
@@ -14603,10 +14473,10 @@
         <v>21</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K71" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="6" t="n">
         <v>27</v>
@@ -14618,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71" s="7" t="n">
         <v>27</v>
@@ -14632,10 +14502,8 @@
       <c r="S71" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T71" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T71" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U71" s="7" t="inlineStr">
         <is>
@@ -14784,7 +14652,7 @@
           <t>221301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14803,10 +14671,10 @@
         <v>20</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K72" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72" s="6" t="n">
         <v>27</v>
@@ -14818,7 +14686,7 @@
         <v>1</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>27</v>
@@ -14832,10 +14700,8 @@
       <c r="S72" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T72" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T72" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U72" s="7" t="inlineStr">
         <is>
@@ -14984,7 +14850,7 @@
           <t>221302@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15003,10 +14869,10 @@
         <v>20</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K73" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L73" s="6" t="n">
         <v>27</v>
@@ -15018,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="7" t="n">
         <v>27</v>
@@ -15032,10 +14898,8 @@
       <c r="S73" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T73" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U73" s="7" t="inlineStr">
         <is>
@@ -15186,7 +15050,7 @@
       </c>
       <c r="F74" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G74" s="5" t="inlineStr">
@@ -15203,10 +15067,10 @@
         <v>21</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K74" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74" s="6" t="n">
         <v>27</v>
@@ -15218,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>27</v>
@@ -15232,10 +15096,8 @@
       <c r="S74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T74" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T74" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U74" s="7" t="inlineStr">
         <is>
@@ -15384,7 +15246,7 @@
           <t>221309@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15403,10 +15265,10 @@
         <v>20</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K75" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75" s="6" t="n">
         <v>27</v>
@@ -15418,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>27</v>
@@ -15432,10 +15294,8 @@
       <c r="S75" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T75" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U75" s="7" t="inlineStr">
         <is>
@@ -15586,7 +15446,7 @@
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G76" s="5" t="inlineStr">
@@ -15603,10 +15463,10 @@
         <v>19</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K76" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L76" s="6" t="n">
         <v>27</v>
@@ -15618,7 +15478,7 @@
         <v>2</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="7" t="n">
         <v>27</v>
@@ -15632,10 +15492,8 @@
       <c r="S76" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T76" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U76" s="7" t="inlineStr">
         <is>
@@ -15786,7 +15644,7 @@
       </c>
       <c r="F77" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G77" s="5" t="inlineStr">
@@ -15803,10 +15661,10 @@
         <v>21</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K77" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L77" s="6" t="n">
         <v>27</v>
@@ -15818,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P77" s="7" t="n">
         <v>27</v>
@@ -15832,10 +15690,8 @@
       <c r="S77" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T77" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U77" s="7" t="inlineStr">
         <is>
@@ -15984,7 +15840,7 @@
           <t>221320@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F78" s="8" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16003,10 +15859,10 @@
         <v>20</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K78" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L78" s="6" t="n">
         <v>27</v>
@@ -16018,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="7" t="n">
         <v>27</v>
@@ -16032,10 +15888,8 @@
       <c r="S78" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T78" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U78" s="7" t="inlineStr">
         <is>
@@ -16184,7 +16038,7 @@
           <t>221327@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F79" s="8" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16203,10 +16057,10 @@
         <v>20</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K79" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L79" s="6" t="n">
         <v>27</v>
@@ -16218,7 +16072,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" s="7" t="n">
         <v>27</v>
@@ -16232,10 +16086,8 @@
       <c r="S79" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T79" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U79" s="7" t="inlineStr">
         <is>
@@ -16384,7 +16236,7 @@
           <t>221330@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F80" s="8" t="inlineStr">
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16403,10 +16255,10 @@
         <v>20</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K80" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L80" s="6" t="n">
         <v>27</v>
@@ -16418,7 +16270,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P80" s="7" t="n">
         <v>27</v>
@@ -16432,10 +16284,8 @@
       <c r="S80" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T80" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T80" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U80" s="7" t="inlineStr">
         <is>
@@ -16586,7 +16436,7 @@
       </c>
       <c r="F81" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G81" s="5" t="inlineStr">
@@ -16603,10 +16453,10 @@
         <v>21</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K81" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L81" s="6" t="n">
         <v>27</v>
@@ -16618,7 +16468,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P81" s="7" t="n">
         <v>27</v>
@@ -16632,10 +16482,8 @@
       <c r="S81" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T81" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T81" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U81" s="7" t="inlineStr">
         <is>
@@ -16784,7 +16632,7 @@
           <t>221339@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="8" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16803,10 +16651,10 @@
         <v>20</v>
       </c>
       <c r="J82" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K82" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L82" s="6" t="n">
         <v>27</v>
@@ -16818,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" s="7" t="n">
         <v>27</v>
@@ -16832,10 +16680,8 @@
       <c r="S82" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T82" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U82" s="7" t="inlineStr">
         <is>
@@ -16984,7 +16830,7 @@
           <t>221353@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F83" s="8" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17003,10 +16849,10 @@
         <v>20</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K83" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L83" s="6" t="n">
         <v>27</v>
@@ -17018,7 +16864,7 @@
         <v>1</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" s="7" t="n">
         <v>27</v>
@@ -17032,10 +16878,8 @@
       <c r="S83" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T83" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U83" s="7" t="inlineStr">
         <is>
@@ -17184,7 +17028,7 @@
           <t>221372@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="8" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17203,10 +17047,10 @@
         <v>20</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K84" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L84" s="6" t="n">
         <v>27</v>
@@ -17218,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="7" t="n">
         <v>27</v>
@@ -17232,10 +17076,8 @@
       <c r="S84" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T84" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T84" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U84" s="7" t="inlineStr">
         <is>
@@ -17386,7 +17228,7 @@
       </c>
       <c r="F85" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G85" s="5" t="inlineStr">
@@ -17403,10 +17245,10 @@
         <v>21</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K85" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L85" s="6" t="n">
         <v>27</v>
@@ -17418,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P85" s="7" t="n">
         <v>27</v>
@@ -17432,10 +17274,8 @@
       <c r="S85" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T85" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T85" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U85" s="7" t="inlineStr">
         <is>
@@ -17586,7 +17426,7 @@
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
@@ -17603,10 +17443,10 @@
         <v>19</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K86" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L86" s="6" t="n">
         <v>27</v>
@@ -17618,7 +17458,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="7" t="n">
         <v>27</v>
@@ -17632,10 +17472,8 @@
       <c r="S86" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T86" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T86" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U86" s="7" t="inlineStr">
         <is>
@@ -17784,7 +17622,7 @@
           <t>221384@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17803,10 +17641,10 @@
         <v>20</v>
       </c>
       <c r="J87" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K87" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L87" s="6" t="n">
         <v>27</v>
@@ -17818,7 +17656,7 @@
         <v>1</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" s="7" t="n">
         <v>27</v>
@@ -17832,10 +17670,8 @@
       <c r="S87" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T87" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U87" s="7" t="inlineStr">
         <is>
@@ -17984,7 +17820,7 @@
           <t>221385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="8" t="inlineStr">
+      <c r="F88" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18003,10 +17839,10 @@
         <v>20</v>
       </c>
       <c r="J88" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K88" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L88" s="6" t="n">
         <v>27</v>
@@ -18018,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" s="7" t="n">
         <v>27</v>
@@ -18032,10 +17868,8 @@
       <c r="S88" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T88" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U88" s="7" t="inlineStr">
         <is>
@@ -18186,7 +18020,7 @@
       </c>
       <c r="F89" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G89" s="5" t="inlineStr">
@@ -18203,10 +18037,10 @@
         <v>21</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K89" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L89" s="6" t="n">
         <v>27</v>
@@ -18218,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P89" s="7" t="n">
         <v>27</v>
@@ -18232,10 +18066,8 @@
       <c r="S89" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T89" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T89" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U89" s="7" t="inlineStr">
         <is>
@@ -18386,7 +18218,7 @@
       </c>
       <c r="F90" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G90" s="5" t="inlineStr">
@@ -18403,10 +18235,10 @@
         <v>21</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K90" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L90" s="6" t="n">
         <v>27</v>
@@ -18418,7 +18250,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>27</v>
@@ -18432,10 +18264,8 @@
       <c r="S90" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T90" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T90" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U90" s="7" t="inlineStr">
         <is>
@@ -18586,7 +18416,7 @@
       </c>
       <c r="F91" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G91" s="5" t="inlineStr">
@@ -18603,10 +18433,10 @@
         <v>21</v>
       </c>
       <c r="J91" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K91" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L91" s="6" t="n">
         <v>27</v>
@@ -18618,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P91" s="7" t="n">
         <v>27</v>
@@ -18632,10 +18462,8 @@
       <c r="S91" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T91" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T91" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U91" s="7" t="inlineStr">
         <is>
@@ -18784,7 +18612,7 @@
           <t>221419@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18803,10 +18631,10 @@
         <v>20</v>
       </c>
       <c r="J92" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K92" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L92" s="6" t="n">
         <v>27</v>
@@ -18818,7 +18646,7 @@
         <v>1</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>27</v>
@@ -18832,10 +18660,8 @@
       <c r="S92" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T92" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U92" s="7" t="inlineStr">
         <is>
@@ -18984,7 +18810,7 @@
           <t>221424@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F93" s="8" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19003,10 +18829,10 @@
         <v>20</v>
       </c>
       <c r="J93" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K93" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L93" s="6" t="n">
         <v>27</v>
@@ -19018,7 +18844,7 @@
         <v>1</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93" s="7" t="n">
         <v>27</v>
@@ -19032,10 +18858,8 @@
       <c r="S93" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T93" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T93" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U93" s="7" t="inlineStr">
         <is>
@@ -19186,7 +19010,7 @@
       </c>
       <c r="F94" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G94" s="5" t="inlineStr">
@@ -19203,10 +19027,10 @@
         <v>21</v>
       </c>
       <c r="J94" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K94" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L94" s="6" t="n">
         <v>27</v>
@@ -19218,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>27</v>
@@ -19232,10 +19056,8 @@
       <c r="S94" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T94" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U94" s="7" t="inlineStr">
         <is>
@@ -19384,7 +19206,7 @@
           <t>221431@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="8" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19403,10 +19225,10 @@
         <v>20</v>
       </c>
       <c r="J95" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K95" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L95" s="6" t="n">
         <v>27</v>
@@ -19418,7 +19240,7 @@
         <v>1</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>27</v>
@@ -19432,10 +19254,8 @@
       <c r="S95" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T95" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U95" s="7" t="inlineStr">
         <is>
@@ -19586,7 +19406,7 @@
       </c>
       <c r="F96" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G96" s="5" t="inlineStr">
@@ -19603,10 +19423,10 @@
         <v>21</v>
       </c>
       <c r="J96" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K96" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L96" s="6" t="n">
         <v>27</v>
@@ -19618,7 +19438,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P96" s="7" t="n">
         <v>27</v>
@@ -19632,10 +19452,8 @@
       <c r="S96" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T96" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T96" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U96" s="7" t="inlineStr">
         <is>
@@ -19784,7 +19602,7 @@
           <t>221440@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F97" s="8" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19803,10 +19621,10 @@
         <v>20</v>
       </c>
       <c r="J97" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K97" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L97" s="6" t="n">
         <v>27</v>
@@ -19818,7 +19636,7 @@
         <v>1</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" s="7" t="n">
         <v>27</v>
@@ -19832,10 +19650,8 @@
       <c r="S97" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T97" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U97" s="7" t="inlineStr">
         <is>
@@ -19984,7 +19800,7 @@
           <t>221441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="8" t="inlineStr">
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -20003,10 +19819,10 @@
         <v>20</v>
       </c>
       <c r="J98" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K98" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L98" s="6" t="n">
         <v>27</v>
@@ -20018,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98" s="7" t="n">
         <v>27</v>
@@ -20032,10 +19848,8 @@
       <c r="S98" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T98" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T98" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U98" s="7" t="inlineStr">
         <is>
@@ -20186,7 +20000,7 @@
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G99" s="5" t="inlineStr">
@@ -20203,10 +20017,10 @@
         <v>19</v>
       </c>
       <c r="J99" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K99" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L99" s="6" t="n">
         <v>27</v>
@@ -20218,7 +20032,7 @@
         <v>2</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" s="7" t="n">
         <v>27</v>
@@ -20232,10 +20046,8 @@
       <c r="S99" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T99" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T99" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U99" s="7" t="inlineStr">
         <is>
@@ -20386,7 +20198,7 @@
       </c>
       <c r="F100" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G100" s="5" t="inlineStr">
@@ -20403,10 +20215,10 @@
         <v>21</v>
       </c>
       <c r="J100" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K100" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" s="6" t="n">
         <v>27</v>
@@ -20418,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100" s="7" t="n">
         <v>27</v>
@@ -20432,10 +20244,8 @@
       <c r="S100" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T100" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U100" s="7" t="inlineStr">
         <is>
@@ -20584,7 +20394,7 @@
           <t>221452@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F101" s="8" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -20603,10 +20413,10 @@
         <v>20</v>
       </c>
       <c r="J101" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K101" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L101" s="6" t="n">
         <v>27</v>
@@ -20618,7 +20428,7 @@
         <v>1</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" s="7" t="n">
         <v>27</v>
@@ -20632,10 +20442,8 @@
       <c r="S101" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T101" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T101" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U101" s="7" t="inlineStr">
         <is>
@@ -20786,7 +20594,7 @@
       </c>
       <c r="F102" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G102" s="5" t="inlineStr">
@@ -20803,10 +20611,10 @@
         <v>21</v>
       </c>
       <c r="J102" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K102" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L102" s="6" t="n">
         <v>27</v>
@@ -20818,7 +20626,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P102" s="7" t="n">
         <v>27</v>
@@ -20832,10 +20640,8 @@
       <c r="S102" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T102" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U102" s="7" t="inlineStr">
         <is>
@@ -20986,7 +20792,7 @@
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G103" s="5" t="inlineStr">
@@ -21003,10 +20809,10 @@
         <v>19</v>
       </c>
       <c r="J103" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K103" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103" s="6" t="n">
         <v>27</v>
@@ -21018,7 +20824,7 @@
         <v>2</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="7" t="n">
         <v>27</v>
@@ -21032,10 +20838,8 @@
       <c r="S103" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T103" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T103" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U103" s="7" t="inlineStr">
         <is>
@@ -21186,7 +20990,7 @@
       </c>
       <c r="F104" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G104" s="5" t="inlineStr">
@@ -21203,10 +21007,10 @@
         <v>21</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K104" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L104" s="6" t="n">
         <v>27</v>
@@ -21218,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P104" s="7" t="n">
         <v>27</v>
@@ -21232,10 +21036,8 @@
       <c r="S104" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T104" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T104" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U104" s="7" t="inlineStr">
         <is>
@@ -21386,7 +21188,7 @@
       </c>
       <c r="F105" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G105" s="5" t="inlineStr">
@@ -21403,10 +21205,10 @@
         <v>21</v>
       </c>
       <c r="J105" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K105" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L105" s="6" t="n">
         <v>27</v>
@@ -21418,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P105" s="7" t="n">
         <v>27</v>
@@ -21432,10 +21234,8 @@
       <c r="S105" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T105" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T105" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U105" s="7" t="inlineStr">
         <is>
@@ -21586,7 +21386,7 @@
       </c>
       <c r="F106" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G106" s="5" t="inlineStr">
@@ -21603,10 +21403,10 @@
         <v>21</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K106" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L106" s="6" t="n">
         <v>27</v>
@@ -21618,7 +21418,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P106" s="7" t="n">
         <v>27</v>
@@ -21632,10 +21432,8 @@
       <c r="S106" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T106" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T106" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U106" s="7" t="inlineStr">
         <is>
@@ -21786,7 +21584,7 @@
       </c>
       <c r="F107" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G107" s="5" t="inlineStr">
@@ -21803,10 +21601,10 @@
         <v>21</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K107" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L107" s="6" t="n">
         <v>27</v>
@@ -21818,7 +21616,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107" s="7" t="n">
         <v>27</v>
@@ -21832,10 +21630,8 @@
       <c r="S107" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T107" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T107" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U107" s="7" t="inlineStr">
         <is>
@@ -21986,7 +21782,7 @@
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G108" s="5" t="inlineStr">
@@ -22003,10 +21799,10 @@
         <v>19</v>
       </c>
       <c r="J108" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K108" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L108" s="6" t="n">
         <v>27</v>
@@ -22018,7 +21814,7 @@
         <v>2</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" s="7" t="n">
         <v>27</v>
@@ -22032,10 +21828,8 @@
       <c r="S108" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T108" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T108" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U108" s="7" t="inlineStr">
         <is>
@@ -22184,7 +21978,7 @@
           <t>221465@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F109" s="8" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -22203,10 +21997,10 @@
         <v>20</v>
       </c>
       <c r="J109" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K109" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L109" s="6" t="n">
         <v>27</v>
@@ -22218,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P109" s="7" t="n">
         <v>27</v>
@@ -22232,10 +22026,8 @@
       <c r="S109" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T109" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U109" s="7" t="inlineStr">
         <is>
@@ -22386,7 +22178,7 @@
       </c>
       <c r="F110" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G110" s="5" t="inlineStr">
@@ -22403,10 +22195,10 @@
         <v>21</v>
       </c>
       <c r="J110" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K110" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L110" s="6" t="n">
         <v>27</v>
@@ -22418,7 +22210,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P110" s="7" t="n">
         <v>27</v>
@@ -22432,10 +22224,8 @@
       <c r="S110" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T110" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U110" s="7" t="inlineStr">
         <is>
@@ -22586,7 +22376,7 @@
       </c>
       <c r="F111" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G111" s="5" t="inlineStr">
@@ -22603,10 +22393,10 @@
         <v>21</v>
       </c>
       <c r="J111" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K111" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111" s="6" t="n">
         <v>27</v>
@@ -22618,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P111" s="7" t="n">
         <v>27</v>
@@ -22632,10 +22422,8 @@
       <c r="S111" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T111" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U111" s="7" t="inlineStr">
         <is>
@@ -22786,7 +22574,7 @@
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G112" s="5" t="inlineStr">
@@ -22803,10 +22591,10 @@
         <v>19</v>
       </c>
       <c r="J112" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L112" s="6" t="n">
         <v>27</v>
@@ -22818,7 +22606,7 @@
         <v>2</v>
       </c>
       <c r="O112" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="7" t="n">
         <v>27</v>
@@ -22832,10 +22620,8 @@
       <c r="S112" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T112" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U112" s="7" t="inlineStr">
         <is>
@@ -22986,7 +22772,7 @@
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G113" s="5" t="inlineStr">
@@ -23003,10 +22789,10 @@
         <v>21</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K113" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L113" s="6" t="n">
         <v>27</v>
@@ -23018,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P113" s="7" t="n">
         <v>27</v>
@@ -23032,10 +22818,8 @@
       <c r="S113" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T113" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U113" s="7" t="inlineStr">
         <is>
@@ -23186,7 +22970,7 @@
       </c>
       <c r="F114" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G114" s="5" t="inlineStr">
@@ -23203,10 +22987,10 @@
         <v>21</v>
       </c>
       <c r="J114" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K114" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L114" s="6" t="n">
         <v>27</v>
@@ -23218,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P114" s="7" t="n">
         <v>27</v>
@@ -23232,10 +23016,8 @@
       <c r="S114" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T114" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T114" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U114" s="7" t="inlineStr">
         <is>
@@ -23386,7 +23168,7 @@
       </c>
       <c r="F115" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G115" s="5" t="inlineStr">
@@ -23403,10 +23185,10 @@
         <v>21</v>
       </c>
       <c r="J115" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K115" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L115" s="6" t="n">
         <v>27</v>
@@ -23418,7 +23200,7 @@
         <v>0</v>
       </c>
       <c r="O115" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P115" s="7" t="n">
         <v>27</v>
@@ -23432,10 +23214,8 @@
       <c r="S115" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T115" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T115" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U115" s="7" t="inlineStr">
         <is>
@@ -23586,7 +23366,7 @@
       </c>
       <c r="F116" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G116" s="5" t="inlineStr">
@@ -23603,10 +23383,10 @@
         <v>21</v>
       </c>
       <c r="J116" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K116" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L116" s="6" t="n">
         <v>27</v>
@@ -23618,7 +23398,7 @@
         <v>0</v>
       </c>
       <c r="O116" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P116" s="7" t="n">
         <v>27</v>
@@ -23632,10 +23412,8 @@
       <c r="S116" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T116" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T116" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U116" s="7" t="inlineStr">
         <is>
@@ -23786,7 +23564,7 @@
       </c>
       <c r="F117" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G117" s="5" t="inlineStr">
@@ -23803,10 +23581,10 @@
         <v>21</v>
       </c>
       <c r="J117" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K117" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L117" s="6" t="n">
         <v>27</v>
@@ -23818,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="O117" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117" s="7" t="n">
         <v>27</v>
@@ -23832,10 +23610,8 @@
       <c r="S117" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T117" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T117" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U117" s="7" t="inlineStr">
         <is>
@@ -23986,7 +23762,7 @@
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G118" s="5" t="inlineStr">
@@ -24003,10 +23779,10 @@
         <v>19</v>
       </c>
       <c r="J118" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K118" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L118" s="6" t="n">
         <v>27</v>
@@ -24018,7 +23794,7 @@
         <v>2</v>
       </c>
       <c r="O118" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" s="7" t="n">
         <v>27</v>
@@ -24032,10 +23808,8 @@
       <c r="S118" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T118" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T118" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U118" s="7" t="inlineStr">
         <is>
@@ -24186,7 +23960,7 @@
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G119" s="5" t="inlineStr">
@@ -24203,10 +23977,10 @@
         <v>19</v>
       </c>
       <c r="J119" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K119" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L119" s="6" t="n">
         <v>27</v>
@@ -24218,7 +23992,7 @@
         <v>2</v>
       </c>
       <c r="O119" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" s="7" t="n">
         <v>27</v>
@@ -24232,10 +24006,8 @@
       <c r="S119" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T119" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T119" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U119" s="7" t="inlineStr">
         <is>
@@ -24386,7 +24158,7 @@
       </c>
       <c r="F120" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G120" s="5" t="inlineStr">
@@ -24403,10 +24175,10 @@
         <v>21</v>
       </c>
       <c r="J120" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K120" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L120" s="6" t="n">
         <v>27</v>
@@ -24418,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="O120" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P120" s="7" t="n">
         <v>27</v>
@@ -24432,10 +24204,8 @@
       <c r="S120" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T120" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T120" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U120" s="7" t="inlineStr">
         <is>
@@ -24586,7 +24356,7 @@
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G121" s="5" t="inlineStr">
@@ -24603,10 +24373,10 @@
         <v>19</v>
       </c>
       <c r="J121" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K121" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L121" s="6" t="n">
         <v>27</v>
@@ -24618,7 +24388,7 @@
         <v>2</v>
       </c>
       <c r="O121" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="7" t="n">
         <v>27</v>
@@ -24632,10 +24402,8 @@
       <c r="S121" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T121" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U121" s="7" t="inlineStr">
         <is>
@@ -24786,7 +24554,7 @@
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G122" s="5" t="inlineStr">
@@ -24803,10 +24571,10 @@
         <v>19</v>
       </c>
       <c r="J122" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K122" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L122" s="6" t="n">
         <v>27</v>
@@ -24818,7 +24586,7 @@
         <v>2</v>
       </c>
       <c r="O122" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="7" t="n">
         <v>27</v>
@@ -24832,10 +24600,8 @@
       <c r="S122" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T122" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U122" s="7" t="inlineStr">
         <is>
@@ -24986,7 +24752,7 @@
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G123" s="5" t="inlineStr">
@@ -25003,10 +24769,10 @@
         <v>19</v>
       </c>
       <c r="J123" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K123" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L123" s="6" t="n">
         <v>27</v>
@@ -25018,7 +24784,7 @@
         <v>2</v>
       </c>
       <c r="O123" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" s="7" t="n">
         <v>27</v>
@@ -25032,10 +24798,8 @@
       <c r="S123" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T123" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T123" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U123" s="7" t="inlineStr">
         <is>
@@ -25184,7 +24948,7 @@
           <t>221533@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="8" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25203,10 +24967,10 @@
         <v>20</v>
       </c>
       <c r="J124" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K124" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L124" s="6" t="n">
         <v>27</v>
@@ -25218,7 +24982,7 @@
         <v>1</v>
       </c>
       <c r="O124" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P124" s="7" t="n">
         <v>27</v>
@@ -25232,10 +24996,8 @@
       <c r="S124" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T124" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T124" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U124" s="7" t="inlineStr">
         <is>
@@ -25386,7 +25148,7 @@
       </c>
       <c r="F125" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G125" s="5" t="inlineStr">
@@ -25403,10 +25165,10 @@
         <v>21</v>
       </c>
       <c r="J125" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K125" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L125" s="6" t="n">
         <v>27</v>
@@ -25418,7 +25180,7 @@
         <v>0</v>
       </c>
       <c r="O125" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P125" s="7" t="n">
         <v>27</v>
@@ -25432,10 +25194,8 @@
       <c r="S125" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T125" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T125" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U125" s="7" t="inlineStr">
         <is>
@@ -25586,7 +25346,7 @@
       </c>
       <c r="F126" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G126" s="5" t="inlineStr">
@@ -25603,10 +25363,10 @@
         <v>21</v>
       </c>
       <c r="J126" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K126" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L126" s="6" t="n">
         <v>27</v>
@@ -25618,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P126" s="7" t="n">
         <v>27</v>
@@ -25632,10 +25392,8 @@
       <c r="S126" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T126" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T126" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U126" s="7" t="inlineStr">
         <is>
@@ -25786,7 +25544,7 @@
       </c>
       <c r="F127" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G127" s="5" t="inlineStr">
@@ -25803,10 +25561,10 @@
         <v>21</v>
       </c>
       <c r="J127" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K127" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L127" s="6" t="n">
         <v>27</v>
@@ -25818,7 +25576,7 @@
         <v>0</v>
       </c>
       <c r="O127" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P127" s="7" t="n">
         <v>27</v>
@@ -25832,10 +25590,8 @@
       <c r="S127" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T127" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T127" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U127" s="7" t="inlineStr">
         <is>
@@ -25984,7 +25740,7 @@
           <t>221547@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26003,10 +25759,10 @@
         <v>20</v>
       </c>
       <c r="J128" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K128" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L128" s="6" t="n">
         <v>27</v>
@@ -26018,7 +25774,7 @@
         <v>1</v>
       </c>
       <c r="O128" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P128" s="7" t="n">
         <v>27</v>
@@ -26032,10 +25788,8 @@
       <c r="S128" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T128" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T128" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U128" s="7" t="inlineStr">
         <is>
@@ -26184,7 +25938,7 @@
           <t>221548@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26203,10 +25957,10 @@
         <v>20</v>
       </c>
       <c r="J129" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K129" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L129" s="6" t="n">
         <v>27</v>
@@ -26218,7 +25972,7 @@
         <v>1</v>
       </c>
       <c r="O129" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P129" s="7" t="n">
         <v>27</v>
@@ -26232,10 +25986,8 @@
       <c r="S129" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T129" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T129" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U129" s="7" t="inlineStr">
         <is>
@@ -26384,7 +26136,7 @@
           <t>221552@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="8" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26403,10 +26155,10 @@
         <v>20</v>
       </c>
       <c r="J130" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K130" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L130" s="6" t="n">
         <v>27</v>
@@ -26418,7 +26170,7 @@
         <v>1</v>
       </c>
       <c r="O130" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" s="7" t="n">
         <v>27</v>
@@ -26432,10 +26184,8 @@
       <c r="S130" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T130" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T130" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U130" s="7" t="inlineStr">
         <is>
@@ -26584,7 +26334,7 @@
           <t>221556@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="8" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26603,10 +26353,10 @@
         <v>20</v>
       </c>
       <c r="J131" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K131" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L131" s="6" t="n">
         <v>27</v>
@@ -26618,7 +26368,7 @@
         <v>1</v>
       </c>
       <c r="O131" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" s="7" t="n">
         <v>27</v>
@@ -26632,10 +26382,8 @@
       <c r="S131" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T131" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T131" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U131" s="7" t="inlineStr">
         <is>
@@ -26786,7 +26534,7 @@
       </c>
       <c r="F132" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G132" s="5" t="inlineStr">
@@ -26803,10 +26551,10 @@
         <v>21</v>
       </c>
       <c r="J132" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K132" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L132" s="6" t="n">
         <v>27</v>
@@ -26818,7 +26566,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P132" s="7" t="n">
         <v>27</v>
@@ -26832,10 +26580,8 @@
       <c r="S132" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T132" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T132" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U132" s="7" t="inlineStr">
         <is>
@@ -26984,7 +26730,7 @@
           <t>221707@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F133" s="8" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27003,10 +26749,10 @@
         <v>20</v>
       </c>
       <c r="J133" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K133" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L133" s="6" t="n">
         <v>27</v>
@@ -27018,7 +26764,7 @@
         <v>1</v>
       </c>
       <c r="O133" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" s="7" t="n">
         <v>27</v>
@@ -27032,10 +26778,8 @@
       <c r="S133" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T133" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T133" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U133" s="7" t="inlineStr">
         <is>
@@ -27186,7 +26930,7 @@
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G134" s="5" t="inlineStr">
@@ -27203,10 +26947,10 @@
         <v>19</v>
       </c>
       <c r="J134" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K134" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L134" s="6" t="n">
         <v>27</v>
@@ -27218,7 +26962,7 @@
         <v>2</v>
       </c>
       <c r="O134" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="7" t="n">
         <v>27</v>
@@ -27232,10 +26976,8 @@
       <c r="S134" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T134" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T134" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U134" s="7" t="inlineStr">
         <is>
@@ -27384,7 +27126,7 @@
           <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="8" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27403,10 +27145,10 @@
         <v>20</v>
       </c>
       <c r="J135" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K135" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135" s="6" t="n">
         <v>27</v>
@@ -27418,7 +27160,7 @@
         <v>1</v>
       </c>
       <c r="O135" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P135" s="7" t="n">
         <v>27</v>
@@ -27432,10 +27174,8 @@
       <c r="S135" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T135" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T135" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U135" s="7" t="inlineStr">
         <is>
@@ -27584,7 +27324,7 @@
           <t>221872@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F136" s="8" t="inlineStr">
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27603,10 +27343,10 @@
         <v>20</v>
       </c>
       <c r="J136" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K136" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L136" s="6" t="n">
         <v>27</v>
@@ -27618,7 +27358,7 @@
         <v>1</v>
       </c>
       <c r="O136" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P136" s="7" t="n">
         <v>27</v>
@@ -27632,10 +27372,8 @@
       <c r="S136" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T136" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T136" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U136" s="7" t="inlineStr">
         <is>
@@ -27784,7 +27522,7 @@
           <t>221913@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F137" s="8" t="inlineStr">
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27803,10 +27541,10 @@
         <v>20</v>
       </c>
       <c r="J137" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K137" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L137" s="6" t="n">
         <v>27</v>
@@ -27818,7 +27556,7 @@
         <v>1</v>
       </c>
       <c r="O137" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P137" s="7" t="n">
         <v>27</v>
@@ -27832,10 +27570,8 @@
       <c r="S137" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T137" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T137" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U137" s="7" t="inlineStr">
         <is>
@@ -27984,7 +27720,7 @@
           <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="8" t="inlineStr">
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28003,10 +27739,10 @@
         <v>20</v>
       </c>
       <c r="J138" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K138" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L138" s="6" t="n">
         <v>27</v>
@@ -28018,7 +27754,7 @@
         <v>1</v>
       </c>
       <c r="O138" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P138" s="7" t="n">
         <v>27</v>
@@ -28032,10 +27768,8 @@
       <c r="S138" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T138" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T138" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U138" s="7" t="inlineStr">
         <is>
@@ -28184,7 +27918,7 @@
           <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="8" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28203,10 +27937,10 @@
         <v>20</v>
       </c>
       <c r="J139" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K139" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L139" s="6" t="n">
         <v>27</v>
@@ -28218,7 +27952,7 @@
         <v>1</v>
       </c>
       <c r="O139" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" s="7" t="n">
         <v>27</v>
@@ -28232,10 +27966,8 @@
       <c r="S139" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T139" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T139" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U139" s="7" t="inlineStr">
         <is>
@@ -28384,7 +28116,7 @@
           <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="8" t="inlineStr">
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28403,10 +28135,10 @@
         <v>20</v>
       </c>
       <c r="J140" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K140" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L140" s="6" t="n">
         <v>27</v>
@@ -28418,7 +28150,7 @@
         <v>1</v>
       </c>
       <c r="O140" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" s="7" t="n">
         <v>27</v>
@@ -28432,10 +28164,8 @@
       <c r="S140" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T140" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T140" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U140" s="7" t="inlineStr">
         <is>
@@ -28586,7 +28316,7 @@
       </c>
       <c r="F141" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G141" s="5" t="inlineStr">
@@ -28603,10 +28333,10 @@
         <v>21</v>
       </c>
       <c r="J141" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K141" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L141" s="6" t="n">
         <v>27</v>
@@ -28618,7 +28348,7 @@
         <v>0</v>
       </c>
       <c r="O141" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P141" s="7" t="n">
         <v>27</v>
@@ -28632,10 +28362,8 @@
       <c r="S141" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T141" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T141" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U141" s="7" t="inlineStr">
         <is>
@@ -28784,7 +28512,7 @@
           <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F142" s="8" t="inlineStr">
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28803,10 +28531,10 @@
         <v>20</v>
       </c>
       <c r="J142" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K142" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L142" s="6" t="n">
         <v>27</v>
@@ -28818,7 +28546,7 @@
         <v>1</v>
       </c>
       <c r="O142" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P142" s="7" t="n">
         <v>27</v>
@@ -28832,10 +28560,8 @@
       <c r="S142" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T142" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T142" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U142" s="7" t="inlineStr">
         <is>
@@ -28984,7 +28710,7 @@
           <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="8" t="inlineStr">
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29003,10 +28729,10 @@
         <v>20</v>
       </c>
       <c r="J143" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K143" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L143" s="6" t="n">
         <v>27</v>
@@ -29018,7 +28744,7 @@
         <v>1</v>
       </c>
       <c r="O143" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P143" s="7" t="n">
         <v>27</v>
@@ -29032,10 +28758,8 @@
       <c r="S143" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T143" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T143" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U143" s="7" t="inlineStr">
         <is>
@@ -29186,7 +28910,7 @@
       </c>
       <c r="F144" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G144" s="5" t="inlineStr">
@@ -29203,10 +28927,10 @@
         <v>21</v>
       </c>
       <c r="J144" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K144" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L144" s="6" t="n">
         <v>27</v>
@@ -29218,7 +28942,7 @@
         <v>0</v>
       </c>
       <c r="O144" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P144" s="7" t="n">
         <v>27</v>
@@ -29232,10 +28956,8 @@
       <c r="S144" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T144" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T144" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U144" s="7" t="inlineStr">
         <is>
@@ -29384,7 +29106,7 @@
           <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="8" t="inlineStr">
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29403,10 +29125,10 @@
         <v>20</v>
       </c>
       <c r="J145" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K145" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L145" s="6" t="n">
         <v>27</v>
@@ -29418,7 +29140,7 @@
         <v>1</v>
       </c>
       <c r="O145" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" s="7" t="n">
         <v>27</v>
@@ -29432,10 +29154,8 @@
       <c r="S145" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T145" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T145" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U145" s="7" t="inlineStr">
         <is>
@@ -29584,7 +29304,7 @@
           <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="8" t="inlineStr">
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29603,10 +29323,10 @@
         <v>20</v>
       </c>
       <c r="J146" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K146" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L146" s="6" t="n">
         <v>27</v>
@@ -29618,7 +29338,7 @@
         <v>1</v>
       </c>
       <c r="O146" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P146" s="7" t="n">
         <v>27</v>
@@ -29632,10 +29352,8 @@
       <c r="S146" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T146" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T146" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U146" s="7" t="inlineStr">
         <is>
@@ -29786,7 +29504,7 @@
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G147" s="5" t="inlineStr">
@@ -29803,10 +29521,10 @@
         <v>19</v>
       </c>
       <c r="J147" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K147" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L147" s="6" t="n">
         <v>27</v>
@@ -29818,7 +29536,7 @@
         <v>2</v>
       </c>
       <c r="O147" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="7" t="n">
         <v>27</v>
@@ -29832,10 +29550,8 @@
       <c r="S147" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T147" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T147" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U147" s="7" t="inlineStr">
         <is>
@@ -29984,7 +29700,7 @@
           <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="8" t="inlineStr">
+      <c r="F148" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30003,10 +29719,10 @@
         <v>20</v>
       </c>
       <c r="J148" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K148" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L148" s="6" t="n">
         <v>27</v>
@@ -30018,7 +29734,7 @@
         <v>1</v>
       </c>
       <c r="O148" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" s="7" t="n">
         <v>27</v>
@@ -30032,10 +29748,8 @@
       <c r="S148" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T148" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T148" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U148" s="7" t="inlineStr">
         <is>
@@ -30186,7 +29900,7 @@
       </c>
       <c r="F149" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G149" s="5" t="inlineStr">
@@ -30203,10 +29917,10 @@
         <v>21</v>
       </c>
       <c r="J149" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K149" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L149" s="6" t="n">
         <v>27</v>
@@ -30218,7 +29932,7 @@
         <v>0</v>
       </c>
       <c r="O149" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P149" s="7" t="n">
         <v>27</v>
@@ -30232,10 +29946,8 @@
       <c r="S149" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T149" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T149" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U149" s="7" t="inlineStr">
         <is>
@@ -30386,7 +30098,7 @@
       </c>
       <c r="F150" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G150" s="5" t="inlineStr">
@@ -30403,10 +30115,10 @@
         <v>21</v>
       </c>
       <c r="J150" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K150" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L150" s="6" t="n">
         <v>27</v>
@@ -30418,7 +30130,7 @@
         <v>0</v>
       </c>
       <c r="O150" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P150" s="7" t="n">
         <v>27</v>
@@ -30432,10 +30144,8 @@
       <c r="S150" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T150" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T150" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U150" s="7" t="inlineStr">
         <is>
@@ -30584,7 +30294,7 @@
           <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="8" t="inlineStr">
+      <c r="F151" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30603,10 +30313,10 @@
         <v>20</v>
       </c>
       <c r="J151" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K151" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L151" s="6" t="n">
         <v>27</v>
@@ -30618,7 +30328,7 @@
         <v>1</v>
       </c>
       <c r="O151" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P151" s="7" t="n">
         <v>27</v>
@@ -30632,10 +30342,8 @@
       <c r="S151" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T151" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T151" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U151" s="7" t="inlineStr">
         <is>
@@ -30784,7 +30492,7 @@
           <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="8" t="inlineStr">
+      <c r="F152" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30803,10 +30511,10 @@
         <v>20</v>
       </c>
       <c r="J152" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K152" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L152" s="6" t="n">
         <v>27</v>
@@ -30818,7 +30526,7 @@
         <v>1</v>
       </c>
       <c r="O152" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P152" s="7" t="n">
         <v>27</v>
@@ -30832,10 +30540,8 @@
       <c r="S152" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T152" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T152" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U152" s="7" t="inlineStr">
         <is>
@@ -30984,7 +30690,7 @@
           <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="8" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31003,10 +30709,10 @@
         <v>20</v>
       </c>
       <c r="J153" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K153" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L153" s="6" t="n">
         <v>27</v>
@@ -31018,7 +30724,7 @@
         <v>1</v>
       </c>
       <c r="O153" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P153" s="7" t="n">
         <v>27</v>
@@ -31032,10 +30738,8 @@
       <c r="S153" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T153" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T153" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U153" s="7" t="inlineStr">
         <is>
@@ -31184,7 +30888,7 @@
           <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F154" s="8" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31203,10 +30907,10 @@
         <v>20</v>
       </c>
       <c r="J154" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K154" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L154" s="6" t="n">
         <v>27</v>
@@ -31218,7 +30922,7 @@
         <v>1</v>
       </c>
       <c r="O154" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P154" s="7" t="n">
         <v>27</v>
@@ -31232,10 +30936,8 @@
       <c r="S154" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T154" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T154" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U154" s="7" t="inlineStr">
         <is>
@@ -31386,7 +31088,7 @@
       </c>
       <c r="F155" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G155" s="5" t="inlineStr">
@@ -31403,10 +31105,10 @@
         <v>21</v>
       </c>
       <c r="J155" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K155" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L155" s="6" t="n">
         <v>27</v>
@@ -31418,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="O155" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P155" s="7" t="n">
         <v>27</v>
@@ -31432,10 +31134,8 @@
       <c r="S155" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T155" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T155" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U155" s="7" t="inlineStr">
         <is>
@@ -31584,7 +31284,7 @@
           <t>221642@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="8" t="inlineStr">
+      <c r="F156" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31603,10 +31303,10 @@
         <v>20</v>
       </c>
       <c r="J156" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K156" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L156" s="6" t="n">
         <v>27</v>
@@ -31618,7 +31318,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P156" s="7" t="n">
         <v>27</v>
@@ -31632,10 +31332,8 @@
       <c r="S156" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T156" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T156" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U156" s="7" t="inlineStr">
         <is>
@@ -31784,7 +31482,7 @@
           <t>221652@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="8" t="inlineStr">
+      <c r="F157" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31803,10 +31501,10 @@
         <v>20</v>
       </c>
       <c r="J157" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K157" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L157" s="6" t="n">
         <v>27</v>
@@ -31818,7 +31516,7 @@
         <v>1</v>
       </c>
       <c r="O157" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P157" s="7" t="n">
         <v>27</v>
@@ -31832,10 +31530,8 @@
       <c r="S157" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T157" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T157" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U157" s="7" t="inlineStr">
         <is>
@@ -31986,7 +31682,7 @@
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="5" t="inlineStr">
@@ -32003,10 +31699,10 @@
         <v>19</v>
       </c>
       <c r="J158" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K158" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L158" s="6" t="n">
         <v>27</v>
@@ -32018,7 +31714,7 @@
         <v>2</v>
       </c>
       <c r="O158" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="7" t="n">
         <v>27</v>
@@ -32032,10 +31728,8 @@
       <c r="S158" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T158" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T158" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U158" s="7" t="inlineStr">
         <is>
@@ -32184,7 +31878,7 @@
           <t>221658@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="8" t="inlineStr">
+      <c r="F159" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32203,10 +31897,10 @@
         <v>20</v>
       </c>
       <c r="J159" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K159" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L159" s="6" t="n">
         <v>27</v>
@@ -32218,7 +31912,7 @@
         <v>1</v>
       </c>
       <c r="O159" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P159" s="7" t="n">
         <v>27</v>
@@ -32232,10 +31926,8 @@
       <c r="S159" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T159" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T159" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U159" s="7" t="inlineStr">
         <is>
@@ -32386,7 +32078,7 @@
       </c>
       <c r="F160" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G160" s="5" t="inlineStr">
@@ -32403,10 +32095,10 @@
         <v>21</v>
       </c>
       <c r="J160" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K160" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L160" s="6" t="n">
         <v>27</v>
@@ -32418,7 +32110,7 @@
         <v>0</v>
       </c>
       <c r="O160" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P160" s="7" t="n">
         <v>27</v>
@@ -32432,10 +32124,8 @@
       <c r="S160" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T160" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T160" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U160" s="7" t="inlineStr">
         <is>
@@ -32584,7 +32274,7 @@
           <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="F161" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -32788,7 +32478,7 @@
           <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="4" t="inlineStr">
+      <c r="F162" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -32992,7 +32682,7 @@
           <t>221677@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="F163" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33196,7 +32886,7 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="4" t="inlineStr">
+      <c r="F164" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33400,7 +33090,7 @@
           <t>221686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="F165" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33604,7 +33294,7 @@
           <t>221688@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F166" s="4" t="inlineStr">
+      <c r="F166" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -33808,7 +33498,7 @@
           <t>221689@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F167" s="4" t="inlineStr">
+      <c r="F167" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34012,7 +33702,7 @@
           <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="4" t="inlineStr">
+      <c r="F168" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34216,7 +33906,7 @@
           <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="F169" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34420,7 +34110,7 @@
           <t>221700@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="4" t="inlineStr">
+      <c r="F170" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34624,7 +34314,7 @@
           <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="F171" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -34828,7 +34518,7 @@
           <t>221702@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="4" t="inlineStr">
+      <c r="F172" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35032,7 +34722,7 @@
           <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="F173" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35236,7 +34926,7 @@
           <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="4" t="inlineStr">
+      <c r="F174" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35440,7 +35130,7 @@
           <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="4" t="inlineStr">
+      <c r="F175" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35644,7 +35334,7 @@
           <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="4" t="inlineStr">
+      <c r="F176" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -35848,7 +35538,7 @@
           <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="F177" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36052,7 +35742,7 @@
           <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="4" t="inlineStr">
+      <c r="F178" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36256,7 +35946,7 @@
           <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="4" t="inlineStr">
+      <c r="F179" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36460,7 +36150,7 @@
           <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="4" t="inlineStr">
+      <c r="F180" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36664,7 +36354,7 @@
           <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="4" t="inlineStr">
+      <c r="F181" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -36868,7 +36558,7 @@
           <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="4" t="inlineStr">
+      <c r="F182" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37072,7 +36762,7 @@
           <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="4" t="inlineStr">
+      <c r="F183" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37276,7 +36966,7 @@
           <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="4" t="inlineStr">
+      <c r="F184" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37480,7 +37170,7 @@
           <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="4" t="inlineStr">
+      <c r="F185" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37684,7 +37374,7 @@
           <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="4" t="inlineStr">
+      <c r="F186" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -37888,7 +37578,7 @@
           <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="4" t="inlineStr">
+      <c r="F187" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38092,7 +37782,7 @@
           <t>221761@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="4" t="inlineStr">
+      <c r="F188" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38296,7 +37986,7 @@
           <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="4" t="inlineStr">
+      <c r="F189" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38500,7 +38190,7 @@
           <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="4" t="inlineStr">
+      <c r="F190" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38704,7 +38394,7 @@
           <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="4" t="inlineStr">
+      <c r="F191" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -38908,7 +38598,7 @@
           <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="4" t="inlineStr">
+      <c r="F192" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39112,7 +38802,7 @@
           <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="4" t="inlineStr">
+      <c r="F193" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39316,7 +39006,7 @@
           <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="4" t="inlineStr">
+      <c r="F194" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39520,7 +39210,7 @@
           <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="F195" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39724,7 +39414,7 @@
           <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="4" t="inlineStr">
+      <c r="F196" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -39928,7 +39618,7 @@
           <t>221797@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="4" t="inlineStr">
+      <c r="F197" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40132,7 +39822,7 @@
           <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="4" t="inlineStr">
+      <c r="F198" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40336,7 +40026,7 @@
           <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F199" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40540,7 +40230,7 @@
           <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr">
+      <c r="F200" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40744,7 +40434,7 @@
           <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr">
+      <c r="F201" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -40948,7 +40638,7 @@
           <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F202" s="4" t="inlineStr">
+      <c r="F202" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41152,7 +40842,7 @@
           <t>221817@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
+      <c r="F203" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41356,7 +41046,7 @@
           <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="4" t="inlineStr">
+      <c r="F204" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41560,7 +41250,7 @@
           <t>221832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F205" s="4" t="inlineStr">
+      <c r="F205" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41764,7 +41454,7 @@
           <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="4" t="inlineStr">
+      <c r="F206" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -41968,7 +41658,7 @@
           <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="4" t="inlineStr">
+      <c r="F207" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42172,7 +41862,7 @@
           <t>221844@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F208" s="4" t="inlineStr">
+      <c r="F208" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42376,7 +42066,7 @@
           <t>221847@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="4" t="inlineStr">
+      <c r="F209" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42580,7 +42270,7 @@
           <t>221853@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="4" t="inlineStr">
+      <c r="F210" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42784,7 +42474,7 @@
           <t>221854@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F211" s="4" t="inlineStr">
+      <c r="F211" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -42988,7 +42678,7 @@
           <t>221859@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="4" t="inlineStr">
+      <c r="F212" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43192,7 +42882,7 @@
           <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="4" t="inlineStr">
+      <c r="F213" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43396,7 +43086,7 @@
           <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="4" t="inlineStr">
+      <c r="F214" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43600,7 +43290,7 @@
           <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F215" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -43804,7 +43494,7 @@
           <t>221877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="4" t="inlineStr">
+      <c r="F216" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44008,7 +43698,7 @@
           <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="4" t="inlineStr">
+      <c r="F217" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44212,7 +43902,7 @@
           <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="4" t="inlineStr">
+      <c r="F218" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44416,7 +44106,7 @@
           <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr">
+      <c r="F219" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44620,7 +44310,7 @@
           <t>221891@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="4" t="inlineStr">
+      <c r="F220" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -44824,7 +44514,7 @@
           <t>221896@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr">
+      <c r="F221" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45028,7 +44718,7 @@
           <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F222" s="4" t="inlineStr">
+      <c r="F222" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45232,7 +44922,7 @@
           <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="4" t="inlineStr">
+      <c r="F223" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45436,7 +45126,7 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="4" t="inlineStr">
+      <c r="F224" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45640,7 +45330,7 @@
           <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
+      <c r="F225" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -45844,7 +45534,7 @@
           <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="4" t="inlineStr">
+      <c r="F226" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46048,7 +45738,7 @@
           <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="4" t="inlineStr">
+      <c r="F227" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46252,7 +45942,7 @@
           <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="4" t="inlineStr">
+      <c r="F228" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46456,7 +46146,7 @@
           <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="4" t="inlineStr">
+      <c r="F229" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46660,7 +46350,7 @@
           <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F230" s="4" t="inlineStr">
+      <c r="F230" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -46864,7 +46554,7 @@
           <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="4" t="inlineStr">
+      <c r="F231" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47068,7 +46758,7 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="4" t="inlineStr">
+      <c r="F232" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47272,7 +46962,7 @@
           <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="4" t="inlineStr">
+      <c r="F233" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47476,7 +47166,7 @@
           <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F234" s="4" t="inlineStr">
+      <c r="F234" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47680,7 +47370,7 @@
           <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F235" s="4" t="inlineStr">
+      <c r="F235" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -47884,7 +47574,7 @@
           <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="4" t="inlineStr">
+      <c r="F236" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48088,7 +47778,7 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr">
+      <c r="F237" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48292,7 +47982,7 @@
           <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="4" t="inlineStr">
+      <c r="F238" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48496,7 +48186,7 @@
           <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F239" s="4" t="inlineStr">
+      <c r="F239" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48700,7 +48390,7 @@
           <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="4" t="inlineStr">
+      <c r="F240" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -48904,7 +48594,7 @@
           <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="4" t="inlineStr">
+      <c r="F241" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49108,7 +48798,7 @@
           <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="4" t="inlineStr">
+      <c r="F242" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49312,7 +49002,7 @@
           <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="4" t="inlineStr">
+      <c r="F243" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49516,7 +49206,7 @@
           <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F244" s="4" t="inlineStr">
+      <c r="F244" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49720,7 +49410,7 @@
           <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="4" t="inlineStr">
+      <c r="F245" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -49924,7 +49614,7 @@
           <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="4" t="inlineStr">
+      <c r="F246" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50128,7 +49818,7 @@
           <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr">
+      <c r="F247" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50332,7 +50022,7 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="4" t="inlineStr">
+      <c r="F248" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50536,7 +50226,7 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="4" t="inlineStr">
+      <c r="F249" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50740,7 +50430,7 @@
           <t>210421@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F250" s="4" t="inlineStr">
+      <c r="F250" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -50944,7 +50634,7 @@
           <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
+      <c r="F251" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51148,7 +50838,7 @@
           <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="4" t="inlineStr">
+      <c r="F252" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51352,7 +51042,7 @@
           <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F253" s="4" t="inlineStr">
+      <c r="F253" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51556,7 +51246,7 @@
           <t>222080@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F254" s="4" t="inlineStr">
+      <c r="F254" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51760,7 +51450,7 @@
           <t>222081@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F255" s="4" t="inlineStr">
+      <c r="F255" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -51964,7 +51654,7 @@
           <t>222083@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F256" s="4" t="inlineStr">
+      <c r="F256" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52168,7 +51858,7 @@
           <t>222085@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F257" s="4" t="inlineStr">
+      <c r="F257" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52372,7 +52062,7 @@
           <t>222089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F258" s="4" t="inlineStr">
+      <c r="F258" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52576,7 +52266,7 @@
           <t>222091@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F259" s="4" t="inlineStr">
+      <c r="F259" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52780,7 +52470,7 @@
           <t>222094@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F260" s="4" t="inlineStr">
+      <c r="F260" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -52984,7 +52674,7 @@
           <t>222096@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F261" s="4" t="inlineStr">
+      <c r="F261" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53188,7 +52878,7 @@
           <t>222098@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F262" s="4" t="inlineStr">
+      <c r="F262" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53392,7 +53082,7 @@
           <t>222102@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F263" s="4" t="inlineStr">
+      <c r="F263" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53596,7 +53286,7 @@
           <t>222106@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F264" s="4" t="inlineStr">
+      <c r="F264" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -53800,7 +53490,7 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="4" t="inlineStr">
+      <c r="F265" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54004,7 +53694,7 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="4" t="inlineStr">
+      <c r="F266" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54208,7 +53898,7 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="4" t="inlineStr">
+      <c r="F267" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54412,7 +54102,7 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="4" t="inlineStr">
+      <c r="F268" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54616,7 +54306,7 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="4" t="inlineStr">
+      <c r="F269" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -54820,7 +54510,7 @@
           <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F270" s="4" t="inlineStr">
+      <c r="F270" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55024,7 +54714,7 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="4" t="inlineStr">
+      <c r="F271" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55228,7 +54918,7 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="4" t="inlineStr">
+      <c r="F272" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55432,7 +55122,7 @@
           <t>210703@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F273" s="4" t="inlineStr">
+      <c r="F273" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55636,7 +55326,7 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="4" t="inlineStr">
+      <c r="F274" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -55840,7 +55530,7 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="4" t="inlineStr">
+      <c r="F275" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56044,7 +55734,7 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="4" t="inlineStr">
+      <c r="F276" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56248,7 +55938,7 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="4" t="inlineStr">
+      <c r="F277" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56452,7 +56142,7 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="4" t="inlineStr">
+      <c r="F278" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56656,7 +56346,7 @@
           <t>210832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F279" s="4" t="inlineStr">
+      <c r="F279" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -56860,7 +56550,7 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="4" t="inlineStr">
+      <c r="F280" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57064,7 +56754,7 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="4" t="inlineStr">
+      <c r="F281" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57268,7 +56958,7 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="4" t="inlineStr">
+      <c r="F282" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57472,7 +57162,7 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="4" t="inlineStr">
+      <c r="F283" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57676,7 +57366,7 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="4" t="inlineStr">
+      <c r="F284" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -57880,7 +57570,7 @@
           <t>210887@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F285" s="4" t="inlineStr">
+      <c r="F285" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58084,7 +57774,7 @@
           <t>210892@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F286" s="4" t="inlineStr">
+      <c r="F286" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58288,7 +57978,7 @@
           <t>210902@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F287" s="4" t="inlineStr">
+      <c r="F287" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58492,7 +58182,7 @@
           <t>210905@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F288" s="4" t="inlineStr">
+      <c r="F288" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58696,7 +58386,7 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="4" t="inlineStr">
+      <c r="F289" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -58900,7 +58590,7 @@
           <t>210921@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F290" s="4" t="inlineStr">
+      <c r="F290" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59104,7 +58794,7 @@
           <t>210927@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F291" s="4" t="inlineStr">
+      <c r="F291" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59308,7 +58998,7 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="4" t="inlineStr">
+      <c r="F292" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59512,7 +59202,7 @@
           <t>201577@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F293" s="4" t="inlineStr">
+      <c r="F293" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59716,7 +59406,7 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="4" t="inlineStr">
+      <c r="F294" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -59920,7 +59610,7 @@
           <t>210939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F295" s="4" t="inlineStr">
+      <c r="F295" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60124,7 +59814,7 @@
           <t>210941@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F296" s="4" t="inlineStr">
+      <c r="F296" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60328,7 +60018,7 @@
           <t>210947@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F297" s="4" t="inlineStr">
+      <c r="F297" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60532,7 +60222,7 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="4" t="inlineStr">
+      <c r="F298" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60736,7 +60426,7 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="4" t="inlineStr">
+      <c r="F299" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -60940,7 +60630,7 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="4" t="inlineStr">
+      <c r="F300" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61144,7 +60834,7 @@
           <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F301" s="4" t="inlineStr">
+      <c r="F301" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61348,7 +61038,7 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="4" t="inlineStr">
+      <c r="F302" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61552,7 +61242,7 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="4" t="inlineStr">
+      <c r="F303" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61756,7 +61446,7 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="4" t="inlineStr">
+      <c r="F304" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -61960,7 +61650,7 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="4" t="inlineStr">
+      <c r="F305" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62164,7 +61854,7 @@
           <t>211025@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F306" s="4" t="inlineStr">
+      <c r="F306" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62368,7 +62058,7 @@
           <t>211029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F307" s="4" t="inlineStr">
+      <c r="F307" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62572,7 +62262,7 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="4" t="inlineStr">
+      <c r="F308" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62776,7 +62466,7 @@
           <t>211048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F309" s="4" t="inlineStr">
+      <c r="F309" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -62980,7 +62670,7 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="4" t="inlineStr">
+      <c r="F310" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63184,7 +62874,7 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="4" t="inlineStr">
+      <c r="F311" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63388,7 +63078,7 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="4" t="inlineStr">
+      <c r="F312" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63592,7 +63282,7 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="4" t="inlineStr">
+      <c r="F313" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -63796,7 +63486,7 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="4" t="inlineStr">
+      <c r="F314" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64000,7 +63690,7 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="4" t="inlineStr">
+      <c r="F315" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64204,7 +63894,7 @@
           <t>220467@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F316" s="4" t="inlineStr">
+      <c r="F316" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64408,7 +64098,7 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="4" t="inlineStr">
+      <c r="F317" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64612,7 +64302,7 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="4" t="inlineStr">
+      <c r="F318" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -64816,7 +64506,7 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="4" t="inlineStr">
+      <c r="F319" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -65020,7 +64710,7 @@
           <t>223002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F320" s="4" t="inlineStr">
+      <c r="F320" s="9" t="inlineStr">
         <is>
           <t>No Risk</t>
         </is>
@@ -65235,57 +64925,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$231</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -32281,7 +32281,7 @@
       </c>
       <c r="G161" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H161" s="5" t="inlineStr">
@@ -32290,7 +32290,7 @@
         </is>
       </c>
       <c r="I161" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J161" s="6" t="n">
         <v>27</v>
@@ -32305,16 +32305,16 @@
         <v>27</v>
       </c>
       <c r="N161" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P161" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q161" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R161" s="7" t="inlineStr">
         <is>
@@ -32485,7 +32485,7 @@
       </c>
       <c r="G162" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H162" s="5" t="inlineStr">
@@ -32494,7 +32494,7 @@
         </is>
       </c>
       <c r="I162" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J162" s="6" t="n">
         <v>27</v>
@@ -32509,16 +32509,16 @@
         <v>27</v>
       </c>
       <c r="N162" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P162" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q162" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R162" s="7" t="inlineStr">
         <is>
@@ -33097,7 +33097,7 @@
       </c>
       <c r="G165" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H165" s="5" t="inlineStr">
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="I165" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J165" s="6" t="n">
         <v>27</v>
@@ -33121,16 +33121,16 @@
         <v>27</v>
       </c>
       <c r="N165" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O165" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P165" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q165" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R165" s="7" t="inlineStr">
         <is>
@@ -33301,7 +33301,7 @@
       </c>
       <c r="G166" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H166" s="5" t="inlineStr">
@@ -33310,7 +33310,7 @@
         </is>
       </c>
       <c r="I166" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J166" s="6" t="n">
         <v>27</v>
@@ -33325,16 +33325,16 @@
         <v>27</v>
       </c>
       <c r="N166" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O166" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P166" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q166" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R166" s="7" t="inlineStr">
         <is>
@@ -33709,7 +33709,7 @@
       </c>
       <c r="G168" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H168" s="5" t="inlineStr">
@@ -33718,7 +33718,7 @@
         </is>
       </c>
       <c r="I168" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J168" s="6" t="n">
         <v>27</v>
@@ -33733,16 +33733,16 @@
         <v>27</v>
       </c>
       <c r="N168" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O168" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P168" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q168" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R168" s="7" t="inlineStr">
         <is>
@@ -33913,7 +33913,7 @@
       </c>
       <c r="G169" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H169" s="5" t="inlineStr">
@@ -33922,7 +33922,7 @@
         </is>
       </c>
       <c r="I169" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J169" s="6" t="n">
         <v>27</v>
@@ -33937,16 +33937,16 @@
         <v>27</v>
       </c>
       <c r="N169" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P169" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q169" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R169" s="7" t="inlineStr">
         <is>
@@ -34321,7 +34321,7 @@
       </c>
       <c r="G171" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H171" s="5" t="inlineStr">
@@ -34330,7 +34330,7 @@
         </is>
       </c>
       <c r="I171" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J171" s="6" t="n">
         <v>27</v>
@@ -34345,16 +34345,16 @@
         <v>27</v>
       </c>
       <c r="N171" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P171" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q171" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171" s="7" t="inlineStr">
         <is>
@@ -34525,7 +34525,7 @@
       </c>
       <c r="G172" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H172" s="5" t="inlineStr">
@@ -34534,7 +34534,7 @@
         </is>
       </c>
       <c r="I172" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J172" s="6" t="n">
         <v>27</v>
@@ -34549,16 +34549,16 @@
         <v>27</v>
       </c>
       <c r="N172" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O172" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P172" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q172" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R172" s="7" t="inlineStr">
         <is>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="G173" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H173" s="5" t="inlineStr">
@@ -34738,7 +34738,7 @@
         </is>
       </c>
       <c r="I173" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J173" s="6" t="n">
         <v>27</v>
@@ -34753,16 +34753,16 @@
         <v>27</v>
       </c>
       <c r="N173" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O173" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P173" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q173" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R173" s="7" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
       </c>
       <c r="G174" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H174" s="5" t="inlineStr">
@@ -34942,7 +34942,7 @@
         </is>
       </c>
       <c r="I174" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J174" s="6" t="n">
         <v>27</v>
@@ -34957,16 +34957,16 @@
         <v>27</v>
       </c>
       <c r="N174" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O174" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P174" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q174" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R174" s="7" t="inlineStr">
         <is>
@@ -35137,7 +35137,7 @@
       </c>
       <c r="G175" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H175" s="5" t="inlineStr">
@@ -35146,7 +35146,7 @@
         </is>
       </c>
       <c r="I175" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J175" s="6" t="n">
         <v>27</v>
@@ -35161,16 +35161,16 @@
         <v>27</v>
       </c>
       <c r="N175" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O175" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P175" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q175" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R175" s="7" t="inlineStr">
         <is>
@@ -35341,7 +35341,7 @@
       </c>
       <c r="G176" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H176" s="5" t="inlineStr">
@@ -35350,7 +35350,7 @@
         </is>
       </c>
       <c r="I176" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J176" s="6" t="n">
         <v>27</v>
@@ -35365,16 +35365,16 @@
         <v>27</v>
       </c>
       <c r="N176" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O176" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P176" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q176" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176" s="7" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
       </c>
       <c r="G177" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H177" s="5" t="inlineStr">
@@ -35554,7 +35554,7 @@
         </is>
       </c>
       <c r="I177" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J177" s="6" t="n">
         <v>27</v>
@@ -35569,16 +35569,16 @@
         <v>27</v>
       </c>
       <c r="N177" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O177" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P177" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q177" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R177" s="7" t="inlineStr">
         <is>
@@ -35749,7 +35749,7 @@
       </c>
       <c r="G178" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H178" s="5" t="inlineStr">
@@ -35758,7 +35758,7 @@
         </is>
       </c>
       <c r="I178" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J178" s="6" t="n">
         <v>27</v>
@@ -35773,16 +35773,16 @@
         <v>27</v>
       </c>
       <c r="N178" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O178" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P178" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q178" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R178" s="7" t="inlineStr">
         <is>
@@ -35953,7 +35953,7 @@
       </c>
       <c r="G179" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H179" s="5" t="inlineStr">
@@ -35962,7 +35962,7 @@
         </is>
       </c>
       <c r="I179" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J179" s="6" t="n">
         <v>27</v>
@@ -35977,16 +35977,16 @@
         <v>27</v>
       </c>
       <c r="N179" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O179" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P179" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q179" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R179" s="7" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
       </c>
       <c r="G181" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H181" s="5" t="inlineStr">
@@ -36370,7 +36370,7 @@
         </is>
       </c>
       <c r="I181" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J181" s="6" t="n">
         <v>27</v>
@@ -36385,16 +36385,16 @@
         <v>27</v>
       </c>
       <c r="N181" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O181" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P181" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q181" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R181" s="7" t="inlineStr">
         <is>
@@ -36565,7 +36565,7 @@
       </c>
       <c r="G182" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H182" s="5" t="inlineStr">
@@ -36574,7 +36574,7 @@
         </is>
       </c>
       <c r="I182" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J182" s="6" t="n">
         <v>27</v>
@@ -36589,16 +36589,16 @@
         <v>27</v>
       </c>
       <c r="N182" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O182" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P182" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q182" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R182" s="7" t="inlineStr">
         <is>
@@ -36769,7 +36769,7 @@
       </c>
       <c r="G183" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H183" s="5" t="inlineStr">
@@ -36778,7 +36778,7 @@
         </is>
       </c>
       <c r="I183" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J183" s="6" t="n">
         <v>27</v>
@@ -36793,16 +36793,16 @@
         <v>27</v>
       </c>
       <c r="N183" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O183" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P183" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q183" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R183" s="7" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
       </c>
       <c r="G184" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H184" s="5" t="inlineStr">
@@ -36982,7 +36982,7 @@
         </is>
       </c>
       <c r="I184" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J184" s="6" t="n">
         <v>27</v>
@@ -36997,16 +36997,16 @@
         <v>27</v>
       </c>
       <c r="N184" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O184" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P184" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q184" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R184" s="7" t="inlineStr">
         <is>
@@ -37177,7 +37177,7 @@
       </c>
       <c r="G185" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H185" s="5" t="inlineStr">
@@ -37186,7 +37186,7 @@
         </is>
       </c>
       <c r="I185" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J185" s="6" t="n">
         <v>27</v>
@@ -37201,16 +37201,16 @@
         <v>27</v>
       </c>
       <c r="N185" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O185" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P185" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q185" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R185" s="7" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
       </c>
       <c r="G187" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H187" s="5" t="inlineStr">
@@ -37594,7 +37594,7 @@
         </is>
       </c>
       <c r="I187" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J187" s="6" t="n">
         <v>27</v>
@@ -37609,16 +37609,16 @@
         <v>27</v>
       </c>
       <c r="N187" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O187" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P187" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q187" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R187" s="7" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
       </c>
       <c r="G188" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H188" s="5" t="inlineStr">
@@ -37798,7 +37798,7 @@
         </is>
       </c>
       <c r="I188" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J188" s="6" t="n">
         <v>27</v>
@@ -37813,16 +37813,16 @@
         <v>27</v>
       </c>
       <c r="N188" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O188" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P188" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q188" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R188" s="7" t="inlineStr">
         <is>
@@ -37993,7 +37993,7 @@
       </c>
       <c r="G189" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H189" s="5" t="inlineStr">
@@ -38002,7 +38002,7 @@
         </is>
       </c>
       <c r="I189" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J189" s="6" t="n">
         <v>27</v>
@@ -38017,16 +38017,16 @@
         <v>27</v>
       </c>
       <c r="N189" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O189" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P189" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q189" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R189" s="7" t="inlineStr">
         <is>
@@ -38197,7 +38197,7 @@
       </c>
       <c r="G190" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H190" s="5" t="inlineStr">
@@ -38206,7 +38206,7 @@
         </is>
       </c>
       <c r="I190" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J190" s="6" t="n">
         <v>27</v>
@@ -38221,16 +38221,16 @@
         <v>27</v>
       </c>
       <c r="N190" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O190" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P190" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q190" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R190" s="7" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
       </c>
       <c r="G191" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H191" s="5" t="inlineStr">
@@ -38410,7 +38410,7 @@
         </is>
       </c>
       <c r="I191" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J191" s="6" t="n">
         <v>27</v>
@@ -38425,16 +38425,16 @@
         <v>27</v>
       </c>
       <c r="N191" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O191" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P191" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q191" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R191" s="7" t="inlineStr">
         <is>
@@ -38605,7 +38605,7 @@
       </c>
       <c r="G192" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H192" s="5" t="inlineStr">
@@ -38614,7 +38614,7 @@
         </is>
       </c>
       <c r="I192" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J192" s="6" t="n">
         <v>27</v>
@@ -38629,16 +38629,16 @@
         <v>27</v>
       </c>
       <c r="N192" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O192" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P192" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q192" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R192" s="7" t="inlineStr">
         <is>
@@ -38809,7 +38809,7 @@
       </c>
       <c r="G193" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H193" s="5" t="inlineStr">
@@ -38818,7 +38818,7 @@
         </is>
       </c>
       <c r="I193" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J193" s="6" t="n">
         <v>27</v>
@@ -38833,16 +38833,16 @@
         <v>27</v>
       </c>
       <c r="N193" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P193" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q193" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193" s="7" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
       </c>
       <c r="G194" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H194" s="5" t="inlineStr">
@@ -39022,7 +39022,7 @@
         </is>
       </c>
       <c r="I194" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J194" s="6" t="n">
         <v>27</v>
@@ -39037,16 +39037,16 @@
         <v>27</v>
       </c>
       <c r="N194" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O194" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P194" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q194" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" s="7" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
       </c>
       <c r="G195" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H195" s="5" t="inlineStr">
@@ -39226,7 +39226,7 @@
         </is>
       </c>
       <c r="I195" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J195" s="6" t="n">
         <v>27</v>
@@ -39241,16 +39241,16 @@
         <v>27</v>
       </c>
       <c r="N195" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O195" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P195" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q195" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195" s="7" t="inlineStr">
         <is>
@@ -39421,7 +39421,7 @@
       </c>
       <c r="G196" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H196" s="5" t="inlineStr">
@@ -39430,7 +39430,7 @@
         </is>
       </c>
       <c r="I196" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J196" s="6" t="n">
         <v>27</v>
@@ -39445,16 +39445,16 @@
         <v>27</v>
       </c>
       <c r="N196" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P196" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q196" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R196" s="7" t="inlineStr">
         <is>
@@ -39829,7 +39829,7 @@
       </c>
       <c r="G198" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H198" s="5" t="inlineStr">
@@ -39838,7 +39838,7 @@
         </is>
       </c>
       <c r="I198" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J198" s="6" t="n">
         <v>27</v>
@@ -39853,16 +39853,16 @@
         <v>27</v>
       </c>
       <c r="N198" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O198" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P198" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q198" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198" s="7" t="inlineStr">
         <is>
@@ -40033,7 +40033,7 @@
       </c>
       <c r="G199" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H199" s="5" t="inlineStr">
@@ -40042,7 +40042,7 @@
         </is>
       </c>
       <c r="I199" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J199" s="6" t="n">
         <v>27</v>
@@ -40057,16 +40057,16 @@
         <v>27</v>
       </c>
       <c r="N199" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O199" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P199" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q199" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R199" s="7" t="inlineStr">
         <is>
@@ -40237,7 +40237,7 @@
       </c>
       <c r="G200" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H200" s="5" t="inlineStr">
@@ -40246,7 +40246,7 @@
         </is>
       </c>
       <c r="I200" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J200" s="6" t="n">
         <v>27</v>
@@ -40261,16 +40261,16 @@
         <v>27</v>
       </c>
       <c r="N200" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O200" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P200" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q200" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R200" s="7" t="inlineStr">
         <is>
@@ -40441,7 +40441,7 @@
       </c>
       <c r="G201" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H201" s="5" t="inlineStr">
@@ -40450,7 +40450,7 @@
         </is>
       </c>
       <c r="I201" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J201" s="6" t="n">
         <v>27</v>
@@ -40465,16 +40465,16 @@
         <v>27</v>
       </c>
       <c r="N201" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O201" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P201" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q201" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R201" s="7" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
       </c>
       <c r="G202" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H202" s="5" t="inlineStr">
@@ -40654,7 +40654,7 @@
         </is>
       </c>
       <c r="I202" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J202" s="6" t="n">
         <v>27</v>
@@ -40669,16 +40669,16 @@
         <v>27</v>
       </c>
       <c r="N202" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O202" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P202" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q202" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202" s="7" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
       </c>
       <c r="G204" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H204" s="5" t="inlineStr">
@@ -41062,7 +41062,7 @@
         </is>
       </c>
       <c r="I204" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J204" s="6" t="n">
         <v>27</v>
@@ -41077,16 +41077,16 @@
         <v>27</v>
       </c>
       <c r="N204" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P204" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q204" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R204" s="7" t="inlineStr">
         <is>
@@ -41461,7 +41461,7 @@
       </c>
       <c r="G206" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H206" s="5" t="inlineStr">
@@ -41470,7 +41470,7 @@
         </is>
       </c>
       <c r="I206" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J206" s="6" t="n">
         <v>27</v>
@@ -41485,16 +41485,16 @@
         <v>27</v>
       </c>
       <c r="N206" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O206" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P206" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q206" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206" s="7" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
       </c>
       <c r="G207" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H207" s="5" t="inlineStr">
@@ -41674,7 +41674,7 @@
         </is>
       </c>
       <c r="I207" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J207" s="6" t="n">
         <v>27</v>
@@ -41689,16 +41689,16 @@
         <v>27</v>
       </c>
       <c r="N207" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O207" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P207" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q207" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R207" s="7" t="inlineStr">
         <is>
@@ -42277,7 +42277,7 @@
       </c>
       <c r="G210" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H210" s="5" t="inlineStr">
@@ -42286,7 +42286,7 @@
         </is>
       </c>
       <c r="I210" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J210" s="6" t="n">
         <v>27</v>
@@ -42301,16 +42301,16 @@
         <v>27</v>
       </c>
       <c r="N210" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O210" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P210" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q210" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R210" s="7" t="inlineStr">
         <is>
@@ -42685,7 +42685,7 @@
       </c>
       <c r="G212" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H212" s="5" t="inlineStr">
@@ -42694,7 +42694,7 @@
         </is>
       </c>
       <c r="I212" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J212" s="6" t="n">
         <v>27</v>
@@ -42709,16 +42709,16 @@
         <v>27</v>
       </c>
       <c r="N212" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O212" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P212" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q212" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R212" s="7" t="inlineStr">
         <is>
@@ -42889,7 +42889,7 @@
       </c>
       <c r="G213" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H213" s="5" t="inlineStr">
@@ -42898,7 +42898,7 @@
         </is>
       </c>
       <c r="I213" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J213" s="6" t="n">
         <v>27</v>
@@ -42913,16 +42913,16 @@
         <v>27</v>
       </c>
       <c r="N213" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P213" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q213" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R213" s="7" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
       </c>
       <c r="G215" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H215" s="5" t="inlineStr">
@@ -43306,7 +43306,7 @@
         </is>
       </c>
       <c r="I215" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J215" s="6" t="n">
         <v>27</v>
@@ -43321,16 +43321,16 @@
         <v>27</v>
       </c>
       <c r="N215" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P215" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q215" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R215" s="7" t="inlineStr">
         <is>
@@ -43705,7 +43705,7 @@
       </c>
       <c r="G217" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H217" s="5" t="inlineStr">
@@ -43714,7 +43714,7 @@
         </is>
       </c>
       <c r="I217" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J217" s="6" t="n">
         <v>27</v>
@@ -43729,16 +43729,16 @@
         <v>27</v>
       </c>
       <c r="N217" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P217" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q217" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R217" s="7" t="inlineStr">
         <is>
@@ -43909,7 +43909,7 @@
       </c>
       <c r="G218" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H218" s="5" t="inlineStr">
@@ -43918,7 +43918,7 @@
         </is>
       </c>
       <c r="I218" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J218" s="6" t="n">
         <v>27</v>
@@ -43933,16 +43933,16 @@
         <v>27</v>
       </c>
       <c r="N218" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P218" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q218" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R218" s="7" t="inlineStr">
         <is>
@@ -44113,7 +44113,7 @@
       </c>
       <c r="G219" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H219" s="5" t="inlineStr">
@@ -44122,7 +44122,7 @@
         </is>
       </c>
       <c r="I219" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J219" s="6" t="n">
         <v>27</v>
@@ -44137,16 +44137,16 @@
         <v>27</v>
       </c>
       <c r="N219" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O219" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P219" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q219" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R219" s="7" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
       </c>
       <c r="G222" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H222" s="5" t="inlineStr">
@@ -44734,7 +44734,7 @@
         </is>
       </c>
       <c r="I222" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J222" s="6" t="n">
         <v>27</v>
@@ -44749,16 +44749,16 @@
         <v>27</v>
       </c>
       <c r="N222" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q222" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R222" s="7" t="inlineStr">
         <is>
@@ -44929,7 +44929,7 @@
       </c>
       <c r="G223" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H223" s="5" t="inlineStr">
@@ -44938,7 +44938,7 @@
         </is>
       </c>
       <c r="I223" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J223" s="6" t="n">
         <v>27</v>
@@ -44953,16 +44953,16 @@
         <v>27</v>
       </c>
       <c r="N223" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O223" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q223" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R223" s="7" t="inlineStr">
         <is>
@@ -45337,7 +45337,7 @@
       </c>
       <c r="G225" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H225" s="5" t="inlineStr">
@@ -45346,7 +45346,7 @@
         </is>
       </c>
       <c r="I225" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J225" s="6" t="n">
         <v>27</v>
@@ -45361,16 +45361,16 @@
         <v>27</v>
       </c>
       <c r="N225" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O225" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P225" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q225" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R225" s="7" t="inlineStr">
         <is>
@@ -45541,7 +45541,7 @@
       </c>
       <c r="G226" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H226" s="5" t="inlineStr">
@@ -45550,7 +45550,7 @@
         </is>
       </c>
       <c r="I226" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J226" s="6" t="n">
         <v>27</v>
@@ -45565,16 +45565,16 @@
         <v>27</v>
       </c>
       <c r="N226" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O226" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P226" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q226" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R226" s="7" t="inlineStr">
         <is>
@@ -45745,7 +45745,7 @@
       </c>
       <c r="G227" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H227" s="5" t="inlineStr">
@@ -45754,7 +45754,7 @@
         </is>
       </c>
       <c r="I227" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J227" s="6" t="n">
         <v>27</v>
@@ -45769,16 +45769,16 @@
         <v>27</v>
       </c>
       <c r="N227" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P227" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q227" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" s="7" t="inlineStr">
         <is>
@@ -45949,7 +45949,7 @@
       </c>
       <c r="G228" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
@@ -45958,7 +45958,7 @@
         </is>
       </c>
       <c r="I228" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J228" s="6" t="n">
         <v>27</v>
@@ -45973,16 +45973,16 @@
         <v>27</v>
       </c>
       <c r="N228" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O228" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P228" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q228" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R228" s="7" t="inlineStr">
         <is>
@@ -46153,7 +46153,7 @@
       </c>
       <c r="G229" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H229" s="5" t="inlineStr">
@@ -46162,7 +46162,7 @@
         </is>
       </c>
       <c r="I229" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J229" s="6" t="n">
         <v>27</v>
@@ -46177,16 +46177,16 @@
         <v>27</v>
       </c>
       <c r="N229" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P229" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q229" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R229" s="7" t="inlineStr">
         <is>
@@ -46357,7 +46357,7 @@
       </c>
       <c r="G230" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H230" s="5" t="inlineStr">
@@ -46366,7 +46366,7 @@
         </is>
       </c>
       <c r="I230" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J230" s="6" t="n">
         <v>27</v>
@@ -46381,16 +46381,16 @@
         <v>27</v>
       </c>
       <c r="N230" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P230" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q230" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230" s="7" t="inlineStr">
         <is>
@@ -46561,7 +46561,7 @@
       </c>
       <c r="G231" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H231" s="5" t="inlineStr">
@@ -46570,7 +46570,7 @@
         </is>
       </c>
       <c r="I231" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J231" s="6" t="n">
         <v>27</v>
@@ -46585,16 +46585,16 @@
         <v>27</v>
       </c>
       <c r="N231" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O231" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P231" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q231" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R231" s="7" t="inlineStr">
         <is>
@@ -46969,7 +46969,7 @@
       </c>
       <c r="G233" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H233" s="5" t="inlineStr">
@@ -46978,7 +46978,7 @@
         </is>
       </c>
       <c r="I233" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J233" s="6" t="n">
         <v>27</v>
@@ -46993,16 +46993,16 @@
         <v>27</v>
       </c>
       <c r="N233" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P233" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q233" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R233" s="7" t="inlineStr">
         <is>
@@ -47173,7 +47173,7 @@
       </c>
       <c r="G234" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -47182,7 +47182,7 @@
         </is>
       </c>
       <c r="I234" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J234" s="6" t="n">
         <v>27</v>
@@ -47197,16 +47197,16 @@
         <v>27</v>
       </c>
       <c r="N234" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P234" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q234" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R234" s="7" t="inlineStr">
         <is>
@@ -47377,7 +47377,7 @@
       </c>
       <c r="G235" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H235" s="5" t="inlineStr">
@@ -47386,7 +47386,7 @@
         </is>
       </c>
       <c r="I235" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J235" s="6" t="n">
         <v>27</v>
@@ -47401,16 +47401,16 @@
         <v>27</v>
       </c>
       <c r="N235" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O235" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P235" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q235" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R235" s="7" t="inlineStr">
         <is>
@@ -47581,7 +47581,7 @@
       </c>
       <c r="G236" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H236" s="5" t="inlineStr">
@@ -47590,7 +47590,7 @@
         </is>
       </c>
       <c r="I236" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J236" s="6" t="n">
         <v>27</v>
@@ -47605,16 +47605,16 @@
         <v>27</v>
       </c>
       <c r="N236" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P236" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q236" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R236" s="7" t="inlineStr">
         <is>
@@ -47989,7 +47989,7 @@
       </c>
       <c r="G238" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H238" s="5" t="inlineStr">
@@ -47998,7 +47998,7 @@
         </is>
       </c>
       <c r="I238" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J238" s="6" t="n">
         <v>27</v>
@@ -48013,16 +48013,16 @@
         <v>27</v>
       </c>
       <c r="N238" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P238" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q238" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238" s="7" t="inlineStr">
         <is>
@@ -48193,7 +48193,7 @@
       </c>
       <c r="G239" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H239" s="5" t="inlineStr">
@@ -48202,7 +48202,7 @@
         </is>
       </c>
       <c r="I239" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J239" s="6" t="n">
         <v>27</v>
@@ -48217,16 +48217,16 @@
         <v>27</v>
       </c>
       <c r="N239" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O239" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P239" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q239" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R239" s="7" t="inlineStr">
         <is>
@@ -48397,7 +48397,7 @@
       </c>
       <c r="G240" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H240" s="5" t="inlineStr">
@@ -48406,7 +48406,7 @@
         </is>
       </c>
       <c r="I240" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J240" s="6" t="n">
         <v>27</v>
@@ -48421,16 +48421,16 @@
         <v>27</v>
       </c>
       <c r="N240" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O240" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P240" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q240" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R240" s="7" t="inlineStr">
         <is>
@@ -48601,7 +48601,7 @@
       </c>
       <c r="G241" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H241" s="5" t="inlineStr">
@@ -48610,7 +48610,7 @@
         </is>
       </c>
       <c r="I241" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J241" s="6" t="n">
         <v>27</v>
@@ -48625,16 +48625,16 @@
         <v>27</v>
       </c>
       <c r="N241" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O241" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P241" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q241" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R241" s="7" t="inlineStr">
         <is>
@@ -49213,7 +49213,7 @@
       </c>
       <c r="G244" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H244" s="5" t="inlineStr">
@@ -49222,7 +49222,7 @@
         </is>
       </c>
       <c r="I244" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J244" s="6" t="n">
         <v>27</v>
@@ -49237,16 +49237,16 @@
         <v>27</v>
       </c>
       <c r="N244" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O244" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P244" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q244" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R244" s="7" t="inlineStr">
         <is>
@@ -49417,7 +49417,7 @@
       </c>
       <c r="G245" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H245" s="5" t="inlineStr">
@@ -49426,7 +49426,7 @@
         </is>
       </c>
       <c r="I245" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J245" s="6" t="n">
         <v>27</v>
@@ -49441,16 +49441,16 @@
         <v>27</v>
       </c>
       <c r="N245" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O245" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P245" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q245" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R245" s="7" t="inlineStr">
         <is>
@@ -50437,7 +50437,7 @@
       </c>
       <c r="G250" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H250" s="5" t="inlineStr">
@@ -50446,7 +50446,7 @@
         </is>
       </c>
       <c r="I250" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J250" s="6" t="n">
         <v>27</v>
@@ -50461,16 +50461,16 @@
         <v>27</v>
       </c>
       <c r="N250" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O250" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P250" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q250" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R250" s="7" t="inlineStr">
         <is>
@@ -50845,7 +50845,7 @@
       </c>
       <c r="G252" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
@@ -50854,7 +50854,7 @@
         </is>
       </c>
       <c r="I252" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J252" s="6" t="n">
         <v>27</v>
@@ -50869,16 +50869,16 @@
         <v>27</v>
       </c>
       <c r="N252" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P252" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q252" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R252" s="7" t="inlineStr">
         <is>
@@ -51049,7 +51049,7 @@
       </c>
       <c r="G253" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
@@ -51058,7 +51058,7 @@
         </is>
       </c>
       <c r="I253" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J253" s="6" t="n">
         <v>27</v>
@@ -51073,16 +51073,16 @@
         <v>27</v>
       </c>
       <c r="N253" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O253" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P253" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q253" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R253" s="7" t="inlineStr">
         <is>
@@ -51253,7 +51253,7 @@
       </c>
       <c r="G254" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
@@ -51262,7 +51262,7 @@
         </is>
       </c>
       <c r="I254" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J254" s="6" t="n">
         <v>27</v>
@@ -51277,16 +51277,16 @@
         <v>27</v>
       </c>
       <c r="N254" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O254" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P254" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q254" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R254" s="7" t="inlineStr">
         <is>
@@ -51457,7 +51457,7 @@
       </c>
       <c r="G255" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
@@ -51466,7 +51466,7 @@
         </is>
       </c>
       <c r="I255" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J255" s="6" t="n">
         <v>27</v>
@@ -51481,16 +51481,16 @@
         <v>27</v>
       </c>
       <c r="N255" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O255" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q255" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R255" s="7" t="inlineStr">
         <is>
@@ -51661,7 +51661,7 @@
       </c>
       <c r="G256" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H256" s="5" t="inlineStr">
@@ -51670,7 +51670,7 @@
         </is>
       </c>
       <c r="I256" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J256" s="6" t="n">
         <v>27</v>
@@ -51685,16 +51685,16 @@
         <v>27</v>
       </c>
       <c r="N256" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O256" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P256" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q256" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R256" s="7" t="inlineStr">
         <is>
@@ -51865,7 +51865,7 @@
       </c>
       <c r="G257" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
@@ -51874,7 +51874,7 @@
         </is>
       </c>
       <c r="I257" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J257" s="6" t="n">
         <v>27</v>
@@ -51889,16 +51889,16 @@
         <v>27</v>
       </c>
       <c r="N257" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O257" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P257" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q257" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R257" s="7" t="inlineStr">
         <is>
@@ -52273,7 +52273,7 @@
       </c>
       <c r="G259" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
@@ -52282,7 +52282,7 @@
         </is>
       </c>
       <c r="I259" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J259" s="6" t="n">
         <v>27</v>
@@ -52297,16 +52297,16 @@
         <v>27</v>
       </c>
       <c r="N259" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O259" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P259" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q259" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R259" s="7" t="inlineStr">
         <is>
@@ -52681,7 +52681,7 @@
       </c>
       <c r="G261" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
@@ -52690,7 +52690,7 @@
         </is>
       </c>
       <c r="I261" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J261" s="6" t="n">
         <v>27</v>
@@ -52705,16 +52705,16 @@
         <v>27</v>
       </c>
       <c r="N261" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O261" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P261" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q261" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R261" s="7" t="inlineStr">
         <is>
@@ -52885,7 +52885,7 @@
       </c>
       <c r="G262" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H262" s="5" t="inlineStr">
@@ -52894,7 +52894,7 @@
         </is>
       </c>
       <c r="I262" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J262" s="6" t="n">
         <v>27</v>
@@ -52909,16 +52909,16 @@
         <v>27</v>
       </c>
       <c r="N262" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O262" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P262" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q262" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R262" s="7" t="inlineStr">
         <is>
@@ -53293,7 +53293,7 @@
       </c>
       <c r="G264" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H264" s="5" t="inlineStr">
@@ -53302,7 +53302,7 @@
         </is>
       </c>
       <c r="I264" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J264" s="6" t="n">
         <v>27</v>
@@ -53317,16 +53317,16 @@
         <v>27</v>
       </c>
       <c r="N264" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P264" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q264" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R264" s="7" t="inlineStr">
         <is>
@@ -54517,7 +54517,7 @@
       </c>
       <c r="G270" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H270" s="5" t="inlineStr">
@@ -54526,7 +54526,7 @@
         </is>
       </c>
       <c r="I270" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J270" s="6" t="n">
         <v>27</v>
@@ -54541,16 +54541,16 @@
         <v>27</v>
       </c>
       <c r="N270" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O270" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P270" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q270" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R270" s="7" t="inlineStr">
         <is>
@@ -57985,7 +57985,7 @@
       </c>
       <c r="G287" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H287" s="5" t="inlineStr">
@@ -57994,7 +57994,7 @@
         </is>
       </c>
       <c r="I287" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J287" s="6" t="n">
         <v>27</v>
@@ -58009,16 +58009,16 @@
         <v>27</v>
       </c>
       <c r="N287" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O287" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P287" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q287" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R287" s="7" t="inlineStr">
         <is>
@@ -60841,7 +60841,7 @@
       </c>
       <c r="G301" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H301" s="5" t="inlineStr">
@@ -60850,7 +60850,7 @@
         </is>
       </c>
       <c r="I301" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J301" s="6" t="n">
         <v>27</v>
@@ -60865,16 +60865,16 @@
         <v>27</v>
       </c>
       <c r="N301" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O301" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P301" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q301" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R301" s="7" t="inlineStr">
         <is>
@@ -64900,7 +64900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -73645,8 +73645,4454 @@
         </is>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>222091</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>سالم فايز سالم البلوى</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>222091@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>11:57:05</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>222106</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>عمرو ياسر عثمان عبد المجيد</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>222106@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>11:23:50</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>222081</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>عفيف عبد الجبار العبيد الصديق</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>222081@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>11:24:03</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>210306</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>احمد اشرف احمد رجب غزال</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>210306@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>11:24:31</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>210301</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>ابانوب ايمن جميل وديع</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>210301@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>11:24:36</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>222096</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>محمود النميرى محمود ابراهيم</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>222096@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>11:24:47</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>210421</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>توماس مرجان فوزى شكر الله</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>210421@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>11:25:56</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>210334</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>210334@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>11:26:05</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>222083</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>محمد المجتبى فخر الدين بلال خليل</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>222083@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>11:30:54</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>221582</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>221582@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>11:33:43</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>222098</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>نعم عمر محمد عثمان</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>222098@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>11:34:07</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>210340</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>احمد منتصر سيد منتصر احمد</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>210340@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>11:40:02</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>210438</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>حسينى طارق حسينى محمد الطويل</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>210438@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>11:40:32</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>210288</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>عمرو اشرف جابر رمضان</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>210288@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>11:40:49</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>222085</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>مهند معاوية صالح جقدولة</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>222085@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>11:42:48</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>222080</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>عبد الرحمن اسد الله حامد احمد</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>222080@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>11:45:04</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>B1E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>222060</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>عثمان عبد الخالق عثمان عبده</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>222060@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>11:23:58</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>222009</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>222009@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>11:24:00</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>221961</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ياسمين بابكر موسى بابكر</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>221961@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>11:24:05</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>221885</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>جهاد عمر سويد</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>221885@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>11:24:39</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>221862</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>روعه مراد زكى مراد</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>221862@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>11:24:41</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>222050</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>هاجر طة عبد الحميد طه</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>222050@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>11:24:43</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>221936</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>221936@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>11:24:45</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>222064</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ميسره احمد عمر احمد</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>222064@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>11:31:36</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>221957</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>باسل احمد محمد احمد</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>221957@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>11:32:13</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>222078</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>صهيب عبد المنعم طه عثمان</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>222078@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>11:32:38</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>221878</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ميسم الصادق يعقوب احمد</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>221878@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>11:33:13</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>221880</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>دعاء صلاح محمد حسن</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>221880@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>11:38:29</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>221939</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>221939@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>11:43:55</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>221994</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>رنا محمد مصطفى على</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>221994@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>11:44:08</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>221974</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ابرار كمال محمد عمر</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>221974@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>11:44:18</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>222062</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>محمد المصطفى ادم داؤد على</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>222062@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>11:44:32</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>221999</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>منذر عبد الله بلال مضوى</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>221999@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>11:44:39</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>221967</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>حسن اسماعيل اشحيبر</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>221967@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>11:44:56</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>B1E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>221816</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>رغد محمد عبدالملك الضحياني</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>221816@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>11:24:07</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>221757</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>بشرى فكري محمد احمد الحميدي</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>221757@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>11:24:09</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>221803</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>يحيى ابراهيم محمد الدراغمه</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>221803@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>11:24:13</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>221813</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>شمائل عبدالله مصطفي محمد الحسين</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>221813@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>11:24:23</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>221860</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>حمزه صالح ابراهيم ابو شاويش</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>221860@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>11:24:26</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>221766</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>خالد وليد سالم</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>221766@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>11:24:49</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>221763</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>مهند فراس الاديب</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>221763@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>11:24:50</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>221834</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>خالد مصطفى صالحه</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>221834@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>11:24:52</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>221841</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>جميل تمام سيجري</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>221841@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>11:24:57</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>221809</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>زياد محمد حسنى عليوه</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>221809@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>11:25:05</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>221657</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>محمد احمد العطا حمد</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>221657@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>11:25:10</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>221830</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>مهجة خالد الضو مصطفى</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>221830@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>11:25:16</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>221773</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>محمود عبد السلام الشيخ</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>221773@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>11:28:03</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>221784</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>روان الجيلى خضر محمد</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>221784@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>11:30:03</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>221641</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>حنين احمد محمد الزق</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>221641@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>11:35:00</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>221786</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>221786@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>11:36:15</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>221775</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>عبد الرحمن عمر محمد الحايك</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>221775@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>11:36:39</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>221767</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>وعد صديق عبدالرحمن يحى</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>221767@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>11:37:11</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>221805</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>ربا باسبار نورالدين عثمان</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>221805@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>11:37:35</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>221853</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>موسى تاج الدين موسى ادريس</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>221853@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>11:39:04</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>221761</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>كمال رامى كمال عبد العال</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>221761@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>12:13:49</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>221781</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>نون عبدالله فضل ادريس</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>221781@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>12:14:27</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>221859</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ايلاف يوسف محمد احمد</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>221859@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>12:14:32</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>221674</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>221674@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>11:24:11</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>221694</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>محمد جمال محمد حاج</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>221694@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>11:24:16</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>221716</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>على الحسن</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>221716@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>11:24:18</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>221711</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>وسيم رجب محمود حسين عياد</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>221711@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>11:24:21</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>221686</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>عبد الرحمن اسماعيل كمال احمرو</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>221686@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>11:24:28</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>221751</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>محمد محمود درويش ابو سريه</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>221751@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>11:24:54</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>221706</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>على محمد على بابكر</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>221706@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>11:25:06</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>221701</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>محمود سليم سليمان زبن</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>221701@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>11:25:08</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>221697</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>زينب عبدالغفور محمد عبدالله</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>221697@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>11:25:14</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>221729</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>حسين احمد حسين الحسن</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>221729@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>11:28:59</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>221752</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>نبا ابراهيم الزعبى</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>221752@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>11:29:31</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>221676</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>ساميه أحمد محمد طيطي</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>221676@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>11:34:37</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>221722</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>بتول باسم قاووق</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>221722@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>11:35:36</t>
+        </is>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>221713</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>عبق الطيب الامين عبد الماجد</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>221713@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>11:38:02</t>
+        </is>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>221688</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>سليمان اياد سليمان الفليت</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>221688@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>11:39:34</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>221712</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>221712@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>11:41:36</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>221702</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>محمود ابراهيم توفيق أبو هجرس</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>221702@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>11:43:23</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>221745</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>لينة عبدالعظيم احمد سيد</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>221745@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>12:14:01</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>210558</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>على عبد الرؤف محمد بكرى</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>210558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>11:24:34</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>210902</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>عبير ميسره محى الدين قاسم</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>210902@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>11:26:13</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>210994</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>نور ماجد فايز ابو جامع</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>210994@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>11:25:45</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K153"/>
+  <autoFilter ref="A1:K231"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -32293,33 +32293,31 @@
         <v>20</v>
       </c>
       <c r="J161" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K161" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M161" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N161" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L161" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M161" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N161" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O161" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P161" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q161" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R161" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R161" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S161" s="7" t="inlineStr">
         <is>
@@ -32497,33 +32495,31 @@
         <v>20</v>
       </c>
       <c r="J162" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K162" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M162" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N162" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O162" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L162" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M162" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N162" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O162" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P162" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q162" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R162" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R162" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S162" s="7" t="inlineStr">
         <is>
@@ -32682,9 +32678,9 @@
           <t>221677@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G163" s="5" t="inlineStr">
@@ -32701,10 +32697,10 @@
         <v>21</v>
       </c>
       <c r="J163" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K163" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L163" s="6" t="n">
         <v>27</v>
@@ -32716,7 +32712,7 @@
         <v>0</v>
       </c>
       <c r="O163" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P163" s="7" t="n">
         <v>27</v>
@@ -32724,10 +32720,8 @@
       <c r="Q163" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R163" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R163" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S163" s="7" t="inlineStr">
         <is>
@@ -32886,9 +32880,9 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G164" s="5" t="inlineStr">
@@ -32905,10 +32899,10 @@
         <v>21</v>
       </c>
       <c r="J164" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K164" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L164" s="6" t="n">
         <v>27</v>
@@ -32920,7 +32914,7 @@
         <v>0</v>
       </c>
       <c r="O164" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" s="7" t="n">
         <v>27</v>
@@ -32928,10 +32922,8 @@
       <c r="Q164" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R164" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R164" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S164" s="7" t="inlineStr">
         <is>
@@ -33109,33 +33101,31 @@
         <v>20</v>
       </c>
       <c r="J165" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K165" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M165" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N165" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L165" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M165" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N165" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O165" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P165" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q165" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R165" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R165" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S165" s="7" t="inlineStr">
         <is>
@@ -33313,33 +33303,31 @@
         <v>20</v>
       </c>
       <c r="J166" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K166" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M166" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N166" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L166" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M166" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N166" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O166" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P166" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q166" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R166" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R166" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S166" s="7" t="inlineStr">
         <is>
@@ -33498,9 +33486,9 @@
           <t>221689@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F167" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F167" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G167" s="5" t="inlineStr">
@@ -33517,10 +33505,10 @@
         <v>21</v>
       </c>
       <c r="J167" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K167" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L167" s="6" t="n">
         <v>27</v>
@@ -33532,7 +33520,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P167" s="7" t="n">
         <v>27</v>
@@ -33540,10 +33528,8 @@
       <c r="Q167" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R167" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R167" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S167" s="7" t="inlineStr">
         <is>
@@ -33721,33 +33707,31 @@
         <v>20</v>
       </c>
       <c r="J168" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K168" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M168" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N168" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L168" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M168" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N168" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O168" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P168" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q168" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R168" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R168" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S168" s="7" t="inlineStr">
         <is>
@@ -33925,33 +33909,31 @@
         <v>20</v>
       </c>
       <c r="J169" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K169" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M169" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N169" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L169" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M169" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N169" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O169" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P169" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q169" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R169" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R169" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S169" s="7" t="inlineStr">
         <is>
@@ -34110,9 +34092,9 @@
           <t>221700@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G170" s="5" t="inlineStr">
@@ -34129,10 +34111,10 @@
         <v>21</v>
       </c>
       <c r="J170" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K170" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170" s="6" t="n">
         <v>27</v>
@@ -34144,7 +34126,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P170" s="7" t="n">
         <v>27</v>
@@ -34152,10 +34134,8 @@
       <c r="Q170" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R170" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R170" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S170" s="7" t="inlineStr">
         <is>
@@ -34333,33 +34313,31 @@
         <v>20</v>
       </c>
       <c r="J171" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K171" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M171" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N171" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L171" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M171" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N171" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O171" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P171" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q171" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R171" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R171" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S171" s="7" t="inlineStr">
         <is>
@@ -34537,33 +34515,31 @@
         <v>20</v>
       </c>
       <c r="J172" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K172" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M172" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N172" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L172" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M172" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N172" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O172" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P172" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q172" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R172" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R172" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S172" s="7" t="inlineStr">
         <is>
@@ -34741,33 +34717,31 @@
         <v>20</v>
       </c>
       <c r="J173" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K173" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M173" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N173" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L173" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M173" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N173" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O173" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P173" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q173" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R173" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R173" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S173" s="7" t="inlineStr">
         <is>
@@ -34945,33 +34919,31 @@
         <v>20</v>
       </c>
       <c r="J174" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K174" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M174" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N174" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O174" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L174" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M174" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N174" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O174" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P174" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q174" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R174" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R174" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S174" s="7" t="inlineStr">
         <is>
@@ -35149,33 +35121,31 @@
         <v>20</v>
       </c>
       <c r="J175" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K175" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M175" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N175" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L175" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M175" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N175" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O175" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P175" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q175" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R175" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R175" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S175" s="7" t="inlineStr">
         <is>
@@ -35353,33 +35323,31 @@
         <v>20</v>
       </c>
       <c r="J176" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K176" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M176" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N176" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O176" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L176" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M176" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N176" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O176" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P176" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q176" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R176" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R176" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S176" s="7" t="inlineStr">
         <is>
@@ -35557,33 +35525,31 @@
         <v>20</v>
       </c>
       <c r="J177" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K177" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M177" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N177" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L177" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M177" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N177" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O177" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P177" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q177" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R177" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R177" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S177" s="7" t="inlineStr">
         <is>
@@ -35761,33 +35727,31 @@
         <v>20</v>
       </c>
       <c r="J178" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K178" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M178" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N178" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L178" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M178" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N178" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O178" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P178" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q178" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R178" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R178" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S178" s="7" t="inlineStr">
         <is>
@@ -35965,33 +35929,31 @@
         <v>20</v>
       </c>
       <c r="J179" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K179" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M179" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N179" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O179" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L179" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M179" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N179" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O179" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P179" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q179" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R179" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R179" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S179" s="7" t="inlineStr">
         <is>
@@ -36150,9 +36112,9 @@
           <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G180" s="5" t="inlineStr">
@@ -36169,10 +36131,10 @@
         <v>21</v>
       </c>
       <c r="J180" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K180" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180" s="6" t="n">
         <v>27</v>
@@ -36184,7 +36146,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P180" s="7" t="n">
         <v>27</v>
@@ -36192,10 +36154,8 @@
       <c r="Q180" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R180" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R180" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S180" s="7" t="inlineStr">
         <is>
@@ -36373,33 +36333,31 @@
         <v>20</v>
       </c>
       <c r="J181" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K181" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M181" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N181" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L181" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M181" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N181" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O181" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P181" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q181" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R181" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R181" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S181" s="7" t="inlineStr">
         <is>
@@ -36577,33 +36535,31 @@
         <v>20</v>
       </c>
       <c r="J182" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K182" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M182" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N182" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O182" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L182" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M182" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N182" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O182" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P182" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q182" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R182" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R182" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S182" s="7" t="inlineStr">
         <is>
@@ -36781,33 +36737,31 @@
         <v>20</v>
       </c>
       <c r="J183" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K183" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M183" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N183" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L183" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M183" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N183" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O183" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P183" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q183" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R183" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R183" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S183" s="7" t="inlineStr">
         <is>
@@ -36985,33 +36939,31 @@
         <v>20</v>
       </c>
       <c r="J184" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K184" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M184" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N184" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L184" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M184" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N184" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O184" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P184" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q184" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R184" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R184" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S184" s="7" t="inlineStr">
         <is>
@@ -37189,33 +37141,31 @@
         <v>20</v>
       </c>
       <c r="J185" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K185" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M185" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N185" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L185" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M185" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N185" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O185" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P185" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q185" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R185" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R185" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S185" s="7" t="inlineStr">
         <is>
@@ -37374,9 +37324,9 @@
           <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F186" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G186" s="5" t="inlineStr">
@@ -37393,10 +37343,10 @@
         <v>21</v>
       </c>
       <c r="J186" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K186" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L186" s="6" t="n">
         <v>27</v>
@@ -37408,7 +37358,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P186" s="7" t="n">
         <v>27</v>
@@ -37416,10 +37366,8 @@
       <c r="Q186" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R186" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R186" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S186" s="7" t="inlineStr">
         <is>
@@ -37597,33 +37545,31 @@
         <v>20</v>
       </c>
       <c r="J187" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K187" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M187" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N187" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L187" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M187" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N187" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O187" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P187" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q187" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R187" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R187" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S187" s="7" t="inlineStr">
         <is>
@@ -37801,33 +37747,31 @@
         <v>20</v>
       </c>
       <c r="J188" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K188" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M188" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N188" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L188" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M188" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N188" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O188" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P188" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q188" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R188" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R188" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S188" s="7" t="inlineStr">
         <is>
@@ -38005,33 +37949,31 @@
         <v>20</v>
       </c>
       <c r="J189" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K189" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M189" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N189" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L189" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M189" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N189" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O189" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P189" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q189" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R189" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R189" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S189" s="7" t="inlineStr">
         <is>
@@ -38209,33 +38151,31 @@
         <v>20</v>
       </c>
       <c r="J190" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K190" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M190" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N190" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L190" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M190" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N190" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O190" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P190" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q190" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R190" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R190" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S190" s="7" t="inlineStr">
         <is>
@@ -38413,33 +38353,31 @@
         <v>20</v>
       </c>
       <c r="J191" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K191" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M191" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N191" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O191" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L191" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M191" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N191" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O191" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P191" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q191" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R191" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R191" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S191" s="7" t="inlineStr">
         <is>
@@ -38617,33 +38555,31 @@
         <v>20</v>
       </c>
       <c r="J192" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K192" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M192" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N192" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L192" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M192" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N192" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O192" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P192" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q192" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R192" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R192" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S192" s="7" t="inlineStr">
         <is>
@@ -38821,33 +38757,31 @@
         <v>20</v>
       </c>
       <c r="J193" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K193" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M193" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N193" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O193" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L193" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M193" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N193" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O193" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P193" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q193" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R193" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R193" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S193" s="7" t="inlineStr">
         <is>
@@ -39025,33 +38959,31 @@
         <v>20</v>
       </c>
       <c r="J194" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K194" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M194" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N194" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L194" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M194" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N194" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O194" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P194" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q194" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R194" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R194" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S194" s="7" t="inlineStr">
         <is>
@@ -39229,33 +39161,31 @@
         <v>20</v>
       </c>
       <c r="J195" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K195" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M195" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N195" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L195" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M195" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N195" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O195" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P195" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q195" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R195" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R195" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S195" s="7" t="inlineStr">
         <is>
@@ -39433,33 +39363,31 @@
         <v>20</v>
       </c>
       <c r="J196" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K196" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M196" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N196" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L196" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M196" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N196" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O196" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P196" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q196" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R196" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R196" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S196" s="7" t="inlineStr">
         <is>
@@ -39618,9 +39546,9 @@
           <t>221797@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F197" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G197" s="5" t="inlineStr">
@@ -39637,10 +39565,10 @@
         <v>21</v>
       </c>
       <c r="J197" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K197" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L197" s="6" t="n">
         <v>27</v>
@@ -39652,7 +39580,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P197" s="7" t="n">
         <v>27</v>
@@ -39660,10 +39588,8 @@
       <c r="Q197" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R197" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R197" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S197" s="7" t="inlineStr">
         <is>
@@ -39841,33 +39767,31 @@
         <v>20</v>
       </c>
       <c r="J198" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K198" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M198" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N198" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O198" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L198" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M198" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N198" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O198" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P198" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q198" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R198" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R198" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S198" s="7" t="inlineStr">
         <is>
@@ -40045,33 +39969,31 @@
         <v>20</v>
       </c>
       <c r="J199" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K199" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M199" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N199" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L199" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M199" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N199" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O199" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P199" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q199" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R199" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R199" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S199" s="7" t="inlineStr">
         <is>
@@ -40249,33 +40171,31 @@
         <v>20</v>
       </c>
       <c r="J200" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K200" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M200" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N200" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L200" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M200" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N200" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O200" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P200" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q200" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R200" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R200" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S200" s="7" t="inlineStr">
         <is>
@@ -40453,33 +40373,31 @@
         <v>20</v>
       </c>
       <c r="J201" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K201" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M201" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N201" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L201" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M201" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N201" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O201" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P201" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q201" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R201" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R201" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S201" s="7" t="inlineStr">
         <is>
@@ -40657,33 +40575,31 @@
         <v>20</v>
       </c>
       <c r="J202" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K202" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M202" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N202" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O202" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L202" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M202" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N202" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O202" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P202" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q202" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R202" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R202" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S202" s="7" t="inlineStr">
         <is>
@@ -40842,9 +40758,9 @@
           <t>221817@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F203" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G203" s="5" t="inlineStr">
@@ -40861,10 +40777,10 @@
         <v>21</v>
       </c>
       <c r="J203" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K203" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203" s="6" t="n">
         <v>27</v>
@@ -40876,7 +40792,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P203" s="7" t="n">
         <v>27</v>
@@ -40884,10 +40800,8 @@
       <c r="Q203" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R203" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R203" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S203" s="7" t="inlineStr">
         <is>
@@ -41065,33 +40979,31 @@
         <v>20</v>
       </c>
       <c r="J204" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K204" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M204" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N204" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L204" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M204" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N204" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O204" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P204" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q204" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R204" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R204" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S204" s="7" t="inlineStr">
         <is>
@@ -41250,9 +41162,9 @@
           <t>221832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F205" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F205" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G205" s="5" t="inlineStr">
@@ -41269,10 +41181,10 @@
         <v>21</v>
       </c>
       <c r="J205" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K205" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" s="6" t="n">
         <v>27</v>
@@ -41284,7 +41196,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P205" s="7" t="n">
         <v>27</v>
@@ -41292,10 +41204,8 @@
       <c r="Q205" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R205" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R205" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S205" s="7" t="inlineStr">
         <is>
@@ -41473,33 +41383,31 @@
         <v>20</v>
       </c>
       <c r="J206" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K206" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M206" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N206" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O206" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L206" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M206" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N206" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O206" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P206" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q206" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R206" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R206" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S206" s="7" t="inlineStr">
         <is>
@@ -41677,33 +41585,31 @@
         <v>20</v>
       </c>
       <c r="J207" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K207" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M207" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N207" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O207" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L207" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M207" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N207" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O207" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P207" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q207" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R207" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R207" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S207" s="7" t="inlineStr">
         <is>
@@ -41862,9 +41768,9 @@
           <t>221844@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F208" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G208" s="5" t="inlineStr">
@@ -41881,10 +41787,10 @@
         <v>21</v>
       </c>
       <c r="J208" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K208" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L208" s="6" t="n">
         <v>27</v>
@@ -41896,7 +41802,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P208" s="7" t="n">
         <v>27</v>
@@ -41904,10 +41810,8 @@
       <c r="Q208" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R208" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R208" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S208" s="7" t="inlineStr">
         <is>
@@ -42066,9 +41970,9 @@
           <t>221847@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F209" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G209" s="5" t="inlineStr">
@@ -42085,10 +41989,10 @@
         <v>21</v>
       </c>
       <c r="J209" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K209" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" s="6" t="n">
         <v>27</v>
@@ -42100,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P209" s="7" t="n">
         <v>27</v>
@@ -42108,10 +42012,8 @@
       <c r="Q209" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R209" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R209" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S209" s="7" t="inlineStr">
         <is>
@@ -42289,33 +42191,31 @@
         <v>20</v>
       </c>
       <c r="J210" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K210" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M210" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N210" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L210" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M210" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N210" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O210" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P210" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q210" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R210" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R210" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S210" s="7" t="inlineStr">
         <is>
@@ -42474,9 +42374,9 @@
           <t>221854@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F211" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F211" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G211" s="5" t="inlineStr">
@@ -42493,10 +42393,10 @@
         <v>21</v>
       </c>
       <c r="J211" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K211" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" s="6" t="n">
         <v>27</v>
@@ -42508,7 +42408,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P211" s="7" t="n">
         <v>27</v>
@@ -42516,10 +42416,8 @@
       <c r="Q211" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R211" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R211" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S211" s="7" t="inlineStr">
         <is>
@@ -42697,33 +42595,31 @@
         <v>20</v>
       </c>
       <c r="J212" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K212" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M212" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N212" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O212" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L212" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M212" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N212" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O212" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P212" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q212" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R212" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R212" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S212" s="7" t="inlineStr">
         <is>
@@ -42901,33 +42797,31 @@
         <v>20</v>
       </c>
       <c r="J213" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K213" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M213" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N213" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L213" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M213" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N213" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O213" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P213" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q213" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R213" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R213" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S213" s="7" t="inlineStr">
         <is>
@@ -43086,9 +42980,9 @@
           <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G214" s="5" t="inlineStr">
@@ -43105,10 +42999,10 @@
         <v>21</v>
       </c>
       <c r="J214" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K214" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L214" s="6" t="n">
         <v>27</v>
@@ -43120,7 +43014,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P214" s="7" t="n">
         <v>27</v>
@@ -43128,10 +43022,8 @@
       <c r="Q214" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R214" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R214" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S214" s="7" t="inlineStr">
         <is>
@@ -43309,33 +43201,31 @@
         <v>20</v>
       </c>
       <c r="J215" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K215" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M215" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N215" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L215" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M215" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N215" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O215" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P215" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q215" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R215" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R215" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S215" s="7" t="inlineStr">
         <is>
@@ -43494,9 +43384,9 @@
           <t>221877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F216" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G216" s="5" t="inlineStr">
@@ -43513,10 +43403,10 @@
         <v>21</v>
       </c>
       <c r="J216" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K216" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L216" s="6" t="n">
         <v>27</v>
@@ -43528,7 +43418,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P216" s="7" t="n">
         <v>27</v>
@@ -43536,10 +43426,8 @@
       <c r="Q216" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R216" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R216" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S216" s="7" t="inlineStr">
         <is>
@@ -43717,33 +43605,31 @@
         <v>20</v>
       </c>
       <c r="J217" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K217" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M217" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N217" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O217" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L217" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M217" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N217" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O217" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P217" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q217" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R217" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R217" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S217" s="7" t="inlineStr">
         <is>
@@ -43921,33 +43807,31 @@
         <v>20</v>
       </c>
       <c r="J218" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K218" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M218" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N218" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L218" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M218" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N218" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O218" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P218" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q218" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R218" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R218" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S218" s="7" t="inlineStr">
         <is>
@@ -44125,33 +44009,31 @@
         <v>20</v>
       </c>
       <c r="J219" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M219" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O219" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L219" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M219" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N219" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O219" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P219" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q219" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R219" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R219" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S219" s="7" t="inlineStr">
         <is>
@@ -44310,9 +44192,9 @@
           <t>221891@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F220" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G220" s="5" t="inlineStr">
@@ -44329,10 +44211,10 @@
         <v>21</v>
       </c>
       <c r="J220" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K220" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L220" s="6" t="n">
         <v>27</v>
@@ -44344,7 +44226,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P220" s="7" t="n">
         <v>27</v>
@@ -44352,10 +44234,8 @@
       <c r="Q220" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R220" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R220" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S220" s="7" t="inlineStr">
         <is>
@@ -44514,9 +44394,9 @@
           <t>221896@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F221" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G221" s="5" t="inlineStr">
@@ -44533,10 +44413,10 @@
         <v>21</v>
       </c>
       <c r="J221" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K221" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" s="6" t="n">
         <v>27</v>
@@ -44548,7 +44428,7 @@
         <v>0</v>
       </c>
       <c r="O221" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="7" t="n">
         <v>27</v>
@@ -44556,10 +44436,8 @@
       <c r="Q221" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R221" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R221" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S221" s="7" t="inlineStr">
         <is>
@@ -44737,33 +44615,31 @@
         <v>20</v>
       </c>
       <c r="J222" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K222" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M222" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N222" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L222" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M222" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N222" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O222" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P222" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q222" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R222" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R222" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S222" s="7" t="inlineStr">
         <is>
@@ -44941,33 +44817,31 @@
         <v>20</v>
       </c>
       <c r="J223" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K223" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M223" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N223" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L223" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M223" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N223" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O223" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P223" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q223" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R223" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R223" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S223" s="7" t="inlineStr">
         <is>
@@ -45126,9 +45000,9 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G224" s="5" t="inlineStr">
@@ -45145,10 +45019,10 @@
         <v>21</v>
       </c>
       <c r="J224" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K224" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224" s="6" t="n">
         <v>27</v>
@@ -45160,7 +45034,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P224" s="7" t="n">
         <v>27</v>
@@ -45168,10 +45042,8 @@
       <c r="Q224" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R224" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R224" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S224" s="7" t="inlineStr">
         <is>
@@ -45349,33 +45221,31 @@
         <v>20</v>
       </c>
       <c r="J225" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K225" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M225" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N225" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O225" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L225" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M225" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N225" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O225" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P225" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q225" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R225" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R225" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S225" s="7" t="inlineStr">
         <is>
@@ -45553,33 +45423,31 @@
         <v>20</v>
       </c>
       <c r="J226" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K226" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M226" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N226" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L226" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M226" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N226" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O226" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P226" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q226" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R226" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R226" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S226" s="7" t="inlineStr">
         <is>
@@ -45757,33 +45625,31 @@
         <v>20</v>
       </c>
       <c r="J227" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K227" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M227" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N227" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O227" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L227" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M227" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N227" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O227" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P227" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q227" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R227" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R227" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S227" s="7" t="inlineStr">
         <is>
@@ -45961,33 +45827,31 @@
         <v>20</v>
       </c>
       <c r="J228" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K228" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M228" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N228" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L228" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M228" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N228" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O228" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P228" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q228" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R228" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R228" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S228" s="7" t="inlineStr">
         <is>
@@ -46165,33 +46029,31 @@
         <v>20</v>
       </c>
       <c r="J229" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K229" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M229" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N229" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L229" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M229" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N229" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O229" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P229" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q229" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R229" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R229" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S229" s="7" t="inlineStr">
         <is>
@@ -46369,33 +46231,31 @@
         <v>20</v>
       </c>
       <c r="J230" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K230" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M230" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N230" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L230" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M230" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N230" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O230" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P230" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q230" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R230" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R230" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S230" s="7" t="inlineStr">
         <is>
@@ -46573,33 +46433,31 @@
         <v>20</v>
       </c>
       <c r="J231" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K231" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M231" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N231" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O231" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L231" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M231" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N231" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O231" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P231" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q231" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R231" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R231" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S231" s="7" t="inlineStr">
         <is>
@@ -46758,9 +46616,9 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G232" s="5" t="inlineStr">
@@ -46777,10 +46635,10 @@
         <v>21</v>
       </c>
       <c r="J232" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K232" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L232" s="6" t="n">
         <v>27</v>
@@ -46792,7 +46650,7 @@
         <v>0</v>
       </c>
       <c r="O232" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P232" s="7" t="n">
         <v>27</v>
@@ -46800,10 +46658,8 @@
       <c r="Q232" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R232" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R232" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S232" s="7" t="inlineStr">
         <is>
@@ -46981,33 +46837,31 @@
         <v>20</v>
       </c>
       <c r="J233" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K233" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M233" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N233" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O233" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L233" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M233" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N233" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O233" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P233" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q233" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R233" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R233" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S233" s="7" t="inlineStr">
         <is>
@@ -47185,33 +47039,31 @@
         <v>20</v>
       </c>
       <c r="J234" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K234" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M234" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N234" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O234" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L234" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M234" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N234" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O234" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P234" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q234" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R234" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R234" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S234" s="7" t="inlineStr">
         <is>
@@ -47389,33 +47241,31 @@
         <v>20</v>
       </c>
       <c r="J235" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K235" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M235" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N235" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L235" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M235" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N235" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O235" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P235" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q235" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R235" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R235" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S235" s="7" t="inlineStr">
         <is>
@@ -47593,33 +47443,31 @@
         <v>20</v>
       </c>
       <c r="J236" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K236" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M236" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N236" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O236" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L236" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M236" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N236" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O236" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P236" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q236" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R236" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R236" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S236" s="7" t="inlineStr">
         <is>
@@ -47778,9 +47626,9 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F237" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G237" s="5" t="inlineStr">
@@ -47797,10 +47645,10 @@
         <v>21</v>
       </c>
       <c r="J237" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K237" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237" s="6" t="n">
         <v>27</v>
@@ -47812,7 +47660,7 @@
         <v>0</v>
       </c>
       <c r="O237" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P237" s="7" t="n">
         <v>27</v>
@@ -47820,10 +47668,8 @@
       <c r="Q237" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R237" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R237" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S237" s="7" t="inlineStr">
         <is>
@@ -48001,33 +47847,31 @@
         <v>20</v>
       </c>
       <c r="J238" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K238" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M238" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N238" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O238" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L238" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M238" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N238" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O238" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P238" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q238" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R238" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R238" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S238" s="7" t="inlineStr">
         <is>
@@ -48205,33 +48049,31 @@
         <v>20</v>
       </c>
       <c r="J239" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K239" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M239" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N239" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O239" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L239" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M239" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N239" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O239" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P239" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q239" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R239" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R239" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S239" s="7" t="inlineStr">
         <is>
@@ -48409,33 +48251,31 @@
         <v>20</v>
       </c>
       <c r="J240" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M240" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N240" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O240" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L240" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M240" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N240" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O240" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P240" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q240" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R240" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R240" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S240" s="7" t="inlineStr">
         <is>
@@ -48613,33 +48453,31 @@
         <v>20</v>
       </c>
       <c r="J241" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M241" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N241" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L241" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M241" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N241" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O241" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P241" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q241" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R241" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R241" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S241" s="7" t="inlineStr">
         <is>
@@ -48798,9 +48636,9 @@
           <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G242" s="5" t="inlineStr">
@@ -48817,10 +48655,10 @@
         <v>21</v>
       </c>
       <c r="J242" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K242" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L242" s="6" t="n">
         <v>27</v>
@@ -48832,7 +48670,7 @@
         <v>0</v>
       </c>
       <c r="O242" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P242" s="7" t="n">
         <v>27</v>
@@ -48840,10 +48678,8 @@
       <c r="Q242" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R242" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R242" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S242" s="7" t="inlineStr">
         <is>
@@ -49002,9 +48838,9 @@
           <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F243" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G243" s="5" t="inlineStr">
@@ -49021,10 +48857,10 @@
         <v>21</v>
       </c>
       <c r="J243" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K243" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L243" s="6" t="n">
         <v>27</v>
@@ -49036,7 +48872,7 @@
         <v>0</v>
       </c>
       <c r="O243" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P243" s="7" t="n">
         <v>27</v>
@@ -49044,10 +48880,8 @@
       <c r="Q243" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R243" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R243" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S243" s="7" t="inlineStr">
         <is>
@@ -49225,33 +49059,31 @@
         <v>20</v>
       </c>
       <c r="J244" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M244" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N244" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L244" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M244" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N244" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O244" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P244" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q244" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R244" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R244" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S244" s="7" t="inlineStr">
         <is>
@@ -49429,33 +49261,31 @@
         <v>20</v>
       </c>
       <c r="J245" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M245" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N245" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L245" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M245" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N245" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O245" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P245" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q245" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R245" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R245" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S245" s="7" t="inlineStr">
         <is>
@@ -49614,9 +49444,9 @@
           <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F246" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G246" s="5" t="inlineStr">
@@ -49633,10 +49463,10 @@
         <v>21</v>
       </c>
       <c r="J246" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K246" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L246" s="6" t="n">
         <v>27</v>
@@ -49648,7 +49478,7 @@
         <v>0</v>
       </c>
       <c r="O246" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P246" s="7" t="n">
         <v>27</v>
@@ -49656,10 +49486,8 @@
       <c r="Q246" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R246" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R246" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S246" s="7" t="inlineStr">
         <is>
@@ -49818,9 +49646,9 @@
           <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F247" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G247" s="5" t="inlineStr">
@@ -49837,10 +49665,10 @@
         <v>21</v>
       </c>
       <c r="J247" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K247" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L247" s="6" t="n">
         <v>27</v>
@@ -49852,7 +49680,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P247" s="7" t="n">
         <v>27</v>
@@ -49860,10 +49688,8 @@
       <c r="Q247" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R247" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R247" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S247" s="7" t="inlineStr">
         <is>
@@ -50022,9 +49848,9 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G248" s="5" t="inlineStr">
@@ -50041,10 +49867,10 @@
         <v>21</v>
       </c>
       <c r="J248" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K248" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L248" s="6" t="n">
         <v>27</v>
@@ -50056,7 +49882,7 @@
         <v>0</v>
       </c>
       <c r="O248" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P248" s="7" t="n">
         <v>27</v>
@@ -50064,10 +49890,8 @@
       <c r="Q248" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R248" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R248" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S248" s="7" t="inlineStr">
         <is>
@@ -50226,9 +50050,9 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F249" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G249" s="5" t="inlineStr">
@@ -50245,10 +50069,10 @@
         <v>21</v>
       </c>
       <c r="J249" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K249" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L249" s="6" t="n">
         <v>27</v>
@@ -50260,7 +50084,7 @@
         <v>0</v>
       </c>
       <c r="O249" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249" s="7" t="n">
         <v>27</v>
@@ -50268,10 +50092,8 @@
       <c r="Q249" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R249" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R249" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S249" s="7" t="inlineStr">
         <is>
@@ -50449,33 +50271,31 @@
         <v>20</v>
       </c>
       <c r="J250" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M250" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N250" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L250" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M250" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N250" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O250" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P250" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q250" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R250" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R250" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S250" s="7" t="inlineStr">
         <is>
@@ -50634,9 +50454,9 @@
           <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F251" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G251" s="5" t="inlineStr">
@@ -50653,10 +50473,10 @@
         <v>21</v>
       </c>
       <c r="J251" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K251" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L251" s="6" t="n">
         <v>27</v>
@@ -50668,7 +50488,7 @@
         <v>0</v>
       </c>
       <c r="O251" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P251" s="7" t="n">
         <v>27</v>
@@ -50676,10 +50496,8 @@
       <c r="Q251" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R251" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R251" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S251" s="7" t="inlineStr">
         <is>
@@ -50857,33 +50675,31 @@
         <v>20</v>
       </c>
       <c r="J252" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M252" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N252" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O252" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L252" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M252" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N252" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O252" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P252" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q252" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R252" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R252" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S252" s="7" t="inlineStr">
         <is>
@@ -51061,33 +50877,31 @@
         <v>20</v>
       </c>
       <c r="J253" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M253" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N253" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L253" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M253" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N253" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O253" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P253" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q253" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R253" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R253" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S253" s="7" t="inlineStr">
         <is>
@@ -51265,33 +51079,31 @@
         <v>20</v>
       </c>
       <c r="J254" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M254" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N254" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O254" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L254" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M254" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N254" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O254" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P254" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q254" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R254" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R254" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S254" s="7" t="inlineStr">
         <is>
@@ -51469,33 +51281,31 @@
         <v>20</v>
       </c>
       <c r="J255" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M255" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N255" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O255" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L255" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M255" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N255" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O255" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P255" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q255" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R255" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R255" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S255" s="7" t="inlineStr">
         <is>
@@ -51673,33 +51483,31 @@
         <v>20</v>
       </c>
       <c r="J256" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M256" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N256" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L256" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M256" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N256" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O256" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P256" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q256" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R256" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R256" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S256" s="7" t="inlineStr">
         <is>
@@ -51877,33 +51685,31 @@
         <v>20</v>
       </c>
       <c r="J257" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M257" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N257" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L257" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M257" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N257" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O257" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P257" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q257" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R257" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R257" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S257" s="7" t="inlineStr">
         <is>
@@ -52062,9 +51868,9 @@
           <t>222089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F258" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F258" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G258" s="5" t="inlineStr">
@@ -52081,10 +51887,10 @@
         <v>21</v>
       </c>
       <c r="J258" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K258" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L258" s="6" t="n">
         <v>27</v>
@@ -52096,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="O258" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P258" s="7" t="n">
         <v>27</v>
@@ -52104,10 +51910,8 @@
       <c r="Q258" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R258" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R258" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S258" s="7" t="inlineStr">
         <is>
@@ -52285,33 +52089,31 @@
         <v>20</v>
       </c>
       <c r="J259" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M259" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N259" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O259" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L259" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M259" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N259" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O259" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P259" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q259" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R259" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R259" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S259" s="7" t="inlineStr">
         <is>
@@ -52470,9 +52272,9 @@
           <t>222094@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F260" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G260" s="5" t="inlineStr">
@@ -52489,10 +52291,10 @@
         <v>21</v>
       </c>
       <c r="J260" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K260" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L260" s="6" t="n">
         <v>27</v>
@@ -52504,7 +52306,7 @@
         <v>0</v>
       </c>
       <c r="O260" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P260" s="7" t="n">
         <v>27</v>
@@ -52512,10 +52314,8 @@
       <c r="Q260" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R260" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R260" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S260" s="7" t="inlineStr">
         <is>
@@ -52693,33 +52493,31 @@
         <v>20</v>
       </c>
       <c r="J261" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M261" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N261" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O261" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L261" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M261" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N261" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O261" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P261" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q261" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R261" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R261" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S261" s="7" t="inlineStr">
         <is>
@@ -52897,33 +52695,31 @@
         <v>20</v>
       </c>
       <c r="J262" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M262" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N262" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L262" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M262" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N262" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O262" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P262" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q262" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R262" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R262" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S262" s="7" t="inlineStr">
         <is>
@@ -53082,9 +52878,9 @@
           <t>222102@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F263" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F263" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G263" s="5" t="inlineStr">
@@ -53101,10 +52897,10 @@
         <v>21</v>
       </c>
       <c r="J263" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K263" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L263" s="6" t="n">
         <v>27</v>
@@ -53116,7 +52912,7 @@
         <v>0</v>
       </c>
       <c r="O263" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P263" s="7" t="n">
         <v>27</v>
@@ -53124,10 +52920,8 @@
       <c r="Q263" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R263" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R263" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S263" s="7" t="inlineStr">
         <is>
@@ -53305,33 +53099,31 @@
         <v>20</v>
       </c>
       <c r="J264" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M264" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N264" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O264" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L264" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M264" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N264" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O264" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P264" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q264" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R264" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R264" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S264" s="7" t="inlineStr">
         <is>
@@ -53490,9 +53282,9 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F265" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G265" s="5" t="inlineStr">
@@ -53509,10 +53301,10 @@
         <v>21</v>
       </c>
       <c r="J265" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K265" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L265" s="6" t="n">
         <v>27</v>
@@ -53524,7 +53316,7 @@
         <v>0</v>
       </c>
       <c r="O265" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P265" s="7" t="n">
         <v>27</v>
@@ -53532,10 +53324,8 @@
       <c r="Q265" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R265" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R265" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S265" s="7" t="inlineStr">
         <is>
@@ -53694,9 +53484,9 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F266" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G266" s="5" t="inlineStr">
@@ -53713,10 +53503,10 @@
         <v>21</v>
       </c>
       <c r="J266" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K266" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L266" s="6" t="n">
         <v>27</v>
@@ -53728,7 +53518,7 @@
         <v>0</v>
       </c>
       <c r="O266" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P266" s="7" t="n">
         <v>27</v>
@@ -53736,10 +53526,8 @@
       <c r="Q266" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R266" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R266" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S266" s="7" t="inlineStr">
         <is>
@@ -53898,9 +53686,9 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F267" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G267" s="5" t="inlineStr">
@@ -53917,10 +53705,10 @@
         <v>21</v>
       </c>
       <c r="J267" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K267" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L267" s="6" t="n">
         <v>27</v>
@@ -53932,7 +53720,7 @@
         <v>0</v>
       </c>
       <c r="O267" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" s="7" t="n">
         <v>27</v>
@@ -53940,10 +53728,8 @@
       <c r="Q267" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R267" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R267" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S267" s="7" t="inlineStr">
         <is>
@@ -54102,9 +53888,9 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G268" s="5" t="inlineStr">
@@ -54121,10 +53907,10 @@
         <v>21</v>
       </c>
       <c r="J268" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K268" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L268" s="6" t="n">
         <v>27</v>
@@ -54136,7 +53922,7 @@
         <v>0</v>
       </c>
       <c r="O268" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P268" s="7" t="n">
         <v>27</v>
@@ -54144,10 +53930,8 @@
       <c r="Q268" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R268" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R268" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S268" s="7" t="inlineStr">
         <is>
@@ -54306,9 +54090,9 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F269" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G269" s="5" t="inlineStr">
@@ -54325,10 +54109,10 @@
         <v>21</v>
       </c>
       <c r="J269" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K269" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269" s="6" t="n">
         <v>27</v>
@@ -54340,7 +54124,7 @@
         <v>0</v>
       </c>
       <c r="O269" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269" s="7" t="n">
         <v>27</v>
@@ -54348,10 +54132,8 @@
       <c r="Q269" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R269" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R269" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S269" s="7" t="inlineStr">
         <is>
@@ -54529,33 +54311,31 @@
         <v>20</v>
       </c>
       <c r="J270" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M270" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N270" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L270" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M270" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N270" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O270" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P270" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q270" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R270" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R270" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S270" s="7" t="inlineStr">
         <is>
@@ -54714,9 +54494,9 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F271" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G271" s="5" t="inlineStr">
@@ -54733,10 +54513,10 @@
         <v>21</v>
       </c>
       <c r="J271" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K271" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L271" s="6" t="n">
         <v>27</v>
@@ -54748,7 +54528,7 @@
         <v>0</v>
       </c>
       <c r="O271" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P271" s="7" t="n">
         <v>27</v>
@@ -54756,10 +54536,8 @@
       <c r="Q271" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R271" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R271" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S271" s="7" t="inlineStr">
         <is>
@@ -54918,9 +54696,9 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G272" s="5" t="inlineStr">
@@ -54937,10 +54715,10 @@
         <v>21</v>
       </c>
       <c r="J272" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K272" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272" s="6" t="n">
         <v>27</v>
@@ -54952,7 +54730,7 @@
         <v>0</v>
       </c>
       <c r="O272" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P272" s="7" t="n">
         <v>27</v>
@@ -54960,10 +54738,8 @@
       <c r="Q272" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R272" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R272" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S272" s="7" t="inlineStr">
         <is>
@@ -55122,9 +54898,9 @@
           <t>210703@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F273" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F273" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G273" s="5" t="inlineStr">
@@ -55141,10 +54917,10 @@
         <v>21</v>
       </c>
       <c r="J273" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K273" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273" s="6" t="n">
         <v>27</v>
@@ -55156,7 +54932,7 @@
         <v>0</v>
       </c>
       <c r="O273" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P273" s="7" t="n">
         <v>27</v>
@@ -55164,10 +54940,8 @@
       <c r="Q273" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R273" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R273" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S273" s="7" t="inlineStr">
         <is>
@@ -55326,9 +55100,9 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G274" s="5" t="inlineStr">
@@ -55345,10 +55119,10 @@
         <v>21</v>
       </c>
       <c r="J274" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K274" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274" s="6" t="n">
         <v>27</v>
@@ -55360,7 +55134,7 @@
         <v>0</v>
       </c>
       <c r="O274" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" s="7" t="n">
         <v>27</v>
@@ -55368,10 +55142,8 @@
       <c r="Q274" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R274" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R274" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S274" s="7" t="inlineStr">
         <is>
@@ -55530,9 +55302,9 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F275" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G275" s="5" t="inlineStr">
@@ -55549,10 +55321,10 @@
         <v>21</v>
       </c>
       <c r="J275" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K275" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L275" s="6" t="n">
         <v>27</v>
@@ -55564,7 +55336,7 @@
         <v>0</v>
       </c>
       <c r="O275" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P275" s="7" t="n">
         <v>27</v>
@@ -55572,10 +55344,8 @@
       <c r="Q275" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R275" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R275" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S275" s="7" t="inlineStr">
         <is>
@@ -55734,9 +55504,9 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G276" s="5" t="inlineStr">
@@ -55753,10 +55523,10 @@
         <v>21</v>
       </c>
       <c r="J276" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K276" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L276" s="6" t="n">
         <v>27</v>
@@ -55768,7 +55538,7 @@
         <v>0</v>
       </c>
       <c r="O276" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P276" s="7" t="n">
         <v>27</v>
@@ -55776,10 +55546,8 @@
       <c r="Q276" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R276" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R276" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S276" s="7" t="inlineStr">
         <is>
@@ -55938,9 +55706,9 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G277" s="5" t="inlineStr">
@@ -55957,10 +55725,10 @@
         <v>21</v>
       </c>
       <c r="J277" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K277" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L277" s="6" t="n">
         <v>27</v>
@@ -55972,7 +55740,7 @@
         <v>0</v>
       </c>
       <c r="O277" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" s="7" t="n">
         <v>27</v>
@@ -55980,10 +55748,8 @@
       <c r="Q277" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R277" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R277" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S277" s="7" t="inlineStr">
         <is>
@@ -56142,9 +55908,9 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G278" s="5" t="inlineStr">
@@ -56161,10 +55927,10 @@
         <v>21</v>
       </c>
       <c r="J278" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K278" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L278" s="6" t="n">
         <v>27</v>
@@ -56176,7 +55942,7 @@
         <v>0</v>
       </c>
       <c r="O278" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P278" s="7" t="n">
         <v>27</v>
@@ -56184,10 +55950,8 @@
       <c r="Q278" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R278" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R278" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S278" s="7" t="inlineStr">
         <is>
@@ -56346,9 +56110,9 @@
           <t>210832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F279" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F279" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G279" s="5" t="inlineStr">
@@ -56365,10 +56129,10 @@
         <v>21</v>
       </c>
       <c r="J279" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K279" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L279" s="6" t="n">
         <v>27</v>
@@ -56380,7 +56144,7 @@
         <v>0</v>
       </c>
       <c r="O279" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P279" s="7" t="n">
         <v>27</v>
@@ -56388,10 +56152,8 @@
       <c r="Q279" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R279" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R279" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S279" s="7" t="inlineStr">
         <is>
@@ -56550,9 +56312,9 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G280" s="5" t="inlineStr">
@@ -56569,10 +56331,10 @@
         <v>21</v>
       </c>
       <c r="J280" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K280" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L280" s="6" t="n">
         <v>27</v>
@@ -56584,7 +56346,7 @@
         <v>0</v>
       </c>
       <c r="O280" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280" s="7" t="n">
         <v>27</v>
@@ -56592,10 +56354,8 @@
       <c r="Q280" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R280" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R280" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S280" s="7" t="inlineStr">
         <is>
@@ -56754,9 +56514,9 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F281" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G281" s="5" t="inlineStr">
@@ -56773,10 +56533,10 @@
         <v>21</v>
       </c>
       <c r="J281" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K281" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L281" s="6" t="n">
         <v>27</v>
@@ -56788,7 +56548,7 @@
         <v>0</v>
       </c>
       <c r="O281" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" s="7" t="n">
         <v>27</v>
@@ -56796,10 +56556,8 @@
       <c r="Q281" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R281" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R281" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S281" s="7" t="inlineStr">
         <is>
@@ -56958,9 +56716,9 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G282" s="5" t="inlineStr">
@@ -56977,10 +56735,10 @@
         <v>21</v>
       </c>
       <c r="J282" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K282" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L282" s="6" t="n">
         <v>27</v>
@@ -56992,7 +56750,7 @@
         <v>0</v>
       </c>
       <c r="O282" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P282" s="7" t="n">
         <v>27</v>
@@ -57000,10 +56758,8 @@
       <c r="Q282" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R282" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R282" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S282" s="7" t="inlineStr">
         <is>
@@ -57162,9 +56918,9 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F283" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G283" s="5" t="inlineStr">
@@ -57181,10 +56937,10 @@
         <v>21</v>
       </c>
       <c r="J283" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K283" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283" s="6" t="n">
         <v>27</v>
@@ -57196,7 +56952,7 @@
         <v>0</v>
       </c>
       <c r="O283" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P283" s="7" t="n">
         <v>27</v>
@@ -57204,10 +56960,8 @@
       <c r="Q283" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R283" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R283" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S283" s="7" t="inlineStr">
         <is>
@@ -57366,9 +57120,9 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G284" s="5" t="inlineStr">
@@ -57385,10 +57139,10 @@
         <v>21</v>
       </c>
       <c r="J284" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K284" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284" s="6" t="n">
         <v>27</v>
@@ -57400,7 +57154,7 @@
         <v>0</v>
       </c>
       <c r="O284" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P284" s="7" t="n">
         <v>27</v>
@@ -57408,10 +57162,8 @@
       <c r="Q284" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R284" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R284" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S284" s="7" t="inlineStr">
         <is>
@@ -57570,9 +57322,9 @@
           <t>210887@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F285" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F285" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G285" s="5" t="inlineStr">
@@ -57589,10 +57341,10 @@
         <v>21</v>
       </c>
       <c r="J285" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K285" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285" s="6" t="n">
         <v>27</v>
@@ -57604,7 +57356,7 @@
         <v>0</v>
       </c>
       <c r="O285" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P285" s="7" t="n">
         <v>27</v>
@@ -57612,10 +57364,8 @@
       <c r="Q285" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R285" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R285" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S285" s="7" t="inlineStr">
         <is>
@@ -57774,9 +57524,9 @@
           <t>210892@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F286" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F286" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G286" s="5" t="inlineStr">
@@ -57793,10 +57543,10 @@
         <v>21</v>
       </c>
       <c r="J286" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K286" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L286" s="6" t="n">
         <v>27</v>
@@ -57808,7 +57558,7 @@
         <v>0</v>
       </c>
       <c r="O286" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P286" s="7" t="n">
         <v>27</v>
@@ -57816,10 +57566,8 @@
       <c r="Q286" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R286" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R286" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S286" s="7" t="inlineStr">
         <is>
@@ -57997,33 +57745,31 @@
         <v>20</v>
       </c>
       <c r="J287" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M287" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N287" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O287" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L287" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M287" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N287" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O287" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P287" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q287" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R287" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R287" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S287" s="7" t="inlineStr">
         <is>
@@ -58182,9 +57928,9 @@
           <t>210905@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F288" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F288" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G288" s="5" t="inlineStr">
@@ -58201,10 +57947,10 @@
         <v>21</v>
       </c>
       <c r="J288" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K288" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L288" s="6" t="n">
         <v>27</v>
@@ -58216,7 +57962,7 @@
         <v>0</v>
       </c>
       <c r="O288" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P288" s="7" t="n">
         <v>27</v>
@@ -58224,10 +57970,8 @@
       <c r="Q288" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R288" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R288" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S288" s="7" t="inlineStr">
         <is>
@@ -58386,9 +58130,9 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F289" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G289" s="5" t="inlineStr">
@@ -58405,10 +58149,10 @@
         <v>21</v>
       </c>
       <c r="J289" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K289" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L289" s="6" t="n">
         <v>27</v>
@@ -58420,7 +58164,7 @@
         <v>0</v>
       </c>
       <c r="O289" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P289" s="7" t="n">
         <v>27</v>
@@ -58428,10 +58172,8 @@
       <c r="Q289" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R289" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R289" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S289" s="7" t="inlineStr">
         <is>
@@ -58590,9 +58332,9 @@
           <t>210921@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F290" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F290" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G290" s="5" t="inlineStr">
@@ -58609,10 +58351,10 @@
         <v>21</v>
       </c>
       <c r="J290" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K290" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L290" s="6" t="n">
         <v>27</v>
@@ -58624,7 +58366,7 @@
         <v>0</v>
       </c>
       <c r="O290" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P290" s="7" t="n">
         <v>27</v>
@@ -58632,10 +58374,8 @@
       <c r="Q290" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R290" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R290" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S290" s="7" t="inlineStr">
         <is>
@@ -58794,9 +58534,9 @@
           <t>210927@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F291" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F291" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G291" s="5" t="inlineStr">
@@ -58813,10 +58553,10 @@
         <v>21</v>
       </c>
       <c r="J291" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K291" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L291" s="6" t="n">
         <v>27</v>
@@ -58828,7 +58568,7 @@
         <v>0</v>
       </c>
       <c r="O291" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P291" s="7" t="n">
         <v>27</v>
@@ -58836,10 +58576,8 @@
       <c r="Q291" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R291" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R291" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S291" s="7" t="inlineStr">
         <is>
@@ -58998,9 +58736,9 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F292" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G292" s="5" t="inlineStr">
@@ -59017,10 +58755,10 @@
         <v>21</v>
       </c>
       <c r="J292" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K292" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L292" s="6" t="n">
         <v>27</v>
@@ -59032,7 +58770,7 @@
         <v>0</v>
       </c>
       <c r="O292" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P292" s="7" t="n">
         <v>27</v>
@@ -59040,10 +58778,8 @@
       <c r="Q292" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R292" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R292" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S292" s="7" t="inlineStr">
         <is>
@@ -59202,9 +58938,9 @@
           <t>201577@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F293" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F293" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G293" s="5" t="inlineStr">
@@ -59221,10 +58957,10 @@
         <v>21</v>
       </c>
       <c r="J293" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K293" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L293" s="6" t="n">
         <v>27</v>
@@ -59236,7 +58972,7 @@
         <v>0</v>
       </c>
       <c r="O293" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>27</v>
@@ -59244,10 +58980,8 @@
       <c r="Q293" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R293" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R293" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S293" s="7" t="inlineStr">
         <is>
@@ -59406,9 +59140,9 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F294" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G294" s="5" t="inlineStr">
@@ -59425,10 +59159,10 @@
         <v>21</v>
       </c>
       <c r="J294" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K294" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L294" s="6" t="n">
         <v>27</v>
@@ -59440,7 +59174,7 @@
         <v>0</v>
       </c>
       <c r="O294" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>27</v>
@@ -59448,10 +59182,8 @@
       <c r="Q294" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R294" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R294" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S294" s="7" t="inlineStr">
         <is>
@@ -59610,9 +59342,9 @@
           <t>210939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F295" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F295" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G295" s="5" t="inlineStr">
@@ -59629,10 +59361,10 @@
         <v>21</v>
       </c>
       <c r="J295" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K295" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L295" s="6" t="n">
         <v>27</v>
@@ -59644,7 +59376,7 @@
         <v>0</v>
       </c>
       <c r="O295" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P295" s="7" t="n">
         <v>27</v>
@@ -59652,10 +59384,8 @@
       <c r="Q295" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R295" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R295" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S295" s="7" t="inlineStr">
         <is>
@@ -59814,9 +59544,9 @@
           <t>210941@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F296" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F296" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G296" s="5" t="inlineStr">
@@ -59833,10 +59563,10 @@
         <v>21</v>
       </c>
       <c r="J296" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K296" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L296" s="6" t="n">
         <v>27</v>
@@ -59848,7 +59578,7 @@
         <v>0</v>
       </c>
       <c r="O296" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>27</v>
@@ -59856,10 +59586,8 @@
       <c r="Q296" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R296" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R296" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S296" s="7" t="inlineStr">
         <is>
@@ -60018,9 +59746,9 @@
           <t>210947@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F297" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F297" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G297" s="5" t="inlineStr">
@@ -60037,10 +59765,10 @@
         <v>21</v>
       </c>
       <c r="J297" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K297" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L297" s="6" t="n">
         <v>27</v>
@@ -60052,7 +59780,7 @@
         <v>0</v>
       </c>
       <c r="O297" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P297" s="7" t="n">
         <v>27</v>
@@ -60060,10 +59788,8 @@
       <c r="Q297" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R297" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R297" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S297" s="7" t="inlineStr">
         <is>
@@ -60222,9 +59948,9 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F298" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G298" s="5" t="inlineStr">
@@ -60241,10 +59967,10 @@
         <v>21</v>
       </c>
       <c r="J298" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K298" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L298" s="6" t="n">
         <v>27</v>
@@ -60256,7 +59982,7 @@
         <v>0</v>
       </c>
       <c r="O298" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" s="7" t="n">
         <v>27</v>
@@ -60264,10 +59990,8 @@
       <c r="Q298" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R298" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R298" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S298" s="7" t="inlineStr">
         <is>
@@ -60426,9 +60150,9 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F299" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G299" s="5" t="inlineStr">
@@ -60445,10 +60169,10 @@
         <v>21</v>
       </c>
       <c r="J299" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K299" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L299" s="6" t="n">
         <v>27</v>
@@ -60460,7 +60184,7 @@
         <v>0</v>
       </c>
       <c r="O299" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P299" s="7" t="n">
         <v>27</v>
@@ -60468,10 +60192,8 @@
       <c r="Q299" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R299" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R299" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S299" s="7" t="inlineStr">
         <is>
@@ -60630,9 +60352,9 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F300" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G300" s="5" t="inlineStr">
@@ -60649,10 +60371,10 @@
         <v>21</v>
       </c>
       <c r="J300" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K300" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L300" s="6" t="n">
         <v>27</v>
@@ -60664,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="O300" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" s="7" t="n">
         <v>27</v>
@@ -60672,10 +60394,8 @@
       <c r="Q300" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R300" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R300" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S300" s="7" t="inlineStr">
         <is>
@@ -60853,33 +60573,31 @@
         <v>20</v>
       </c>
       <c r="J301" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K301" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M301" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N301" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O301" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L301" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="M301" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="N301" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O301" s="6" t="n">
-        <v>-1</v>
-      </c>
       <c r="P301" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q301" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="R301" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R301" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="S301" s="7" t="inlineStr">
         <is>
@@ -61038,9 +60756,9 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F302" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G302" s="5" t="inlineStr">
@@ -61057,10 +60775,10 @@
         <v>21</v>
       </c>
       <c r="J302" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K302" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L302" s="6" t="n">
         <v>27</v>
@@ -61072,7 +60790,7 @@
         <v>0</v>
       </c>
       <c r="O302" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P302" s="7" t="n">
         <v>27</v>
@@ -61080,10 +60798,8 @@
       <c r="Q302" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R302" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R302" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S302" s="7" t="inlineStr">
         <is>
@@ -61242,9 +60958,9 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F303" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G303" s="5" t="inlineStr">
@@ -61261,10 +60977,10 @@
         <v>21</v>
       </c>
       <c r="J303" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K303" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L303" s="6" t="n">
         <v>27</v>
@@ -61276,7 +60992,7 @@
         <v>0</v>
       </c>
       <c r="O303" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P303" s="7" t="n">
         <v>27</v>
@@ -61284,10 +61000,8 @@
       <c r="Q303" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R303" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R303" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S303" s="7" t="inlineStr">
         <is>
@@ -61446,9 +61160,9 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F304" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G304" s="5" t="inlineStr">
@@ -61465,10 +61179,10 @@
         <v>21</v>
       </c>
       <c r="J304" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K304" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304" s="6" t="n">
         <v>27</v>
@@ -61480,7 +61194,7 @@
         <v>0</v>
       </c>
       <c r="O304" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P304" s="7" t="n">
         <v>27</v>
@@ -61488,10 +61202,8 @@
       <c r="Q304" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R304" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R304" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S304" s="7" t="inlineStr">
         <is>
@@ -61650,9 +61362,9 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F305" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G305" s="5" t="inlineStr">
@@ -61669,10 +61381,10 @@
         <v>21</v>
       </c>
       <c r="J305" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K305" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L305" s="6" t="n">
         <v>27</v>
@@ -61684,7 +61396,7 @@
         <v>0</v>
       </c>
       <c r="O305" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" s="7" t="n">
         <v>27</v>
@@ -61692,10 +61404,8 @@
       <c r="Q305" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R305" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R305" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S305" s="7" t="inlineStr">
         <is>
@@ -61854,9 +61564,9 @@
           <t>211025@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F306" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F306" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G306" s="5" t="inlineStr">
@@ -61873,10 +61583,10 @@
         <v>21</v>
       </c>
       <c r="J306" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K306" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L306" s="6" t="n">
         <v>27</v>
@@ -61888,7 +61598,7 @@
         <v>0</v>
       </c>
       <c r="O306" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P306" s="7" t="n">
         <v>27</v>
@@ -61896,10 +61606,8 @@
       <c r="Q306" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R306" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R306" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S306" s="7" t="inlineStr">
         <is>
@@ -62058,9 +61766,9 @@
           <t>211029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F307" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F307" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G307" s="5" t="inlineStr">
@@ -62077,10 +61785,10 @@
         <v>21</v>
       </c>
       <c r="J307" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K307" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L307" s="6" t="n">
         <v>27</v>
@@ -62092,7 +61800,7 @@
         <v>0</v>
       </c>
       <c r="O307" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P307" s="7" t="n">
         <v>27</v>
@@ -62100,10 +61808,8 @@
       <c r="Q307" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R307" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R307" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S307" s="7" t="inlineStr">
         <is>
@@ -62262,9 +61968,9 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F308" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G308" s="5" t="inlineStr">
@@ -62281,10 +61987,10 @@
         <v>21</v>
       </c>
       <c r="J308" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K308" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308" s="6" t="n">
         <v>27</v>
@@ -62296,7 +62002,7 @@
         <v>0</v>
       </c>
       <c r="O308" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P308" s="7" t="n">
         <v>27</v>
@@ -62304,10 +62010,8 @@
       <c r="Q308" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R308" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R308" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S308" s="7" t="inlineStr">
         <is>
@@ -62466,9 +62170,9 @@
           <t>211048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F309" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F309" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G309" s="5" t="inlineStr">
@@ -62485,10 +62189,10 @@
         <v>21</v>
       </c>
       <c r="J309" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K309" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L309" s="6" t="n">
         <v>27</v>
@@ -62500,7 +62204,7 @@
         <v>0</v>
       </c>
       <c r="O309" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P309" s="7" t="n">
         <v>27</v>
@@ -62508,10 +62212,8 @@
       <c r="Q309" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R309" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R309" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S309" s="7" t="inlineStr">
         <is>
@@ -62670,9 +62372,9 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F310" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G310" s="5" t="inlineStr">
@@ -62689,10 +62391,10 @@
         <v>21</v>
       </c>
       <c r="J310" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K310" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L310" s="6" t="n">
         <v>27</v>
@@ -62704,7 +62406,7 @@
         <v>0</v>
       </c>
       <c r="O310" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P310" s="7" t="n">
         <v>27</v>
@@ -62712,10 +62414,8 @@
       <c r="Q310" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R310" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R310" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S310" s="7" t="inlineStr">
         <is>
@@ -62874,9 +62574,9 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F311" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G311" s="5" t="inlineStr">
@@ -62893,10 +62593,10 @@
         <v>21</v>
       </c>
       <c r="J311" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K311" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L311" s="6" t="n">
         <v>27</v>
@@ -62908,7 +62608,7 @@
         <v>0</v>
       </c>
       <c r="O311" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P311" s="7" t="n">
         <v>27</v>
@@ -62916,10 +62616,8 @@
       <c r="Q311" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R311" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R311" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S311" s="7" t="inlineStr">
         <is>
@@ -63078,9 +62776,9 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F312" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G312" s="5" t="inlineStr">
@@ -63097,10 +62795,10 @@
         <v>21</v>
       </c>
       <c r="J312" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K312" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L312" s="6" t="n">
         <v>27</v>
@@ -63112,7 +62810,7 @@
         <v>0</v>
       </c>
       <c r="O312" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312" s="7" t="n">
         <v>27</v>
@@ -63120,10 +62818,8 @@
       <c r="Q312" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R312" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R312" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S312" s="7" t="inlineStr">
         <is>
@@ -63282,9 +62978,9 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F313" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G313" s="5" t="inlineStr">
@@ -63301,10 +62997,10 @@
         <v>21</v>
       </c>
       <c r="J313" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K313" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313" s="6" t="n">
         <v>27</v>
@@ -63316,7 +63012,7 @@
         <v>0</v>
       </c>
       <c r="O313" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P313" s="7" t="n">
         <v>27</v>
@@ -63324,10 +63020,8 @@
       <c r="Q313" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R313" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R313" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S313" s="7" t="inlineStr">
         <is>
@@ -63486,9 +63180,9 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G314" s="5" t="inlineStr">
@@ -63505,10 +63199,10 @@
         <v>21</v>
       </c>
       <c r="J314" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K314" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L314" s="6" t="n">
         <v>27</v>
@@ -63520,7 +63214,7 @@
         <v>0</v>
       </c>
       <c r="O314" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P314" s="7" t="n">
         <v>27</v>
@@ -63528,10 +63222,8 @@
       <c r="Q314" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R314" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R314" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S314" s="7" t="inlineStr">
         <is>
@@ -63690,9 +63382,9 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F315" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G315" s="5" t="inlineStr">
@@ -63709,10 +63401,10 @@
         <v>21</v>
       </c>
       <c r="J315" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K315" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L315" s="6" t="n">
         <v>27</v>
@@ -63724,7 +63416,7 @@
         <v>0</v>
       </c>
       <c r="O315" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P315" s="7" t="n">
         <v>27</v>
@@ -63732,10 +63424,8 @@
       <c r="Q315" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R315" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R315" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S315" s="7" t="inlineStr">
         <is>
@@ -63894,9 +63584,9 @@
           <t>220467@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F316" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F316" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G316" s="5" t="inlineStr">
@@ -63913,10 +63603,10 @@
         <v>21</v>
       </c>
       <c r="J316" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K316" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L316" s="6" t="n">
         <v>27</v>
@@ -63928,7 +63618,7 @@
         <v>0</v>
       </c>
       <c r="O316" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P316" s="7" t="n">
         <v>27</v>
@@ -63936,10 +63626,8 @@
       <c r="Q316" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R316" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R316" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S316" s="7" t="inlineStr">
         <is>
@@ -64098,9 +63786,9 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F317" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G317" s="5" t="inlineStr">
@@ -64117,10 +63805,10 @@
         <v>21</v>
       </c>
       <c r="J317" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K317" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L317" s="6" t="n">
         <v>27</v>
@@ -64132,7 +63820,7 @@
         <v>0</v>
       </c>
       <c r="O317" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P317" s="7" t="n">
         <v>27</v>
@@ -64140,10 +63828,8 @@
       <c r="Q317" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R317" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R317" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S317" s="7" t="inlineStr">
         <is>
@@ -64302,9 +63988,9 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F318" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G318" s="5" t="inlineStr">
@@ -64321,10 +64007,10 @@
         <v>21</v>
       </c>
       <c r="J318" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K318" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L318" s="6" t="n">
         <v>27</v>
@@ -64336,7 +64022,7 @@
         <v>0</v>
       </c>
       <c r="O318" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P318" s="7" t="n">
         <v>27</v>
@@ -64344,10 +64030,8 @@
       <c r="Q318" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R318" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R318" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S318" s="7" t="inlineStr">
         <is>
@@ -64506,9 +64190,9 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F319" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G319" s="5" t="inlineStr">
@@ -64525,10 +64209,10 @@
         <v>21</v>
       </c>
       <c r="J319" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K319" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L319" s="6" t="n">
         <v>27</v>
@@ -64540,7 +64224,7 @@
         <v>0</v>
       </c>
       <c r="O319" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P319" s="7" t="n">
         <v>27</v>
@@ -64548,10 +64232,8 @@
       <c r="Q319" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R319" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R319" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S319" s="7" t="inlineStr">
         <is>
@@ -64710,9 +64392,9 @@
           <t>223002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F320" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F320" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G320" s="5" t="inlineStr">
@@ -64729,10 +64411,10 @@
         <v>21</v>
       </c>
       <c r="J320" s="6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K320" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L320" s="6" t="n">
         <v>27</v>
@@ -64744,7 +64426,7 @@
         <v>0</v>
       </c>
       <c r="O320" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P320" s="7" t="n">
         <v>27</v>
@@ -64752,10 +64434,8 @@
       <c r="Q320" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="R320" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="R320" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="S320" s="7" t="inlineStr">
         <is>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$294</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -32880,14 +32880,14 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F164" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G164" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H164" s="5" t="inlineStr">
@@ -32896,7 +32896,7 @@
         </is>
       </c>
       <c r="I164" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J164" s="6" t="n">
         <v>26</v>
@@ -32911,16 +32911,16 @@
         <v>27</v>
       </c>
       <c r="N164" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O164" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O164" s="6" t="n">
+      <c r="P164" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q164" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P164" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q164" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R164" s="7" t="n">
         <v>0</v>
@@ -40563,7 +40563,7 @@
       </c>
       <c r="G202" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H202" s="5" t="inlineStr">
@@ -40572,7 +40572,7 @@
         </is>
       </c>
       <c r="I202" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J202" s="6" t="n">
         <v>26</v>
@@ -40587,16 +40587,16 @@
         <v>27</v>
       </c>
       <c r="N202" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O202" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P202" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q202" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R202" s="7" t="n">
         <v>1</v>
@@ -40967,7 +40967,7 @@
       </c>
       <c r="G204" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H204" s="5" t="inlineStr">
@@ -40976,7 +40976,7 @@
         </is>
       </c>
       <c r="I204" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J204" s="6" t="n">
         <v>26</v>
@@ -40991,16 +40991,16 @@
         <v>27</v>
       </c>
       <c r="N204" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P204" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q204" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R204" s="7" t="n">
         <v>1</v>
@@ -43189,7 +43189,7 @@
       </c>
       <c r="G215" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H215" s="5" t="inlineStr">
@@ -43198,7 +43198,7 @@
         </is>
       </c>
       <c r="I215" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J215" s="6" t="n">
         <v>26</v>
@@ -43213,16 +43213,16 @@
         <v>27</v>
       </c>
       <c r="N215" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P215" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q215" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R215" s="7" t="n">
         <v>1</v>
@@ -43593,7 +43593,7 @@
       </c>
       <c r="G217" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H217" s="5" t="inlineStr">
@@ -43602,7 +43602,7 @@
         </is>
       </c>
       <c r="I217" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J217" s="6" t="n">
         <v>26</v>
@@ -43617,16 +43617,16 @@
         <v>27</v>
       </c>
       <c r="N217" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P217" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q217" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R217" s="7" t="n">
         <v>1</v>
@@ -43795,7 +43795,7 @@
       </c>
       <c r="G218" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H218" s="5" t="inlineStr">
@@ -43804,7 +43804,7 @@
         </is>
       </c>
       <c r="I218" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J218" s="6" t="n">
         <v>26</v>
@@ -43819,16 +43819,16 @@
         <v>27</v>
       </c>
       <c r="N218" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P218" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q218" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R218" s="7" t="n">
         <v>1</v>
@@ -43997,7 +43997,7 @@
       </c>
       <c r="G219" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H219" s="5" t="inlineStr">
@@ -44006,7 +44006,7 @@
         </is>
       </c>
       <c r="I219" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J219" s="6" t="n">
         <v>26</v>
@@ -44021,16 +44021,16 @@
         <v>27</v>
       </c>
       <c r="N219" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O219" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P219" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q219" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R219" s="7" t="n">
         <v>1</v>
@@ -44603,7 +44603,7 @@
       </c>
       <c r="G222" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H222" s="5" t="inlineStr">
@@ -44612,7 +44612,7 @@
         </is>
       </c>
       <c r="I222" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J222" s="6" t="n">
         <v>26</v>
@@ -44627,16 +44627,16 @@
         <v>27</v>
       </c>
       <c r="N222" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O222" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q222" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R222" s="7" t="n">
         <v>1</v>
@@ -45000,14 +45000,14 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F224" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G224" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H224" s="5" t="inlineStr">
@@ -45016,7 +45016,7 @@
         </is>
       </c>
       <c r="I224" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J224" s="6" t="n">
         <v>26</v>
@@ -45031,16 +45031,16 @@
         <v>27</v>
       </c>
       <c r="N224" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O224" s="6" t="n">
+      <c r="P224" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q224" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P224" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q224" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R224" s="7" t="n">
         <v>0</v>
@@ -45209,7 +45209,7 @@
       </c>
       <c r="G225" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H225" s="5" t="inlineStr">
@@ -45218,7 +45218,7 @@
         </is>
       </c>
       <c r="I225" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J225" s="6" t="n">
         <v>26</v>
@@ -45233,16 +45233,16 @@
         <v>27</v>
       </c>
       <c r="N225" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O225" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P225" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q225" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R225" s="7" t="n">
         <v>1</v>
@@ -46219,7 +46219,7 @@
       </c>
       <c r="G230" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H230" s="5" t="inlineStr">
@@ -46228,7 +46228,7 @@
         </is>
       </c>
       <c r="I230" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J230" s="6" t="n">
         <v>26</v>
@@ -46243,16 +46243,16 @@
         <v>27</v>
       </c>
       <c r="N230" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P230" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q230" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R230" s="7" t="n">
         <v>1</v>
@@ -46616,14 +46616,14 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F232" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G232" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H232" s="5" t="inlineStr">
@@ -46632,7 +46632,7 @@
         </is>
       </c>
       <c r="I232" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J232" s="6" t="n">
         <v>26</v>
@@ -46647,16 +46647,16 @@
         <v>27</v>
       </c>
       <c r="N232" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O232" s="6" t="n">
+      <c r="P232" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q232" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P232" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q232" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R232" s="7" t="n">
         <v>0</v>
@@ -46825,7 +46825,7 @@
       </c>
       <c r="G233" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H233" s="5" t="inlineStr">
@@ -46834,7 +46834,7 @@
         </is>
       </c>
       <c r="I233" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J233" s="6" t="n">
         <v>26</v>
@@ -46849,16 +46849,16 @@
         <v>27</v>
       </c>
       <c r="N233" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O233" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P233" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q233" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R233" s="7" t="n">
         <v>1</v>
@@ -47027,7 +47027,7 @@
       </c>
       <c r="G234" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -47036,7 +47036,7 @@
         </is>
       </c>
       <c r="I234" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J234" s="6" t="n">
         <v>26</v>
@@ -47051,16 +47051,16 @@
         <v>27</v>
       </c>
       <c r="N234" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P234" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q234" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R234" s="7" t="n">
         <v>1</v>
@@ -47431,7 +47431,7 @@
       </c>
       <c r="G236" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H236" s="5" t="inlineStr">
@@ -47440,7 +47440,7 @@
         </is>
       </c>
       <c r="I236" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J236" s="6" t="n">
         <v>26</v>
@@ -47455,16 +47455,16 @@
         <v>27</v>
       </c>
       <c r="N236" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P236" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q236" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R236" s="7" t="n">
         <v>1</v>
@@ -47626,14 +47626,14 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F237" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G237" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H237" s="5" t="inlineStr">
@@ -47642,7 +47642,7 @@
         </is>
       </c>
       <c r="I237" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J237" s="6" t="n">
         <v>26</v>
@@ -47657,16 +47657,16 @@
         <v>27</v>
       </c>
       <c r="N237" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O237" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O237" s="6" t="n">
+      <c r="P237" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q237" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P237" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q237" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R237" s="7" t="n">
         <v>0</v>
@@ -47835,7 +47835,7 @@
       </c>
       <c r="G238" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H238" s="5" t="inlineStr">
@@ -47844,7 +47844,7 @@
         </is>
       </c>
       <c r="I238" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J238" s="6" t="n">
         <v>26</v>
@@ -47859,16 +47859,16 @@
         <v>27</v>
       </c>
       <c r="N238" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O238" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P238" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q238" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R238" s="7" t="n">
         <v>1</v>
@@ -48239,7 +48239,7 @@
       </c>
       <c r="G240" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H240" s="5" t="inlineStr">
@@ -48248,7 +48248,7 @@
         </is>
       </c>
       <c r="I240" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J240" s="6" t="n">
         <v>26</v>
@@ -48263,16 +48263,16 @@
         <v>27</v>
       </c>
       <c r="N240" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O240" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P240" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q240" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R240" s="7" t="n">
         <v>1</v>
@@ -48441,7 +48441,7 @@
       </c>
       <c r="G241" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H241" s="5" t="inlineStr">
@@ -48450,7 +48450,7 @@
         </is>
       </c>
       <c r="I241" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J241" s="6" t="n">
         <v>26</v>
@@ -48465,16 +48465,16 @@
         <v>27</v>
       </c>
       <c r="N241" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O241" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P241" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q241" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R241" s="7" t="n">
         <v>1</v>
@@ -49047,7 +49047,7 @@
       </c>
       <c r="G244" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H244" s="5" t="inlineStr">
@@ -49056,7 +49056,7 @@
         </is>
       </c>
       <c r="I244" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J244" s="6" t="n">
         <v>26</v>
@@ -49071,16 +49071,16 @@
         <v>27</v>
       </c>
       <c r="N244" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O244" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P244" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q244" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R244" s="7" t="n">
         <v>1</v>
@@ -49848,14 +49848,14 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F248" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G248" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H248" s="5" t="inlineStr">
@@ -49864,7 +49864,7 @@
         </is>
       </c>
       <c r="I248" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J248" s="6" t="n">
         <v>26</v>
@@ -49879,16 +49879,16 @@
         <v>27</v>
       </c>
       <c r="N248" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O248" s="6" t="n">
+      <c r="P248" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q248" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P248" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q248" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R248" s="7" t="n">
         <v>0</v>
@@ -50050,14 +50050,14 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F249" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G249" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H249" s="5" t="inlineStr">
@@ -50066,7 +50066,7 @@
         </is>
       </c>
       <c r="I249" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J249" s="6" t="n">
         <v>26</v>
@@ -50081,16 +50081,16 @@
         <v>27</v>
       </c>
       <c r="N249" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O249" s="6" t="n">
+      <c r="P249" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q249" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P249" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q249" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R249" s="7" t="n">
         <v>0</v>
@@ -50865,7 +50865,7 @@
       </c>
       <c r="G253" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
@@ -50874,7 +50874,7 @@
         </is>
       </c>
       <c r="I253" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J253" s="6" t="n">
         <v>26</v>
@@ -50889,16 +50889,16 @@
         <v>27</v>
       </c>
       <c r="N253" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O253" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P253" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q253" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R253" s="7" t="n">
         <v>1</v>
@@ -51269,7 +51269,7 @@
       </c>
       <c r="G255" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
@@ -51278,7 +51278,7 @@
         </is>
       </c>
       <c r="I255" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J255" s="6" t="n">
         <v>26</v>
@@ -51293,16 +51293,16 @@
         <v>27</v>
       </c>
       <c r="N255" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O255" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q255" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R255" s="7" t="n">
         <v>1</v>
@@ -51471,7 +51471,7 @@
       </c>
       <c r="G256" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H256" s="5" t="inlineStr">
@@ -51480,7 +51480,7 @@
         </is>
       </c>
       <c r="I256" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J256" s="6" t="n">
         <v>26</v>
@@ -51495,16 +51495,16 @@
         <v>27</v>
       </c>
       <c r="N256" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O256" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P256" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q256" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R256" s="7" t="n">
         <v>1</v>
@@ -51673,7 +51673,7 @@
       </c>
       <c r="G257" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
@@ -51682,7 +51682,7 @@
         </is>
       </c>
       <c r="I257" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J257" s="6" t="n">
         <v>26</v>
@@ -51697,16 +51697,16 @@
         <v>27</v>
       </c>
       <c r="N257" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O257" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P257" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q257" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R257" s="7" t="n">
         <v>1</v>
@@ -52077,7 +52077,7 @@
       </c>
       <c r="G259" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
@@ -52086,7 +52086,7 @@
         </is>
       </c>
       <c r="I259" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J259" s="6" t="n">
         <v>26</v>
@@ -52101,16 +52101,16 @@
         <v>27</v>
       </c>
       <c r="N259" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O259" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P259" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q259" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R259" s="7" t="n">
         <v>1</v>
@@ -52481,7 +52481,7 @@
       </c>
       <c r="G261" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
@@ -52490,7 +52490,7 @@
         </is>
       </c>
       <c r="I261" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J261" s="6" t="n">
         <v>26</v>
@@ -52505,16 +52505,16 @@
         <v>27</v>
       </c>
       <c r="N261" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O261" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P261" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q261" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R261" s="7" t="n">
         <v>1</v>
@@ -53484,14 +53484,14 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F266" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G266" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H266" s="5" t="inlineStr">
@@ -53500,7 +53500,7 @@
         </is>
       </c>
       <c r="I266" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J266" s="6" t="n">
         <v>26</v>
@@ -53515,16 +53515,16 @@
         <v>27</v>
       </c>
       <c r="N266" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O266" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O266" s="6" t="n">
+      <c r="P266" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q266" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P266" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q266" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R266" s="7" t="n">
         <v>0</v>
@@ -53686,14 +53686,14 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F267" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G267" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H267" s="5" t="inlineStr">
@@ -53702,7 +53702,7 @@
         </is>
       </c>
       <c r="I267" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J267" s="6" t="n">
         <v>26</v>
@@ -53717,16 +53717,16 @@
         <v>27</v>
       </c>
       <c r="N267" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O267" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O267" s="6" t="n">
+      <c r="P267" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q267" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P267" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q267" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R267" s="7" t="n">
         <v>0</v>
@@ -53888,14 +53888,14 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F268" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G268" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H268" s="5" t="inlineStr">
@@ -53904,7 +53904,7 @@
         </is>
       </c>
       <c r="I268" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J268" s="6" t="n">
         <v>26</v>
@@ -53919,16 +53919,16 @@
         <v>27</v>
       </c>
       <c r="N268" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O268" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O268" s="6" t="n">
+      <c r="P268" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q268" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P268" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q268" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R268" s="7" t="n">
         <v>0</v>
@@ -54299,7 +54299,7 @@
       </c>
       <c r="G270" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H270" s="5" t="inlineStr">
@@ -54308,7 +54308,7 @@
         </is>
       </c>
       <c r="I270" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J270" s="6" t="n">
         <v>26</v>
@@ -54323,16 +54323,16 @@
         <v>27</v>
       </c>
       <c r="N270" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O270" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P270" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q270" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R270" s="7" t="n">
         <v>1</v>
@@ -54494,14 +54494,14 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F271" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G271" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H271" s="5" t="inlineStr">
@@ -54510,7 +54510,7 @@
         </is>
       </c>
       <c r="I271" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J271" s="6" t="n">
         <v>26</v>
@@ -54525,16 +54525,16 @@
         <v>27</v>
       </c>
       <c r="N271" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O271" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O271" s="6" t="n">
+      <c r="P271" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q271" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P271" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q271" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R271" s="7" t="n">
         <v>0</v>
@@ -54696,14 +54696,14 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F272" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G272" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H272" s="5" t="inlineStr">
@@ -54712,7 +54712,7 @@
         </is>
       </c>
       <c r="I272" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J272" s="6" t="n">
         <v>26</v>
@@ -54727,16 +54727,16 @@
         <v>27</v>
       </c>
       <c r="N272" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O272" s="6" t="n">
+      <c r="P272" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q272" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P272" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q272" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R272" s="7" t="n">
         <v>0</v>
@@ -55100,14 +55100,14 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F274" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G274" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H274" s="5" t="inlineStr">
@@ -55116,7 +55116,7 @@
         </is>
       </c>
       <c r="I274" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J274" s="6" t="n">
         <v>26</v>
@@ -55131,16 +55131,16 @@
         <v>27</v>
       </c>
       <c r="N274" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O274" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O274" s="6" t="n">
+      <c r="P274" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q274" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P274" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q274" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R274" s="7" t="n">
         <v>0</v>
@@ -55302,14 +55302,14 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F275" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G275" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H275" s="5" t="inlineStr">
@@ -55318,7 +55318,7 @@
         </is>
       </c>
       <c r="I275" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J275" s="6" t="n">
         <v>26</v>
@@ -55333,16 +55333,16 @@
         <v>27</v>
       </c>
       <c r="N275" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O275" s="6" t="n">
+      <c r="P275" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q275" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P275" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q275" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R275" s="7" t="n">
         <v>0</v>
@@ -55504,14 +55504,14 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F276" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G276" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H276" s="5" t="inlineStr">
@@ -55520,7 +55520,7 @@
         </is>
       </c>
       <c r="I276" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J276" s="6" t="n">
         <v>26</v>
@@ -55535,16 +55535,16 @@
         <v>27</v>
       </c>
       <c r="N276" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O276" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O276" s="6" t="n">
+      <c r="P276" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q276" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P276" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q276" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R276" s="7" t="n">
         <v>0</v>
@@ -55706,14 +55706,14 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F277" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G277" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H277" s="5" t="inlineStr">
@@ -55722,7 +55722,7 @@
         </is>
       </c>
       <c r="I277" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J277" s="6" t="n">
         <v>26</v>
@@ -55737,16 +55737,16 @@
         <v>27</v>
       </c>
       <c r="N277" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O277" s="6" t="n">
+      <c r="P277" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q277" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P277" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q277" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R277" s="7" t="n">
         <v>0</v>
@@ -55908,14 +55908,14 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F278" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G278" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H278" s="5" t="inlineStr">
@@ -55924,7 +55924,7 @@
         </is>
       </c>
       <c r="I278" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J278" s="6" t="n">
         <v>26</v>
@@ -55939,16 +55939,16 @@
         <v>27</v>
       </c>
       <c r="N278" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O278" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O278" s="6" t="n">
+      <c r="P278" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q278" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P278" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q278" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R278" s="7" t="n">
         <v>0</v>
@@ -56312,14 +56312,14 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F280" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G280" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H280" s="5" t="inlineStr">
@@ -56328,7 +56328,7 @@
         </is>
       </c>
       <c r="I280" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J280" s="6" t="n">
         <v>26</v>
@@ -56343,16 +56343,16 @@
         <v>27</v>
       </c>
       <c r="N280" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O280" s="6" t="n">
+      <c r="P280" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q280" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P280" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q280" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R280" s="7" t="n">
         <v>0</v>
@@ -56514,14 +56514,14 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F281" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G281" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H281" s="5" t="inlineStr">
@@ -56530,7 +56530,7 @@
         </is>
       </c>
       <c r="I281" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J281" s="6" t="n">
         <v>26</v>
@@ -56545,16 +56545,16 @@
         <v>27</v>
       </c>
       <c r="N281" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O281" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O281" s="6" t="n">
+      <c r="P281" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q281" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P281" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q281" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R281" s="7" t="n">
         <v>0</v>
@@ -56918,14 +56918,14 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F283" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G283" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H283" s="5" t="inlineStr">
@@ -56934,7 +56934,7 @@
         </is>
       </c>
       <c r="I283" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J283" s="6" t="n">
         <v>26</v>
@@ -56949,16 +56949,16 @@
         <v>27</v>
       </c>
       <c r="N283" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O283" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O283" s="6" t="n">
+      <c r="P283" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q283" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P283" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q283" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R283" s="7" t="n">
         <v>0</v>
@@ -57120,14 +57120,14 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F284" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G284" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H284" s="5" t="inlineStr">
@@ -57136,7 +57136,7 @@
         </is>
       </c>
       <c r="I284" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J284" s="6" t="n">
         <v>26</v>
@@ -57151,16 +57151,16 @@
         <v>27</v>
       </c>
       <c r="N284" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O284" s="6" t="n">
+      <c r="P284" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q284" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P284" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q284" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R284" s="7" t="n">
         <v>0</v>
@@ -58130,14 +58130,14 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F289" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G289" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H289" s="5" t="inlineStr">
@@ -58146,7 +58146,7 @@
         </is>
       </c>
       <c r="I289" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J289" s="6" t="n">
         <v>26</v>
@@ -58161,16 +58161,16 @@
         <v>27</v>
       </c>
       <c r="N289" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O289" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O289" s="6" t="n">
+      <c r="P289" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q289" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P289" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q289" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R289" s="7" t="n">
         <v>0</v>
@@ -58736,14 +58736,14 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F292" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G292" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H292" s="5" t="inlineStr">
@@ -58752,7 +58752,7 @@
         </is>
       </c>
       <c r="I292" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J292" s="6" t="n">
         <v>26</v>
@@ -58767,16 +58767,16 @@
         <v>27</v>
       </c>
       <c r="N292" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O292" s="6" t="n">
+      <c r="P292" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q292" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P292" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q292" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R292" s="7" t="n">
         <v>0</v>
@@ -59140,14 +59140,14 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F294" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G294" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H294" s="5" t="inlineStr">
@@ -59156,7 +59156,7 @@
         </is>
       </c>
       <c r="I294" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J294" s="6" t="n">
         <v>26</v>
@@ -59171,16 +59171,16 @@
         <v>27</v>
       </c>
       <c r="N294" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O294" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O294" s="6" t="n">
+      <c r="P294" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q294" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P294" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q294" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R294" s="7" t="n">
         <v>0</v>
@@ -59948,14 +59948,14 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F298" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G298" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H298" s="5" t="inlineStr">
@@ -59964,7 +59964,7 @@
         </is>
       </c>
       <c r="I298" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J298" s="6" t="n">
         <v>26</v>
@@ -59979,16 +59979,16 @@
         <v>27</v>
       </c>
       <c r="N298" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O298" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O298" s="6" t="n">
+      <c r="P298" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q298" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P298" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q298" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R298" s="7" t="n">
         <v>0</v>
@@ -60150,14 +60150,14 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F299" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G299" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H299" s="5" t="inlineStr">
@@ -60166,7 +60166,7 @@
         </is>
       </c>
       <c r="I299" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J299" s="6" t="n">
         <v>26</v>
@@ -60181,16 +60181,16 @@
         <v>27</v>
       </c>
       <c r="N299" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O299" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O299" s="6" t="n">
+      <c r="P299" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q299" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P299" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q299" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R299" s="7" t="n">
         <v>0</v>
@@ -60352,14 +60352,14 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F300" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G300" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H300" s="5" t="inlineStr">
@@ -60368,7 +60368,7 @@
         </is>
       </c>
       <c r="I300" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J300" s="6" t="n">
         <v>26</v>
@@ -60383,16 +60383,16 @@
         <v>27</v>
       </c>
       <c r="N300" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O300" s="6" t="n">
+      <c r="P300" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q300" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P300" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q300" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R300" s="7" t="n">
         <v>0</v>
@@ -60561,7 +60561,7 @@
       </c>
       <c r="G301" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H301" s="5" t="inlineStr">
@@ -60570,7 +60570,7 @@
         </is>
       </c>
       <c r="I301" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J301" s="6" t="n">
         <v>26</v>
@@ -60585,16 +60585,16 @@
         <v>27</v>
       </c>
       <c r="N301" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O301" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P301" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q301" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R301" s="7" t="n">
         <v>1</v>
@@ -60756,14 +60756,14 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F302" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G302" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H302" s="5" t="inlineStr">
@@ -60772,7 +60772,7 @@
         </is>
       </c>
       <c r="I302" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J302" s="6" t="n">
         <v>26</v>
@@ -60787,16 +60787,16 @@
         <v>27</v>
       </c>
       <c r="N302" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O302" s="6" t="n">
+      <c r="P302" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q302" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P302" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q302" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R302" s="7" t="n">
         <v>0</v>
@@ -60958,14 +60958,14 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F303" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G303" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H303" s="5" t="inlineStr">
@@ -60974,7 +60974,7 @@
         </is>
       </c>
       <c r="I303" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J303" s="6" t="n">
         <v>26</v>
@@ -60989,16 +60989,16 @@
         <v>27</v>
       </c>
       <c r="N303" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O303" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O303" s="6" t="n">
+      <c r="P303" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q303" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P303" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q303" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R303" s="7" t="n">
         <v>0</v>
@@ -61160,14 +61160,14 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F304" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G304" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H304" s="5" t="inlineStr">
@@ -61176,7 +61176,7 @@
         </is>
       </c>
       <c r="I304" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J304" s="6" t="n">
         <v>26</v>
@@ -61191,16 +61191,16 @@
         <v>27</v>
       </c>
       <c r="N304" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O304" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O304" s="6" t="n">
+      <c r="P304" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q304" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P304" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q304" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R304" s="7" t="n">
         <v>0</v>
@@ -61362,14 +61362,14 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F305" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G305" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H305" s="5" t="inlineStr">
@@ -61378,7 +61378,7 @@
         </is>
       </c>
       <c r="I305" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J305" s="6" t="n">
         <v>26</v>
@@ -61393,16 +61393,16 @@
         <v>27</v>
       </c>
       <c r="N305" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O305" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O305" s="6" t="n">
+      <c r="P305" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q305" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P305" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q305" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R305" s="7" t="n">
         <v>0</v>
@@ -61968,14 +61968,14 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F308" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G308" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H308" s="5" t="inlineStr">
@@ -61984,7 +61984,7 @@
         </is>
       </c>
       <c r="I308" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J308" s="6" t="n">
         <v>26</v>
@@ -61999,16 +61999,16 @@
         <v>27</v>
       </c>
       <c r="N308" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O308" s="6" t="n">
+      <c r="P308" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q308" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P308" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q308" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R308" s="7" t="n">
         <v>0</v>
@@ -62372,14 +62372,14 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F310" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G310" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H310" s="5" t="inlineStr">
@@ -62388,7 +62388,7 @@
         </is>
       </c>
       <c r="I310" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J310" s="6" t="n">
         <v>26</v>
@@ -62403,16 +62403,16 @@
         <v>27</v>
       </c>
       <c r="N310" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O310" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O310" s="6" t="n">
+      <c r="P310" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q310" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P310" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q310" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R310" s="7" t="n">
         <v>0</v>
@@ -62574,14 +62574,14 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F311" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G311" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H311" s="5" t="inlineStr">
@@ -62590,7 +62590,7 @@
         </is>
       </c>
       <c r="I311" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J311" s="6" t="n">
         <v>26</v>
@@ -62605,16 +62605,16 @@
         <v>27</v>
       </c>
       <c r="N311" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O311" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O311" s="6" t="n">
+      <c r="P311" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q311" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P311" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q311" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R311" s="7" t="n">
         <v>0</v>
@@ -62776,14 +62776,14 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F312" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G312" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H312" s="5" t="inlineStr">
@@ -62792,7 +62792,7 @@
         </is>
       </c>
       <c r="I312" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J312" s="6" t="n">
         <v>26</v>
@@ -62807,16 +62807,16 @@
         <v>27</v>
       </c>
       <c r="N312" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O312" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O312" s="6" t="n">
+      <c r="P312" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q312" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P312" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q312" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R312" s="7" t="n">
         <v>0</v>
@@ -62978,14 +62978,14 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F313" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G313" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H313" s="5" t="inlineStr">
@@ -62994,7 +62994,7 @@
         </is>
       </c>
       <c r="I313" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J313" s="6" t="n">
         <v>26</v>
@@ -63009,16 +63009,16 @@
         <v>27</v>
       </c>
       <c r="N313" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O313" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O313" s="6" t="n">
+      <c r="P313" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q313" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P313" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q313" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R313" s="7" t="n">
         <v>0</v>
@@ -63180,14 +63180,14 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F314" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G314" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H314" s="5" t="inlineStr">
@@ -63196,7 +63196,7 @@
         </is>
       </c>
       <c r="I314" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J314" s="6" t="n">
         <v>26</v>
@@ -63211,16 +63211,16 @@
         <v>27</v>
       </c>
       <c r="N314" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O314" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O314" s="6" t="n">
+      <c r="P314" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q314" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P314" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q314" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R314" s="7" t="n">
         <v>0</v>
@@ -63382,14 +63382,14 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F315" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G315" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H315" s="5" t="inlineStr">
@@ -63398,7 +63398,7 @@
         </is>
       </c>
       <c r="I315" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J315" s="6" t="n">
         <v>26</v>
@@ -63413,16 +63413,16 @@
         <v>27</v>
       </c>
       <c r="N315" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O315" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O315" s="6" t="n">
+      <c r="P315" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q315" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P315" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q315" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R315" s="7" t="n">
         <v>0</v>
@@ -63786,14 +63786,14 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F317" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G317" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H317" s="5" t="inlineStr">
@@ -63802,7 +63802,7 @@
         </is>
       </c>
       <c r="I317" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J317" s="6" t="n">
         <v>26</v>
@@ -63817,16 +63817,16 @@
         <v>27</v>
       </c>
       <c r="N317" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O317" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O317" s="6" t="n">
+      <c r="P317" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q317" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P317" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q317" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R317" s="7" t="n">
         <v>0</v>
@@ -63988,14 +63988,14 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F318" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G318" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H318" s="5" t="inlineStr">
@@ -64004,7 +64004,7 @@
         </is>
       </c>
       <c r="I318" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J318" s="6" t="n">
         <v>26</v>
@@ -64019,16 +64019,16 @@
         <v>27</v>
       </c>
       <c r="N318" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O318" s="6" t="n">
+      <c r="P318" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q318" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P318" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q318" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R318" s="7" t="n">
         <v>0</v>
@@ -64580,7 +64580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K231"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -64592,7 +64592,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="23" customWidth="1" min="5" max="5"/>
@@ -74240,12 +74240,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>222081</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>عثمان عبد الخالق عثمان عبده</t>
+          <t>عفيف عبد الجبار العبيد الصديق</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -74255,12 +74255,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>222060@med.asu.edu.eg</t>
+          <t>222081@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -74270,7 +74270,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -74280,29 +74280,29 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>11:23:58</t>
+          <t>11:16:54</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>222009</t>
+          <t>222096</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>حسن عبد العزيز حسن عبد المجيد</t>
+          <t>محمود النميرى محمود ابراهيم</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -74312,12 +74312,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>222009@med.asu.edu.eg</t>
+          <t>222096@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -74327,7 +74327,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -74337,29 +74337,29 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>11:24:00</t>
+          <t>11:16:58</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>210306</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ياسمين بابكر موسى بابكر</t>
+          <t>احمد اشرف احمد رجب غزال</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -74369,12 +74369,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>221961@med.asu.edu.eg</t>
+          <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -74384,7 +74384,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -74394,29 +74394,29 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>11:24:05</t>
+          <t>11:17:56</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>221885</t>
+          <t>222091</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>جهاد عمر سويد</t>
+          <t>سالم فايز سالم البلوى</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -74426,12 +74426,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>221885@med.asu.edu.eg</t>
+          <t>222091@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -74441,7 +74441,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -74451,29 +74451,29 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>11:24:39</t>
+          <t>11:17:58</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>210301</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>ابانوب ايمن جميل وديع</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -74483,12 +74483,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>221862@med.asu.edu.eg</t>
+          <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -74498,7 +74498,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -74508,29 +74508,29 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>11:24:41</t>
+          <t>11:18:00</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>210401</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>هاجر طة عبد الحميد طه</t>
+          <t>بافلى عماد غبريال مترى</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -74540,12 +74540,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>222050@med.asu.edu.eg</t>
+          <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -74555,7 +74555,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -74565,29 +74565,29 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>11:24:43</t>
+          <t>11:19:52</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>210334</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>احمد محمد عبد المجيد عبد العاطي</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -74597,12 +74597,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>221936@med.asu.edu.eg</t>
+          <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -74612,7 +74612,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -74622,29 +74622,29 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>11:24:45</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>210387</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>ايمان محمد يوسف محمد</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -74654,12 +74654,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>222064@med.asu.edu.eg</t>
+          <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -74669,7 +74669,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -74679,29 +74679,29 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>11:31:36</t>
+          <t>11:20:08</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>222083</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>محمد المجتبى فخر الدين بلال خليل</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -74711,12 +74711,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>221957@med.asu.edu.eg</t>
+          <t>222083@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -74726,7 +74726,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -74736,29 +74736,29 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>11:32:13</t>
+          <t>11:22:16</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>221582</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>صهيب عبد المنعم طه عثمان</t>
+          <t>شهد صلاح جعفر الشيخ ادريس</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -74768,12 +74768,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>222078@med.asu.edu.eg</t>
+          <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -74783,7 +74783,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -74793,29 +74793,29 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>11:32:38</t>
+          <t>11:22:24</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>221878</t>
+          <t>222085</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ميسم الصادق يعقوب احمد</t>
+          <t>مهند معاوية صالح جقدولة</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -74825,12 +74825,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>221878@med.asu.edu.eg</t>
+          <t>222085@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -74840,7 +74840,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -74850,29 +74850,29 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>11:33:13</t>
+          <t>11:24:15</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>221880</t>
+          <t>222123</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>دعاء صلاح محمد حسن</t>
+          <t>عبد الله العوض سليمان بابكر</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -74882,12 +74882,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>221880@med.asu.edu.eg</t>
+          <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -74897,7 +74897,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -74907,29 +74907,29 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>11:38:29</t>
+          <t>11:26:07</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -74944,7 +74944,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>221939@med.asu.edu.eg</t>
+          <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -74969,7 +74969,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>11:43:55</t>
+          <t>11:23:58</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -74981,12 +74981,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>222009</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>رنا محمد مصطفى على</t>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -75001,7 +75001,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>221994@med.asu.edu.eg</t>
+          <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -75026,7 +75026,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>11:44:08</t>
+          <t>11:24:00</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -75038,12 +75038,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ابرار كمال محمد عمر</t>
+          <t>ياسمين بابكر موسى بابكر</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -75058,7 +75058,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>221974@med.asu.edu.eg</t>
+          <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -75083,7 +75083,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>11:44:18</t>
+          <t>11:24:05</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -75095,12 +75095,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>محمد المصطفى ادم داؤد على</t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -75115,7 +75115,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>222062@med.asu.edu.eg</t>
+          <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -75140,7 +75140,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>11:44:32</t>
+          <t>11:24:39</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -75152,12 +75152,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>منذر عبد الله بلال مضوى</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -75172,7 +75172,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>221999@med.asu.edu.eg</t>
+          <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -75197,7 +75197,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>11:44:39</t>
+          <t>11:24:41</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -75209,12 +75209,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -75229,7 +75229,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>221967@med.asu.edu.eg</t>
+          <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -75254,7 +75254,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>11:44:56</t>
+          <t>11:24:43</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -75266,12 +75266,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>221816</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>رغد محمد عبدالملك الضحياني</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -75281,12 +75281,12 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>221816@med.asu.edu.eg</t>
+          <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -75311,24 +75311,24 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>11:24:07</t>
+          <t>11:24:45</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>221757</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>بشرى فكري محمد احمد الحميدي</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -75338,12 +75338,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>221757@med.asu.edu.eg</t>
+          <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -75368,24 +75368,24 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>11:24:09</t>
+          <t>11:31:36</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>221803</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>يحيى ابراهيم محمد الدراغمه</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -75395,12 +75395,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>221803@med.asu.edu.eg</t>
+          <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -75425,24 +75425,24 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>11:24:13</t>
+          <t>11:32:13</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>221813</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>شمائل عبدالله مصطفي محمد الحسين</t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -75452,12 +75452,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>221813@med.asu.edu.eg</t>
+          <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -75482,24 +75482,24 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>11:24:23</t>
+          <t>11:32:38</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>221860</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>حمزه صالح ابراهيم ابو شاويش</t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -75509,12 +75509,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>221860@med.asu.edu.eg</t>
+          <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -75539,24 +75539,24 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>11:24:26</t>
+          <t>11:33:13</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>221766</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>خالد وليد سالم</t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -75566,12 +75566,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>221766@med.asu.edu.eg</t>
+          <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -75596,24 +75596,24 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>11:24:49</t>
+          <t>11:38:29</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>221763</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>مهند فراس الاديب</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -75623,12 +75623,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>221763@med.asu.edu.eg</t>
+          <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -75653,24 +75653,24 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>11:24:50</t>
+          <t>11:43:55</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>221834</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>خالد مصطفى صالحه</t>
+          <t>رنا محمد مصطفى على</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -75680,12 +75680,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>221834@med.asu.edu.eg</t>
+          <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -75710,24 +75710,24 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>11:24:52</t>
+          <t>11:44:08</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>221841</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>جميل تمام سيجري</t>
+          <t>ابرار كمال محمد عمر</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -75737,12 +75737,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>221841@med.asu.edu.eg</t>
+          <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -75767,24 +75767,24 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>11:24:57</t>
+          <t>11:44:18</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>221809</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>زياد محمد حسنى عليوه</t>
+          <t>محمد المصطفى ادم داؤد على</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -75794,12 +75794,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>221809@med.asu.edu.eg</t>
+          <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -75824,24 +75824,24 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>11:25:05</t>
+          <t>11:44:32</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>محمد احمد العطا حمد</t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -75851,12 +75851,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>221657@med.asu.edu.eg</t>
+          <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -75881,24 +75881,24 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>11:25:10</t>
+          <t>11:44:39</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>221830</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>مهجة خالد الضو مصطفى</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -75908,12 +75908,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>221830@med.asu.edu.eg</t>
+          <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -75938,24 +75938,24 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>11:25:16</t>
+          <t>11:44:56</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>221773</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>محمود عبد السلام الشيخ</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -75965,12 +75965,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>221773@med.asu.edu.eg</t>
+          <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -75980,7 +75980,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -75990,29 +75990,29 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>11:28:03</t>
+          <t>11:16:46</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>221784</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>روان الجيلى خضر محمد</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -76022,12 +76022,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>221784@med.asu.edu.eg</t>
+          <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -76037,7 +76037,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -76047,29 +76047,29 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>11:30:03</t>
+          <t>11:16:49</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -76079,12 +76079,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>221641@med.asu.edu.eg</t>
+          <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -76094,7 +76094,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -76104,29 +76104,29 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>11:16:56</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>221786</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -76136,12 +76136,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>221786@med.asu.edu.eg</t>
+          <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -76151,7 +76151,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -76161,29 +76161,29 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>11:36:15</t>
+          <t>11:17:42</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>221775</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر محمد الحايك</t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -76193,12 +76193,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>221775@med.asu.edu.eg</t>
+          <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -76208,7 +76208,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -76218,29 +76218,29 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>11:36:39</t>
+          <t>11:18:02</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>221767</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>وعد صديق عبدالرحمن يحى</t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -76250,12 +76250,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>221767@med.asu.edu.eg</t>
+          <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -76265,7 +76265,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -76275,29 +76275,29 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>11:37:11</t>
+          <t>11:18:04</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>221805</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ربا باسبار نورالدين عثمان</t>
+          <t>خالد محمد ترياقى</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -76307,12 +76307,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>221805@med.asu.edu.eg</t>
+          <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -76322,7 +76322,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -76332,29 +76332,29 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>11:37:35</t>
+          <t>11:18:08</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>221853</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>موسى تاج الدين موسى ادريس</t>
+          <t>النذير احمد داؤد اسو</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -76364,12 +76364,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>221853@med.asu.edu.eg</t>
+          <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -76379,7 +76379,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -76389,29 +76389,29 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>11:39:04</t>
+          <t>11:18:10</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>221761</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>كمال رامى كمال عبد العال</t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -76421,12 +76421,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>221761@med.asu.edu.eg</t>
+          <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -76436,7 +76436,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -76446,29 +76446,29 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>12:13:49</t>
+          <t>11:21:53</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>221781</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>نون عبدالله فضل ادريس</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -76478,12 +76478,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>221781@med.asu.edu.eg</t>
+          <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -76493,7 +76493,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -76503,29 +76503,29 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>12:14:27</t>
+          <t>11:22:01</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>221859</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ايلاف يوسف محمد احمد</t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -76535,12 +76535,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>221859@med.asu.edu.eg</t>
+          <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -76550,7 +76550,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -76560,29 +76560,29 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>12:14:32</t>
+          <t>11:22:08</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>221674</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -76592,12 +76592,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>221674@med.asu.edu.eg</t>
+          <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -76607,7 +76607,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -76617,29 +76617,29 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>11:24:11</t>
+          <t>11:22:38</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>221694</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>محمد جمال محمد حاج</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -76649,12 +76649,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>221694@med.asu.edu.eg</t>
+          <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -76664,7 +76664,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -76674,29 +76674,29 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>11:24:16</t>
+          <t>11:22:46</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>على الحسن</t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -76706,12 +76706,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>221716@med.asu.edu.eg</t>
+          <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -76721,7 +76721,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -76731,29 +76731,29 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>11:24:18</t>
+          <t>11:25:08</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221816</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>رغد محمد عبدالملك الضحياني</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -76763,12 +76763,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>221711@med.asu.edu.eg</t>
+          <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -76793,24 +76793,24 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>11:24:21</t>
+          <t>11:24:07</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>221686</t>
+          <t>221757</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>عبد الرحمن اسماعيل كمال احمرو</t>
+          <t>بشرى فكري محمد احمد الحميدي</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -76820,12 +76820,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>221686@med.asu.edu.eg</t>
+          <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -76850,24 +76850,24 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>11:24:28</t>
+          <t>11:24:09</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221803</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>يحيى ابراهيم محمد الدراغمه</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -76877,12 +76877,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>221751@med.asu.edu.eg</t>
+          <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -76907,24 +76907,24 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>11:24:54</t>
+          <t>11:24:13</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>221706</t>
+          <t>221813</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>على محمد على بابكر</t>
+          <t>شمائل عبدالله مصطفي محمد الحسين</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -76934,12 +76934,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>221706@med.asu.edu.eg</t>
+          <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -76964,24 +76964,24 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>11:25:06</t>
+          <t>11:24:23</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>221701</t>
+          <t>221860</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>محمود سليم سليمان زبن</t>
+          <t>حمزه صالح ابراهيم ابو شاويش</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -76991,12 +76991,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>221701@med.asu.edu.eg</t>
+          <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -77021,24 +77021,24 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>11:25:08</t>
+          <t>11:24:26</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>221697</t>
+          <t>221766</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>زينب عبدالغفور محمد عبدالله</t>
+          <t>خالد وليد سالم</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -77048,12 +77048,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>221697@med.asu.edu.eg</t>
+          <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -77078,24 +77078,24 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>11:25:14</t>
+          <t>11:24:49</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221763</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>حسين احمد حسين الحسن</t>
+          <t>مهند فراس الاديب</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -77105,12 +77105,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>221729@med.asu.edu.eg</t>
+          <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -77135,24 +77135,24 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>11:28:59</t>
+          <t>11:24:50</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221834</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>نبا ابراهيم الزعبى</t>
+          <t>خالد مصطفى صالحه</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -77162,12 +77162,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>221752@med.asu.edu.eg</t>
+          <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -77192,24 +77192,24 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>11:29:31</t>
+          <t>11:24:52</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>221676</t>
+          <t>221841</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ساميه أحمد محمد طيطي</t>
+          <t>جميل تمام سيجري</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -77219,12 +77219,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>221676@med.asu.edu.eg</t>
+          <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -77249,24 +77249,24 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>11:34:37</t>
+          <t>11:24:57</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>بتول باسم قاووق</t>
+          <t>زياد محمد حسنى عليوه</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -77276,12 +77276,12 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>221722@med.asu.edu.eg</t>
+          <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -77306,24 +77306,24 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>11:35:36</t>
+          <t>11:25:05</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>محمد احمد العطا حمد</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -77333,12 +77333,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>221713@med.asu.edu.eg</t>
+          <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -77363,24 +77363,24 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>11:38:02</t>
+          <t>11:25:10</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>221688</t>
+          <t>221830</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>سليمان اياد سليمان الفليت</t>
+          <t>مهجة خالد الضو مصطفى</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -77390,12 +77390,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>221688@med.asu.edu.eg</t>
+          <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -77420,24 +77420,24 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>11:39:34</t>
+          <t>11:25:16</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221773</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>بتول ابراهيم يوسف الزيناتي</t>
+          <t>محمود عبد السلام الشيخ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -77447,12 +77447,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>221712@med.asu.edu.eg</t>
+          <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -77477,24 +77477,24 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>11:41:36</t>
+          <t>11:28:03</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>221702</t>
+          <t>221784</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>محمود ابراهيم توفيق أبو هجرس</t>
+          <t>روان الجيلى خضر محمد</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -77504,12 +77504,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>221702@med.asu.edu.eg</t>
+          <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -77534,24 +77534,24 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>11:43:23</t>
+          <t>11:30:03</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -77561,12 +77561,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>221745@med.asu.edu.eg</t>
+          <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -77591,24 +77591,24 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>12:14:01</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>210558</t>
+          <t>221786</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>على عبد الرؤف محمد بكرى</t>
+          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -77618,12 +77618,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>210558@med.asu.edu.eg</t>
+          <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -77648,24 +77648,24 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>11:24:34</t>
+          <t>11:36:15</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>210902</t>
+          <t>221775</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>عبير ميسره محى الدين قاسم</t>
+          <t>عبد الرحمن عمر محمد الحايك</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -77675,12 +77675,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>210902@med.asu.edu.eg</t>
+          <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -77705,74 +77705,3665 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>11:26:13</t>
+          <t>11:36:39</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
+          <t>221767</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>وعد صديق عبدالرحمن يحى</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>221767@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>11:37:11</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>221805</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ربا باسبار نورالدين عثمان</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>221805@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>11:37:35</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>221853</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>موسى تاج الدين موسى ادريس</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>221853@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>11:39:04</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>221761</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>كمال رامى كمال عبد العال</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>221761@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>12:13:49</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>221781</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>نون عبدالله فضل ادريس</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>221781@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>12:14:27</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>221859</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ايلاف يوسف محمد احمد</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>221859@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>12:14:32</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>221816</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>رغد محمد عبدالملك الضحياني</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>221816@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>11:16:52</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>221830</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>مهجة خالد الضو مصطفى</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>221830@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>11:18:14</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>B1D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>221674</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>221674@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>11:24:11</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>221694</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>محمد جمال محمد حاج</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>221694@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>11:24:16</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>221716</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>على الحسن</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>221716@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>11:24:18</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>221711</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>وسيم رجب محمود حسين عياد</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>221711@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>11:24:21</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>221686</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>عبد الرحمن اسماعيل كمال احمرو</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>221686@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>11:24:28</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>221751</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>محمد محمود درويش ابو سريه</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>221751@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>11:24:54</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>221706</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>على محمد على بابكر</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>221706@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>11:25:06</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>221701</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>محمود سليم سليمان زبن</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>221701@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>11:25:08</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>221697</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>زينب عبدالغفور محمد عبدالله</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>221697@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>11:25:14</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>221729</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>حسين احمد حسين الحسن</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>221729@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>11:28:59</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>221752</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>نبا ابراهيم الزعبى</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>221752@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>11:29:31</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>221676</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>ساميه أحمد محمد طيطي</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>221676@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>11:34:37</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>221722</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>بتول باسم قاووق</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>221722@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>11:35:36</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>221713</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>عبق الطيب الامين عبد الماجد</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>221713@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>11:38:02</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>221688</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>سليمان اياد سليمان الفليت</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>221688@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>11:39:34</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>221712</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>221712@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>11:41:36</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>221702</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>محمود ابراهيم توفيق أبو هجرس</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>221702@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>11:43:23</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>221745</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>لينة عبدالعظيم احمد سيد</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>221745@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>12:14:01</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>221683</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>عمرو وليد خالد كليم</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>221683@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>11:17:18</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>B1D1</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>210558</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>على عبد الرؤف محمد بكرى</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>210558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>11:24:34</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>210902</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>عبير ميسره محى الدين قاسم</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>210902@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>25/11/2025</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>11:26:13</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>210799</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>حسن ممدوح حسن صغير</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>210799@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>11:17:01</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>210910</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ابو بكر عبد الرحيم سنجك محمد</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>210910@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>11:17:07</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>210558</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>على عبد الرؤف محمد بكرى</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>210558@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>11:17:09</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>210809</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>خطاب خالد هادى الوادعى</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>210809@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>11:17:11</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>210621</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>210621@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>11:17:27</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>210880</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>نور الهدى ماجد عبد الامير</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>210880@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>11:17:32</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>210836</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>عمه ديد درار</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>210836@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>11:17:34</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>210828</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Manal Hamid Nour Mahamat Terab</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>210828@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>11:17:37</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>210727</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>ندى احمد عبد الله احمد عبد المجيد</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>210727@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>11:17:39</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>210839</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>شكرى محمد حاد</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>210839@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>11:17:48</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>210686</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>210686@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>11:17:50</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>210883</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>احمد صلاح الدين عابدين صالح</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>210883@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>11:17:52</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>210513</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>شهد عبد الرحمن احمد الشاذلى</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>210513@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>11:18:53</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>210509</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>شروق محمود محمد محمود فرحات</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>210509@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>11:20:15</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>210762</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>هند السيد محمد السعيد سيد احمد</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>210762@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>11:20:23</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>210937</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>عبد العزيز ناصر الجهمانى</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>210937@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>11:20:32</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>B1F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
           <t>210994</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>نور ماجد فايز ابو جامع</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>Year 4</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
+      <c r="I276" t="inlineStr">
         <is>
           <t>25/11/2025</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr">
+      <c r="J276" t="inlineStr">
         <is>
           <t>11:25:45</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>221082</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>جنى ايمن احمد شديد</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>221082@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>11:16:59</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>221105</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ديفيد ادوار شكري برتلة رزق</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>221105@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>11:17:05</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>211003</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>محمد عادل محمد عبد الله العريفى</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>211003@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>11:17:14</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>211044</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>لجين فتحى عدلى محمد عبد الله</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>211044@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>11:17:20</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>211063</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>مايا مراد موسى عبد القادر</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>211063@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>11:17:22</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>211024</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>جاسم محمد المحيمد الخلف</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>211024@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>11:17:25</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>211934</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>زيدون احمد محمود درادكه</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>211934@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>11:17:28</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>211002</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>منيه خالد الشيخ حاج محمود</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>211002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>11:17:30</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>210982</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>عمر نصر الدين محمد خالد صب لبن</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>210982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>11:17:44</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>210840</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>يونس دينى اسماعيل</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>210840@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>11:17:54</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>211073</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>حنين ايمن فؤاد دغباج</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>211073@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>11:19:12</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>211056</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>محمد وداد احمد وداد فرج</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>211056@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>11:19:19</t>
+        </is>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>211069</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>احمد رياض محمد صافى</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>211069@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>11:19:27</t>
+        </is>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>210994</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>نور ماجد فايز ابو جامع</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>210994@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>11:19:44</t>
+        </is>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>211005</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>محمد باسم محمد على نويات</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>211005@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>11:20:44</t>
+        </is>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>210965</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>همام احمد خليل</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>210965@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>11:20:56</t>
+        </is>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>210984</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>وسيم رزق محمد سهمود</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>210984@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>11:21:12</t>
+        </is>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>211060</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>مروه فرحان الداموك</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>211060@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>11:23:20</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K231"/>
+  <autoFilter ref="A1:K294"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$306</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -45613,7 +45613,7 @@
       </c>
       <c r="G227" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H227" s="5" t="inlineStr">
@@ -45622,7 +45622,7 @@
         </is>
       </c>
       <c r="I227" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J227" s="6" t="n">
         <v>26</v>
@@ -45637,16 +45637,16 @@
         <v>27</v>
       </c>
       <c r="N227" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O227" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P227" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q227" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R227" s="7" t="n">
         <v>1</v>
@@ -45815,7 +45815,7 @@
       </c>
       <c r="G228" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
@@ -45824,7 +45824,7 @@
         </is>
       </c>
       <c r="I228" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J228" s="6" t="n">
         <v>26</v>
@@ -45839,16 +45839,16 @@
         <v>27</v>
       </c>
       <c r="N228" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O228" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P228" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q228" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R228" s="7" t="n">
         <v>1</v>
@@ -46017,7 +46017,7 @@
       </c>
       <c r="G229" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H229" s="5" t="inlineStr">
@@ -46026,7 +46026,7 @@
         </is>
       </c>
       <c r="I229" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J229" s="6" t="n">
         <v>26</v>
@@ -46041,16 +46041,16 @@
         <v>27</v>
       </c>
       <c r="N229" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O229" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P229" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q229" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R229" s="7" t="n">
         <v>1</v>
@@ -47229,7 +47229,7 @@
       </c>
       <c r="G235" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H235" s="5" t="inlineStr">
@@ -47238,7 +47238,7 @@
         </is>
       </c>
       <c r="I235" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J235" s="6" t="n">
         <v>26</v>
@@ -47253,16 +47253,16 @@
         <v>27</v>
       </c>
       <c r="N235" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O235" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P235" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q235" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R235" s="7" t="n">
         <v>1</v>
@@ -48037,7 +48037,7 @@
       </c>
       <c r="G239" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H239" s="5" t="inlineStr">
@@ -48046,7 +48046,7 @@
         </is>
       </c>
       <c r="I239" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J239" s="6" t="n">
         <v>26</v>
@@ -48061,16 +48061,16 @@
         <v>27</v>
       </c>
       <c r="N239" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O239" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P239" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q239" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R239" s="7" t="n">
         <v>1</v>
@@ -49249,7 +49249,7 @@
       </c>
       <c r="G245" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H245" s="5" t="inlineStr">
@@ -49258,7 +49258,7 @@
         </is>
       </c>
       <c r="I245" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J245" s="6" t="n">
         <v>26</v>
@@ -49273,16 +49273,16 @@
         <v>27</v>
       </c>
       <c r="N245" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O245" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P245" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q245" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R245" s="7" t="n">
         <v>1</v>
@@ -50663,7 +50663,7 @@
       </c>
       <c r="G252" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
@@ -50672,7 +50672,7 @@
         </is>
       </c>
       <c r="I252" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J252" s="6" t="n">
         <v>26</v>
@@ -50687,16 +50687,16 @@
         <v>27</v>
       </c>
       <c r="N252" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O252" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P252" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q252" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R252" s="7" t="n">
         <v>1</v>
@@ -51067,7 +51067,7 @@
       </c>
       <c r="G254" s="5" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
@@ -51076,7 +51076,7 @@
         </is>
       </c>
       <c r="I254" s="6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J254" s="6" t="n">
         <v>26</v>
@@ -51091,16 +51091,16 @@
         <v>27</v>
       </c>
       <c r="N254" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O254" s="6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P254" s="7" t="n">
         <v>27</v>
       </c>
       <c r="Q254" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R254" s="7" t="n">
         <v>1</v>
@@ -53282,14 +53282,14 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F265" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G265" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H265" s="5" t="inlineStr">
@@ -53298,7 +53298,7 @@
         </is>
       </c>
       <c r="I265" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J265" s="6" t="n">
         <v>26</v>
@@ -53313,16 +53313,16 @@
         <v>27</v>
       </c>
       <c r="N265" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O265" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O265" s="6" t="n">
+      <c r="P265" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q265" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P265" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q265" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R265" s="7" t="n">
         <v>0</v>
@@ -54090,14 +54090,14 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F269" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G269" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H269" s="5" t="inlineStr">
@@ -54106,7 +54106,7 @@
         </is>
       </c>
       <c r="I269" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J269" s="6" t="n">
         <v>26</v>
@@ -54121,16 +54121,16 @@
         <v>27</v>
       </c>
       <c r="N269" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O269" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O269" s="6" t="n">
+      <c r="P269" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q269" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P269" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q269" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R269" s="7" t="n">
         <v>0</v>
@@ -56716,14 +56716,14 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F282" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G282" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H282" s="5" t="inlineStr">
@@ -56732,7 +56732,7 @@
         </is>
       </c>
       <c r="I282" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J282" s="6" t="n">
         <v>26</v>
@@ -56747,16 +56747,16 @@
         <v>27</v>
       </c>
       <c r="N282" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O282" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O282" s="6" t="n">
+      <c r="P282" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q282" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P282" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q282" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R282" s="7" t="n">
         <v>0</v>
@@ -64190,14 +64190,14 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F319" s="9" t="inlineStr">
+        <is>
+          <t>No Risk</t>
         </is>
       </c>
       <c r="G319" s="5" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H319" s="5" t="inlineStr">
@@ -64206,7 +64206,7 @@
         </is>
       </c>
       <c r="I319" s="6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J319" s="6" t="n">
         <v>26</v>
@@ -64221,16 +64221,16 @@
         <v>27</v>
       </c>
       <c r="N319" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O319" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="O319" s="6" t="n">
+      <c r="P319" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q319" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="P319" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q319" s="7" t="n">
-        <v>0</v>
       </c>
       <c r="R319" s="7" t="n">
         <v>0</v>
@@ -64580,7 +64580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:K306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -74924,12 +74924,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>222080</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>عثمان عبد الخالق عثمان عبده</t>
+          <t>عبد الرحمن اسد الله حامد احمد</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -74939,12 +74939,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>222060@med.asu.edu.eg</t>
+          <t>222080@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -74954,7 +74954,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -74964,29 +74964,29 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>11:23:58</t>
+          <t>11:33:35</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>222009</t>
+          <t>222111</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>حسن عبد العزيز حسن عبد المجيد</t>
+          <t>ليازيا الفاتح صالح ادريس</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -74996,12 +74996,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>222009@med.asu.edu.eg</t>
+          <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -75011,7 +75011,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -75021,29 +75021,29 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>11:24:00</t>
+          <t>11:36:00</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>221961</t>
+          <t>210288</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ياسمين بابكر موسى بابكر</t>
+          <t>عمرو اشرف جابر رمضان</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -75053,12 +75053,12 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>221961@med.asu.edu.eg</t>
+          <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -75068,7 +75068,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -75078,29 +75078,29 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>11:24:05</t>
+          <t>11:42:42</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>221885</t>
+          <t>210340</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>جهاد عمر سويد</t>
+          <t>احمد منتصر سيد منتصر احمد</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -75110,12 +75110,12 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>221885@med.asu.edu.eg</t>
+          <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -75125,7 +75125,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -75135,29 +75135,29 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>11:24:39</t>
+          <t>11:42:58</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>210438</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>حسينى طارق حسينى محمد الطويل</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -75167,12 +75167,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>221862@med.asu.edu.eg</t>
+          <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -75182,7 +75182,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -75192,29 +75192,29 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>11:24:41</t>
+          <t>11:43:49</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>B1E1</t>
+          <t>B1E2</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>هاجر طة عبد الحميد طه</t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -75229,7 +75229,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>222050@med.asu.edu.eg</t>
+          <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -75254,7 +75254,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>11:24:43</t>
+          <t>11:23:58</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -75266,12 +75266,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>222009</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>حسن عبد العزيز حسن عبد المجيد</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -75286,7 +75286,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>221936@med.asu.edu.eg</t>
+          <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -75311,7 +75311,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>11:24:45</t>
+          <t>11:24:00</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -75323,12 +75323,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>221961</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>ياسمين بابكر موسى بابكر</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -75343,7 +75343,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>222064@med.asu.edu.eg</t>
+          <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -75368,7 +75368,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>11:31:36</t>
+          <t>11:24:05</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -75380,12 +75380,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -75400,7 +75400,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>221957@med.asu.edu.eg</t>
+          <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -75425,7 +75425,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>11:32:13</t>
+          <t>11:24:39</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -75437,12 +75437,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>صهيب عبد المنعم طه عثمان</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -75457,7 +75457,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>222078@med.asu.edu.eg</t>
+          <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -75482,7 +75482,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>11:32:38</t>
+          <t>11:24:41</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -75494,12 +75494,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>221878</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ميسم الصادق يعقوب احمد</t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -75514,7 +75514,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>221878@med.asu.edu.eg</t>
+          <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -75539,7 +75539,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>11:33:13</t>
+          <t>11:24:43</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -75551,12 +75551,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>221880</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>دعاء صلاح محمد حسن</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -75571,7 +75571,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>221880@med.asu.edu.eg</t>
+          <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -75596,7 +75596,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>11:38:29</t>
+          <t>11:24:45</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -75608,12 +75608,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>221939</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>لبنى محمد الحاج عباس ابنعوف</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -75628,7 +75628,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>221939@med.asu.edu.eg</t>
+          <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -75653,7 +75653,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>11:43:55</t>
+          <t>11:31:36</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -75665,12 +75665,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>221994</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>رنا محمد مصطفى على</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -75685,7 +75685,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>221994@med.asu.edu.eg</t>
+          <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -75710,7 +75710,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>11:44:08</t>
+          <t>11:32:13</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -75722,12 +75722,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>221974</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ابرار كمال محمد عمر</t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -75742,7 +75742,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>221974@med.asu.edu.eg</t>
+          <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -75767,7 +75767,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>11:44:18</t>
+          <t>11:32:38</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -75779,12 +75779,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>222062</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>محمد المصطفى ادم داؤد على</t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -75799,7 +75799,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>222062@med.asu.edu.eg</t>
+          <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -75824,7 +75824,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>11:44:32</t>
+          <t>11:33:13</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -75836,12 +75836,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>منذر عبد الله بلال مضوى</t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -75856,7 +75856,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>221999@med.asu.edu.eg</t>
+          <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -75881,7 +75881,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>11:44:39</t>
+          <t>11:38:29</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -75893,12 +75893,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>221967</t>
+          <t>221939</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>حسن اسماعيل اشحيبر</t>
+          <t>لبنى محمد الحاج عباس ابنعوف</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -75913,7 +75913,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>221967@med.asu.edu.eg</t>
+          <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -75938,7 +75938,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>11:44:56</t>
+          <t>11:43:55</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -75950,12 +75950,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>221936</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>كنان عبد الرحمن الاحمد الرويلي</t>
+          <t>رنا محمد مصطفى على</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -75970,7 +75970,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>221936@med.asu.edu.eg</t>
+          <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -75980,7 +75980,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -75990,12 +75990,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>11:16:46</t>
+          <t>11:44:08</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -76007,12 +76007,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>221862</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>روعه مراد زكى مراد</t>
+          <t>ابرار كمال محمد عمر</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -76027,7 +76027,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>221862@med.asu.edu.eg</t>
+          <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -76037,7 +76037,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -76047,12 +76047,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>11:16:49</t>
+          <t>11:44:18</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -76064,12 +76064,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>222048</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>المعتصم بالله مصطفى محمد على</t>
+          <t>محمد المصطفى ادم داؤد على</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -76084,7 +76084,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>222048@med.asu.edu.eg</t>
+          <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -76094,7 +76094,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -76104,12 +76104,12 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>11:16:56</t>
+          <t>11:44:32</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -76121,12 +76121,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>221885</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>جهاد عمر سويد</t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -76141,7 +76141,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>221885@med.asu.edu.eg</t>
+          <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -76151,7 +76151,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -76161,12 +76161,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>11:17:42</t>
+          <t>11:44:39</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -76178,12 +76178,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>222050</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>هاجر طة عبد الحميد طه</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -76198,7 +76198,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>222050@med.asu.edu.eg</t>
+          <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -76208,7 +76208,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -76218,12 +76218,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>11:18:02</t>
+          <t>11:44:56</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -76235,12 +76235,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>222060</t>
+          <t>221936</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>عثمان عبد الخالق عثمان عبده</t>
+          <t>كنان عبد الرحمن الاحمد الرويلي</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -76255,7 +76255,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>222060@med.asu.edu.eg</t>
+          <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -76280,7 +76280,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>11:18:04</t>
+          <t>11:16:46</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -76292,12 +76292,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>221956</t>
+          <t>221862</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>خالد محمد ترياقى</t>
+          <t>روعه مراد زكى مراد</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -76312,7 +76312,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>221956@med.asu.edu.eg</t>
+          <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -76337,7 +76337,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>11:18:08</t>
+          <t>11:16:49</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -76349,12 +76349,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>222075</t>
+          <t>222048</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>النذير احمد داؤد اسو</t>
+          <t>المعتصم بالله مصطفى محمد على</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -76369,7 +76369,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>222075@med.asu.edu.eg</t>
+          <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -76394,7 +76394,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>11:18:10</t>
+          <t>11:16:56</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -76406,12 +76406,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>221878</t>
+          <t>221885</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ميسم الصادق يعقوب احمد</t>
+          <t>جهاد عمر سويد</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -76426,7 +76426,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>221878@med.asu.edu.eg</t>
+          <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -76451,7 +76451,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>11:21:53</t>
+          <t>11:17:42</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -76463,12 +76463,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>222064</t>
+          <t>222050</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ميسره احمد عمر احمد</t>
+          <t>هاجر طة عبد الحميد طه</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -76483,7 +76483,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>222064@med.asu.edu.eg</t>
+          <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -76508,7 +76508,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>11:22:01</t>
+          <t>11:18:02</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -76520,12 +76520,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>222078</t>
+          <t>222060</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>صهيب عبد المنعم طه عثمان</t>
+          <t>عثمان عبد الخالق عثمان عبده</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -76540,7 +76540,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>222078@med.asu.edu.eg</t>
+          <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -76565,7 +76565,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>11:22:08</t>
+          <t>11:18:04</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -76577,12 +76577,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>221880</t>
+          <t>221956</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>دعاء صلاح محمد حسن</t>
+          <t>خالد محمد ترياقى</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -76597,7 +76597,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>221880@med.asu.edu.eg</t>
+          <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -76622,7 +76622,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>11:22:38</t>
+          <t>11:18:08</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -76634,12 +76634,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>221957</t>
+          <t>222075</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>باسل احمد محمد احمد</t>
+          <t>النذير احمد داؤد اسو</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -76654,7 +76654,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>221957@med.asu.edu.eg</t>
+          <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -76679,7 +76679,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>11:22:46</t>
+          <t>11:18:10</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -76691,12 +76691,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>221999</t>
+          <t>221878</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>منذر عبد الله بلال مضوى</t>
+          <t>ميسم الصادق يعقوب احمد</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -76711,7 +76711,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>221999@med.asu.edu.eg</t>
+          <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -76736,7 +76736,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>11:25:08</t>
+          <t>11:21:53</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -76748,12 +76748,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>221816</t>
+          <t>222064</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>رغد محمد عبدالملك الضحياني</t>
+          <t>ميسره احمد عمر احمد</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -76763,12 +76763,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>221816@med.asu.edu.eg</t>
+          <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -76778,7 +76778,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -76788,29 +76788,29 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>11:24:07</t>
+          <t>11:22:01</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>221757</t>
+          <t>222078</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>بشرى فكري محمد احمد الحميدي</t>
+          <t>صهيب عبد المنعم طه عثمان</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -76820,12 +76820,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>221757@med.asu.edu.eg</t>
+          <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -76835,7 +76835,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -76845,29 +76845,29 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>11:24:09</t>
+          <t>11:22:08</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>221803</t>
+          <t>221880</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>يحيى ابراهيم محمد الدراغمه</t>
+          <t>دعاء صلاح محمد حسن</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -76877,12 +76877,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>221803@med.asu.edu.eg</t>
+          <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -76892,7 +76892,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -76902,29 +76902,29 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>11:24:13</t>
+          <t>11:22:38</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>221813</t>
+          <t>221957</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>شمائل عبدالله مصطفي محمد الحسين</t>
+          <t>باسل احمد محمد احمد</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -76934,12 +76934,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>221813@med.asu.edu.eg</t>
+          <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -76949,7 +76949,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -76959,29 +76959,29 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>11:24:23</t>
+          <t>11:22:46</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>221860</t>
+          <t>221999</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>حمزه صالح ابراهيم ابو شاويش</t>
+          <t>منذر عبد الله بلال مضوى</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -76991,12 +76991,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>221860@med.asu.edu.eg</t>
+          <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -77006,7 +77006,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -77016,29 +77016,29 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>11:24:26</t>
+          <t>11:25:08</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>221766</t>
+          <t>222062</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>خالد وليد سالم</t>
+          <t>محمد المصطفى ادم داؤد على</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -77048,12 +77048,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>221766@med.asu.edu.eg</t>
+          <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -77063,7 +77063,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -77073,29 +77073,29 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>11:24:49</t>
+          <t>11:34:18</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>221763</t>
+          <t>221994</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>مهند فراس الاديب</t>
+          <t>رنا محمد مصطفى على</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -77105,12 +77105,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>221763@med.asu.edu.eg</t>
+          <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -77120,7 +77120,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -77130,29 +77130,29 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>11:24:50</t>
+          <t>11:34:43</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>221834</t>
+          <t>221974</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>خالد مصطفى صالحه</t>
+          <t>ابرار كمال محمد عمر</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -77162,12 +77162,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>221834@med.asu.edu.eg</t>
+          <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -77177,7 +77177,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -77187,29 +77187,29 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>11:24:52</t>
+          <t>11:35:30</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>221841</t>
+          <t>221967</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>جميل تمام سيجري</t>
+          <t>حسن اسماعيل اشحيبر</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -77219,12 +77219,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>221841@med.asu.edu.eg</t>
+          <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -77234,7 +77234,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -77244,29 +77244,29 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>11:24:57</t>
+          <t>11:36:42</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>B1D2</t>
+          <t>B1E1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>221809</t>
+          <t>221816</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>زياد محمد حسنى عليوه</t>
+          <t>رغد محمد عبدالملك الضحياني</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -77281,7 +77281,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>221809@med.asu.edu.eg</t>
+          <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -77306,7 +77306,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>11:25:05</t>
+          <t>11:24:07</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -77318,12 +77318,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>221657</t>
+          <t>221757</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>محمد احمد العطا حمد</t>
+          <t>بشرى فكري محمد احمد الحميدي</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -77338,7 +77338,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>221657@med.asu.edu.eg</t>
+          <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -77363,7 +77363,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>11:25:10</t>
+          <t>11:24:09</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -77375,12 +77375,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>221830</t>
+          <t>221803</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>مهجة خالد الضو مصطفى</t>
+          <t>يحيى ابراهيم محمد الدراغمه</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -77395,7 +77395,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>221830@med.asu.edu.eg</t>
+          <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -77420,7 +77420,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>11:25:16</t>
+          <t>11:24:13</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -77432,12 +77432,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>221773</t>
+          <t>221813</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>محمود عبد السلام الشيخ</t>
+          <t>شمائل عبدالله مصطفي محمد الحسين</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -77452,7 +77452,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>221773@med.asu.edu.eg</t>
+          <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -77477,7 +77477,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>11:28:03</t>
+          <t>11:24:23</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -77489,12 +77489,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>221784</t>
+          <t>221860</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>روان الجيلى خضر محمد</t>
+          <t>حمزه صالح ابراهيم ابو شاويش</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -77509,7 +77509,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>221784@med.asu.edu.eg</t>
+          <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -77534,7 +77534,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>11:30:03</t>
+          <t>11:24:26</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -77546,12 +77546,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>221641</t>
+          <t>221766</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>حنين احمد محمد الزق</t>
+          <t>خالد وليد سالم</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -77566,7 +77566,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>221641@med.asu.edu.eg</t>
+          <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -77591,7 +77591,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>11:35:00</t>
+          <t>11:24:49</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -77603,12 +77603,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>221786</t>
+          <t>221763</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
+          <t>مهند فراس الاديب</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -77623,7 +77623,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>221786@med.asu.edu.eg</t>
+          <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -77648,7 +77648,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>11:36:15</t>
+          <t>11:24:50</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -77660,12 +77660,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>221775</t>
+          <t>221834</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>عبد الرحمن عمر محمد الحايك</t>
+          <t>خالد مصطفى صالحه</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -77680,7 +77680,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>221775@med.asu.edu.eg</t>
+          <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -77705,7 +77705,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>11:36:39</t>
+          <t>11:24:52</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -77717,12 +77717,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>221767</t>
+          <t>221841</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>وعد صديق عبدالرحمن يحى</t>
+          <t>جميل تمام سيجري</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -77737,7 +77737,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>221767@med.asu.edu.eg</t>
+          <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -77762,7 +77762,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>11:37:11</t>
+          <t>11:24:57</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -77774,12 +77774,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>221805</t>
+          <t>221809</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ربا باسبار نورالدين عثمان</t>
+          <t>زياد محمد حسنى عليوه</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -77794,7 +77794,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>221805@med.asu.edu.eg</t>
+          <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -77819,7 +77819,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>11:37:35</t>
+          <t>11:25:05</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -77831,12 +77831,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>221853</t>
+          <t>221657</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>موسى تاج الدين موسى ادريس</t>
+          <t>محمد احمد العطا حمد</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -77851,7 +77851,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>221853@med.asu.edu.eg</t>
+          <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -77876,7 +77876,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>11:39:04</t>
+          <t>11:25:10</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -77888,12 +77888,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>221761</t>
+          <t>221830</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>كمال رامى كمال عبد العال</t>
+          <t>مهجة خالد الضو مصطفى</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -77908,7 +77908,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>221761@med.asu.edu.eg</t>
+          <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -77933,7 +77933,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>12:13:49</t>
+          <t>11:25:16</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -77945,12 +77945,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>221781</t>
+          <t>221773</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>نون عبدالله فضل ادريس</t>
+          <t>محمود عبد السلام الشيخ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -77965,7 +77965,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>221781@med.asu.edu.eg</t>
+          <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -77990,7 +77990,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>12:14:27</t>
+          <t>11:28:03</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -78002,12 +78002,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>221859</t>
+          <t>221784</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ايلاف يوسف محمد احمد</t>
+          <t>روان الجيلى خضر محمد</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -78022,7 +78022,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>221859@med.asu.edu.eg</t>
+          <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -78047,7 +78047,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>12:14:32</t>
+          <t>11:30:03</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -78059,12 +78059,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>221816</t>
+          <t>221641</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>رغد محمد عبدالملك الضحياني</t>
+          <t>حنين احمد محمد الزق</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -78079,7 +78079,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>221816@med.asu.edu.eg</t>
+          <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -78089,7 +78089,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -78099,12 +78099,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>11:16:52</t>
+          <t>11:35:00</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -78116,12 +78116,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>221830</t>
+          <t>221786</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>مهجة خالد الضو مصطفى</t>
+          <t>يحيى عبد اللطيف ظاهر ظاهر</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -78136,7 +78136,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>221830@med.asu.edu.eg</t>
+          <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -78146,7 +78146,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -78156,12 +78156,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>11:18:14</t>
+          <t>11:36:15</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -78173,12 +78173,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>221674</t>
+          <t>221775</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
+          <t>عبد الرحمن عمر محمد الحايك</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -78188,12 +78188,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>221674@med.asu.edu.eg</t>
+          <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -78218,24 +78218,24 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>11:24:11</t>
+          <t>11:36:39</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>221694</t>
+          <t>221767</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>محمد جمال محمد حاج</t>
+          <t>وعد صديق عبدالرحمن يحى</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -78245,12 +78245,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>221694@med.asu.edu.eg</t>
+          <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -78275,24 +78275,24 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>11:24:16</t>
+          <t>11:37:11</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>221716</t>
+          <t>221805</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>على الحسن</t>
+          <t>ربا باسبار نورالدين عثمان</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -78302,12 +78302,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>221716@med.asu.edu.eg</t>
+          <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -78332,24 +78332,24 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>11:24:18</t>
+          <t>11:37:35</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>221711</t>
+          <t>221853</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>وسيم رجب محمود حسين عياد</t>
+          <t>موسى تاج الدين موسى ادريس</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -78359,12 +78359,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>221711@med.asu.edu.eg</t>
+          <t>221853@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -78389,24 +78389,24 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>11:24:21</t>
+          <t>11:39:04</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>221686</t>
+          <t>221761</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>عبد الرحمن اسماعيل كمال احمرو</t>
+          <t>كمال رامى كمال عبد العال</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -78416,12 +78416,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>221686@med.asu.edu.eg</t>
+          <t>221761@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -78446,24 +78446,24 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>11:24:28</t>
+          <t>12:13:49</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>221751</t>
+          <t>221781</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>محمد محمود درويش ابو سريه</t>
+          <t>نون عبدالله فضل ادريس</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -78473,12 +78473,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>221751@med.asu.edu.eg</t>
+          <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -78503,24 +78503,24 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>11:24:54</t>
+          <t>12:14:27</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>221706</t>
+          <t>221859</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>على محمد على بابكر</t>
+          <t>ايلاف يوسف محمد احمد</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -78530,12 +78530,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>221706@med.asu.edu.eg</t>
+          <t>221859@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -78560,24 +78560,24 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>11:25:06</t>
+          <t>12:14:32</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>221701</t>
+          <t>221816</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>محمود سليم سليمان زبن</t>
+          <t>رغد محمد عبدالملك الضحياني</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -78587,12 +78587,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>221701@med.asu.edu.eg</t>
+          <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -78602,7 +78602,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -78612,29 +78612,29 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>11:25:08</t>
+          <t>11:16:52</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>221697</t>
+          <t>221830</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>زينب عبدالغفور محمد عبدالله</t>
+          <t>مهجة خالد الضو مصطفى</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -78644,12 +78644,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>221697@med.asu.edu.eg</t>
+          <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -78659,7 +78659,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -78669,29 +78669,29 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>11:25:14</t>
+          <t>11:18:14</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>B1D1</t>
+          <t>B1D2</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>221729</t>
+          <t>221674</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>حسين احمد حسين الحسن</t>
+          <t>عائشه فخرالدين عبدالرحيم عبدالمطلب</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -78706,7 +78706,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>221729@med.asu.edu.eg</t>
+          <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -78731,7 +78731,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>11:28:59</t>
+          <t>11:24:11</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -78743,12 +78743,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>221752</t>
+          <t>221694</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>نبا ابراهيم الزعبى</t>
+          <t>محمد جمال محمد حاج</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -78763,7 +78763,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>221752@med.asu.edu.eg</t>
+          <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -78788,7 +78788,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>11:29:31</t>
+          <t>11:24:16</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -78800,12 +78800,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>221676</t>
+          <t>221716</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ساميه أحمد محمد طيطي</t>
+          <t>على الحسن</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -78820,7 +78820,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>221676@med.asu.edu.eg</t>
+          <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -78845,7 +78845,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>11:34:37</t>
+          <t>11:24:18</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -78857,12 +78857,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>221722</t>
+          <t>221711</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>بتول باسم قاووق</t>
+          <t>وسيم رجب محمود حسين عياد</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -78877,7 +78877,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>221722@med.asu.edu.eg</t>
+          <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -78902,7 +78902,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>11:35:36</t>
+          <t>11:24:21</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -78914,12 +78914,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>221713</t>
+          <t>221686</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>عبق الطيب الامين عبد الماجد</t>
+          <t>عبد الرحمن اسماعيل كمال احمرو</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -78934,7 +78934,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>221713@med.asu.edu.eg</t>
+          <t>221686@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -78959,7 +78959,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>11:38:02</t>
+          <t>11:24:28</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -78971,12 +78971,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>221688</t>
+          <t>221751</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>سليمان اياد سليمان الفليت</t>
+          <t>محمد محمود درويش ابو سريه</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -78991,7 +78991,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>221688@med.asu.edu.eg</t>
+          <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -79016,7 +79016,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>11:39:34</t>
+          <t>11:24:54</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -79028,12 +79028,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>221712</t>
+          <t>221706</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>بتول ابراهيم يوسف الزيناتي</t>
+          <t>على محمد على بابكر</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -79048,7 +79048,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>221712@med.asu.edu.eg</t>
+          <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -79073,7 +79073,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>11:41:36</t>
+          <t>11:25:06</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -79085,12 +79085,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>221702</t>
+          <t>221701</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>محمود ابراهيم توفيق أبو هجرس</t>
+          <t>محمود سليم سليمان زبن</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -79105,7 +79105,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>221702@med.asu.edu.eg</t>
+          <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -79130,7 +79130,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>11:43:23</t>
+          <t>11:25:08</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -79142,12 +79142,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>221745</t>
+          <t>221697</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>لينة عبدالعظيم احمد سيد</t>
+          <t>زينب عبدالغفور محمد عبدالله</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -79162,7 +79162,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>221745@med.asu.edu.eg</t>
+          <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -79187,7 +79187,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>12:14:01</t>
+          <t>11:25:14</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -79199,12 +79199,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>221683</t>
+          <t>221729</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>عمرو وليد خالد كليم</t>
+          <t>حسين احمد حسين الحسن</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -79219,7 +79219,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>221683@med.asu.edu.eg</t>
+          <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -79229,7 +79229,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -79239,12 +79239,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>11:17:18</t>
+          <t>11:28:59</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -79256,12 +79256,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>210558</t>
+          <t>221752</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>على عبد الرؤف محمد بكرى</t>
+          <t>نبا ابراهيم الزعبى</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -79271,12 +79271,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>210558@med.asu.edu.eg</t>
+          <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -79301,24 +79301,24 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>11:24:34</t>
+          <t>11:29:31</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>210902</t>
+          <t>221676</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>عبير ميسره محى الدين قاسم</t>
+          <t>ساميه أحمد محمد طيطي</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -79328,12 +79328,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>210902@med.asu.edu.eg</t>
+          <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -79358,24 +79358,24 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>11:26:13</t>
+          <t>11:34:37</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>210799</t>
+          <t>221722</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>حسن ممدوح حسن صغير</t>
+          <t>بتول باسم قاووق</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -79385,12 +79385,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>210799@med.asu.edu.eg</t>
+          <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -79400,7 +79400,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -79410,29 +79410,29 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>11:17:01</t>
+          <t>11:35:36</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>210910</t>
+          <t>221713</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ابو بكر عبد الرحيم سنجك محمد</t>
+          <t>عبق الطيب الامين عبد الماجد</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -79442,12 +79442,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>210910@med.asu.edu.eg</t>
+          <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -79457,7 +79457,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -79467,29 +79467,29 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>11:17:07</t>
+          <t>11:38:02</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>210558</t>
+          <t>221688</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>على عبد الرؤف محمد بكرى</t>
+          <t>سليمان اياد سليمان الفليت</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -79499,12 +79499,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>210558@med.asu.edu.eg</t>
+          <t>221688@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -79514,7 +79514,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -79524,29 +79524,29 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>11:17:09</t>
+          <t>11:39:34</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>210809</t>
+          <t>221712</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>خطاب خالد هادى الوادعى</t>
+          <t>بتول ابراهيم يوسف الزيناتي</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -79556,12 +79556,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>210809@med.asu.edu.eg</t>
+          <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -79571,7 +79571,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -79581,29 +79581,29 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>11:17:11</t>
+          <t>11:41:36</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>210621</t>
+          <t>221702</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
+          <t>محمود ابراهيم توفيق أبو هجرس</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -79613,12 +79613,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>210621@med.asu.edu.eg</t>
+          <t>221702@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -79628,7 +79628,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -79638,29 +79638,29 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>11:17:27</t>
+          <t>11:43:23</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>210880</t>
+          <t>221745</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>نور الهدى ماجد عبد الامير</t>
+          <t>لينة عبدالعظيم احمد سيد</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -79670,12 +79670,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>210880@med.asu.edu.eg</t>
+          <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -79685,7 +79685,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -79695,29 +79695,29 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>11:17:32</t>
+          <t>12:14:01</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>210836</t>
+          <t>221683</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>عمه ديد درار</t>
+          <t>عمرو وليد خالد كليم</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -79727,12 +79727,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>210836@med.asu.edu.eg</t>
+          <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -79757,24 +79757,24 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>11:17:34</t>
+          <t>11:17:18</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>B1F1</t>
+          <t>B1D1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>210828</t>
+          <t>210558</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Manal Hamid Nour Mahamat Terab</t>
+          <t>على عبد الرؤف محمد بكرى</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -79789,7 +79789,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>210828@med.asu.edu.eg</t>
+          <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -79799,7 +79799,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -79809,12 +79809,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>11:17:37</t>
+          <t>11:24:34</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -79826,12 +79826,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>210727</t>
+          <t>210902</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ندى احمد عبد الله احمد عبد المجيد</t>
+          <t>عبير ميسره محى الدين قاسم</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -79846,7 +79846,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>210727@med.asu.edu.eg</t>
+          <t>210902@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -79856,7 +79856,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -79866,12 +79866,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>11:17:39</t>
+          <t>11:26:13</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -79883,12 +79883,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>210839</t>
+          <t>210799</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>شكرى محمد حاد</t>
+          <t>حسن ممدوح حسن صغير</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -79903,7 +79903,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>210839@med.asu.edu.eg</t>
+          <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -79928,7 +79928,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>11:17:48</t>
+          <t>11:17:01</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -79940,12 +79940,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>210686</t>
+          <t>210910</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
+          <t>ابو بكر عبد الرحيم سنجك محمد</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -79960,7 +79960,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>210686@med.asu.edu.eg</t>
+          <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -79985,7 +79985,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>11:17:50</t>
+          <t>11:17:07</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -79997,12 +79997,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>210883</t>
+          <t>210558</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>احمد صلاح الدين عابدين صالح</t>
+          <t>على عبد الرؤف محمد بكرى</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -80017,7 +80017,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>210883@med.asu.edu.eg</t>
+          <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -80042,7 +80042,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>11:17:52</t>
+          <t>11:17:09</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -80054,12 +80054,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>210513</t>
+          <t>210809</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>شهد عبد الرحمن احمد الشاذلى</t>
+          <t>خطاب خالد هادى الوادعى</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -80074,7 +80074,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>210513@med.asu.edu.eg</t>
+          <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -80099,7 +80099,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>11:18:53</t>
+          <t>11:17:11</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -80111,12 +80111,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>210509</t>
+          <t>210621</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>شروق محمود محمد محمود فرحات</t>
+          <t>محمد رجب عبد المرضى سيد احمد عامر</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -80131,7 +80131,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>210509@med.asu.edu.eg</t>
+          <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -80156,7 +80156,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>11:20:15</t>
+          <t>11:17:27</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -80168,12 +80168,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>210762</t>
+          <t>210880</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>هند السيد محمد السعيد سيد احمد</t>
+          <t>نور الهدى ماجد عبد الامير</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -80188,7 +80188,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>210762@med.asu.edu.eg</t>
+          <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -80213,7 +80213,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>11:20:23</t>
+          <t>11:17:32</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -80225,12 +80225,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>210937</t>
+          <t>210836</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>عبد العزيز ناصر الجهمانى</t>
+          <t>عمه ديد درار</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -80245,7 +80245,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>210937@med.asu.edu.eg</t>
+          <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -80270,7 +80270,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>11:20:32</t>
+          <t>11:17:34</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -80282,12 +80282,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>210994</t>
+          <t>210828</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>نور ماجد فايز ابو جامع</t>
+          <t>Manal Hamid Nour Mahamat Terab</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -80297,12 +80297,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>210994@med.asu.edu.eg</t>
+          <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -80312,7 +80312,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -80322,29 +80322,29 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>25/11/2025</t>
+          <t>26/11/2025</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>11:25:45</t>
+          <t>11:17:37</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>221082</t>
+          <t>210727</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>جنى ايمن احمد شديد</t>
+          <t>ندى احمد عبد الله احمد عبد المجيد</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -80354,12 +80354,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>221082@med.asu.edu.eg</t>
+          <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -80384,24 +80384,24 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>11:16:59</t>
+          <t>11:17:39</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>221105</t>
+          <t>210839</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ديفيد ادوار شكري برتلة رزق</t>
+          <t>شكرى محمد حاد</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -80411,12 +80411,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>221105@med.asu.edu.eg</t>
+          <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -80441,24 +80441,24 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>11:17:05</t>
+          <t>11:17:48</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>211003</t>
+          <t>210686</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>محمد عادل محمد عبد الله العريفى</t>
+          <t>مصطفى ممدوح محمد ابو مسلم الصادق نصر</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -80468,12 +80468,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>211003@med.asu.edu.eg</t>
+          <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -80498,24 +80498,24 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>11:17:14</t>
+          <t>11:17:50</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>211044</t>
+          <t>210883</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>لجين فتحى عدلى محمد عبد الله</t>
+          <t>احمد صلاح الدين عابدين صالح</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -80525,12 +80525,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>211044@med.asu.edu.eg</t>
+          <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -80555,24 +80555,24 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>11:17:20</t>
+          <t>11:17:52</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>211063</t>
+          <t>210513</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>مايا مراد موسى عبد القادر</t>
+          <t>شهد عبد الرحمن احمد الشاذلى</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -80582,12 +80582,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>211063@med.asu.edu.eg</t>
+          <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -80612,24 +80612,24 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>11:17:22</t>
+          <t>11:18:53</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>211024</t>
+          <t>210509</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>جاسم محمد المحيمد الخلف</t>
+          <t>شروق محمود محمد محمود فرحات</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -80639,12 +80639,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>211024@med.asu.edu.eg</t>
+          <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -80669,24 +80669,24 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>11:17:25</t>
+          <t>11:20:15</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>211934</t>
+          <t>210762</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>زيدون احمد محمود درادكه</t>
+          <t>هند السيد محمد السعيد سيد احمد</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -80696,12 +80696,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>211934@med.asu.edu.eg</t>
+          <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -80726,24 +80726,24 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>11:17:28</t>
+          <t>11:20:23</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>211002</t>
+          <t>210937</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>منيه خالد الشيخ حاج محمود</t>
+          <t>عبد العزيز ناصر الجهمانى</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -80753,12 +80753,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>211002@med.asu.edu.eg</t>
+          <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -80783,24 +80783,24 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>11:17:30</t>
+          <t>11:20:32</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>210982</t>
+          <t>210858</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>عمر نصر الدين محمد خالد صب لبن</t>
+          <t>محمد ابراهيم احمد عرجه</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -80810,12 +80810,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>210982@med.asu.edu.eg</t>
+          <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -80840,24 +80840,24 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>11:17:44</t>
+          <t>11:35:11</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>210840</t>
+          <t>210516</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>يونس دينى اسماعيل</t>
+          <t>شرين سيف النصر</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -80867,12 +80867,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>210840@med.asu.edu.eg</t>
+          <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -80897,24 +80897,24 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>11:17:54</t>
+          <t>11:42:11</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>B1F2</t>
+          <t>B1F1</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>211073</t>
+          <t>210994</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>حنين ايمن فؤاد دغباج</t>
+          <t>نور ماجد فايز ابو جامع</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -80929,7 +80929,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>211073@med.asu.edu.eg</t>
+          <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -80939,7 +80939,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -80949,12 +80949,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>26/11/2025</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>11:19:12</t>
+          <t>11:25:45</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -80966,12 +80966,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>211056</t>
+          <t>221082</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>محمد وداد احمد وداد فرج</t>
+          <t>جنى ايمن احمد شديد</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -80986,7 +80986,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>211056@med.asu.edu.eg</t>
+          <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -81011,7 +81011,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>11:19:19</t>
+          <t>11:16:59</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -81023,12 +81023,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>211069</t>
+          <t>221105</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>احمد رياض محمد صافى</t>
+          <t>ديفيد ادوار شكري برتلة رزق</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -81043,7 +81043,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>211069@med.asu.edu.eg</t>
+          <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -81068,7 +81068,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>11:19:27</t>
+          <t>11:17:05</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -81080,12 +81080,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>210994</t>
+          <t>211003</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>نور ماجد فايز ابو جامع</t>
+          <t>محمد عادل محمد عبد الله العريفى</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -81100,7 +81100,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>210994@med.asu.edu.eg</t>
+          <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -81125,7 +81125,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>11:19:44</t>
+          <t>11:17:14</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -81137,12 +81137,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>211005</t>
+          <t>211044</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>محمد باسم محمد على نويات</t>
+          <t>لجين فتحى عدلى محمد عبد الله</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -81157,7 +81157,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>211005@med.asu.edu.eg</t>
+          <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -81182,7 +81182,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>11:20:44</t>
+          <t>11:17:20</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -81194,12 +81194,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>210965</t>
+          <t>211063</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>همام احمد خليل</t>
+          <t>مايا مراد موسى عبد القادر</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -81214,7 +81214,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>210965@med.asu.edu.eg</t>
+          <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -81239,7 +81239,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>11:20:56</t>
+          <t>11:17:22</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -81251,12 +81251,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>210984</t>
+          <t>211024</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>وسيم رزق محمد سهمود</t>
+          <t>جاسم محمد المحيمد الخلف</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -81271,7 +81271,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>210984@med.asu.edu.eg</t>
+          <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -81296,7 +81296,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>11:21:12</t>
+          <t>11:17:25</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -81308,62 +81308,746 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
+          <t>211934</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>زيدون احمد محمود درادكه</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>211934@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>11:17:28</t>
+        </is>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>211002</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>منيه خالد الشيخ حاج محمود</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>211002@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>11:17:30</t>
+        </is>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>210982</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>عمر نصر الدين محمد خالد صب لبن</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>210982@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>11:17:44</t>
+        </is>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>210840</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>يونس دينى اسماعيل</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>210840@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>11:17:54</t>
+        </is>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>211073</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>حنين ايمن فؤاد دغباج</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>211073@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>11:19:12</t>
+        </is>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>211056</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>محمد وداد احمد وداد فرج</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>211056@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>11:19:19</t>
+        </is>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>211069</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>احمد رياض محمد صافى</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>211069@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>11:19:27</t>
+        </is>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>210994</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>نور ماجد فايز ابو جامع</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>210994@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>11:19:44</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>211005</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>محمد باسم محمد على نويات</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>211005@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>11:20:44</t>
+        </is>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>210965</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>همام احمد خليل</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>210965@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>11:20:56</t>
+        </is>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>210984</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>وسيم رزق محمد سهمود</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>210984@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>11:21:12</t>
+        </is>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>211060</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>مروه فرحان الداموك</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>Year 4</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
+      <c r="D305" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="F305" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>GENERAL SURGERY</t>
         </is>
       </c>
-      <c r="I294" t="inlineStr">
+      <c r="I305" t="inlineStr">
         <is>
           <t>26/11/2025</t>
         </is>
       </c>
-      <c r="J294" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>11:23:20</t>
         </is>
       </c>
-      <c r="K294" t="inlineStr">
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>223001</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>زينه هانى فاروق محمد يوسف</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>223001@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>11:43:22</t>
+        </is>
+      </c>
+      <c r="K306" t="inlineStr">
         <is>
           <t>B1F2</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K294"/>
+  <autoFilter ref="A1:K306"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -32274,9 +32274,9 @@
           <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F161" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G161" s="5" t="inlineStr">
@@ -32293,10 +32293,10 @@
         <v>20</v>
       </c>
       <c r="J161" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K161" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L161" s="6" t="n">
         <v>27</v>
@@ -32308,7 +32308,7 @@
         <v>1</v>
       </c>
       <c r="O161" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" s="7" t="n">
         <v>27</v>
@@ -32319,10 +32319,8 @@
       <c r="R161" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S161" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S161" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T161" s="7" t="inlineStr">
         <is>
@@ -32476,9 +32474,9 @@
           <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G162" s="5" t="inlineStr">
@@ -32495,10 +32493,10 @@
         <v>20</v>
       </c>
       <c r="J162" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K162" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L162" s="6" t="n">
         <v>27</v>
@@ -32510,7 +32508,7 @@
         <v>1</v>
       </c>
       <c r="O162" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" s="7" t="n">
         <v>27</v>
@@ -32521,10 +32519,8 @@
       <c r="R162" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S162" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S162" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T162" s="7" t="inlineStr">
         <is>
@@ -32697,10 +32693,10 @@
         <v>21</v>
       </c>
       <c r="J163" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K163" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L163" s="6" t="n">
         <v>27</v>
@@ -32712,7 +32708,7 @@
         <v>0</v>
       </c>
       <c r="O163" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P163" s="7" t="n">
         <v>27</v>
@@ -32723,10 +32719,8 @@
       <c r="R163" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S163" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S163" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T163" s="7" t="inlineStr">
         <is>
@@ -32880,9 +32874,9 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G164" s="5" t="inlineStr">
@@ -32899,10 +32893,10 @@
         <v>20</v>
       </c>
       <c r="J164" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K164" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L164" s="6" t="n">
         <v>27</v>
@@ -32914,7 +32908,7 @@
         <v>1</v>
       </c>
       <c r="O164" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" s="7" t="n">
         <v>27</v>
@@ -32925,10 +32919,8 @@
       <c r="R164" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S164" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S164" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T164" s="7" t="inlineStr">
         <is>
@@ -33082,9 +33074,9 @@
           <t>221686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F165" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G165" s="5" t="inlineStr">
@@ -33101,10 +33093,10 @@
         <v>20</v>
       </c>
       <c r="J165" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K165" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L165" s="6" t="n">
         <v>27</v>
@@ -33116,7 +33108,7 @@
         <v>1</v>
       </c>
       <c r="O165" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P165" s="7" t="n">
         <v>27</v>
@@ -33127,10 +33119,8 @@
       <c r="R165" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S165" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S165" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T165" s="7" t="inlineStr">
         <is>
@@ -33284,9 +33274,9 @@
           <t>221688@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F166" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G166" s="5" t="inlineStr">
@@ -33303,10 +33293,10 @@
         <v>20</v>
       </c>
       <c r="J166" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K166" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L166" s="6" t="n">
         <v>27</v>
@@ -33318,7 +33308,7 @@
         <v>1</v>
       </c>
       <c r="O166" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P166" s="7" t="n">
         <v>27</v>
@@ -33329,10 +33319,8 @@
       <c r="R166" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S166" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S166" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T166" s="7" t="inlineStr">
         <is>
@@ -33505,10 +33493,10 @@
         <v>21</v>
       </c>
       <c r="J167" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K167" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L167" s="6" t="n">
         <v>27</v>
@@ -33520,7 +33508,7 @@
         <v>0</v>
       </c>
       <c r="O167" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P167" s="7" t="n">
         <v>27</v>
@@ -33531,10 +33519,8 @@
       <c r="R167" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S167" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S167" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T167" s="7" t="inlineStr">
         <is>
@@ -33688,9 +33674,9 @@
           <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G168" s="5" t="inlineStr">
@@ -33707,10 +33693,10 @@
         <v>20</v>
       </c>
       <c r="J168" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K168" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L168" s="6" t="n">
         <v>27</v>
@@ -33722,7 +33708,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" s="7" t="n">
         <v>27</v>
@@ -33733,10 +33719,8 @@
       <c r="R168" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S168" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S168" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T168" s="7" t="inlineStr">
         <is>
@@ -33890,9 +33874,9 @@
           <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G169" s="5" t="inlineStr">
@@ -33909,10 +33893,10 @@
         <v>20</v>
       </c>
       <c r="J169" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K169" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L169" s="6" t="n">
         <v>27</v>
@@ -33924,7 +33908,7 @@
         <v>1</v>
       </c>
       <c r="O169" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P169" s="7" t="n">
         <v>27</v>
@@ -33935,10 +33919,8 @@
       <c r="R169" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S169" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S169" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T169" s="7" t="inlineStr">
         <is>
@@ -34111,10 +34093,10 @@
         <v>21</v>
       </c>
       <c r="J170" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K170" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L170" s="6" t="n">
         <v>27</v>
@@ -34126,7 +34108,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P170" s="7" t="n">
         <v>27</v>
@@ -34137,10 +34119,8 @@
       <c r="R170" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S170" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S170" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T170" s="7" t="inlineStr">
         <is>
@@ -34294,9 +34274,9 @@
           <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G171" s="5" t="inlineStr">
@@ -34313,10 +34293,10 @@
         <v>20</v>
       </c>
       <c r="J171" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K171" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L171" s="6" t="n">
         <v>27</v>
@@ -34328,7 +34308,7 @@
         <v>1</v>
       </c>
       <c r="O171" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" s="7" t="n">
         <v>27</v>
@@ -34339,10 +34319,8 @@
       <c r="R171" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S171" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S171" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T171" s="7" t="inlineStr">
         <is>
@@ -34496,9 +34474,9 @@
           <t>221702@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G172" s="5" t="inlineStr">
@@ -34515,10 +34493,10 @@
         <v>20</v>
       </c>
       <c r="J172" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K172" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L172" s="6" t="n">
         <v>27</v>
@@ -34530,7 +34508,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P172" s="7" t="n">
         <v>27</v>
@@ -34541,10 +34519,8 @@
       <c r="R172" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S172" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S172" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T172" s="7" t="inlineStr">
         <is>
@@ -34698,9 +34674,9 @@
           <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G173" s="5" t="inlineStr">
@@ -34717,10 +34693,10 @@
         <v>20</v>
       </c>
       <c r="J173" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K173" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L173" s="6" t="n">
         <v>27</v>
@@ -34732,7 +34708,7 @@
         <v>1</v>
       </c>
       <c r="O173" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="7" t="n">
         <v>27</v>
@@ -34743,10 +34719,8 @@
       <c r="R173" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S173" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S173" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T173" s="7" t="inlineStr">
         <is>
@@ -34900,9 +34874,9 @@
           <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G174" s="5" t="inlineStr">
@@ -34919,10 +34893,10 @@
         <v>20</v>
       </c>
       <c r="J174" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K174" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L174" s="6" t="n">
         <v>27</v>
@@ -34934,7 +34908,7 @@
         <v>1</v>
       </c>
       <c r="O174" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="7" t="n">
         <v>27</v>
@@ -34945,10 +34919,8 @@
       <c r="R174" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S174" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S174" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T174" s="7" t="inlineStr">
         <is>
@@ -35102,9 +35074,9 @@
           <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F175" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G175" s="5" t="inlineStr">
@@ -35121,10 +35093,10 @@
         <v>20</v>
       </c>
       <c r="J175" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K175" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L175" s="6" t="n">
         <v>27</v>
@@ -35136,7 +35108,7 @@
         <v>1</v>
       </c>
       <c r="O175" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175" s="7" t="n">
         <v>27</v>
@@ -35147,10 +35119,8 @@
       <c r="R175" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S175" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S175" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T175" s="7" t="inlineStr">
         <is>
@@ -35304,9 +35274,9 @@
           <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G176" s="5" t="inlineStr">
@@ -35323,10 +35293,10 @@
         <v>20</v>
       </c>
       <c r="J176" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K176" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L176" s="6" t="n">
         <v>27</v>
@@ -35338,7 +35308,7 @@
         <v>1</v>
       </c>
       <c r="O176" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P176" s="7" t="n">
         <v>27</v>
@@ -35349,10 +35319,8 @@
       <c r="R176" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S176" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S176" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T176" s="7" t="inlineStr">
         <is>
@@ -35506,9 +35474,9 @@
           <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G177" s="5" t="inlineStr">
@@ -35525,10 +35493,10 @@
         <v>20</v>
       </c>
       <c r="J177" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K177" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L177" s="6" t="n">
         <v>27</v>
@@ -35540,7 +35508,7 @@
         <v>1</v>
       </c>
       <c r="O177" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177" s="7" t="n">
         <v>27</v>
@@ -35551,10 +35519,8 @@
       <c r="R177" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S177" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S177" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T177" s="7" t="inlineStr">
         <is>
@@ -35708,9 +35674,9 @@
           <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G178" s="5" t="inlineStr">
@@ -35727,10 +35693,10 @@
         <v>20</v>
       </c>
       <c r="J178" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K178" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L178" s="6" t="n">
         <v>27</v>
@@ -35742,7 +35708,7 @@
         <v>1</v>
       </c>
       <c r="O178" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P178" s="7" t="n">
         <v>27</v>
@@ -35753,10 +35719,8 @@
       <c r="R178" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S178" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S178" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T178" s="7" t="inlineStr">
         <is>
@@ -35910,9 +35874,9 @@
           <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G179" s="5" t="inlineStr">
@@ -35929,10 +35893,10 @@
         <v>20</v>
       </c>
       <c r="J179" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K179" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L179" s="6" t="n">
         <v>27</v>
@@ -35944,7 +35908,7 @@
         <v>1</v>
       </c>
       <c r="O179" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" s="7" t="n">
         <v>27</v>
@@ -35955,10 +35919,8 @@
       <c r="R179" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S179" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S179" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T179" s="7" t="inlineStr">
         <is>
@@ -36131,10 +36093,10 @@
         <v>21</v>
       </c>
       <c r="J180" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K180" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L180" s="6" t="n">
         <v>27</v>
@@ -36146,7 +36108,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P180" s="7" t="n">
         <v>27</v>
@@ -36157,10 +36119,8 @@
       <c r="R180" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S180" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S180" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T180" s="7" t="inlineStr">
         <is>
@@ -36314,9 +36274,9 @@
           <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G181" s="5" t="inlineStr">
@@ -36333,10 +36293,10 @@
         <v>20</v>
       </c>
       <c r="J181" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K181" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L181" s="6" t="n">
         <v>27</v>
@@ -36348,7 +36308,7 @@
         <v>1</v>
       </c>
       <c r="O181" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P181" s="7" t="n">
         <v>27</v>
@@ -36359,10 +36319,8 @@
       <c r="R181" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S181" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S181" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T181" s="7" t="inlineStr">
         <is>
@@ -36516,9 +36474,9 @@
           <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G182" s="5" t="inlineStr">
@@ -36535,10 +36493,10 @@
         <v>20</v>
       </c>
       <c r="J182" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K182" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L182" s="6" t="n">
         <v>27</v>
@@ -36550,7 +36508,7 @@
         <v>1</v>
       </c>
       <c r="O182" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P182" s="7" t="n">
         <v>27</v>
@@ -36561,10 +36519,8 @@
       <c r="R182" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S182" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S182" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T182" s="7" t="inlineStr">
         <is>
@@ -36718,9 +36674,9 @@
           <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F183" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G183" s="5" t="inlineStr">
@@ -36737,10 +36693,10 @@
         <v>20</v>
       </c>
       <c r="J183" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K183" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L183" s="6" t="n">
         <v>27</v>
@@ -36752,7 +36708,7 @@
         <v>1</v>
       </c>
       <c r="O183" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P183" s="7" t="n">
         <v>27</v>
@@ -36763,10 +36719,8 @@
       <c r="R183" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S183" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S183" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T183" s="7" t="inlineStr">
         <is>
@@ -36920,9 +36874,9 @@
           <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G184" s="5" t="inlineStr">
@@ -36939,10 +36893,10 @@
         <v>20</v>
       </c>
       <c r="J184" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K184" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L184" s="6" t="n">
         <v>27</v>
@@ -36954,7 +36908,7 @@
         <v>1</v>
       </c>
       <c r="O184" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P184" s="7" t="n">
         <v>27</v>
@@ -36965,10 +36919,8 @@
       <c r="R184" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S184" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S184" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T184" s="7" t="inlineStr">
         <is>
@@ -37122,9 +37074,9 @@
           <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F185" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G185" s="5" t="inlineStr">
@@ -37141,10 +37093,10 @@
         <v>20</v>
       </c>
       <c r="J185" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K185" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L185" s="6" t="n">
         <v>27</v>
@@ -37156,7 +37108,7 @@
         <v>1</v>
       </c>
       <c r="O185" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P185" s="7" t="n">
         <v>27</v>
@@ -37167,10 +37119,8 @@
       <c r="R185" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S185" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S185" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T185" s="7" t="inlineStr">
         <is>
@@ -37343,10 +37293,10 @@
         <v>21</v>
       </c>
       <c r="J186" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K186" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L186" s="6" t="n">
         <v>27</v>
@@ -37358,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P186" s="7" t="n">
         <v>27</v>
@@ -37369,10 +37319,8 @@
       <c r="R186" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S186" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S186" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T186" s="7" t="inlineStr">
         <is>
@@ -37526,9 +37474,9 @@
           <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G187" s="5" t="inlineStr">
@@ -37545,10 +37493,10 @@
         <v>20</v>
       </c>
       <c r="J187" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K187" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L187" s="6" t="n">
         <v>27</v>
@@ -37560,7 +37508,7 @@
         <v>1</v>
       </c>
       <c r="O187" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P187" s="7" t="n">
         <v>27</v>
@@ -37571,10 +37519,8 @@
       <c r="R187" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S187" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S187" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T187" s="7" t="inlineStr">
         <is>
@@ -37728,9 +37674,9 @@
           <t>221761@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G188" s="5" t="inlineStr">
@@ -37747,10 +37693,10 @@
         <v>20</v>
       </c>
       <c r="J188" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K188" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L188" s="6" t="n">
         <v>27</v>
@@ -37762,7 +37708,7 @@
         <v>1</v>
       </c>
       <c r="O188" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P188" s="7" t="n">
         <v>27</v>
@@ -37773,10 +37719,8 @@
       <c r="R188" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S188" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S188" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T188" s="7" t="inlineStr">
         <is>
@@ -37930,9 +37874,9 @@
           <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F189" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G189" s="5" t="inlineStr">
@@ -37949,10 +37893,10 @@
         <v>20</v>
       </c>
       <c r="J189" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K189" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L189" s="6" t="n">
         <v>27</v>
@@ -37964,7 +37908,7 @@
         <v>1</v>
       </c>
       <c r="O189" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189" s="7" t="n">
         <v>27</v>
@@ -37975,10 +37919,8 @@
       <c r="R189" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S189" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S189" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T189" s="7" t="inlineStr">
         <is>
@@ -38132,9 +38074,9 @@
           <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G190" s="5" t="inlineStr">
@@ -38151,10 +38093,10 @@
         <v>20</v>
       </c>
       <c r="J190" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K190" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L190" s="6" t="n">
         <v>27</v>
@@ -38166,7 +38108,7 @@
         <v>1</v>
       </c>
       <c r="O190" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" s="7" t="n">
         <v>27</v>
@@ -38177,10 +38119,8 @@
       <c r="R190" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S190" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S190" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T190" s="7" t="inlineStr">
         <is>
@@ -38334,9 +38274,9 @@
           <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F191" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G191" s="5" t="inlineStr">
@@ -38353,10 +38293,10 @@
         <v>20</v>
       </c>
       <c r="J191" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K191" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L191" s="6" t="n">
         <v>27</v>
@@ -38368,7 +38308,7 @@
         <v>1</v>
       </c>
       <c r="O191" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P191" s="7" t="n">
         <v>27</v>
@@ -38379,10 +38319,8 @@
       <c r="R191" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S191" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S191" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T191" s="7" t="inlineStr">
         <is>
@@ -38536,9 +38474,9 @@
           <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G192" s="5" t="inlineStr">
@@ -38555,10 +38493,10 @@
         <v>20</v>
       </c>
       <c r="J192" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K192" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L192" s="6" t="n">
         <v>27</v>
@@ -38570,7 +38508,7 @@
         <v>1</v>
       </c>
       <c r="O192" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P192" s="7" t="n">
         <v>27</v>
@@ -38581,10 +38519,8 @@
       <c r="R192" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S192" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S192" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T192" s="7" t="inlineStr">
         <is>
@@ -38738,9 +38674,9 @@
           <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F193" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G193" s="5" t="inlineStr">
@@ -38757,10 +38693,10 @@
         <v>20</v>
       </c>
       <c r="J193" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K193" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L193" s="6" t="n">
         <v>27</v>
@@ -38772,7 +38708,7 @@
         <v>1</v>
       </c>
       <c r="O193" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P193" s="7" t="n">
         <v>27</v>
@@ -38783,10 +38719,8 @@
       <c r="R193" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S193" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S193" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T193" s="7" t="inlineStr">
         <is>
@@ -38940,9 +38874,9 @@
           <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G194" s="5" t="inlineStr">
@@ -38959,10 +38893,10 @@
         <v>20</v>
       </c>
       <c r="J194" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K194" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L194" s="6" t="n">
         <v>27</v>
@@ -38974,7 +38908,7 @@
         <v>1</v>
       </c>
       <c r="O194" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P194" s="7" t="n">
         <v>27</v>
@@ -38985,10 +38919,8 @@
       <c r="R194" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S194" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S194" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T194" s="7" t="inlineStr">
         <is>
@@ -39142,9 +39074,9 @@
           <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F195" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G195" s="5" t="inlineStr">
@@ -39161,10 +39093,10 @@
         <v>20</v>
       </c>
       <c r="J195" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K195" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L195" s="6" t="n">
         <v>27</v>
@@ -39176,7 +39108,7 @@
         <v>1</v>
       </c>
       <c r="O195" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195" s="7" t="n">
         <v>27</v>
@@ -39187,10 +39119,8 @@
       <c r="R195" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S195" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S195" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T195" s="7" t="inlineStr">
         <is>
@@ -39344,9 +39274,9 @@
           <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G196" s="5" t="inlineStr">
@@ -39363,10 +39293,10 @@
         <v>20</v>
       </c>
       <c r="J196" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K196" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L196" s="6" t="n">
         <v>27</v>
@@ -39378,7 +39308,7 @@
         <v>1</v>
       </c>
       <c r="O196" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P196" s="7" t="n">
         <v>27</v>
@@ -39389,10 +39319,8 @@
       <c r="R196" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S196" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S196" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T196" s="7" t="inlineStr">
         <is>
@@ -39565,10 +39493,10 @@
         <v>21</v>
       </c>
       <c r="J197" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K197" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L197" s="6" t="n">
         <v>27</v>
@@ -39580,7 +39508,7 @@
         <v>0</v>
       </c>
       <c r="O197" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P197" s="7" t="n">
         <v>27</v>
@@ -39591,10 +39519,8 @@
       <c r="R197" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S197" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S197" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T197" s="7" t="inlineStr">
         <is>
@@ -39748,9 +39674,9 @@
           <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G198" s="5" t="inlineStr">
@@ -39767,10 +39693,10 @@
         <v>20</v>
       </c>
       <c r="J198" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K198" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L198" s="6" t="n">
         <v>27</v>
@@ -39782,7 +39708,7 @@
         <v>1</v>
       </c>
       <c r="O198" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P198" s="7" t="n">
         <v>27</v>
@@ -39793,10 +39719,8 @@
       <c r="R198" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S198" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S198" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T198" s="7" t="inlineStr">
         <is>
@@ -39950,9 +39874,9 @@
           <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G199" s="5" t="inlineStr">
@@ -39969,10 +39893,10 @@
         <v>20</v>
       </c>
       <c r="J199" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K199" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L199" s="6" t="n">
         <v>27</v>
@@ -39984,7 +39908,7 @@
         <v>1</v>
       </c>
       <c r="O199" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P199" s="7" t="n">
         <v>27</v>
@@ -39995,10 +39919,8 @@
       <c r="R199" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S199" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S199" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T199" s="7" t="inlineStr">
         <is>
@@ -40152,9 +40074,9 @@
           <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G200" s="5" t="inlineStr">
@@ -40171,10 +40093,10 @@
         <v>20</v>
       </c>
       <c r="J200" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K200" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L200" s="6" t="n">
         <v>27</v>
@@ -40186,7 +40108,7 @@
         <v>1</v>
       </c>
       <c r="O200" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P200" s="7" t="n">
         <v>27</v>
@@ -40197,10 +40119,8 @@
       <c r="R200" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S200" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S200" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T200" s="7" t="inlineStr">
         <is>
@@ -40354,9 +40274,9 @@
           <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G201" s="5" t="inlineStr">
@@ -40373,10 +40293,10 @@
         <v>20</v>
       </c>
       <c r="J201" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K201" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L201" s="6" t="n">
         <v>27</v>
@@ -40388,7 +40308,7 @@
         <v>1</v>
       </c>
       <c r="O201" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P201" s="7" t="n">
         <v>27</v>
@@ -40399,10 +40319,8 @@
       <c r="R201" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S201" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S201" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T201" s="7" t="inlineStr">
         <is>
@@ -40575,10 +40493,10 @@
         <v>19</v>
       </c>
       <c r="J202" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K202" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L202" s="6" t="n">
         <v>27</v>
@@ -40590,7 +40508,7 @@
         <v>2</v>
       </c>
       <c r="O202" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P202" s="7" t="n">
         <v>27</v>
@@ -40601,10 +40519,8 @@
       <c r="R202" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S202" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S202" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T202" s="7" t="inlineStr">
         <is>
@@ -40777,10 +40693,10 @@
         <v>21</v>
       </c>
       <c r="J203" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K203" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L203" s="6" t="n">
         <v>27</v>
@@ -40792,7 +40708,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P203" s="7" t="n">
         <v>27</v>
@@ -40803,10 +40719,8 @@
       <c r="R203" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S203" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S203" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T203" s="7" t="inlineStr">
         <is>
@@ -40979,10 +40893,10 @@
         <v>19</v>
       </c>
       <c r="J204" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K204" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L204" s="6" t="n">
         <v>27</v>
@@ -40994,7 +40908,7 @@
         <v>2</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P204" s="7" t="n">
         <v>27</v>
@@ -41005,10 +40919,8 @@
       <c r="R204" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S204" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S204" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T204" s="7" t="inlineStr">
         <is>
@@ -41181,10 +41093,10 @@
         <v>21</v>
       </c>
       <c r="J205" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K205" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L205" s="6" t="n">
         <v>27</v>
@@ -41196,7 +41108,7 @@
         <v>0</v>
       </c>
       <c r="O205" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P205" s="7" t="n">
         <v>27</v>
@@ -41207,10 +41119,8 @@
       <c r="R205" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S205" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S205" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T205" s="7" t="inlineStr">
         <is>
@@ -41364,9 +41274,9 @@
           <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G206" s="5" t="inlineStr">
@@ -41383,10 +41293,10 @@
         <v>20</v>
       </c>
       <c r="J206" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K206" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L206" s="6" t="n">
         <v>27</v>
@@ -41398,7 +41308,7 @@
         <v>1</v>
       </c>
       <c r="O206" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P206" s="7" t="n">
         <v>27</v>
@@ -41409,10 +41319,8 @@
       <c r="R206" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S206" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S206" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T206" s="7" t="inlineStr">
         <is>
@@ -41566,9 +41474,9 @@
           <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G207" s="5" t="inlineStr">
@@ -41585,10 +41493,10 @@
         <v>20</v>
       </c>
       <c r="J207" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K207" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L207" s="6" t="n">
         <v>27</v>
@@ -41600,7 +41508,7 @@
         <v>1</v>
       </c>
       <c r="O207" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" s="7" t="n">
         <v>27</v>
@@ -41611,10 +41519,8 @@
       <c r="R207" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S207" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S207" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T207" s="7" t="inlineStr">
         <is>
@@ -41787,10 +41693,10 @@
         <v>21</v>
       </c>
       <c r="J208" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K208" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L208" s="6" t="n">
         <v>27</v>
@@ -41802,7 +41708,7 @@
         <v>0</v>
       </c>
       <c r="O208" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P208" s="7" t="n">
         <v>27</v>
@@ -41813,10 +41719,8 @@
       <c r="R208" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S208" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S208" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T208" s="7" t="inlineStr">
         <is>
@@ -41989,10 +41893,10 @@
         <v>21</v>
       </c>
       <c r="J209" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K209" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L209" s="6" t="n">
         <v>27</v>
@@ -42004,7 +41908,7 @@
         <v>0</v>
       </c>
       <c r="O209" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P209" s="7" t="n">
         <v>27</v>
@@ -42015,10 +41919,8 @@
       <c r="R209" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S209" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S209" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T209" s="7" t="inlineStr">
         <is>
@@ -42172,9 +42074,9 @@
           <t>221853@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G210" s="5" t="inlineStr">
@@ -42191,10 +42093,10 @@
         <v>20</v>
       </c>
       <c r="J210" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K210" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L210" s="6" t="n">
         <v>27</v>
@@ -42206,7 +42108,7 @@
         <v>1</v>
       </c>
       <c r="O210" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P210" s="7" t="n">
         <v>27</v>
@@ -42217,10 +42119,8 @@
       <c r="R210" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S210" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S210" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T210" s="7" t="inlineStr">
         <is>
@@ -42393,10 +42293,10 @@
         <v>21</v>
       </c>
       <c r="J211" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K211" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L211" s="6" t="n">
         <v>27</v>
@@ -42408,7 +42308,7 @@
         <v>0</v>
       </c>
       <c r="O211" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P211" s="7" t="n">
         <v>27</v>
@@ -42419,10 +42319,8 @@
       <c r="R211" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S211" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S211" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T211" s="7" t="inlineStr">
         <is>
@@ -42576,9 +42474,9 @@
           <t>221859@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G212" s="5" t="inlineStr">
@@ -42595,10 +42493,10 @@
         <v>20</v>
       </c>
       <c r="J212" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K212" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L212" s="6" t="n">
         <v>27</v>
@@ -42610,7 +42508,7 @@
         <v>1</v>
       </c>
       <c r="O212" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P212" s="7" t="n">
         <v>27</v>
@@ -42621,10 +42519,8 @@
       <c r="R212" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S212" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S212" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T212" s="7" t="inlineStr">
         <is>
@@ -42778,9 +42674,9 @@
           <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F213" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G213" s="5" t="inlineStr">
@@ -42797,10 +42693,10 @@
         <v>20</v>
       </c>
       <c r="J213" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K213" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L213" s="6" t="n">
         <v>27</v>
@@ -42812,7 +42708,7 @@
         <v>1</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P213" s="7" t="n">
         <v>27</v>
@@ -42823,10 +42719,8 @@
       <c r="R213" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S213" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S213" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T213" s="7" t="inlineStr">
         <is>
@@ -42999,10 +42893,10 @@
         <v>21</v>
       </c>
       <c r="J214" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K214" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L214" s="6" t="n">
         <v>27</v>
@@ -43014,7 +42908,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P214" s="7" t="n">
         <v>27</v>
@@ -43025,10 +42919,8 @@
       <c r="R214" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S214" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S214" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T214" s="7" t="inlineStr">
         <is>
@@ -43201,10 +43093,10 @@
         <v>19</v>
       </c>
       <c r="J215" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K215" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L215" s="6" t="n">
         <v>27</v>
@@ -43216,7 +43108,7 @@
         <v>2</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P215" s="7" t="n">
         <v>27</v>
@@ -43227,10 +43119,8 @@
       <c r="R215" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S215" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S215" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T215" s="7" t="inlineStr">
         <is>
@@ -43403,10 +43293,10 @@
         <v>21</v>
       </c>
       <c r="J216" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K216" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L216" s="6" t="n">
         <v>27</v>
@@ -43418,7 +43308,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P216" s="7" t="n">
         <v>27</v>
@@ -43429,10 +43319,8 @@
       <c r="R216" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S216" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S216" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T216" s="7" t="inlineStr">
         <is>
@@ -43605,10 +43493,10 @@
         <v>19</v>
       </c>
       <c r="J217" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K217" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L217" s="6" t="n">
         <v>27</v>
@@ -43620,7 +43508,7 @@
         <v>2</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P217" s="7" t="n">
         <v>27</v>
@@ -43631,10 +43519,8 @@
       <c r="R217" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S217" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S217" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T217" s="7" t="inlineStr">
         <is>
@@ -43807,10 +43693,10 @@
         <v>19</v>
       </c>
       <c r="J218" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K218" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L218" s="6" t="n">
         <v>27</v>
@@ -43822,7 +43708,7 @@
         <v>2</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P218" s="7" t="n">
         <v>27</v>
@@ -43833,10 +43719,8 @@
       <c r="R218" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S218" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S218" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T218" s="7" t="inlineStr">
         <is>
@@ -44009,10 +43893,10 @@
         <v>19</v>
       </c>
       <c r="J219" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K219" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L219" s="6" t="n">
         <v>27</v>
@@ -44024,7 +43908,7 @@
         <v>2</v>
       </c>
       <c r="O219" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P219" s="7" t="n">
         <v>27</v>
@@ -44035,10 +43919,8 @@
       <c r="R219" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S219" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S219" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T219" s="7" t="inlineStr">
         <is>
@@ -44211,10 +44093,10 @@
         <v>21</v>
       </c>
       <c r="J220" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K220" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L220" s="6" t="n">
         <v>27</v>
@@ -44226,7 +44108,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P220" s="7" t="n">
         <v>27</v>
@@ -44237,10 +44119,8 @@
       <c r="R220" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S220" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S220" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T220" s="7" t="inlineStr">
         <is>
@@ -44413,10 +44293,10 @@
         <v>21</v>
       </c>
       <c r="J221" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K221" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L221" s="6" t="n">
         <v>27</v>
@@ -44428,7 +44308,7 @@
         <v>0</v>
       </c>
       <c r="O221" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P221" s="7" t="n">
         <v>27</v>
@@ -44439,10 +44319,8 @@
       <c r="R221" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S221" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S221" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T221" s="7" t="inlineStr">
         <is>
@@ -44615,10 +44493,10 @@
         <v>19</v>
       </c>
       <c r="J222" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K222" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L222" s="6" t="n">
         <v>27</v>
@@ -44630,7 +44508,7 @@
         <v>2</v>
       </c>
       <c r="O222" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>27</v>
@@ -44641,10 +44519,8 @@
       <c r="R222" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S222" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S222" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T222" s="7" t="inlineStr">
         <is>
@@ -44798,9 +44674,9 @@
           <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G223" s="5" t="inlineStr">
@@ -44817,10 +44693,10 @@
         <v>20</v>
       </c>
       <c r="J223" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K223" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L223" s="6" t="n">
         <v>27</v>
@@ -44832,7 +44708,7 @@
         <v>1</v>
       </c>
       <c r="O223" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>27</v>
@@ -44843,10 +44719,8 @@
       <c r="R223" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S223" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S223" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T223" s="7" t="inlineStr">
         <is>
@@ -45000,9 +44874,9 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G224" s="5" t="inlineStr">
@@ -45019,10 +44893,10 @@
         <v>20</v>
       </c>
       <c r="J224" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K224" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L224" s="6" t="n">
         <v>27</v>
@@ -45034,7 +44908,7 @@
         <v>1</v>
       </c>
       <c r="O224" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P224" s="7" t="n">
         <v>27</v>
@@ -45045,10 +44919,8 @@
       <c r="R224" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S224" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S224" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T224" s="7" t="inlineStr">
         <is>
@@ -45221,10 +45093,10 @@
         <v>19</v>
       </c>
       <c r="J225" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K225" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L225" s="6" t="n">
         <v>27</v>
@@ -45236,7 +45108,7 @@
         <v>2</v>
       </c>
       <c r="O225" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P225" s="7" t="n">
         <v>27</v>
@@ -45247,10 +45119,8 @@
       <c r="R225" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S225" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S225" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T225" s="7" t="inlineStr">
         <is>
@@ -45404,9 +45274,9 @@
           <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G226" s="5" t="inlineStr">
@@ -45423,10 +45293,10 @@
         <v>20</v>
       </c>
       <c r="J226" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K226" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L226" s="6" t="n">
         <v>27</v>
@@ -45438,7 +45308,7 @@
         <v>1</v>
       </c>
       <c r="O226" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P226" s="7" t="n">
         <v>27</v>
@@ -45449,10 +45319,8 @@
       <c r="R226" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S226" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S226" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T226" s="7" t="inlineStr">
         <is>
@@ -45625,10 +45493,10 @@
         <v>19</v>
       </c>
       <c r="J227" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K227" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L227" s="6" t="n">
         <v>27</v>
@@ -45640,7 +45508,7 @@
         <v>2</v>
       </c>
       <c r="O227" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P227" s="7" t="n">
         <v>27</v>
@@ -45651,10 +45519,8 @@
       <c r="R227" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S227" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S227" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T227" s="7" t="inlineStr">
         <is>
@@ -45827,10 +45693,10 @@
         <v>19</v>
       </c>
       <c r="J228" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K228" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L228" s="6" t="n">
         <v>27</v>
@@ -45842,7 +45708,7 @@
         <v>2</v>
       </c>
       <c r="O228" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P228" s="7" t="n">
         <v>27</v>
@@ -45853,10 +45719,8 @@
       <c r="R228" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S228" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S228" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T228" s="7" t="inlineStr">
         <is>
@@ -46029,10 +45893,10 @@
         <v>19</v>
       </c>
       <c r="J229" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K229" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L229" s="6" t="n">
         <v>27</v>
@@ -46044,7 +45908,7 @@
         <v>2</v>
       </c>
       <c r="O229" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P229" s="7" t="n">
         <v>27</v>
@@ -46055,10 +45919,8 @@
       <c r="R229" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S229" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S229" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T229" s="7" t="inlineStr">
         <is>
@@ -46231,10 +46093,10 @@
         <v>19</v>
       </c>
       <c r="J230" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K230" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L230" s="6" t="n">
         <v>27</v>
@@ -46246,7 +46108,7 @@
         <v>2</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P230" s="7" t="n">
         <v>27</v>
@@ -46257,10 +46119,8 @@
       <c r="R230" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S230" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S230" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T230" s="7" t="inlineStr">
         <is>
@@ -46414,9 +46274,9 @@
           <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F231" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G231" s="5" t="inlineStr">
@@ -46433,10 +46293,10 @@
         <v>20</v>
       </c>
       <c r="J231" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K231" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L231" s="6" t="n">
         <v>27</v>
@@ -46448,7 +46308,7 @@
         <v>1</v>
       </c>
       <c r="O231" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P231" s="7" t="n">
         <v>27</v>
@@ -46459,10 +46319,8 @@
       <c r="R231" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S231" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S231" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T231" s="7" t="inlineStr">
         <is>
@@ -46616,9 +46474,9 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G232" s="5" t="inlineStr">
@@ -46635,10 +46493,10 @@
         <v>20</v>
       </c>
       <c r="J232" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K232" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L232" s="6" t="n">
         <v>27</v>
@@ -46650,7 +46508,7 @@
         <v>1</v>
       </c>
       <c r="O232" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P232" s="7" t="n">
         <v>27</v>
@@ -46661,10 +46519,8 @@
       <c r="R232" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S232" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S232" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T232" s="7" t="inlineStr">
         <is>
@@ -46837,10 +46693,10 @@
         <v>19</v>
       </c>
       <c r="J233" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K233" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L233" s="6" t="n">
         <v>27</v>
@@ -46852,7 +46708,7 @@
         <v>2</v>
       </c>
       <c r="O233" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P233" s="7" t="n">
         <v>27</v>
@@ -46863,10 +46719,8 @@
       <c r="R233" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S233" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S233" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T233" s="7" t="inlineStr">
         <is>
@@ -47039,10 +46893,10 @@
         <v>19</v>
       </c>
       <c r="J234" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K234" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L234" s="6" t="n">
         <v>27</v>
@@ -47054,7 +46908,7 @@
         <v>2</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P234" s="7" t="n">
         <v>27</v>
@@ -47065,10 +46919,8 @@
       <c r="R234" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S234" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S234" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T234" s="7" t="inlineStr">
         <is>
@@ -47241,10 +47093,10 @@
         <v>19</v>
       </c>
       <c r="J235" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K235" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L235" s="6" t="n">
         <v>27</v>
@@ -47256,7 +47108,7 @@
         <v>2</v>
       </c>
       <c r="O235" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P235" s="7" t="n">
         <v>27</v>
@@ -47267,10 +47119,8 @@
       <c r="R235" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S235" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S235" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T235" s="7" t="inlineStr">
         <is>
@@ -47443,10 +47293,10 @@
         <v>19</v>
       </c>
       <c r="J236" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K236" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L236" s="6" t="n">
         <v>27</v>
@@ -47458,7 +47308,7 @@
         <v>2</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P236" s="7" t="n">
         <v>27</v>
@@ -47469,10 +47319,8 @@
       <c r="R236" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S236" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S236" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T236" s="7" t="inlineStr">
         <is>
@@ -47626,9 +47474,9 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F237" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G237" s="5" t="inlineStr">
@@ -47645,10 +47493,10 @@
         <v>20</v>
       </c>
       <c r="J237" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K237" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L237" s="6" t="n">
         <v>27</v>
@@ -47660,7 +47508,7 @@
         <v>1</v>
       </c>
       <c r="O237" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P237" s="7" t="n">
         <v>27</v>
@@ -47671,10 +47519,8 @@
       <c r="R237" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S237" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S237" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T237" s="7" t="inlineStr">
         <is>
@@ -47847,10 +47693,10 @@
         <v>19</v>
       </c>
       <c r="J238" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K238" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L238" s="6" t="n">
         <v>27</v>
@@ -47862,7 +47708,7 @@
         <v>2</v>
       </c>
       <c r="O238" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P238" s="7" t="n">
         <v>27</v>
@@ -47873,10 +47719,8 @@
       <c r="R238" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S238" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S238" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T238" s="7" t="inlineStr">
         <is>
@@ -48049,10 +47893,10 @@
         <v>19</v>
       </c>
       <c r="J239" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K239" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L239" s="6" t="n">
         <v>27</v>
@@ -48064,7 +47908,7 @@
         <v>2</v>
       </c>
       <c r="O239" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P239" s="7" t="n">
         <v>27</v>
@@ -48075,10 +47919,8 @@
       <c r="R239" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S239" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S239" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T239" s="7" t="inlineStr">
         <is>
@@ -48251,10 +48093,10 @@
         <v>19</v>
       </c>
       <c r="J240" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K240" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L240" s="6" t="n">
         <v>27</v>
@@ -48266,7 +48108,7 @@
         <v>2</v>
       </c>
       <c r="O240" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P240" s="7" t="n">
         <v>27</v>
@@ -48277,10 +48119,8 @@
       <c r="R240" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S240" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S240" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T240" s="7" t="inlineStr">
         <is>
@@ -48453,10 +48293,10 @@
         <v>19</v>
       </c>
       <c r="J241" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K241" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L241" s="6" t="n">
         <v>27</v>
@@ -48468,7 +48308,7 @@
         <v>2</v>
       </c>
       <c r="O241" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P241" s="7" t="n">
         <v>27</v>
@@ -48479,10 +48319,8 @@
       <c r="R241" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S241" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S241" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T241" s="7" t="inlineStr">
         <is>
@@ -48655,10 +48493,10 @@
         <v>21</v>
       </c>
       <c r="J242" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K242" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L242" s="6" t="n">
         <v>27</v>
@@ -48670,7 +48508,7 @@
         <v>0</v>
       </c>
       <c r="O242" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P242" s="7" t="n">
         <v>27</v>
@@ -48681,10 +48519,8 @@
       <c r="R242" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S242" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S242" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T242" s="7" t="inlineStr">
         <is>
@@ -48857,10 +48693,10 @@
         <v>21</v>
       </c>
       <c r="J243" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K243" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L243" s="6" t="n">
         <v>27</v>
@@ -48872,7 +48708,7 @@
         <v>0</v>
       </c>
       <c r="O243" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P243" s="7" t="n">
         <v>27</v>
@@ -48883,10 +48719,8 @@
       <c r="R243" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S243" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S243" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T243" s="7" t="inlineStr">
         <is>
@@ -49059,10 +48893,10 @@
         <v>19</v>
       </c>
       <c r="J244" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K244" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L244" s="6" t="n">
         <v>27</v>
@@ -49074,7 +48908,7 @@
         <v>2</v>
       </c>
       <c r="O244" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P244" s="7" t="n">
         <v>27</v>
@@ -49085,10 +48919,8 @@
       <c r="R244" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S244" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S244" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T244" s="7" t="inlineStr">
         <is>
@@ -49261,10 +49093,10 @@
         <v>19</v>
       </c>
       <c r="J245" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K245" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L245" s="6" t="n">
         <v>27</v>
@@ -49276,7 +49108,7 @@
         <v>2</v>
       </c>
       <c r="O245" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P245" s="7" t="n">
         <v>27</v>
@@ -49287,10 +49119,8 @@
       <c r="R245" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S245" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S245" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T245" s="7" t="inlineStr">
         <is>
@@ -49463,10 +49293,10 @@
         <v>21</v>
       </c>
       <c r="J246" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K246" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L246" s="6" t="n">
         <v>27</v>
@@ -49478,7 +49308,7 @@
         <v>0</v>
       </c>
       <c r="O246" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P246" s="7" t="n">
         <v>27</v>
@@ -49489,10 +49319,8 @@
       <c r="R246" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S246" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S246" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T246" s="7" t="inlineStr">
         <is>
@@ -49665,10 +49493,10 @@
         <v>21</v>
       </c>
       <c r="J247" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K247" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L247" s="6" t="n">
         <v>27</v>
@@ -49680,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P247" s="7" t="n">
         <v>27</v>
@@ -49691,10 +49519,8 @@
       <c r="R247" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S247" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S247" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T247" s="7" t="inlineStr">
         <is>
@@ -49848,9 +49674,9 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G248" s="5" t="inlineStr">
@@ -49867,10 +49693,10 @@
         <v>20</v>
       </c>
       <c r="J248" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K248" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L248" s="6" t="n">
         <v>27</v>
@@ -49882,7 +49708,7 @@
         <v>1</v>
       </c>
       <c r="O248" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P248" s="7" t="n">
         <v>27</v>
@@ -49893,10 +49719,8 @@
       <c r="R248" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S248" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S248" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T248" s="7" t="inlineStr">
         <is>
@@ -50050,9 +49874,9 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F249" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G249" s="5" t="inlineStr">
@@ -50069,10 +49893,10 @@
         <v>20</v>
       </c>
       <c r="J249" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K249" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L249" s="6" t="n">
         <v>27</v>
@@ -50084,7 +49908,7 @@
         <v>1</v>
       </c>
       <c r="O249" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249" s="7" t="n">
         <v>27</v>
@@ -50095,10 +49919,8 @@
       <c r="R249" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S249" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S249" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T249" s="7" t="inlineStr">
         <is>
@@ -50252,9 +50074,9 @@
           <t>210421@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F250" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G250" s="5" t="inlineStr">
@@ -50271,10 +50093,10 @@
         <v>20</v>
       </c>
       <c r="J250" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K250" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L250" s="6" t="n">
         <v>27</v>
@@ -50286,7 +50108,7 @@
         <v>1</v>
       </c>
       <c r="O250" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P250" s="7" t="n">
         <v>27</v>
@@ -50297,10 +50119,8 @@
       <c r="R250" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S250" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S250" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T250" s="7" t="inlineStr">
         <is>
@@ -50473,10 +50293,10 @@
         <v>21</v>
       </c>
       <c r="J251" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K251" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L251" s="6" t="n">
         <v>27</v>
@@ -50488,7 +50308,7 @@
         <v>0</v>
       </c>
       <c r="O251" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P251" s="7" t="n">
         <v>27</v>
@@ -50499,10 +50319,8 @@
       <c r="R251" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S251" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S251" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T251" s="7" t="inlineStr">
         <is>
@@ -50675,10 +50493,10 @@
         <v>19</v>
       </c>
       <c r="J252" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K252" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L252" s="6" t="n">
         <v>27</v>
@@ -50690,7 +50508,7 @@
         <v>2</v>
       </c>
       <c r="O252" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P252" s="7" t="n">
         <v>27</v>
@@ -50701,10 +50519,8 @@
       <c r="R252" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S252" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S252" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T252" s="7" t="inlineStr">
         <is>
@@ -50877,10 +50693,10 @@
         <v>19</v>
       </c>
       <c r="J253" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K253" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L253" s="6" t="n">
         <v>27</v>
@@ -50892,7 +50708,7 @@
         <v>2</v>
       </c>
       <c r="O253" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P253" s="7" t="n">
         <v>27</v>
@@ -50903,10 +50719,8 @@
       <c r="R253" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S253" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S253" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T253" s="7" t="inlineStr">
         <is>
@@ -51079,10 +50893,10 @@
         <v>19</v>
       </c>
       <c r="J254" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K254" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L254" s="6" t="n">
         <v>27</v>
@@ -51094,7 +50908,7 @@
         <v>2</v>
       </c>
       <c r="O254" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P254" s="7" t="n">
         <v>27</v>
@@ -51105,10 +50919,8 @@
       <c r="R254" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S254" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S254" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T254" s="7" t="inlineStr">
         <is>
@@ -51281,10 +51093,10 @@
         <v>19</v>
       </c>
       <c r="J255" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K255" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L255" s="6" t="n">
         <v>27</v>
@@ -51296,7 +51108,7 @@
         <v>2</v>
       </c>
       <c r="O255" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>27</v>
@@ -51307,10 +51119,8 @@
       <c r="R255" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S255" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S255" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T255" s="7" t="inlineStr">
         <is>
@@ -51483,10 +51293,10 @@
         <v>19</v>
       </c>
       <c r="J256" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K256" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L256" s="6" t="n">
         <v>27</v>
@@ -51498,7 +51308,7 @@
         <v>2</v>
       </c>
       <c r="O256" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P256" s="7" t="n">
         <v>27</v>
@@ -51509,10 +51319,8 @@
       <c r="R256" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S256" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S256" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T256" s="7" t="inlineStr">
         <is>
@@ -51685,10 +51493,10 @@
         <v>19</v>
       </c>
       <c r="J257" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K257" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L257" s="6" t="n">
         <v>27</v>
@@ -51700,7 +51508,7 @@
         <v>2</v>
       </c>
       <c r="O257" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P257" s="7" t="n">
         <v>27</v>
@@ -51711,10 +51519,8 @@
       <c r="R257" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S257" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S257" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T257" s="7" t="inlineStr">
         <is>
@@ -51887,10 +51693,10 @@
         <v>21</v>
       </c>
       <c r="J258" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K258" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L258" s="6" t="n">
         <v>27</v>
@@ -51902,7 +51708,7 @@
         <v>0</v>
       </c>
       <c r="O258" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P258" s="7" t="n">
         <v>27</v>
@@ -51913,10 +51719,8 @@
       <c r="R258" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S258" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S258" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T258" s="7" t="inlineStr">
         <is>
@@ -52089,10 +51893,10 @@
         <v>19</v>
       </c>
       <c r="J259" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K259" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L259" s="6" t="n">
         <v>27</v>
@@ -52104,7 +51908,7 @@
         <v>2</v>
       </c>
       <c r="O259" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P259" s="7" t="n">
         <v>27</v>
@@ -52115,10 +51919,8 @@
       <c r="R259" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S259" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S259" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T259" s="7" t="inlineStr">
         <is>
@@ -52291,10 +52093,10 @@
         <v>21</v>
       </c>
       <c r="J260" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K260" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L260" s="6" t="n">
         <v>27</v>
@@ -52306,7 +52108,7 @@
         <v>0</v>
       </c>
       <c r="O260" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P260" s="7" t="n">
         <v>27</v>
@@ -52317,10 +52119,8 @@
       <c r="R260" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S260" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S260" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T260" s="7" t="inlineStr">
         <is>
@@ -52493,10 +52293,10 @@
         <v>19</v>
       </c>
       <c r="J261" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K261" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L261" s="6" t="n">
         <v>27</v>
@@ -52508,7 +52308,7 @@
         <v>2</v>
       </c>
       <c r="O261" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P261" s="7" t="n">
         <v>27</v>
@@ -52519,10 +52319,8 @@
       <c r="R261" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S261" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S261" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T261" s="7" t="inlineStr">
         <is>
@@ -52676,9 +52474,9 @@
           <t>222098@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F262" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G262" s="5" t="inlineStr">
@@ -52695,10 +52493,10 @@
         <v>20</v>
       </c>
       <c r="J262" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K262" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L262" s="6" t="n">
         <v>27</v>
@@ -52710,7 +52508,7 @@
         <v>1</v>
       </c>
       <c r="O262" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P262" s="7" t="n">
         <v>27</v>
@@ -52721,10 +52519,8 @@
       <c r="R262" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S262" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S262" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T262" s="7" t="inlineStr">
         <is>
@@ -52897,10 +52693,10 @@
         <v>21</v>
       </c>
       <c r="J263" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K263" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L263" s="6" t="n">
         <v>27</v>
@@ -52912,7 +52708,7 @@
         <v>0</v>
       </c>
       <c r="O263" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P263" s="7" t="n">
         <v>27</v>
@@ -52923,10 +52719,8 @@
       <c r="R263" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S263" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S263" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T263" s="7" t="inlineStr">
         <is>
@@ -53080,9 +52874,9 @@
           <t>222106@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F264" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F264" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G264" s="5" t="inlineStr">
@@ -53099,10 +52893,10 @@
         <v>20</v>
       </c>
       <c r="J264" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K264" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L264" s="6" t="n">
         <v>27</v>
@@ -53114,7 +52908,7 @@
         <v>1</v>
       </c>
       <c r="O264" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P264" s="7" t="n">
         <v>27</v>
@@ -53125,10 +52919,8 @@
       <c r="R264" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S264" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S264" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T264" s="7" t="inlineStr">
         <is>
@@ -53282,9 +53074,9 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F265" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G265" s="5" t="inlineStr">
@@ -53301,10 +53093,10 @@
         <v>20</v>
       </c>
       <c r="J265" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K265" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L265" s="6" t="n">
         <v>27</v>
@@ -53316,7 +53108,7 @@
         <v>1</v>
       </c>
       <c r="O265" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P265" s="7" t="n">
         <v>27</v>
@@ -53327,10 +53119,8 @@
       <c r="R265" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S265" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S265" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T265" s="7" t="inlineStr">
         <is>
@@ -53484,9 +53274,9 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F266" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G266" s="5" t="inlineStr">
@@ -53503,10 +53293,10 @@
         <v>20</v>
       </c>
       <c r="J266" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K266" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L266" s="6" t="n">
         <v>27</v>
@@ -53518,7 +53308,7 @@
         <v>1</v>
       </c>
       <c r="O266" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P266" s="7" t="n">
         <v>27</v>
@@ -53529,10 +53319,8 @@
       <c r="R266" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S266" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S266" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T266" s="7" t="inlineStr">
         <is>
@@ -53686,9 +53474,9 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F267" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G267" s="5" t="inlineStr">
@@ -53705,10 +53493,10 @@
         <v>20</v>
       </c>
       <c r="J267" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K267" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L267" s="6" t="n">
         <v>27</v>
@@ -53720,7 +53508,7 @@
         <v>1</v>
       </c>
       <c r="O267" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" s="7" t="n">
         <v>27</v>
@@ -53731,10 +53519,8 @@
       <c r="R267" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S267" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S267" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T267" s="7" t="inlineStr">
         <is>
@@ -53888,9 +53674,9 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G268" s="5" t="inlineStr">
@@ -53907,10 +53693,10 @@
         <v>20</v>
       </c>
       <c r="J268" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K268" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L268" s="6" t="n">
         <v>27</v>
@@ -53922,7 +53708,7 @@
         <v>1</v>
       </c>
       <c r="O268" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P268" s="7" t="n">
         <v>27</v>
@@ -53933,10 +53719,8 @@
       <c r="R268" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S268" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S268" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T268" s="7" t="inlineStr">
         <is>
@@ -54090,9 +53874,9 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F269" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G269" s="5" t="inlineStr">
@@ -54109,10 +53893,10 @@
         <v>20</v>
       </c>
       <c r="J269" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K269" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L269" s="6" t="n">
         <v>27</v>
@@ -54124,7 +53908,7 @@
         <v>1</v>
       </c>
       <c r="O269" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269" s="7" t="n">
         <v>27</v>
@@ -54135,10 +53919,8 @@
       <c r="R269" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S269" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S269" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T269" s="7" t="inlineStr">
         <is>
@@ -54311,10 +54093,10 @@
         <v>19</v>
       </c>
       <c r="J270" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K270" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L270" s="6" t="n">
         <v>27</v>
@@ -54326,7 +54108,7 @@
         <v>2</v>
       </c>
       <c r="O270" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P270" s="7" t="n">
         <v>27</v>
@@ -54337,10 +54119,8 @@
       <c r="R270" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S270" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S270" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T270" s="7" t="inlineStr">
         <is>
@@ -54494,9 +54274,9 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F271" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G271" s="5" t="inlineStr">
@@ -54513,10 +54293,10 @@
         <v>20</v>
       </c>
       <c r="J271" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K271" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L271" s="6" t="n">
         <v>27</v>
@@ -54528,7 +54308,7 @@
         <v>1</v>
       </c>
       <c r="O271" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P271" s="7" t="n">
         <v>27</v>
@@ -54539,10 +54319,8 @@
       <c r="R271" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S271" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S271" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T271" s="7" t="inlineStr">
         <is>
@@ -54696,9 +54474,9 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F272" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G272" s="5" t="inlineStr">
@@ -54715,10 +54493,10 @@
         <v>20</v>
       </c>
       <c r="J272" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K272" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L272" s="6" t="n">
         <v>27</v>
@@ -54730,7 +54508,7 @@
         <v>1</v>
       </c>
       <c r="O272" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P272" s="7" t="n">
         <v>27</v>
@@ -54741,10 +54519,8 @@
       <c r="R272" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S272" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S272" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T272" s="7" t="inlineStr">
         <is>
@@ -54917,10 +54693,10 @@
         <v>21</v>
       </c>
       <c r="J273" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K273" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L273" s="6" t="n">
         <v>27</v>
@@ -54932,7 +54708,7 @@
         <v>0</v>
       </c>
       <c r="O273" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P273" s="7" t="n">
         <v>27</v>
@@ -54943,10 +54719,8 @@
       <c r="R273" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S273" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S273" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T273" s="7" t="inlineStr">
         <is>
@@ -55100,9 +54874,9 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G274" s="5" t="inlineStr">
@@ -55119,10 +54893,10 @@
         <v>20</v>
       </c>
       <c r="J274" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K274" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L274" s="6" t="n">
         <v>27</v>
@@ -55134,7 +54908,7 @@
         <v>1</v>
       </c>
       <c r="O274" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" s="7" t="n">
         <v>27</v>
@@ -55145,10 +54919,8 @@
       <c r="R274" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S274" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S274" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T274" s="7" t="inlineStr">
         <is>
@@ -55302,9 +55074,9 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F275" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G275" s="5" t="inlineStr">
@@ -55321,10 +55093,10 @@
         <v>20</v>
       </c>
       <c r="J275" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K275" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L275" s="6" t="n">
         <v>27</v>
@@ -55336,7 +55108,7 @@
         <v>1</v>
       </c>
       <c r="O275" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P275" s="7" t="n">
         <v>27</v>
@@ -55347,10 +55119,8 @@
       <c r="R275" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S275" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S275" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T275" s="7" t="inlineStr">
         <is>
@@ -55504,9 +55274,9 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G276" s="5" t="inlineStr">
@@ -55523,10 +55293,10 @@
         <v>20</v>
       </c>
       <c r="J276" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K276" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L276" s="6" t="n">
         <v>27</v>
@@ -55538,7 +55308,7 @@
         <v>1</v>
       </c>
       <c r="O276" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P276" s="7" t="n">
         <v>27</v>
@@ -55549,10 +55319,8 @@
       <c r="R276" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S276" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S276" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T276" s="7" t="inlineStr">
         <is>
@@ -55706,9 +55474,9 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G277" s="5" t="inlineStr">
@@ -55725,10 +55493,10 @@
         <v>20</v>
       </c>
       <c r="J277" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K277" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L277" s="6" t="n">
         <v>27</v>
@@ -55740,7 +55508,7 @@
         <v>1</v>
       </c>
       <c r="O277" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" s="7" t="n">
         <v>27</v>
@@ -55751,10 +55519,8 @@
       <c r="R277" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S277" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S277" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T277" s="7" t="inlineStr">
         <is>
@@ -55908,9 +55674,9 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G278" s="5" t="inlineStr">
@@ -55927,10 +55693,10 @@
         <v>20</v>
       </c>
       <c r="J278" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K278" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L278" s="6" t="n">
         <v>27</v>
@@ -55942,7 +55708,7 @@
         <v>1</v>
       </c>
       <c r="O278" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P278" s="7" t="n">
         <v>27</v>
@@ -55953,10 +55719,8 @@
       <c r="R278" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S278" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S278" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T278" s="7" t="inlineStr">
         <is>
@@ -56129,10 +55893,10 @@
         <v>21</v>
       </c>
       <c r="J279" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K279" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L279" s="6" t="n">
         <v>27</v>
@@ -56144,7 +55908,7 @@
         <v>0</v>
       </c>
       <c r="O279" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P279" s="7" t="n">
         <v>27</v>
@@ -56155,10 +55919,8 @@
       <c r="R279" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S279" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S279" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T279" s="7" t="inlineStr">
         <is>
@@ -56312,9 +56074,9 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G280" s="5" t="inlineStr">
@@ -56331,10 +56093,10 @@
         <v>20</v>
       </c>
       <c r="J280" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K280" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L280" s="6" t="n">
         <v>27</v>
@@ -56346,7 +56108,7 @@
         <v>1</v>
       </c>
       <c r="O280" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280" s="7" t="n">
         <v>27</v>
@@ -56357,10 +56119,8 @@
       <c r="R280" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S280" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S280" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T280" s="7" t="inlineStr">
         <is>
@@ -56514,9 +56274,9 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F281" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G281" s="5" t="inlineStr">
@@ -56533,10 +56293,10 @@
         <v>20</v>
       </c>
       <c r="J281" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K281" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L281" s="6" t="n">
         <v>27</v>
@@ -56548,7 +56308,7 @@
         <v>1</v>
       </c>
       <c r="O281" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" s="7" t="n">
         <v>27</v>
@@ -56559,10 +56319,8 @@
       <c r="R281" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S281" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S281" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T281" s="7" t="inlineStr">
         <is>
@@ -56716,9 +56474,9 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F282" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G282" s="5" t="inlineStr">
@@ -56735,10 +56493,10 @@
         <v>20</v>
       </c>
       <c r="J282" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K282" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L282" s="6" t="n">
         <v>27</v>
@@ -56750,7 +56508,7 @@
         <v>1</v>
       </c>
       <c r="O282" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P282" s="7" t="n">
         <v>27</v>
@@ -56761,10 +56519,8 @@
       <c r="R282" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S282" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S282" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T282" s="7" t="inlineStr">
         <is>
@@ -56918,9 +56674,9 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F283" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G283" s="5" t="inlineStr">
@@ -56937,10 +56693,10 @@
         <v>20</v>
       </c>
       <c r="J283" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K283" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L283" s="6" t="n">
         <v>27</v>
@@ -56952,7 +56708,7 @@
         <v>1</v>
       </c>
       <c r="O283" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P283" s="7" t="n">
         <v>27</v>
@@ -56963,10 +56719,8 @@
       <c r="R283" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S283" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S283" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T283" s="7" t="inlineStr">
         <is>
@@ -57120,9 +56874,9 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G284" s="5" t="inlineStr">
@@ -57139,10 +56893,10 @@
         <v>20</v>
       </c>
       <c r="J284" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K284" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L284" s="6" t="n">
         <v>27</v>
@@ -57154,7 +56908,7 @@
         <v>1</v>
       </c>
       <c r="O284" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P284" s="7" t="n">
         <v>27</v>
@@ -57165,10 +56919,8 @@
       <c r="R284" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S284" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S284" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T284" s="7" t="inlineStr">
         <is>
@@ -57341,10 +57093,10 @@
         <v>21</v>
       </c>
       <c r="J285" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K285" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L285" s="6" t="n">
         <v>27</v>
@@ -57356,7 +57108,7 @@
         <v>0</v>
       </c>
       <c r="O285" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P285" s="7" t="n">
         <v>27</v>
@@ -57367,10 +57119,8 @@
       <c r="R285" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S285" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S285" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T285" s="7" t="inlineStr">
         <is>
@@ -57543,10 +57293,10 @@
         <v>21</v>
       </c>
       <c r="J286" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K286" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L286" s="6" t="n">
         <v>27</v>
@@ -57558,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="O286" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P286" s="7" t="n">
         <v>27</v>
@@ -57569,10 +57319,8 @@
       <c r="R286" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S286" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S286" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T286" s="7" t="inlineStr">
         <is>
@@ -57726,9 +57474,9 @@
           <t>210902@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F287" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F287" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G287" s="5" t="inlineStr">
@@ -57745,10 +57493,10 @@
         <v>20</v>
       </c>
       <c r="J287" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K287" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L287" s="6" t="n">
         <v>27</v>
@@ -57760,7 +57508,7 @@
         <v>1</v>
       </c>
       <c r="O287" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P287" s="7" t="n">
         <v>27</v>
@@ -57771,10 +57519,8 @@
       <c r="R287" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S287" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S287" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T287" s="7" t="inlineStr">
         <is>
@@ -57947,10 +57693,10 @@
         <v>21</v>
       </c>
       <c r="J288" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K288" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L288" s="6" t="n">
         <v>27</v>
@@ -57962,7 +57708,7 @@
         <v>0</v>
       </c>
       <c r="O288" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P288" s="7" t="n">
         <v>27</v>
@@ -57973,10 +57719,8 @@
       <c r="R288" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S288" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S288" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T288" s="7" t="inlineStr">
         <is>
@@ -58130,9 +57874,9 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F289" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G289" s="5" t="inlineStr">
@@ -58149,10 +57893,10 @@
         <v>20</v>
       </c>
       <c r="J289" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K289" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L289" s="6" t="n">
         <v>27</v>
@@ -58164,7 +57908,7 @@
         <v>1</v>
       </c>
       <c r="O289" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P289" s="7" t="n">
         <v>27</v>
@@ -58175,10 +57919,8 @@
       <c r="R289" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S289" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S289" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T289" s="7" t="inlineStr">
         <is>
@@ -58351,10 +58093,10 @@
         <v>21</v>
       </c>
       <c r="J290" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K290" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L290" s="6" t="n">
         <v>27</v>
@@ -58366,7 +58108,7 @@
         <v>0</v>
       </c>
       <c r="O290" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P290" s="7" t="n">
         <v>27</v>
@@ -58377,10 +58119,8 @@
       <c r="R290" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S290" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S290" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T290" s="7" t="inlineStr">
         <is>
@@ -58553,10 +58293,10 @@
         <v>21</v>
       </c>
       <c r="J291" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K291" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L291" s="6" t="n">
         <v>27</v>
@@ -58568,7 +58308,7 @@
         <v>0</v>
       </c>
       <c r="O291" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P291" s="7" t="n">
         <v>27</v>
@@ -58579,10 +58319,8 @@
       <c r="R291" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S291" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S291" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T291" s="7" t="inlineStr">
         <is>
@@ -58736,9 +58474,9 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F292" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G292" s="5" t="inlineStr">
@@ -58755,10 +58493,10 @@
         <v>20</v>
       </c>
       <c r="J292" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K292" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L292" s="6" t="n">
         <v>27</v>
@@ -58770,7 +58508,7 @@
         <v>1</v>
       </c>
       <c r="O292" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P292" s="7" t="n">
         <v>27</v>
@@ -58781,10 +58519,8 @@
       <c r="R292" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S292" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S292" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T292" s="7" t="inlineStr">
         <is>
@@ -58957,10 +58693,10 @@
         <v>21</v>
       </c>
       <c r="J293" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K293" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L293" s="6" t="n">
         <v>27</v>
@@ -58972,7 +58708,7 @@
         <v>0</v>
       </c>
       <c r="O293" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>27</v>
@@ -58983,10 +58719,8 @@
       <c r="R293" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S293" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S293" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T293" s="7" t="inlineStr">
         <is>
@@ -59140,9 +58874,9 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F294" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G294" s="5" t="inlineStr">
@@ -59159,10 +58893,10 @@
         <v>20</v>
       </c>
       <c r="J294" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K294" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L294" s="6" t="n">
         <v>27</v>
@@ -59174,7 +58908,7 @@
         <v>1</v>
       </c>
       <c r="O294" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>27</v>
@@ -59185,10 +58919,8 @@
       <c r="R294" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S294" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S294" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T294" s="7" t="inlineStr">
         <is>
@@ -59361,10 +59093,10 @@
         <v>21</v>
       </c>
       <c r="J295" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K295" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L295" s="6" t="n">
         <v>27</v>
@@ -59376,7 +59108,7 @@
         <v>0</v>
       </c>
       <c r="O295" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P295" s="7" t="n">
         <v>27</v>
@@ -59387,10 +59119,8 @@
       <c r="R295" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S295" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S295" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T295" s="7" t="inlineStr">
         <is>
@@ -59563,10 +59293,10 @@
         <v>21</v>
       </c>
       <c r="J296" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K296" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L296" s="6" t="n">
         <v>27</v>
@@ -59578,7 +59308,7 @@
         <v>0</v>
       </c>
       <c r="O296" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>27</v>
@@ -59589,10 +59319,8 @@
       <c r="R296" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S296" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S296" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T296" s="7" t="inlineStr">
         <is>
@@ -59765,10 +59493,10 @@
         <v>21</v>
       </c>
       <c r="J297" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K297" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L297" s="6" t="n">
         <v>27</v>
@@ -59780,7 +59508,7 @@
         <v>0</v>
       </c>
       <c r="O297" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P297" s="7" t="n">
         <v>27</v>
@@ -59791,10 +59519,8 @@
       <c r="R297" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S297" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S297" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T297" s="7" t="inlineStr">
         <is>
@@ -59948,9 +59674,9 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F298" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G298" s="5" t="inlineStr">
@@ -59967,10 +59693,10 @@
         <v>20</v>
       </c>
       <c r="J298" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K298" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L298" s="6" t="n">
         <v>27</v>
@@ -59982,7 +59708,7 @@
         <v>1</v>
       </c>
       <c r="O298" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" s="7" t="n">
         <v>27</v>
@@ -59993,10 +59719,8 @@
       <c r="R298" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S298" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S298" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T298" s="7" t="inlineStr">
         <is>
@@ -60150,9 +59874,9 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F299" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G299" s="5" t="inlineStr">
@@ -60169,10 +59893,10 @@
         <v>20</v>
       </c>
       <c r="J299" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K299" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L299" s="6" t="n">
         <v>27</v>
@@ -60184,7 +59908,7 @@
         <v>1</v>
       </c>
       <c r="O299" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P299" s="7" t="n">
         <v>27</v>
@@ -60195,10 +59919,8 @@
       <c r="R299" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S299" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S299" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T299" s="7" t="inlineStr">
         <is>
@@ -60352,9 +60074,9 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F300" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G300" s="5" t="inlineStr">
@@ -60371,10 +60093,10 @@
         <v>20</v>
       </c>
       <c r="J300" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K300" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L300" s="6" t="n">
         <v>27</v>
@@ -60386,7 +60108,7 @@
         <v>1</v>
       </c>
       <c r="O300" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" s="7" t="n">
         <v>27</v>
@@ -60397,10 +60119,8 @@
       <c r="R300" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S300" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S300" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T300" s="7" t="inlineStr">
         <is>
@@ -60573,10 +60293,10 @@
         <v>19</v>
       </c>
       <c r="J301" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K301" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L301" s="6" t="n">
         <v>27</v>
@@ -60588,7 +60308,7 @@
         <v>2</v>
       </c>
       <c r="O301" s="6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P301" s="7" t="n">
         <v>27</v>
@@ -60599,10 +60319,8 @@
       <c r="R301" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="S301" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S301" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T301" s="7" t="inlineStr">
         <is>
@@ -60756,9 +60474,9 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F302" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G302" s="5" t="inlineStr">
@@ -60775,10 +60493,10 @@
         <v>20</v>
       </c>
       <c r="J302" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K302" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L302" s="6" t="n">
         <v>27</v>
@@ -60790,7 +60508,7 @@
         <v>1</v>
       </c>
       <c r="O302" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P302" s="7" t="n">
         <v>27</v>
@@ -60801,10 +60519,8 @@
       <c r="R302" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S302" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S302" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T302" s="7" t="inlineStr">
         <is>
@@ -60958,9 +60674,9 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F303" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G303" s="5" t="inlineStr">
@@ -60977,10 +60693,10 @@
         <v>20</v>
       </c>
       <c r="J303" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K303" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L303" s="6" t="n">
         <v>27</v>
@@ -60992,7 +60708,7 @@
         <v>1</v>
       </c>
       <c r="O303" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P303" s="7" t="n">
         <v>27</v>
@@ -61003,10 +60719,8 @@
       <c r="R303" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S303" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S303" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T303" s="7" t="inlineStr">
         <is>
@@ -61160,9 +60874,9 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F304" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G304" s="5" t="inlineStr">
@@ -61179,10 +60893,10 @@
         <v>20</v>
       </c>
       <c r="J304" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K304" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L304" s="6" t="n">
         <v>27</v>
@@ -61194,7 +60908,7 @@
         <v>1</v>
       </c>
       <c r="O304" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P304" s="7" t="n">
         <v>27</v>
@@ -61205,10 +60919,8 @@
       <c r="R304" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S304" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S304" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T304" s="7" t="inlineStr">
         <is>
@@ -61362,9 +61074,9 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F305" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G305" s="5" t="inlineStr">
@@ -61381,10 +61093,10 @@
         <v>20</v>
       </c>
       <c r="J305" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K305" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L305" s="6" t="n">
         <v>27</v>
@@ -61396,7 +61108,7 @@
         <v>1</v>
       </c>
       <c r="O305" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" s="7" t="n">
         <v>27</v>
@@ -61407,10 +61119,8 @@
       <c r="R305" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S305" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S305" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T305" s="7" t="inlineStr">
         <is>
@@ -61583,10 +61293,10 @@
         <v>21</v>
       </c>
       <c r="J306" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K306" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L306" s="6" t="n">
         <v>27</v>
@@ -61598,7 +61308,7 @@
         <v>0</v>
       </c>
       <c r="O306" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P306" s="7" t="n">
         <v>27</v>
@@ -61609,10 +61319,8 @@
       <c r="R306" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S306" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S306" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T306" s="7" t="inlineStr">
         <is>
@@ -61785,10 +61493,10 @@
         <v>21</v>
       </c>
       <c r="J307" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K307" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L307" s="6" t="n">
         <v>27</v>
@@ -61800,7 +61508,7 @@
         <v>0</v>
       </c>
       <c r="O307" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P307" s="7" t="n">
         <v>27</v>
@@ -61811,10 +61519,8 @@
       <c r="R307" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S307" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S307" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T307" s="7" t="inlineStr">
         <is>
@@ -61968,9 +61674,9 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F308" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G308" s="5" t="inlineStr">
@@ -61987,10 +61693,10 @@
         <v>20</v>
       </c>
       <c r="J308" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K308" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L308" s="6" t="n">
         <v>27</v>
@@ -62002,7 +61708,7 @@
         <v>1</v>
       </c>
       <c r="O308" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P308" s="7" t="n">
         <v>27</v>
@@ -62013,10 +61719,8 @@
       <c r="R308" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S308" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S308" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T308" s="7" t="inlineStr">
         <is>
@@ -62189,10 +61893,10 @@
         <v>21</v>
       </c>
       <c r="J309" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K309" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L309" s="6" t="n">
         <v>27</v>
@@ -62204,7 +61908,7 @@
         <v>0</v>
       </c>
       <c r="O309" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P309" s="7" t="n">
         <v>27</v>
@@ -62215,10 +61919,8 @@
       <c r="R309" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S309" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S309" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T309" s="7" t="inlineStr">
         <is>
@@ -62372,9 +62074,9 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F310" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G310" s="5" t="inlineStr">
@@ -62391,10 +62093,10 @@
         <v>20</v>
       </c>
       <c r="J310" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K310" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L310" s="6" t="n">
         <v>27</v>
@@ -62406,7 +62108,7 @@
         <v>1</v>
       </c>
       <c r="O310" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P310" s="7" t="n">
         <v>27</v>
@@ -62417,10 +62119,8 @@
       <c r="R310" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S310" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S310" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T310" s="7" t="inlineStr">
         <is>
@@ -62574,9 +62274,9 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F311" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G311" s="5" t="inlineStr">
@@ -62593,10 +62293,10 @@
         <v>20</v>
       </c>
       <c r="J311" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K311" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L311" s="6" t="n">
         <v>27</v>
@@ -62608,7 +62308,7 @@
         <v>1</v>
       </c>
       <c r="O311" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P311" s="7" t="n">
         <v>27</v>
@@ -62619,10 +62319,8 @@
       <c r="R311" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S311" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S311" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T311" s="7" t="inlineStr">
         <is>
@@ -62776,9 +62474,9 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F312" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G312" s="5" t="inlineStr">
@@ -62795,10 +62493,10 @@
         <v>20</v>
       </c>
       <c r="J312" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K312" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L312" s="6" t="n">
         <v>27</v>
@@ -62810,7 +62508,7 @@
         <v>1</v>
       </c>
       <c r="O312" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P312" s="7" t="n">
         <v>27</v>
@@ -62821,10 +62519,8 @@
       <c r="R312" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S312" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S312" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T312" s="7" t="inlineStr">
         <is>
@@ -62978,9 +62674,9 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F313" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G313" s="5" t="inlineStr">
@@ -62997,10 +62693,10 @@
         <v>20</v>
       </c>
       <c r="J313" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K313" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L313" s="6" t="n">
         <v>27</v>
@@ -63012,7 +62708,7 @@
         <v>1</v>
       </c>
       <c r="O313" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P313" s="7" t="n">
         <v>27</v>
@@ -63023,10 +62719,8 @@
       <c r="R313" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S313" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S313" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T313" s="7" t="inlineStr">
         <is>
@@ -63180,9 +62874,9 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G314" s="5" t="inlineStr">
@@ -63199,10 +62893,10 @@
         <v>20</v>
       </c>
       <c r="J314" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K314" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L314" s="6" t="n">
         <v>27</v>
@@ -63214,7 +62908,7 @@
         <v>1</v>
       </c>
       <c r="O314" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P314" s="7" t="n">
         <v>27</v>
@@ -63225,10 +62919,8 @@
       <c r="R314" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S314" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S314" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T314" s="7" t="inlineStr">
         <is>
@@ -63382,9 +63074,9 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F315" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G315" s="5" t="inlineStr">
@@ -63401,10 +63093,10 @@
         <v>20</v>
       </c>
       <c r="J315" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K315" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L315" s="6" t="n">
         <v>27</v>
@@ -63416,7 +63108,7 @@
         <v>1</v>
       </c>
       <c r="O315" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P315" s="7" t="n">
         <v>27</v>
@@ -63427,10 +63119,8 @@
       <c r="R315" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S315" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S315" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T315" s="7" t="inlineStr">
         <is>
@@ -63603,10 +63293,10 @@
         <v>21</v>
       </c>
       <c r="J316" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K316" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L316" s="6" t="n">
         <v>27</v>
@@ -63618,7 +63308,7 @@
         <v>0</v>
       </c>
       <c r="O316" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P316" s="7" t="n">
         <v>27</v>
@@ -63629,10 +63319,8 @@
       <c r="R316" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S316" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S316" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T316" s="7" t="inlineStr">
         <is>
@@ -63786,9 +63474,9 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F317" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G317" s="5" t="inlineStr">
@@ -63805,10 +63493,10 @@
         <v>20</v>
       </c>
       <c r="J317" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K317" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L317" s="6" t="n">
         <v>27</v>
@@ -63820,7 +63508,7 @@
         <v>1</v>
       </c>
       <c r="O317" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P317" s="7" t="n">
         <v>27</v>
@@ -63831,10 +63519,8 @@
       <c r="R317" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S317" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S317" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T317" s="7" t="inlineStr">
         <is>
@@ -63988,9 +63674,9 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F318" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G318" s="5" t="inlineStr">
@@ -64007,10 +63693,10 @@
         <v>20</v>
       </c>
       <c r="J318" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K318" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L318" s="6" t="n">
         <v>27</v>
@@ -64022,7 +63708,7 @@
         <v>1</v>
       </c>
       <c r="O318" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P318" s="7" t="n">
         <v>27</v>
@@ -64033,10 +63719,8 @@
       <c r="R318" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S318" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S318" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T318" s="7" t="inlineStr">
         <is>
@@ -64190,9 +63874,9 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F319" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G319" s="5" t="inlineStr">
@@ -64209,10 +63893,10 @@
         <v>20</v>
       </c>
       <c r="J319" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K319" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L319" s="6" t="n">
         <v>27</v>
@@ -64224,7 +63908,7 @@
         <v>1</v>
       </c>
       <c r="O319" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P319" s="7" t="n">
         <v>27</v>
@@ -64235,10 +63919,8 @@
       <c r="R319" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S319" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S319" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="T319" s="7" t="inlineStr">
         <is>
@@ -64411,10 +64093,10 @@
         <v>21</v>
       </c>
       <c r="J320" s="6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K320" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L320" s="6" t="n">
         <v>27</v>
@@ -64426,7 +64108,7 @@
         <v>0</v>
       </c>
       <c r="O320" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P320" s="7" t="n">
         <v>27</v>
@@ -64437,10 +64119,8 @@
       <c r="R320" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="S320" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="S320" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="T320" s="7" t="inlineStr">
         <is>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Summary'!$A$1:$AR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Attendance'!$A$1:$K$307</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -487,7 +487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR320"/>
+  <dimension ref="A1:AR321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -64248,6 +64248,206 @@
         </is>
       </c>
     </row>
+    <row r="321" ht="20" customHeight="1">
+      <c r="A321" s="3" t="inlineStr">
+        <is>
+          <t>223007</t>
+        </is>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>خالد احمد محمد الكردى</t>
+        </is>
+      </c>
+      <c r="C321" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D321" s="3" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E321" s="3" t="inlineStr">
+        <is>
+          <t>223007@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F321" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
+        </is>
+      </c>
+      <c r="G321" s="5" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="H321" s="5" t="inlineStr">
+        <is>
+          <t>75.0%</t>
+        </is>
+      </c>
+      <c r="I321" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J321" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K321" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L321" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="M321" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="N321" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O321" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P321" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q321" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R321" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S321" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="U321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="W321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Y321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Z321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AA321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AF321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AG321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AH321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AI321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AK321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AL321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AM321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AN321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AO321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AP321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AQ321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AR321" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AR1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -64260,7 +64460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K306"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -81726,8 +81926,65 @@
         </is>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>223007</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>خالد احمد محمد الكردى</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>223007@med.asu.edu.eg</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>GENERAL SURGERY</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>26/11/2025</t>
+        </is>
+      </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>11:23:29</t>
+        </is>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>B1F2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K306"/>
+  <autoFilter ref="A1:K307"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -39,7 +39,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -68,11 +68,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003388D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D3D3D3"/>
       </patternFill>
     </fill>
@@ -92,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,10 +111,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32274,9 +32266,9 @@
           <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F161" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G161" s="5" t="inlineStr">
@@ -32293,10 +32285,10 @@
         <v>19</v>
       </c>
       <c r="J161" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K161" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L161" s="6" t="n">
         <v>27</v>
@@ -32308,7 +32300,7 @@
         <v>2</v>
       </c>
       <c r="O161" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P161" s="7" t="n">
         <v>27</v>
@@ -32322,10 +32314,8 @@
       <c r="S161" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T161" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T161" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U161" s="7" t="inlineStr">
         <is>
@@ -32474,9 +32464,9 @@
           <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G162" s="5" t="inlineStr">
@@ -32493,10 +32483,10 @@
         <v>19</v>
       </c>
       <c r="J162" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K162" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L162" s="6" t="n">
         <v>27</v>
@@ -32508,7 +32498,7 @@
         <v>2</v>
       </c>
       <c r="O162" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P162" s="7" t="n">
         <v>27</v>
@@ -32522,10 +32512,8 @@
       <c r="S162" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T162" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T162" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U162" s="7" t="inlineStr">
         <is>
@@ -32693,10 +32681,10 @@
         <v>20</v>
       </c>
       <c r="J163" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K163" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L163" s="6" t="n">
         <v>27</v>
@@ -32708,7 +32696,7 @@
         <v>1</v>
       </c>
       <c r="O163" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P163" s="7" t="n">
         <v>27</v>
@@ -32722,10 +32710,8 @@
       <c r="S163" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T163" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T163" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U163" s="7" t="inlineStr">
         <is>
@@ -32893,10 +32879,10 @@
         <v>20</v>
       </c>
       <c r="J164" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K164" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L164" s="6" t="n">
         <v>27</v>
@@ -32908,7 +32894,7 @@
         <v>1</v>
       </c>
       <c r="O164" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P164" s="7" t="n">
         <v>27</v>
@@ -32922,10 +32908,8 @@
       <c r="S164" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T164" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T164" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U164" s="7" t="inlineStr">
         <is>
@@ -33093,10 +33077,10 @@
         <v>20</v>
       </c>
       <c r="J165" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K165" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L165" s="6" t="n">
         <v>27</v>
@@ -33108,7 +33092,7 @@
         <v>1</v>
       </c>
       <c r="O165" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P165" s="7" t="n">
         <v>27</v>
@@ -33122,10 +33106,8 @@
       <c r="S165" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T165" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T165" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U165" s="7" t="inlineStr">
         <is>
@@ -33293,10 +33275,10 @@
         <v>20</v>
       </c>
       <c r="J166" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K166" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L166" s="6" t="n">
         <v>27</v>
@@ -33308,7 +33290,7 @@
         <v>1</v>
       </c>
       <c r="O166" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P166" s="7" t="n">
         <v>27</v>
@@ -33322,10 +33304,8 @@
       <c r="S166" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T166" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T166" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U166" s="7" t="inlineStr">
         <is>
@@ -33493,10 +33473,10 @@
         <v>20</v>
       </c>
       <c r="J167" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K167" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L167" s="6" t="n">
         <v>27</v>
@@ -33508,7 +33488,7 @@
         <v>1</v>
       </c>
       <c r="O167" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P167" s="7" t="n">
         <v>27</v>
@@ -33522,10 +33502,8 @@
       <c r="S167" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T167" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T167" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U167" s="7" t="inlineStr">
         <is>
@@ -33674,9 +33652,9 @@
           <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G168" s="5" t="inlineStr">
@@ -33693,10 +33671,10 @@
         <v>19</v>
       </c>
       <c r="J168" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K168" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L168" s="6" t="n">
         <v>27</v>
@@ -33708,7 +33686,7 @@
         <v>2</v>
       </c>
       <c r="O168" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P168" s="7" t="n">
         <v>27</v>
@@ -33722,10 +33700,8 @@
       <c r="S168" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T168" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T168" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U168" s="7" t="inlineStr">
         <is>
@@ -33874,9 +33850,9 @@
           <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G169" s="5" t="inlineStr">
@@ -33893,10 +33869,10 @@
         <v>19</v>
       </c>
       <c r="J169" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K169" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L169" s="6" t="n">
         <v>27</v>
@@ -33908,7 +33884,7 @@
         <v>2</v>
       </c>
       <c r="O169" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P169" s="7" t="n">
         <v>27</v>
@@ -33922,10 +33898,8 @@
       <c r="S169" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T169" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T169" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U169" s="7" t="inlineStr">
         <is>
@@ -34093,10 +34067,10 @@
         <v>20</v>
       </c>
       <c r="J170" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K170" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L170" s="6" t="n">
         <v>27</v>
@@ -34108,7 +34082,7 @@
         <v>1</v>
       </c>
       <c r="O170" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P170" s="7" t="n">
         <v>27</v>
@@ -34122,10 +34096,8 @@
       <c r="S170" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T170" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T170" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U170" s="7" t="inlineStr">
         <is>
@@ -34274,9 +34246,9 @@
           <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F171" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G171" s="5" t="inlineStr">
@@ -34293,10 +34265,10 @@
         <v>19</v>
       </c>
       <c r="J171" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K171" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L171" s="6" t="n">
         <v>27</v>
@@ -34308,7 +34280,7 @@
         <v>2</v>
       </c>
       <c r="O171" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" s="7" t="n">
         <v>27</v>
@@ -34322,10 +34294,8 @@
       <c r="S171" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T171" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T171" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U171" s="7" t="inlineStr">
         <is>
@@ -34493,10 +34463,10 @@
         <v>20</v>
       </c>
       <c r="J172" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K172" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L172" s="6" t="n">
         <v>27</v>
@@ -34508,7 +34478,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P172" s="7" t="n">
         <v>27</v>
@@ -34522,10 +34492,8 @@
       <c r="S172" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T172" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T172" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U172" s="7" t="inlineStr">
         <is>
@@ -34674,9 +34642,9 @@
           <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F173" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G173" s="5" t="inlineStr">
@@ -34693,10 +34661,10 @@
         <v>19</v>
       </c>
       <c r="J173" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K173" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L173" s="6" t="n">
         <v>27</v>
@@ -34708,7 +34676,7 @@
         <v>2</v>
       </c>
       <c r="O173" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P173" s="7" t="n">
         <v>27</v>
@@ -34722,10 +34690,8 @@
       <c r="S173" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T173" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T173" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U173" s="7" t="inlineStr">
         <is>
@@ -34874,9 +34840,9 @@
           <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G174" s="5" t="inlineStr">
@@ -34893,10 +34859,10 @@
         <v>19</v>
       </c>
       <c r="J174" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K174" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L174" s="6" t="n">
         <v>27</v>
@@ -34908,7 +34874,7 @@
         <v>2</v>
       </c>
       <c r="O174" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P174" s="7" t="n">
         <v>27</v>
@@ -34922,10 +34888,8 @@
       <c r="S174" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T174" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T174" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U174" s="7" t="inlineStr">
         <is>
@@ -35074,9 +35038,9 @@
           <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F175" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G175" s="5" t="inlineStr">
@@ -35093,10 +35057,10 @@
         <v>19</v>
       </c>
       <c r="J175" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K175" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L175" s="6" t="n">
         <v>27</v>
@@ -35108,7 +35072,7 @@
         <v>2</v>
       </c>
       <c r="O175" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P175" s="7" t="n">
         <v>27</v>
@@ -35122,10 +35086,8 @@
       <c r="S175" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T175" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T175" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U175" s="7" t="inlineStr">
         <is>
@@ -35274,9 +35236,9 @@
           <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G176" s="5" t="inlineStr">
@@ -35293,10 +35255,10 @@
         <v>19</v>
       </c>
       <c r="J176" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K176" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L176" s="6" t="n">
         <v>27</v>
@@ -35308,7 +35270,7 @@
         <v>2</v>
       </c>
       <c r="O176" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P176" s="7" t="n">
         <v>27</v>
@@ -35322,10 +35284,8 @@
       <c r="S176" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T176" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T176" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U176" s="7" t="inlineStr">
         <is>
@@ -35474,9 +35434,9 @@
           <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G177" s="5" t="inlineStr">
@@ -35493,10 +35453,10 @@
         <v>19</v>
       </c>
       <c r="J177" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K177" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L177" s="6" t="n">
         <v>27</v>
@@ -35508,7 +35468,7 @@
         <v>2</v>
       </c>
       <c r="O177" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P177" s="7" t="n">
         <v>27</v>
@@ -35522,10 +35482,8 @@
       <c r="S177" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T177" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T177" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U177" s="7" t="inlineStr">
         <is>
@@ -35674,9 +35632,9 @@
           <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G178" s="5" t="inlineStr">
@@ -35693,10 +35651,10 @@
         <v>19</v>
       </c>
       <c r="J178" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K178" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L178" s="6" t="n">
         <v>27</v>
@@ -35708,7 +35666,7 @@
         <v>2</v>
       </c>
       <c r="O178" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P178" s="7" t="n">
         <v>27</v>
@@ -35722,10 +35680,8 @@
       <c r="S178" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T178" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T178" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U178" s="7" t="inlineStr">
         <is>
@@ -35874,9 +35830,9 @@
           <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G179" s="5" t="inlineStr">
@@ -35893,10 +35849,10 @@
         <v>19</v>
       </c>
       <c r="J179" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K179" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L179" s="6" t="n">
         <v>27</v>
@@ -35908,7 +35864,7 @@
         <v>2</v>
       </c>
       <c r="O179" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P179" s="7" t="n">
         <v>27</v>
@@ -35922,10 +35878,8 @@
       <c r="S179" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T179" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T179" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U179" s="7" t="inlineStr">
         <is>
@@ -36074,9 +36028,9 @@
           <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F180" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G180" s="5" t="inlineStr">
@@ -36093,10 +36047,10 @@
         <v>21</v>
       </c>
       <c r="J180" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K180" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L180" s="6" t="n">
         <v>27</v>
@@ -36108,7 +36062,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P180" s="7" t="n">
         <v>27</v>
@@ -36122,10 +36076,8 @@
       <c r="S180" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T180" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T180" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U180" s="7" t="inlineStr">
         <is>
@@ -36274,9 +36226,9 @@
           <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G181" s="5" t="inlineStr">
@@ -36293,10 +36245,10 @@
         <v>19</v>
       </c>
       <c r="J181" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K181" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L181" s="6" t="n">
         <v>27</v>
@@ -36308,7 +36260,7 @@
         <v>2</v>
       </c>
       <c r="O181" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P181" s="7" t="n">
         <v>27</v>
@@ -36322,10 +36274,8 @@
       <c r="S181" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T181" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T181" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U181" s="7" t="inlineStr">
         <is>
@@ -36474,9 +36424,9 @@
           <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G182" s="5" t="inlineStr">
@@ -36493,10 +36443,10 @@
         <v>19</v>
       </c>
       <c r="J182" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K182" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L182" s="6" t="n">
         <v>27</v>
@@ -36508,7 +36458,7 @@
         <v>2</v>
       </c>
       <c r="O182" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P182" s="7" t="n">
         <v>27</v>
@@ -36522,10 +36472,8 @@
       <c r="S182" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T182" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T182" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U182" s="7" t="inlineStr">
         <is>
@@ -36674,9 +36622,9 @@
           <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F183" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G183" s="5" t="inlineStr">
@@ -36693,10 +36641,10 @@
         <v>19</v>
       </c>
       <c r="J183" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K183" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L183" s="6" t="n">
         <v>27</v>
@@ -36708,7 +36656,7 @@
         <v>2</v>
       </c>
       <c r="O183" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P183" s="7" t="n">
         <v>27</v>
@@ -36722,10 +36670,8 @@
       <c r="S183" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T183" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T183" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U183" s="7" t="inlineStr">
         <is>
@@ -36874,9 +36820,9 @@
           <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G184" s="5" t="inlineStr">
@@ -36893,10 +36839,10 @@
         <v>19</v>
       </c>
       <c r="J184" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K184" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L184" s="6" t="n">
         <v>27</v>
@@ -36908,7 +36854,7 @@
         <v>2</v>
       </c>
       <c r="O184" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P184" s="7" t="n">
         <v>27</v>
@@ -36922,10 +36868,8 @@
       <c r="S184" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T184" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T184" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U184" s="7" t="inlineStr">
         <is>
@@ -37074,9 +37018,9 @@
           <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F185" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G185" s="5" t="inlineStr">
@@ -37093,10 +37037,10 @@
         <v>19</v>
       </c>
       <c r="J185" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K185" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L185" s="6" t="n">
         <v>27</v>
@@ -37108,7 +37052,7 @@
         <v>2</v>
       </c>
       <c r="O185" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P185" s="7" t="n">
         <v>27</v>
@@ -37122,10 +37066,8 @@
       <c r="S185" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T185" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T185" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U185" s="7" t="inlineStr">
         <is>
@@ -37274,9 +37216,9 @@
           <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F186" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G186" s="5" t="inlineStr">
@@ -37293,10 +37235,10 @@
         <v>21</v>
       </c>
       <c r="J186" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K186" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L186" s="6" t="n">
         <v>27</v>
@@ -37308,7 +37250,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P186" s="7" t="n">
         <v>27</v>
@@ -37322,10 +37264,8 @@
       <c r="S186" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T186" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T186" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U186" s="7" t="inlineStr">
         <is>
@@ -37474,9 +37414,9 @@
           <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G187" s="5" t="inlineStr">
@@ -37493,10 +37433,10 @@
         <v>19</v>
       </c>
       <c r="J187" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K187" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L187" s="6" t="n">
         <v>27</v>
@@ -37508,7 +37448,7 @@
         <v>2</v>
       </c>
       <c r="O187" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P187" s="7" t="n">
         <v>27</v>
@@ -37522,10 +37462,8 @@
       <c r="S187" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T187" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T187" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U187" s="7" t="inlineStr">
         <is>
@@ -37693,10 +37631,10 @@
         <v>20</v>
       </c>
       <c r="J188" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K188" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L188" s="6" t="n">
         <v>27</v>
@@ -37708,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="O188" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P188" s="7" t="n">
         <v>27</v>
@@ -37722,10 +37660,8 @@
       <c r="S188" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T188" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T188" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U188" s="7" t="inlineStr">
         <is>
@@ -37874,9 +37810,9 @@
           <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F189" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G189" s="5" t="inlineStr">
@@ -37893,10 +37829,10 @@
         <v>19</v>
       </c>
       <c r="J189" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K189" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L189" s="6" t="n">
         <v>27</v>
@@ -37908,7 +37844,7 @@
         <v>2</v>
       </c>
       <c r="O189" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P189" s="7" t="n">
         <v>27</v>
@@ -37922,10 +37858,8 @@
       <c r="S189" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T189" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T189" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U189" s="7" t="inlineStr">
         <is>
@@ -38074,9 +38008,9 @@
           <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G190" s="5" t="inlineStr">
@@ -38093,10 +38027,10 @@
         <v>19</v>
       </c>
       <c r="J190" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K190" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L190" s="6" t="n">
         <v>27</v>
@@ -38108,7 +38042,7 @@
         <v>2</v>
       </c>
       <c r="O190" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P190" s="7" t="n">
         <v>27</v>
@@ -38122,10 +38056,8 @@
       <c r="S190" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T190" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T190" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U190" s="7" t="inlineStr">
         <is>
@@ -38274,9 +38206,9 @@
           <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F191" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G191" s="5" t="inlineStr">
@@ -38293,10 +38225,10 @@
         <v>19</v>
       </c>
       <c r="J191" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K191" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L191" s="6" t="n">
         <v>27</v>
@@ -38308,7 +38240,7 @@
         <v>2</v>
       </c>
       <c r="O191" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P191" s="7" t="n">
         <v>27</v>
@@ -38322,10 +38254,8 @@
       <c r="S191" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T191" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T191" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U191" s="7" t="inlineStr">
         <is>
@@ -38474,9 +38404,9 @@
           <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G192" s="5" t="inlineStr">
@@ -38493,10 +38423,10 @@
         <v>19</v>
       </c>
       <c r="J192" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K192" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L192" s="6" t="n">
         <v>27</v>
@@ -38508,7 +38438,7 @@
         <v>2</v>
       </c>
       <c r="O192" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P192" s="7" t="n">
         <v>27</v>
@@ -38522,10 +38452,8 @@
       <c r="S192" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T192" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T192" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U192" s="7" t="inlineStr">
         <is>
@@ -38674,9 +38602,9 @@
           <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F193" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G193" s="5" t="inlineStr">
@@ -38693,10 +38621,10 @@
         <v>19</v>
       </c>
       <c r="J193" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K193" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L193" s="6" t="n">
         <v>27</v>
@@ -38708,7 +38636,7 @@
         <v>2</v>
       </c>
       <c r="O193" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P193" s="7" t="n">
         <v>27</v>
@@ -38722,10 +38650,8 @@
       <c r="S193" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T193" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T193" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U193" s="7" t="inlineStr">
         <is>
@@ -38874,9 +38800,9 @@
           <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G194" s="5" t="inlineStr">
@@ -38893,10 +38819,10 @@
         <v>19</v>
       </c>
       <c r="J194" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K194" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L194" s="6" t="n">
         <v>27</v>
@@ -38908,7 +38834,7 @@
         <v>2</v>
       </c>
       <c r="O194" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P194" s="7" t="n">
         <v>27</v>
@@ -38922,10 +38848,8 @@
       <c r="S194" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T194" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T194" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U194" s="7" t="inlineStr">
         <is>
@@ -39074,9 +38998,9 @@
           <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F195" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G195" s="5" t="inlineStr">
@@ -39093,10 +39017,10 @@
         <v>19</v>
       </c>
       <c r="J195" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K195" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L195" s="6" t="n">
         <v>27</v>
@@ -39108,7 +39032,7 @@
         <v>2</v>
       </c>
       <c r="O195" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P195" s="7" t="n">
         <v>27</v>
@@ -39122,10 +39046,8 @@
       <c r="S195" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T195" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T195" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U195" s="7" t="inlineStr">
         <is>
@@ -39274,9 +39196,9 @@
           <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G196" s="5" t="inlineStr">
@@ -39293,10 +39215,10 @@
         <v>19</v>
       </c>
       <c r="J196" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K196" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L196" s="6" t="n">
         <v>27</v>
@@ -39308,7 +39230,7 @@
         <v>2</v>
       </c>
       <c r="O196" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P196" s="7" t="n">
         <v>27</v>
@@ -39322,10 +39244,8 @@
       <c r="S196" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T196" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T196" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U196" s="7" t="inlineStr">
         <is>
@@ -39493,10 +39413,10 @@
         <v>20</v>
       </c>
       <c r="J197" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K197" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L197" s="6" t="n">
         <v>27</v>
@@ -39508,7 +39428,7 @@
         <v>1</v>
       </c>
       <c r="O197" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P197" s="7" t="n">
         <v>27</v>
@@ -39522,10 +39442,8 @@
       <c r="S197" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T197" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T197" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U197" s="7" t="inlineStr">
         <is>
@@ -39674,9 +39592,9 @@
           <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G198" s="5" t="inlineStr">
@@ -39693,10 +39611,10 @@
         <v>19</v>
       </c>
       <c r="J198" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K198" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L198" s="6" t="n">
         <v>27</v>
@@ -39708,7 +39626,7 @@
         <v>2</v>
       </c>
       <c r="O198" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P198" s="7" t="n">
         <v>27</v>
@@ -39722,10 +39640,8 @@
       <c r="S198" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T198" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T198" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U198" s="7" t="inlineStr">
         <is>
@@ -39874,9 +39790,9 @@
           <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G199" s="5" t="inlineStr">
@@ -39893,10 +39809,10 @@
         <v>19</v>
       </c>
       <c r="J199" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K199" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L199" s="6" t="n">
         <v>27</v>
@@ -39908,7 +39824,7 @@
         <v>2</v>
       </c>
       <c r="O199" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P199" s="7" t="n">
         <v>27</v>
@@ -39922,10 +39838,8 @@
       <c r="S199" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T199" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T199" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U199" s="7" t="inlineStr">
         <is>
@@ -40074,9 +39988,9 @@
           <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G200" s="5" t="inlineStr">
@@ -40093,10 +40007,10 @@
         <v>19</v>
       </c>
       <c r="J200" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K200" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L200" s="6" t="n">
         <v>27</v>
@@ -40108,7 +40022,7 @@
         <v>2</v>
       </c>
       <c r="O200" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P200" s="7" t="n">
         <v>27</v>
@@ -40122,10 +40036,8 @@
       <c r="S200" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T200" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T200" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U200" s="7" t="inlineStr">
         <is>
@@ -40274,9 +40186,9 @@
           <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G201" s="5" t="inlineStr">
@@ -40293,10 +40205,10 @@
         <v>19</v>
       </c>
       <c r="J201" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K201" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L201" s="6" t="n">
         <v>27</v>
@@ -40308,7 +40220,7 @@
         <v>2</v>
       </c>
       <c r="O201" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P201" s="7" t="n">
         <v>27</v>
@@ -40322,10 +40234,8 @@
       <c r="S201" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T201" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T201" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U201" s="7" t="inlineStr">
         <is>
@@ -40474,9 +40384,9 @@
           <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F202" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G202" s="5" t="inlineStr">
@@ -40493,10 +40403,10 @@
         <v>19</v>
       </c>
       <c r="J202" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K202" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L202" s="6" t="n">
         <v>27</v>
@@ -40508,7 +40418,7 @@
         <v>2</v>
       </c>
       <c r="O202" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P202" s="7" t="n">
         <v>27</v>
@@ -40522,10 +40432,8 @@
       <c r="S202" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T202" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T202" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U202" s="7" t="inlineStr">
         <is>
@@ -40674,9 +40582,9 @@
           <t>221817@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G203" s="5" t="inlineStr">
@@ -40693,10 +40601,10 @@
         <v>21</v>
       </c>
       <c r="J203" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K203" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L203" s="6" t="n">
         <v>27</v>
@@ -40708,7 +40616,7 @@
         <v>0</v>
       </c>
       <c r="O203" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P203" s="7" t="n">
         <v>27</v>
@@ -40722,10 +40630,8 @@
       <c r="S203" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T203" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T203" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U203" s="7" t="inlineStr">
         <is>
@@ -40874,9 +40780,9 @@
           <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G204" s="5" t="inlineStr">
@@ -40893,10 +40799,10 @@
         <v>19</v>
       </c>
       <c r="J204" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K204" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L204" s="6" t="n">
         <v>27</v>
@@ -40908,7 +40814,7 @@
         <v>2</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P204" s="7" t="n">
         <v>27</v>
@@ -40922,10 +40828,8 @@
       <c r="S204" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T204" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T204" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U204" s="7" t="inlineStr">
         <is>
@@ -41093,10 +40997,10 @@
         <v>20</v>
       </c>
       <c r="J205" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K205" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L205" s="6" t="n">
         <v>27</v>
@@ -41108,7 +41012,7 @@
         <v>1</v>
       </c>
       <c r="O205" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P205" s="7" t="n">
         <v>27</v>
@@ -41122,10 +41026,8 @@
       <c r="S205" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T205" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T205" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U205" s="7" t="inlineStr">
         <is>
@@ -41274,9 +41176,9 @@
           <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G206" s="5" t="inlineStr">
@@ -41293,10 +41195,10 @@
         <v>19</v>
       </c>
       <c r="J206" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K206" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L206" s="6" t="n">
         <v>27</v>
@@ -41308,7 +41210,7 @@
         <v>2</v>
       </c>
       <c r="O206" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P206" s="7" t="n">
         <v>27</v>
@@ -41322,10 +41224,8 @@
       <c r="S206" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T206" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T206" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U206" s="7" t="inlineStr">
         <is>
@@ -41474,9 +41374,9 @@
           <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G207" s="5" t="inlineStr">
@@ -41493,10 +41393,10 @@
         <v>19</v>
       </c>
       <c r="J207" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K207" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L207" s="6" t="n">
         <v>27</v>
@@ -41508,7 +41408,7 @@
         <v>2</v>
       </c>
       <c r="O207" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P207" s="7" t="n">
         <v>27</v>
@@ -41522,10 +41422,8 @@
       <c r="S207" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T207" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T207" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U207" s="7" t="inlineStr">
         <is>
@@ -41693,10 +41591,10 @@
         <v>20</v>
       </c>
       <c r="J208" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K208" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L208" s="6" t="n">
         <v>27</v>
@@ -41708,7 +41606,7 @@
         <v>1</v>
       </c>
       <c r="O208" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P208" s="7" t="n">
         <v>27</v>
@@ -41722,10 +41620,8 @@
       <c r="S208" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T208" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T208" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U208" s="7" t="inlineStr">
         <is>
@@ -41893,10 +41789,10 @@
         <v>20</v>
       </c>
       <c r="J209" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K209" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L209" s="6" t="n">
         <v>27</v>
@@ -41908,7 +41804,7 @@
         <v>1</v>
       </c>
       <c r="O209" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P209" s="7" t="n">
         <v>27</v>
@@ -41922,10 +41818,8 @@
       <c r="S209" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T209" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T209" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U209" s="7" t="inlineStr">
         <is>
@@ -42093,10 +41987,10 @@
         <v>20</v>
       </c>
       <c r="J210" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K210" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L210" s="6" t="n">
         <v>27</v>
@@ -42108,7 +42002,7 @@
         <v>1</v>
       </c>
       <c r="O210" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P210" s="7" t="n">
         <v>27</v>
@@ -42122,10 +42016,8 @@
       <c r="S210" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T210" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T210" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U210" s="7" t="inlineStr">
         <is>
@@ -42293,10 +42185,10 @@
         <v>20</v>
       </c>
       <c r="J211" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K211" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L211" s="6" t="n">
         <v>27</v>
@@ -42308,7 +42200,7 @@
         <v>1</v>
       </c>
       <c r="O211" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P211" s="7" t="n">
         <v>27</v>
@@ -42322,10 +42214,8 @@
       <c r="S211" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T211" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T211" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U211" s="7" t="inlineStr">
         <is>
@@ -42493,10 +42383,10 @@
         <v>20</v>
       </c>
       <c r="J212" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K212" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L212" s="6" t="n">
         <v>27</v>
@@ -42508,7 +42398,7 @@
         <v>1</v>
       </c>
       <c r="O212" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P212" s="7" t="n">
         <v>27</v>
@@ -42522,10 +42412,8 @@
       <c r="S212" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T212" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T212" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U212" s="7" t="inlineStr">
         <is>
@@ -42674,9 +42562,9 @@
           <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F213" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G213" s="5" t="inlineStr">
@@ -42693,10 +42581,10 @@
         <v>19</v>
       </c>
       <c r="J213" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K213" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L213" s="6" t="n">
         <v>27</v>
@@ -42708,7 +42596,7 @@
         <v>2</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P213" s="7" t="n">
         <v>27</v>
@@ -42722,10 +42610,8 @@
       <c r="S213" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T213" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T213" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U213" s="7" t="inlineStr">
         <is>
@@ -42874,9 +42760,9 @@
           <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F214" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G214" s="5" t="inlineStr">
@@ -42893,10 +42779,10 @@
         <v>21</v>
       </c>
       <c r="J214" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K214" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L214" s="6" t="n">
         <v>27</v>
@@ -42908,7 +42794,7 @@
         <v>0</v>
       </c>
       <c r="O214" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P214" s="7" t="n">
         <v>27</v>
@@ -42922,10 +42808,8 @@
       <c r="S214" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T214" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T214" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U214" s="7" t="inlineStr">
         <is>
@@ -43074,9 +42958,9 @@
           <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F215" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G215" s="5" t="inlineStr">
@@ -43093,10 +42977,10 @@
         <v>19</v>
       </c>
       <c r="J215" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K215" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L215" s="6" t="n">
         <v>27</v>
@@ -43108,7 +42992,7 @@
         <v>2</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P215" s="7" t="n">
         <v>27</v>
@@ -43122,10 +43006,8 @@
       <c r="S215" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T215" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T215" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U215" s="7" t="inlineStr">
         <is>
@@ -43274,9 +43156,9 @@
           <t>221877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F216" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G216" s="5" t="inlineStr">
@@ -43293,10 +43175,10 @@
         <v>21</v>
       </c>
       <c r="J216" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K216" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L216" s="6" t="n">
         <v>27</v>
@@ -43308,7 +43190,7 @@
         <v>0</v>
       </c>
       <c r="O216" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P216" s="7" t="n">
         <v>27</v>
@@ -43322,10 +43204,8 @@
       <c r="S216" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T216" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T216" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U216" s="7" t="inlineStr">
         <is>
@@ -43474,9 +43354,9 @@
           <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F217" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G217" s="5" t="inlineStr">
@@ -43493,10 +43373,10 @@
         <v>19</v>
       </c>
       <c r="J217" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K217" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L217" s="6" t="n">
         <v>27</v>
@@ -43508,7 +43388,7 @@
         <v>2</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P217" s="7" t="n">
         <v>27</v>
@@ -43522,10 +43402,8 @@
       <c r="S217" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T217" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T217" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U217" s="7" t="inlineStr">
         <is>
@@ -43674,9 +43552,9 @@
           <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G218" s="5" t="inlineStr">
@@ -43693,10 +43571,10 @@
         <v>19</v>
       </c>
       <c r="J218" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K218" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L218" s="6" t="n">
         <v>27</v>
@@ -43708,7 +43586,7 @@
         <v>2</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P218" s="7" t="n">
         <v>27</v>
@@ -43722,10 +43600,8 @@
       <c r="S218" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T218" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T218" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U218" s="7" t="inlineStr">
         <is>
@@ -43874,9 +43750,9 @@
           <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F219" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G219" s="5" t="inlineStr">
@@ -43893,10 +43769,10 @@
         <v>19</v>
       </c>
       <c r="J219" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K219" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L219" s="6" t="n">
         <v>27</v>
@@ -43908,7 +43784,7 @@
         <v>2</v>
       </c>
       <c r="O219" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P219" s="7" t="n">
         <v>27</v>
@@ -43922,10 +43798,8 @@
       <c r="S219" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T219" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T219" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U219" s="7" t="inlineStr">
         <is>
@@ -44074,9 +43948,9 @@
           <t>221891@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F220" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G220" s="5" t="inlineStr">
@@ -44093,10 +43967,10 @@
         <v>21</v>
       </c>
       <c r="J220" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K220" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L220" s="6" t="n">
         <v>27</v>
@@ -44108,7 +43982,7 @@
         <v>0</v>
       </c>
       <c r="O220" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P220" s="7" t="n">
         <v>27</v>
@@ -44122,10 +43996,8 @@
       <c r="S220" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T220" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T220" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U220" s="7" t="inlineStr">
         <is>
@@ -44293,10 +44165,10 @@
         <v>20</v>
       </c>
       <c r="J221" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K221" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L221" s="6" t="n">
         <v>27</v>
@@ -44308,7 +44180,7 @@
         <v>1</v>
       </c>
       <c r="O221" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P221" s="7" t="n">
         <v>27</v>
@@ -44322,10 +44194,8 @@
       <c r="S221" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T221" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T221" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U221" s="7" t="inlineStr">
         <is>
@@ -44474,9 +44344,9 @@
           <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F222" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F222" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G222" s="5" t="inlineStr">
@@ -44493,10 +44363,10 @@
         <v>19</v>
       </c>
       <c r="J222" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K222" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L222" s="6" t="n">
         <v>27</v>
@@ -44508,7 +44378,7 @@
         <v>2</v>
       </c>
       <c r="O222" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P222" s="7" t="n">
         <v>27</v>
@@ -44522,10 +44392,8 @@
       <c r="S222" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T222" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T222" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U222" s="7" t="inlineStr">
         <is>
@@ -44674,9 +44542,9 @@
           <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G223" s="5" t="inlineStr">
@@ -44693,10 +44561,10 @@
         <v>19</v>
       </c>
       <c r="J223" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K223" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L223" s="6" t="n">
         <v>27</v>
@@ -44708,7 +44576,7 @@
         <v>2</v>
       </c>
       <c r="O223" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P223" s="7" t="n">
         <v>27</v>
@@ -44722,10 +44590,8 @@
       <c r="S223" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T223" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T223" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U223" s="7" t="inlineStr">
         <is>
@@ -44893,10 +44759,10 @@
         <v>20</v>
       </c>
       <c r="J224" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K224" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L224" s="6" t="n">
         <v>27</v>
@@ -44908,7 +44774,7 @@
         <v>1</v>
       </c>
       <c r="O224" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P224" s="7" t="n">
         <v>27</v>
@@ -44922,10 +44788,8 @@
       <c r="S224" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T224" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T224" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U224" s="7" t="inlineStr">
         <is>
@@ -45074,9 +44938,9 @@
           <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G225" s="5" t="inlineStr">
@@ -45093,10 +44957,10 @@
         <v>19</v>
       </c>
       <c r="J225" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K225" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L225" s="6" t="n">
         <v>27</v>
@@ -45108,7 +44972,7 @@
         <v>2</v>
       </c>
       <c r="O225" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P225" s="7" t="n">
         <v>27</v>
@@ -45122,10 +44986,8 @@
       <c r="S225" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T225" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T225" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U225" s="7" t="inlineStr">
         <is>
@@ -45274,9 +45136,9 @@
           <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G226" s="5" t="inlineStr">
@@ -45293,10 +45155,10 @@
         <v>19</v>
       </c>
       <c r="J226" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K226" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L226" s="6" t="n">
         <v>27</v>
@@ -45308,7 +45170,7 @@
         <v>2</v>
       </c>
       <c r="O226" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P226" s="7" t="n">
         <v>27</v>
@@ -45322,10 +45184,8 @@
       <c r="S226" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T226" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T226" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U226" s="7" t="inlineStr">
         <is>
@@ -45474,9 +45334,9 @@
           <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F227" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G227" s="5" t="inlineStr">
@@ -45493,10 +45353,10 @@
         <v>19</v>
       </c>
       <c r="J227" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K227" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L227" s="6" t="n">
         <v>27</v>
@@ -45508,7 +45368,7 @@
         <v>2</v>
       </c>
       <c r="O227" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P227" s="7" t="n">
         <v>27</v>
@@ -45522,10 +45382,8 @@
       <c r="S227" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T227" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T227" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U227" s="7" t="inlineStr">
         <is>
@@ -45674,9 +45532,9 @@
           <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G228" s="5" t="inlineStr">
@@ -45693,10 +45551,10 @@
         <v>19</v>
       </c>
       <c r="J228" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K228" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L228" s="6" t="n">
         <v>27</v>
@@ -45708,7 +45566,7 @@
         <v>2</v>
       </c>
       <c r="O228" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P228" s="7" t="n">
         <v>27</v>
@@ -45722,10 +45580,8 @@
       <c r="S228" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T228" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T228" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U228" s="7" t="inlineStr">
         <is>
@@ -45874,9 +45730,9 @@
           <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F229" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G229" s="5" t="inlineStr">
@@ -45893,10 +45749,10 @@
         <v>19</v>
       </c>
       <c r="J229" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K229" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L229" s="6" t="n">
         <v>27</v>
@@ -45908,7 +45764,7 @@
         <v>2</v>
       </c>
       <c r="O229" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P229" s="7" t="n">
         <v>27</v>
@@ -45922,10 +45778,8 @@
       <c r="S229" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T229" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T229" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U229" s="7" t="inlineStr">
         <is>
@@ -46074,9 +45928,9 @@
           <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F230" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G230" s="5" t="inlineStr">
@@ -46093,10 +45947,10 @@
         <v>19</v>
       </c>
       <c r="J230" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K230" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L230" s="6" t="n">
         <v>27</v>
@@ -46108,7 +45962,7 @@
         <v>2</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P230" s="7" t="n">
         <v>27</v>
@@ -46122,10 +45976,8 @@
       <c r="S230" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T230" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T230" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U230" s="7" t="inlineStr">
         <is>
@@ -46293,10 +46145,10 @@
         <v>20</v>
       </c>
       <c r="J231" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K231" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L231" s="6" t="n">
         <v>27</v>
@@ -46308,7 +46160,7 @@
         <v>1</v>
       </c>
       <c r="O231" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P231" s="7" t="n">
         <v>27</v>
@@ -46322,10 +46174,8 @@
       <c r="S231" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T231" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T231" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U231" s="7" t="inlineStr">
         <is>
@@ -46493,10 +46343,10 @@
         <v>20</v>
       </c>
       <c r="J232" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K232" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L232" s="6" t="n">
         <v>27</v>
@@ -46508,7 +46358,7 @@
         <v>1</v>
       </c>
       <c r="O232" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P232" s="7" t="n">
         <v>27</v>
@@ -46522,10 +46372,8 @@
       <c r="S232" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T232" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T232" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U232" s="7" t="inlineStr">
         <is>
@@ -46674,9 +46522,9 @@
           <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F233" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G233" s="5" t="inlineStr">
@@ -46693,10 +46541,10 @@
         <v>19</v>
       </c>
       <c r="J233" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K233" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L233" s="6" t="n">
         <v>27</v>
@@ -46708,7 +46556,7 @@
         <v>2</v>
       </c>
       <c r="O233" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P233" s="7" t="n">
         <v>27</v>
@@ -46722,10 +46570,8 @@
       <c r="S233" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T233" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T233" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U233" s="7" t="inlineStr">
         <is>
@@ -46874,9 +46720,9 @@
           <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F234" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G234" s="5" t="inlineStr">
@@ -46893,10 +46739,10 @@
         <v>19</v>
       </c>
       <c r="J234" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K234" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L234" s="6" t="n">
         <v>27</v>
@@ -46908,7 +46754,7 @@
         <v>2</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P234" s="7" t="n">
         <v>27</v>
@@ -46922,10 +46768,8 @@
       <c r="S234" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T234" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T234" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U234" s="7" t="inlineStr">
         <is>
@@ -47074,9 +46918,9 @@
           <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F235" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G235" s="5" t="inlineStr">
@@ -47093,10 +46937,10 @@
         <v>19</v>
       </c>
       <c r="J235" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K235" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L235" s="6" t="n">
         <v>27</v>
@@ -47108,7 +46952,7 @@
         <v>2</v>
       </c>
       <c r="O235" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P235" s="7" t="n">
         <v>27</v>
@@ -47122,10 +46966,8 @@
       <c r="S235" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T235" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T235" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U235" s="7" t="inlineStr">
         <is>
@@ -47274,9 +47116,9 @@
           <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G236" s="5" t="inlineStr">
@@ -47293,10 +47135,10 @@
         <v>19</v>
       </c>
       <c r="J236" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K236" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L236" s="6" t="n">
         <v>27</v>
@@ -47308,7 +47150,7 @@
         <v>2</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P236" s="7" t="n">
         <v>27</v>
@@ -47322,10 +47164,8 @@
       <c r="S236" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T236" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T236" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U236" s="7" t="inlineStr">
         <is>
@@ -47493,10 +47333,10 @@
         <v>20</v>
       </c>
       <c r="J237" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K237" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L237" s="6" t="n">
         <v>27</v>
@@ -47508,7 +47348,7 @@
         <v>1</v>
       </c>
       <c r="O237" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P237" s="7" t="n">
         <v>27</v>
@@ -47522,10 +47362,8 @@
       <c r="S237" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T237" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T237" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U237" s="7" t="inlineStr">
         <is>
@@ -47674,9 +47512,9 @@
           <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G238" s="5" t="inlineStr">
@@ -47693,10 +47531,10 @@
         <v>19</v>
       </c>
       <c r="J238" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K238" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L238" s="6" t="n">
         <v>27</v>
@@ -47708,7 +47546,7 @@
         <v>2</v>
       </c>
       <c r="O238" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P238" s="7" t="n">
         <v>27</v>
@@ -47722,10 +47560,8 @@
       <c r="S238" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T238" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T238" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U238" s="7" t="inlineStr">
         <is>
@@ -47874,9 +47710,9 @@
           <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F239" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F239" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G239" s="5" t="inlineStr">
@@ -47893,10 +47729,10 @@
         <v>19</v>
       </c>
       <c r="J239" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K239" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L239" s="6" t="n">
         <v>27</v>
@@ -47908,7 +47744,7 @@
         <v>2</v>
       </c>
       <c r="O239" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P239" s="7" t="n">
         <v>27</v>
@@ -47922,10 +47758,8 @@
       <c r="S239" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T239" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T239" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U239" s="7" t="inlineStr">
         <is>
@@ -48074,9 +47908,9 @@
           <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G240" s="5" t="inlineStr">
@@ -48093,10 +47927,10 @@
         <v>19</v>
       </c>
       <c r="J240" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K240" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L240" s="6" t="n">
         <v>27</v>
@@ -48108,7 +47942,7 @@
         <v>2</v>
       </c>
       <c r="O240" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P240" s="7" t="n">
         <v>27</v>
@@ -48122,10 +47956,8 @@
       <c r="S240" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T240" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T240" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U240" s="7" t="inlineStr">
         <is>
@@ -48274,9 +48106,9 @@
           <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F241" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G241" s="5" t="inlineStr">
@@ -48293,10 +48125,10 @@
         <v>19</v>
       </c>
       <c r="J241" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K241" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L241" s="6" t="n">
         <v>27</v>
@@ -48308,7 +48140,7 @@
         <v>2</v>
       </c>
       <c r="O241" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P241" s="7" t="n">
         <v>27</v>
@@ -48322,10 +48154,8 @@
       <c r="S241" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T241" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T241" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U241" s="7" t="inlineStr">
         <is>
@@ -48474,9 +48304,9 @@
           <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F242" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G242" s="5" t="inlineStr">
@@ -48493,10 +48323,10 @@
         <v>21</v>
       </c>
       <c r="J242" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K242" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L242" s="6" t="n">
         <v>27</v>
@@ -48508,7 +48338,7 @@
         <v>0</v>
       </c>
       <c r="O242" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P242" s="7" t="n">
         <v>27</v>
@@ -48522,10 +48352,8 @@
       <c r="S242" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T242" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T242" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U242" s="7" t="inlineStr">
         <is>
@@ -48674,9 +48502,9 @@
           <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G243" s="5" t="inlineStr">
@@ -48693,10 +48521,10 @@
         <v>21</v>
       </c>
       <c r="J243" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K243" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L243" s="6" t="n">
         <v>27</v>
@@ -48708,7 +48536,7 @@
         <v>0</v>
       </c>
       <c r="O243" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P243" s="7" t="n">
         <v>27</v>
@@ -48722,10 +48550,8 @@
       <c r="S243" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T243" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T243" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U243" s="7" t="inlineStr">
         <is>
@@ -48874,9 +48700,9 @@
           <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F244" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F244" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G244" s="5" t="inlineStr">
@@ -48893,10 +48719,10 @@
         <v>19</v>
       </c>
       <c r="J244" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K244" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L244" s="6" t="n">
         <v>27</v>
@@ -48908,7 +48734,7 @@
         <v>2</v>
       </c>
       <c r="O244" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P244" s="7" t="n">
         <v>27</v>
@@ -48922,10 +48748,8 @@
       <c r="S244" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T244" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T244" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U244" s="7" t="inlineStr">
         <is>
@@ -49074,9 +48898,9 @@
           <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F245" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G245" s="5" t="inlineStr">
@@ -49093,10 +48917,10 @@
         <v>19</v>
       </c>
       <c r="J245" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K245" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L245" s="6" t="n">
         <v>27</v>
@@ -49108,7 +48932,7 @@
         <v>2</v>
       </c>
       <c r="O245" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P245" s="7" t="n">
         <v>27</v>
@@ -49122,10 +48946,8 @@
       <c r="S245" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T245" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T245" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U245" s="7" t="inlineStr">
         <is>
@@ -49274,9 +49096,9 @@
           <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F246" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G246" s="5" t="inlineStr">
@@ -49293,10 +49115,10 @@
         <v>21</v>
       </c>
       <c r="J246" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K246" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L246" s="6" t="n">
         <v>27</v>
@@ -49308,7 +49130,7 @@
         <v>0</v>
       </c>
       <c r="O246" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P246" s="7" t="n">
         <v>27</v>
@@ -49322,10 +49144,8 @@
       <c r="S246" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T246" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T246" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U246" s="7" t="inlineStr">
         <is>
@@ -49474,9 +49294,9 @@
           <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G247" s="5" t="inlineStr">
@@ -49493,10 +49313,10 @@
         <v>21</v>
       </c>
       <c r="J247" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K247" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L247" s="6" t="n">
         <v>27</v>
@@ -49508,7 +49328,7 @@
         <v>0</v>
       </c>
       <c r="O247" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P247" s="7" t="n">
         <v>27</v>
@@ -49522,10 +49342,8 @@
       <c r="S247" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T247" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T247" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U247" s="7" t="inlineStr">
         <is>
@@ -49693,10 +49511,10 @@
         <v>20</v>
       </c>
       <c r="J248" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K248" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L248" s="6" t="n">
         <v>27</v>
@@ -49708,7 +49526,7 @@
         <v>1</v>
       </c>
       <c r="O248" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P248" s="7" t="n">
         <v>27</v>
@@ -49722,10 +49540,8 @@
       <c r="S248" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T248" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T248" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U248" s="7" t="inlineStr">
         <is>
@@ -49893,10 +49709,10 @@
         <v>20</v>
       </c>
       <c r="J249" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K249" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L249" s="6" t="n">
         <v>27</v>
@@ -49908,7 +49724,7 @@
         <v>1</v>
       </c>
       <c r="O249" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P249" s="7" t="n">
         <v>27</v>
@@ -49922,10 +49738,8 @@
       <c r="S249" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T249" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T249" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U249" s="7" t="inlineStr">
         <is>
@@ -50093,10 +49907,10 @@
         <v>20</v>
       </c>
       <c r="J250" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K250" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L250" s="6" t="n">
         <v>27</v>
@@ -50108,7 +49922,7 @@
         <v>1</v>
       </c>
       <c r="O250" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P250" s="7" t="n">
         <v>27</v>
@@ -50122,10 +49936,8 @@
       <c r="S250" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T250" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T250" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U250" s="7" t="inlineStr">
         <is>
@@ -50274,9 +50086,9 @@
           <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G251" s="5" t="inlineStr">
@@ -50293,10 +50105,10 @@
         <v>21</v>
       </c>
       <c r="J251" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K251" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L251" s="6" t="n">
         <v>27</v>
@@ -50308,7 +50120,7 @@
         <v>0</v>
       </c>
       <c r="O251" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P251" s="7" t="n">
         <v>27</v>
@@ -50322,10 +50134,8 @@
       <c r="S251" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T251" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T251" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U251" s="7" t="inlineStr">
         <is>
@@ -50474,9 +50284,9 @@
           <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G252" s="5" t="inlineStr">
@@ -50493,10 +50303,10 @@
         <v>19</v>
       </c>
       <c r="J252" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K252" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L252" s="6" t="n">
         <v>27</v>
@@ -50508,7 +50318,7 @@
         <v>2</v>
       </c>
       <c r="O252" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P252" s="7" t="n">
         <v>27</v>
@@ -50522,10 +50332,8 @@
       <c r="S252" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T252" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T252" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U252" s="7" t="inlineStr">
         <is>
@@ -50674,9 +50482,9 @@
           <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F253" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F253" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G253" s="5" t="inlineStr">
@@ -50693,10 +50501,10 @@
         <v>19</v>
       </c>
       <c r="J253" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K253" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L253" s="6" t="n">
         <v>27</v>
@@ -50708,7 +50516,7 @@
         <v>2</v>
       </c>
       <c r="O253" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P253" s="7" t="n">
         <v>27</v>
@@ -50722,10 +50530,8 @@
       <c r="S253" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T253" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T253" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U253" s="7" t="inlineStr">
         <is>
@@ -50874,9 +50680,9 @@
           <t>222080@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F254" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G254" s="5" t="inlineStr">
@@ -50893,10 +50699,10 @@
         <v>19</v>
       </c>
       <c r="J254" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K254" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L254" s="6" t="n">
         <v>27</v>
@@ -50908,7 +50714,7 @@
         <v>2</v>
       </c>
       <c r="O254" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P254" s="7" t="n">
         <v>27</v>
@@ -50922,10 +50728,8 @@
       <c r="S254" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T254" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T254" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U254" s="7" t="inlineStr">
         <is>
@@ -51074,9 +50878,9 @@
           <t>222081@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F255" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F255" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G255" s="5" t="inlineStr">
@@ -51093,10 +50897,10 @@
         <v>19</v>
       </c>
       <c r="J255" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K255" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L255" s="6" t="n">
         <v>27</v>
@@ -51108,7 +50912,7 @@
         <v>2</v>
       </c>
       <c r="O255" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P255" s="7" t="n">
         <v>27</v>
@@ -51122,10 +50926,8 @@
       <c r="S255" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T255" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T255" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U255" s="7" t="inlineStr">
         <is>
@@ -51274,9 +51076,9 @@
           <t>222083@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F256" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F256" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G256" s="5" t="inlineStr">
@@ -51293,10 +51095,10 @@
         <v>19</v>
       </c>
       <c r="J256" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K256" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L256" s="6" t="n">
         <v>27</v>
@@ -51308,7 +51110,7 @@
         <v>2</v>
       </c>
       <c r="O256" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P256" s="7" t="n">
         <v>27</v>
@@ -51322,10 +51124,8 @@
       <c r="S256" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T256" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T256" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U256" s="7" t="inlineStr">
         <is>
@@ -51474,9 +51274,9 @@
           <t>222085@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F257" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F257" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G257" s="5" t="inlineStr">
@@ -51493,10 +51293,10 @@
         <v>19</v>
       </c>
       <c r="J257" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K257" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L257" s="6" t="n">
         <v>27</v>
@@ -51508,7 +51308,7 @@
         <v>2</v>
       </c>
       <c r="O257" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P257" s="7" t="n">
         <v>27</v>
@@ -51522,10 +51322,8 @@
       <c r="S257" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T257" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T257" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U257" s="7" t="inlineStr">
         <is>
@@ -51674,9 +51472,9 @@
           <t>222089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F258" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F258" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G258" s="5" t="inlineStr">
@@ -51693,10 +51491,10 @@
         <v>21</v>
       </c>
       <c r="J258" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K258" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L258" s="6" t="n">
         <v>27</v>
@@ -51708,7 +51506,7 @@
         <v>0</v>
       </c>
       <c r="O258" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P258" s="7" t="n">
         <v>27</v>
@@ -51722,10 +51520,8 @@
       <c r="S258" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T258" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T258" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U258" s="7" t="inlineStr">
         <is>
@@ -51874,9 +51670,9 @@
           <t>222091@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F259" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F259" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G259" s="5" t="inlineStr">
@@ -51893,10 +51689,10 @@
         <v>19</v>
       </c>
       <c r="J259" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K259" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L259" s="6" t="n">
         <v>27</v>
@@ -51908,7 +51704,7 @@
         <v>2</v>
       </c>
       <c r="O259" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P259" s="7" t="n">
         <v>27</v>
@@ -51922,10 +51718,8 @@
       <c r="S259" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T259" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T259" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U259" s="7" t="inlineStr">
         <is>
@@ -52074,9 +51868,9 @@
           <t>222094@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F260" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F260" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G260" s="5" t="inlineStr">
@@ -52093,10 +51887,10 @@
         <v>21</v>
       </c>
       <c r="J260" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K260" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L260" s="6" t="n">
         <v>27</v>
@@ -52108,7 +51902,7 @@
         <v>0</v>
       </c>
       <c r="O260" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P260" s="7" t="n">
         <v>27</v>
@@ -52122,10 +51916,8 @@
       <c r="S260" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T260" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T260" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U260" s="7" t="inlineStr">
         <is>
@@ -52274,9 +52066,9 @@
           <t>222096@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F261" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F261" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G261" s="5" t="inlineStr">
@@ -52293,10 +52085,10 @@
         <v>19</v>
       </c>
       <c r="J261" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K261" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L261" s="6" t="n">
         <v>27</v>
@@ -52308,7 +52100,7 @@
         <v>2</v>
       </c>
       <c r="O261" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P261" s="7" t="n">
         <v>27</v>
@@ -52322,10 +52114,8 @@
       <c r="S261" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T261" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T261" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U261" s="7" t="inlineStr">
         <is>
@@ -52493,10 +52283,10 @@
         <v>20</v>
       </c>
       <c r="J262" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K262" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L262" s="6" t="n">
         <v>27</v>
@@ -52508,7 +52298,7 @@
         <v>1</v>
       </c>
       <c r="O262" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P262" s="7" t="n">
         <v>27</v>
@@ -52522,10 +52312,8 @@
       <c r="S262" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T262" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T262" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U262" s="7" t="inlineStr">
         <is>
@@ -52674,9 +52462,9 @@
           <t>222102@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F263" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G263" s="5" t="inlineStr">
@@ -52693,10 +52481,10 @@
         <v>21</v>
       </c>
       <c r="J263" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K263" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L263" s="6" t="n">
         <v>27</v>
@@ -52708,7 +52496,7 @@
         <v>0</v>
       </c>
       <c r="O263" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P263" s="7" t="n">
         <v>27</v>
@@ -52722,10 +52510,8 @@
       <c r="S263" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T263" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T263" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U263" s="7" t="inlineStr">
         <is>
@@ -52893,10 +52679,10 @@
         <v>20</v>
       </c>
       <c r="J264" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K264" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L264" s="6" t="n">
         <v>27</v>
@@ -52908,7 +52694,7 @@
         <v>1</v>
       </c>
       <c r="O264" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P264" s="7" t="n">
         <v>27</v>
@@ -52922,10 +52708,8 @@
       <c r="S264" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T264" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T264" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U264" s="7" t="inlineStr">
         <is>
@@ -53093,10 +52877,10 @@
         <v>20</v>
       </c>
       <c r="J265" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K265" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L265" s="6" t="n">
         <v>27</v>
@@ -53108,7 +52892,7 @@
         <v>1</v>
       </c>
       <c r="O265" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P265" s="7" t="n">
         <v>27</v>
@@ -53122,10 +52906,8 @@
       <c r="S265" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T265" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T265" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U265" s="7" t="inlineStr">
         <is>
@@ -53293,10 +53075,10 @@
         <v>20</v>
       </c>
       <c r="J266" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K266" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L266" s="6" t="n">
         <v>27</v>
@@ -53308,7 +53090,7 @@
         <v>1</v>
       </c>
       <c r="O266" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P266" s="7" t="n">
         <v>27</v>
@@ -53322,10 +53104,8 @@
       <c r="S266" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T266" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T266" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U266" s="7" t="inlineStr">
         <is>
@@ -53474,9 +53254,9 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F267" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G267" s="5" t="inlineStr">
@@ -53493,10 +53273,10 @@
         <v>19</v>
       </c>
       <c r="J267" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K267" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L267" s="6" t="n">
         <v>27</v>
@@ -53508,7 +53288,7 @@
         <v>2</v>
       </c>
       <c r="O267" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" s="7" t="n">
         <v>27</v>
@@ -53522,10 +53302,8 @@
       <c r="S267" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T267" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T267" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U267" s="7" t="inlineStr">
         <is>
@@ -53674,9 +53452,9 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F268" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G268" s="5" t="inlineStr">
@@ -53693,10 +53471,10 @@
         <v>19</v>
       </c>
       <c r="J268" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K268" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L268" s="6" t="n">
         <v>27</v>
@@ -53708,7 +53486,7 @@
         <v>2</v>
       </c>
       <c r="O268" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P268" s="7" t="n">
         <v>27</v>
@@ -53722,10 +53500,8 @@
       <c r="S268" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T268" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T268" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U268" s="7" t="inlineStr">
         <is>
@@ -53874,9 +53650,9 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F269" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G269" s="5" t="inlineStr">
@@ -53893,10 +53669,10 @@
         <v>19</v>
       </c>
       <c r="J269" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K269" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L269" s="6" t="n">
         <v>27</v>
@@ -53908,7 +53684,7 @@
         <v>2</v>
       </c>
       <c r="O269" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P269" s="7" t="n">
         <v>27</v>
@@ -53922,10 +53698,8 @@
       <c r="S269" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T269" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T269" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U269" s="7" t="inlineStr">
         <is>
@@ -54074,9 +53848,9 @@
           <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F270" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F270" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G270" s="5" t="inlineStr">
@@ -54093,10 +53867,10 @@
         <v>19</v>
       </c>
       <c r="J270" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K270" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L270" s="6" t="n">
         <v>27</v>
@@ -54108,7 +53882,7 @@
         <v>2</v>
       </c>
       <c r="O270" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P270" s="7" t="n">
         <v>27</v>
@@ -54122,10 +53896,8 @@
       <c r="S270" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T270" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T270" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U270" s="7" t="inlineStr">
         <is>
@@ -54274,9 +54046,9 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F271" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G271" s="5" t="inlineStr">
@@ -54293,10 +54065,10 @@
         <v>19</v>
       </c>
       <c r="J271" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K271" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L271" s="6" t="n">
         <v>27</v>
@@ -54308,7 +54080,7 @@
         <v>2</v>
       </c>
       <c r="O271" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P271" s="7" t="n">
         <v>27</v>
@@ -54322,10 +54094,8 @@
       <c r="S271" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T271" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T271" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U271" s="7" t="inlineStr">
         <is>
@@ -54493,10 +54263,10 @@
         <v>20</v>
       </c>
       <c r="J272" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K272" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L272" s="6" t="n">
         <v>27</v>
@@ -54508,7 +54278,7 @@
         <v>1</v>
       </c>
       <c r="O272" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P272" s="7" t="n">
         <v>27</v>
@@ -54522,10 +54292,8 @@
       <c r="S272" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T272" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T272" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U272" s="7" t="inlineStr">
         <is>
@@ -54693,10 +54461,10 @@
         <v>20</v>
       </c>
       <c r="J273" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K273" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L273" s="6" t="n">
         <v>27</v>
@@ -54708,7 +54476,7 @@
         <v>1</v>
       </c>
       <c r="O273" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P273" s="7" t="n">
         <v>27</v>
@@ -54722,10 +54490,8 @@
       <c r="S273" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T273" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T273" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U273" s="7" t="inlineStr">
         <is>
@@ -54874,9 +54640,9 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F274" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G274" s="5" t="inlineStr">
@@ -54893,10 +54659,10 @@
         <v>19</v>
       </c>
       <c r="J274" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K274" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L274" s="6" t="n">
         <v>27</v>
@@ -54908,7 +54674,7 @@
         <v>2</v>
       </c>
       <c r="O274" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P274" s="7" t="n">
         <v>27</v>
@@ -54922,10 +54688,8 @@
       <c r="S274" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T274" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T274" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U274" s="7" t="inlineStr">
         <is>
@@ -55093,10 +54857,10 @@
         <v>20</v>
       </c>
       <c r="J275" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K275" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L275" s="6" t="n">
         <v>27</v>
@@ -55108,7 +54872,7 @@
         <v>1</v>
       </c>
       <c r="O275" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P275" s="7" t="n">
         <v>27</v>
@@ -55122,10 +54886,8 @@
       <c r="S275" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T275" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T275" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U275" s="7" t="inlineStr">
         <is>
@@ -55274,9 +55036,9 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F276" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G276" s="5" t="inlineStr">
@@ -55293,10 +55055,10 @@
         <v>19</v>
       </c>
       <c r="J276" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K276" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L276" s="6" t="n">
         <v>27</v>
@@ -55308,7 +55070,7 @@
         <v>2</v>
       </c>
       <c r="O276" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P276" s="7" t="n">
         <v>27</v>
@@ -55322,10 +55084,8 @@
       <c r="S276" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T276" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T276" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U276" s="7" t="inlineStr">
         <is>
@@ -55474,9 +55234,9 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F277" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G277" s="5" t="inlineStr">
@@ -55493,10 +55253,10 @@
         <v>19</v>
       </c>
       <c r="J277" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K277" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L277" s="6" t="n">
         <v>27</v>
@@ -55508,7 +55268,7 @@
         <v>2</v>
       </c>
       <c r="O277" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" s="7" t="n">
         <v>27</v>
@@ -55522,10 +55282,8 @@
       <c r="S277" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T277" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T277" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U277" s="7" t="inlineStr">
         <is>
@@ -55674,9 +55432,9 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F278" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G278" s="5" t="inlineStr">
@@ -55693,10 +55451,10 @@
         <v>19</v>
       </c>
       <c r="J278" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K278" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L278" s="6" t="n">
         <v>27</v>
@@ -55708,7 +55466,7 @@
         <v>2</v>
       </c>
       <c r="O278" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P278" s="7" t="n">
         <v>27</v>
@@ -55722,10 +55480,8 @@
       <c r="S278" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T278" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T278" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U278" s="7" t="inlineStr">
         <is>
@@ -55874,9 +55630,9 @@
           <t>210832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F279" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F279" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G279" s="5" t="inlineStr">
@@ -55893,10 +55649,10 @@
         <v>21</v>
       </c>
       <c r="J279" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K279" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L279" s="6" t="n">
         <v>27</v>
@@ -55908,7 +55664,7 @@
         <v>0</v>
       </c>
       <c r="O279" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P279" s="7" t="n">
         <v>27</v>
@@ -55922,10 +55678,8 @@
       <c r="S279" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T279" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T279" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U279" s="7" t="inlineStr">
         <is>
@@ -56074,9 +55828,9 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F280" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G280" s="5" t="inlineStr">
@@ -56093,10 +55847,10 @@
         <v>19</v>
       </c>
       <c r="J280" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K280" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L280" s="6" t="n">
         <v>27</v>
@@ -56108,7 +55862,7 @@
         <v>2</v>
       </c>
       <c r="O280" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P280" s="7" t="n">
         <v>27</v>
@@ -56122,10 +55876,8 @@
       <c r="S280" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T280" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T280" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U280" s="7" t="inlineStr">
         <is>
@@ -56274,9 +56026,9 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F281" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G281" s="5" t="inlineStr">
@@ -56293,10 +56045,10 @@
         <v>19</v>
       </c>
       <c r="J281" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K281" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L281" s="6" t="n">
         <v>27</v>
@@ -56308,7 +56060,7 @@
         <v>2</v>
       </c>
       <c r="O281" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P281" s="7" t="n">
         <v>27</v>
@@ -56322,10 +56074,8 @@
       <c r="S281" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T281" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T281" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U281" s="7" t="inlineStr">
         <is>
@@ -56493,10 +56243,10 @@
         <v>20</v>
       </c>
       <c r="J282" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K282" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L282" s="6" t="n">
         <v>27</v>
@@ -56508,7 +56258,7 @@
         <v>1</v>
       </c>
       <c r="O282" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P282" s="7" t="n">
         <v>27</v>
@@ -56522,10 +56272,8 @@
       <c r="S282" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T282" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T282" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U282" s="7" t="inlineStr">
         <is>
@@ -56674,9 +56422,9 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F283" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G283" s="5" t="inlineStr">
@@ -56693,10 +56441,10 @@
         <v>19</v>
       </c>
       <c r="J283" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K283" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L283" s="6" t="n">
         <v>27</v>
@@ -56708,7 +56456,7 @@
         <v>2</v>
       </c>
       <c r="O283" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P283" s="7" t="n">
         <v>27</v>
@@ -56722,10 +56470,8 @@
       <c r="S283" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T283" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T283" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U283" s="7" t="inlineStr">
         <is>
@@ -56874,9 +56620,9 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G284" s="5" t="inlineStr">
@@ -56893,10 +56639,10 @@
         <v>19</v>
       </c>
       <c r="J284" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K284" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L284" s="6" t="n">
         <v>27</v>
@@ -56908,7 +56654,7 @@
         <v>2</v>
       </c>
       <c r="O284" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P284" s="7" t="n">
         <v>27</v>
@@ -56922,10 +56668,8 @@
       <c r="S284" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T284" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T284" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U284" s="7" t="inlineStr">
         <is>
@@ -57074,9 +56818,9 @@
           <t>210887@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F285" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F285" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G285" s="5" t="inlineStr">
@@ -57093,10 +56837,10 @@
         <v>21</v>
       </c>
       <c r="J285" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K285" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L285" s="6" t="n">
         <v>27</v>
@@ -57108,7 +56852,7 @@
         <v>0</v>
       </c>
       <c r="O285" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P285" s="7" t="n">
         <v>27</v>
@@ -57122,10 +56866,8 @@
       <c r="S285" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T285" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T285" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U285" s="7" t="inlineStr">
         <is>
@@ -57274,9 +57016,9 @@
           <t>210892@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F286" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F286" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G286" s="5" t="inlineStr">
@@ -57293,10 +57035,10 @@
         <v>21</v>
       </c>
       <c r="J286" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K286" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L286" s="6" t="n">
         <v>27</v>
@@ -57308,7 +57050,7 @@
         <v>0</v>
       </c>
       <c r="O286" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P286" s="7" t="n">
         <v>27</v>
@@ -57322,10 +57064,8 @@
       <c r="S286" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T286" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T286" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U286" s="7" t="inlineStr">
         <is>
@@ -57493,10 +57233,10 @@
         <v>20</v>
       </c>
       <c r="J287" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K287" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L287" s="6" t="n">
         <v>27</v>
@@ -57508,7 +57248,7 @@
         <v>1</v>
       </c>
       <c r="O287" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P287" s="7" t="n">
         <v>27</v>
@@ -57522,10 +57262,8 @@
       <c r="S287" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T287" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T287" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U287" s="7" t="inlineStr">
         <is>
@@ -57693,10 +57431,10 @@
         <v>20</v>
       </c>
       <c r="J288" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K288" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L288" s="6" t="n">
         <v>27</v>
@@ -57708,7 +57446,7 @@
         <v>1</v>
       </c>
       <c r="O288" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P288" s="7" t="n">
         <v>27</v>
@@ -57722,10 +57460,8 @@
       <c r="S288" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T288" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T288" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U288" s="7" t="inlineStr">
         <is>
@@ -57893,10 +57629,10 @@
         <v>20</v>
       </c>
       <c r="J289" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K289" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L289" s="6" t="n">
         <v>27</v>
@@ -57908,7 +57644,7 @@
         <v>1</v>
       </c>
       <c r="O289" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P289" s="7" t="n">
         <v>27</v>
@@ -57922,10 +57658,8 @@
       <c r="S289" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T289" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T289" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U289" s="7" t="inlineStr">
         <is>
@@ -58074,9 +57808,9 @@
           <t>210921@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F290" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F290" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G290" s="5" t="inlineStr">
@@ -58093,10 +57827,10 @@
         <v>21</v>
       </c>
       <c r="J290" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K290" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L290" s="6" t="n">
         <v>27</v>
@@ -58108,7 +57842,7 @@
         <v>0</v>
       </c>
       <c r="O290" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P290" s="7" t="n">
         <v>27</v>
@@ -58122,10 +57856,8 @@
       <c r="S290" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T290" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T290" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U290" s="7" t="inlineStr">
         <is>
@@ -58293,10 +58025,10 @@
         <v>20</v>
       </c>
       <c r="J291" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K291" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L291" s="6" t="n">
         <v>27</v>
@@ -58308,7 +58040,7 @@
         <v>1</v>
       </c>
       <c r="O291" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P291" s="7" t="n">
         <v>27</v>
@@ -58322,10 +58054,8 @@
       <c r="S291" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T291" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T291" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U291" s="7" t="inlineStr">
         <is>
@@ -58493,10 +58223,10 @@
         <v>20</v>
       </c>
       <c r="J292" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K292" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L292" s="6" t="n">
         <v>27</v>
@@ -58508,7 +58238,7 @@
         <v>1</v>
       </c>
       <c r="O292" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P292" s="7" t="n">
         <v>27</v>
@@ -58522,10 +58252,8 @@
       <c r="S292" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T292" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T292" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U292" s="7" t="inlineStr">
         <is>
@@ -58693,10 +58421,10 @@
         <v>20</v>
       </c>
       <c r="J293" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K293" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L293" s="6" t="n">
         <v>27</v>
@@ -58708,7 +58436,7 @@
         <v>1</v>
       </c>
       <c r="O293" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P293" s="7" t="n">
         <v>27</v>
@@ -58722,10 +58450,8 @@
       <c r="S293" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T293" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T293" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U293" s="7" t="inlineStr">
         <is>
@@ -58893,10 +58619,10 @@
         <v>20</v>
       </c>
       <c r="J294" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K294" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L294" s="6" t="n">
         <v>27</v>
@@ -58908,7 +58634,7 @@
         <v>1</v>
       </c>
       <c r="O294" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P294" s="7" t="n">
         <v>27</v>
@@ -58922,10 +58648,8 @@
       <c r="S294" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T294" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T294" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U294" s="7" t="inlineStr">
         <is>
@@ -59074,9 +58798,9 @@
           <t>210939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F295" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F295" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G295" s="5" t="inlineStr">
@@ -59093,10 +58817,10 @@
         <v>21</v>
       </c>
       <c r="J295" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K295" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L295" s="6" t="n">
         <v>27</v>
@@ -59108,7 +58832,7 @@
         <v>0</v>
       </c>
       <c r="O295" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P295" s="7" t="n">
         <v>27</v>
@@ -59122,10 +58846,8 @@
       <c r="S295" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T295" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T295" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U295" s="7" t="inlineStr">
         <is>
@@ -59293,10 +59015,10 @@
         <v>20</v>
       </c>
       <c r="J296" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K296" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L296" s="6" t="n">
         <v>27</v>
@@ -59308,7 +59030,7 @@
         <v>1</v>
       </c>
       <c r="O296" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P296" s="7" t="n">
         <v>27</v>
@@ -59322,10 +59044,8 @@
       <c r="S296" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T296" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T296" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U296" s="7" t="inlineStr">
         <is>
@@ -59493,10 +59213,10 @@
         <v>20</v>
       </c>
       <c r="J297" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K297" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L297" s="6" t="n">
         <v>27</v>
@@ -59508,7 +59228,7 @@
         <v>1</v>
       </c>
       <c r="O297" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P297" s="7" t="n">
         <v>27</v>
@@ -59522,10 +59242,8 @@
       <c r="S297" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T297" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T297" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U297" s="7" t="inlineStr">
         <is>
@@ -59674,9 +59392,9 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F298" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G298" s="5" t="inlineStr">
@@ -59693,10 +59411,10 @@
         <v>19</v>
       </c>
       <c r="J298" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K298" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L298" s="6" t="n">
         <v>27</v>
@@ -59708,7 +59426,7 @@
         <v>2</v>
       </c>
       <c r="O298" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P298" s="7" t="n">
         <v>27</v>
@@ -59722,10 +59440,8 @@
       <c r="S298" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T298" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T298" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U298" s="7" t="inlineStr">
         <is>
@@ -59893,10 +59609,10 @@
         <v>20</v>
       </c>
       <c r="J299" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K299" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L299" s="6" t="n">
         <v>27</v>
@@ -59908,7 +59624,7 @@
         <v>1</v>
       </c>
       <c r="O299" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P299" s="7" t="n">
         <v>27</v>
@@ -59922,10 +59638,8 @@
       <c r="S299" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T299" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T299" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U299" s="7" t="inlineStr">
         <is>
@@ -60074,9 +59788,9 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F300" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G300" s="5" t="inlineStr">
@@ -60093,10 +59807,10 @@
         <v>19</v>
       </c>
       <c r="J300" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K300" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L300" s="6" t="n">
         <v>27</v>
@@ -60108,7 +59822,7 @@
         <v>2</v>
       </c>
       <c r="O300" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" s="7" t="n">
         <v>27</v>
@@ -60122,10 +59836,8 @@
       <c r="S300" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T300" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T300" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U300" s="7" t="inlineStr">
         <is>
@@ -60274,9 +59986,9 @@
           <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F301" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F301" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G301" s="5" t="inlineStr">
@@ -60293,10 +60005,10 @@
         <v>19</v>
       </c>
       <c r="J301" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K301" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L301" s="6" t="n">
         <v>27</v>
@@ -60308,7 +60020,7 @@
         <v>2</v>
       </c>
       <c r="O301" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P301" s="7" t="n">
         <v>27</v>
@@ -60322,10 +60034,8 @@
       <c r="S301" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T301" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T301" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U301" s="7" t="inlineStr">
         <is>
@@ -60493,10 +60203,10 @@
         <v>20</v>
       </c>
       <c r="J302" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K302" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L302" s="6" t="n">
         <v>27</v>
@@ -60508,7 +60218,7 @@
         <v>1</v>
       </c>
       <c r="O302" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P302" s="7" t="n">
         <v>27</v>
@@ -60522,10 +60232,8 @@
       <c r="S302" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T302" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T302" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U302" s="7" t="inlineStr">
         <is>
@@ -60693,10 +60401,10 @@
         <v>20</v>
       </c>
       <c r="J303" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K303" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L303" s="6" t="n">
         <v>27</v>
@@ -60708,7 +60416,7 @@
         <v>1</v>
       </c>
       <c r="O303" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P303" s="7" t="n">
         <v>27</v>
@@ -60722,10 +60430,8 @@
       <c r="S303" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T303" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T303" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U303" s="7" t="inlineStr">
         <is>
@@ -60874,9 +60580,9 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F304" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G304" s="5" t="inlineStr">
@@ -60893,10 +60599,10 @@
         <v>19</v>
       </c>
       <c r="J304" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K304" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L304" s="6" t="n">
         <v>27</v>
@@ -60908,7 +60614,7 @@
         <v>2</v>
       </c>
       <c r="O304" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P304" s="7" t="n">
         <v>27</v>
@@ -60922,10 +60628,8 @@
       <c r="S304" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T304" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T304" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U304" s="7" t="inlineStr">
         <is>
@@ -61074,9 +60778,9 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F305" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G305" s="5" t="inlineStr">
@@ -61093,10 +60797,10 @@
         <v>19</v>
       </c>
       <c r="J305" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K305" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L305" s="6" t="n">
         <v>27</v>
@@ -61108,7 +60812,7 @@
         <v>2</v>
       </c>
       <c r="O305" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" s="7" t="n">
         <v>27</v>
@@ -61122,10 +60826,8 @@
       <c r="S305" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T305" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T305" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U305" s="7" t="inlineStr">
         <is>
@@ -61274,9 +60976,9 @@
           <t>211025@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F306" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F306" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G306" s="5" t="inlineStr">
@@ -61293,10 +60995,10 @@
         <v>21</v>
       </c>
       <c r="J306" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K306" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L306" s="6" t="n">
         <v>27</v>
@@ -61308,7 +61010,7 @@
         <v>0</v>
       </c>
       <c r="O306" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P306" s="7" t="n">
         <v>27</v>
@@ -61322,10 +61024,8 @@
       <c r="S306" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T306" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T306" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U306" s="7" t="inlineStr">
         <is>
@@ -61474,9 +61174,9 @@
           <t>211029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F307" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F307" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G307" s="5" t="inlineStr">
@@ -61493,10 +61193,10 @@
         <v>21</v>
       </c>
       <c r="J307" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K307" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L307" s="6" t="n">
         <v>27</v>
@@ -61508,7 +61208,7 @@
         <v>0</v>
       </c>
       <c r="O307" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P307" s="7" t="n">
         <v>27</v>
@@ -61522,10 +61222,8 @@
       <c r="S307" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T307" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T307" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U307" s="7" t="inlineStr">
         <is>
@@ -61674,9 +61372,9 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F308" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G308" s="5" t="inlineStr">
@@ -61693,10 +61391,10 @@
         <v>19</v>
       </c>
       <c r="J308" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K308" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L308" s="6" t="n">
         <v>27</v>
@@ -61708,7 +61406,7 @@
         <v>2</v>
       </c>
       <c r="O308" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P308" s="7" t="n">
         <v>27</v>
@@ -61722,10 +61420,8 @@
       <c r="S308" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T308" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T308" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U308" s="7" t="inlineStr">
         <is>
@@ -61874,9 +61570,9 @@
           <t>211048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F309" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F309" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G309" s="5" t="inlineStr">
@@ -61893,10 +61589,10 @@
         <v>21</v>
       </c>
       <c r="J309" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K309" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L309" s="6" t="n">
         <v>27</v>
@@ -61908,7 +61604,7 @@
         <v>0</v>
       </c>
       <c r="O309" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P309" s="7" t="n">
         <v>27</v>
@@ -61922,10 +61618,8 @@
       <c r="S309" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T309" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T309" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U309" s="7" t="inlineStr">
         <is>
@@ -62074,9 +61768,9 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F310" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G310" s="5" t="inlineStr">
@@ -62093,10 +61787,10 @@
         <v>19</v>
       </c>
       <c r="J310" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K310" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L310" s="6" t="n">
         <v>27</v>
@@ -62108,7 +61802,7 @@
         <v>2</v>
       </c>
       <c r="O310" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P310" s="7" t="n">
         <v>27</v>
@@ -62122,10 +61816,8 @@
       <c r="S310" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T310" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T310" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U310" s="7" t="inlineStr">
         <is>
@@ -62293,10 +61985,10 @@
         <v>20</v>
       </c>
       <c r="J311" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K311" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L311" s="6" t="n">
         <v>27</v>
@@ -62308,7 +62000,7 @@
         <v>1</v>
       </c>
       <c r="O311" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P311" s="7" t="n">
         <v>27</v>
@@ -62322,10 +62014,8 @@
       <c r="S311" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T311" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T311" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U311" s="7" t="inlineStr">
         <is>
@@ -62493,10 +62183,10 @@
         <v>20</v>
       </c>
       <c r="J312" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K312" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L312" s="6" t="n">
         <v>27</v>
@@ -62508,7 +62198,7 @@
         <v>1</v>
       </c>
       <c r="O312" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P312" s="7" t="n">
         <v>27</v>
@@ -62522,10 +62212,8 @@
       <c r="S312" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T312" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T312" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U312" s="7" t="inlineStr">
         <is>
@@ -62674,9 +62362,9 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F313" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G313" s="5" t="inlineStr">
@@ -62693,10 +62381,10 @@
         <v>19</v>
       </c>
       <c r="J313" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K313" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L313" s="6" t="n">
         <v>27</v>
@@ -62708,7 +62396,7 @@
         <v>2</v>
       </c>
       <c r="O313" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P313" s="7" t="n">
         <v>27</v>
@@ -62722,10 +62410,8 @@
       <c r="S313" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T313" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T313" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U313" s="7" t="inlineStr">
         <is>
@@ -62874,9 +62560,9 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F314" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G314" s="5" t="inlineStr">
@@ -62893,10 +62579,10 @@
         <v>19</v>
       </c>
       <c r="J314" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K314" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L314" s="6" t="n">
         <v>27</v>
@@ -62908,7 +62594,7 @@
         <v>2</v>
       </c>
       <c r="O314" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P314" s="7" t="n">
         <v>27</v>
@@ -62922,10 +62608,8 @@
       <c r="S314" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T314" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T314" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U314" s="7" t="inlineStr">
         <is>
@@ -63093,10 +62777,10 @@
         <v>20</v>
       </c>
       <c r="J315" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K315" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L315" s="6" t="n">
         <v>27</v>
@@ -63108,7 +62792,7 @@
         <v>1</v>
       </c>
       <c r="O315" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P315" s="7" t="n">
         <v>27</v>
@@ -63122,10 +62806,8 @@
       <c r="S315" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T315" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T315" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U315" s="7" t="inlineStr">
         <is>
@@ -63293,10 +62975,10 @@
         <v>20</v>
       </c>
       <c r="J316" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K316" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L316" s="6" t="n">
         <v>27</v>
@@ -63308,7 +62990,7 @@
         <v>1</v>
       </c>
       <c r="O316" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P316" s="7" t="n">
         <v>27</v>
@@ -63322,10 +63004,8 @@
       <c r="S316" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T316" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T316" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U316" s="7" t="inlineStr">
         <is>
@@ -63493,10 +63173,10 @@
         <v>20</v>
       </c>
       <c r="J317" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K317" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L317" s="6" t="n">
         <v>27</v>
@@ -63508,7 +63188,7 @@
         <v>1</v>
       </c>
       <c r="O317" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P317" s="7" t="n">
         <v>27</v>
@@ -63522,10 +63202,8 @@
       <c r="S317" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T317" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T317" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U317" s="7" t="inlineStr">
         <is>
@@ -63674,9 +63352,9 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F318" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G318" s="5" t="inlineStr">
@@ -63693,10 +63371,10 @@
         <v>19</v>
       </c>
       <c r="J318" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K318" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L318" s="6" t="n">
         <v>27</v>
@@ -63708,7 +63386,7 @@
         <v>2</v>
       </c>
       <c r="O318" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P318" s="7" t="n">
         <v>27</v>
@@ -63722,10 +63400,8 @@
       <c r="S318" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T318" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T318" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U318" s="7" t="inlineStr">
         <is>
@@ -63874,9 +63550,9 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F319" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G319" s="5" t="inlineStr">
@@ -63893,10 +63569,10 @@
         <v>19</v>
       </c>
       <c r="J319" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K319" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L319" s="6" t="n">
         <v>27</v>
@@ -63908,7 +63584,7 @@
         <v>2</v>
       </c>
       <c r="O319" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P319" s="7" t="n">
         <v>27</v>
@@ -63922,10 +63598,8 @@
       <c r="S319" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T319" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T319" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U319" s="7" t="inlineStr">
         <is>
@@ -64074,9 +63748,9 @@
           <t>223002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F320" s="4" t="inlineStr">
-        <is>
-          <t>Low Risk</t>
+      <c r="F320" s="8" t="inlineStr">
+        <is>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G320" s="5" t="inlineStr">
@@ -64093,10 +63767,10 @@
         <v>21</v>
       </c>
       <c r="J320" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K320" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L320" s="6" t="n">
         <v>27</v>
@@ -64108,7 +63782,7 @@
         <v>0</v>
       </c>
       <c r="O320" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P320" s="7" t="n">
         <v>27</v>
@@ -64122,10 +63796,8 @@
       <c r="S320" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="T320" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T320" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="U320" s="7" t="inlineStr">
         <is>
@@ -64274,9 +63946,9 @@
           <t>223007@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F321" s="9" t="inlineStr">
-        <is>
-          <t>No Risk</t>
+      <c r="F321" s="4" t="inlineStr">
+        <is>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G321" s="5" t="inlineStr">
@@ -64293,10 +63965,10 @@
         <v>19</v>
       </c>
       <c r="J321" s="6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K321" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L321" s="6" t="n">
         <v>27</v>
@@ -64308,7 +63980,7 @@
         <v>2</v>
       </c>
       <c r="O321" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P321" s="7" t="n">
         <v>27</v>
@@ -64322,10 +63994,8 @@
       <c r="S321" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="T321" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="T321" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="U321" s="7" t="inlineStr">
         <is>
@@ -64485,57 +64155,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>

--- a/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
+++ b/attendance_reports/Y4_B2526_General_&_Special_Surgery_1_B1_attendance.xlsx
@@ -39,7 +39,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -53,17 +53,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003388D5"/>
+        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DFBFC7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF1A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -92,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -116,10 +111,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,7 +786,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
@@ -811,10 +803,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="6" t="n">
         <v>27</v>
@@ -826,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="7" t="n">
         <v>27</v>
@@ -843,10 +835,8 @@
       <c r="T2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U2" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U2" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V2" s="7" t="inlineStr">
         <is>
@@ -990,7 +980,7 @@
           <t>221172@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1009,10 +999,10 @@
         <v>19</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="6" t="n">
         <v>27</v>
@@ -1024,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="7" t="n">
         <v>27</v>
@@ -1041,10 +1031,8 @@
       <c r="T3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U3" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U3" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V3" s="7" t="inlineStr">
         <is>
@@ -1188,7 +1176,7 @@
           <t>221173@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1207,10 +1195,10 @@
         <v>19</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4" s="6" t="n">
         <v>27</v>
@@ -1222,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="7" t="n">
         <v>27</v>
@@ -1239,10 +1227,8 @@
       <c r="T4" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U4" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U4" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V4" s="7" t="inlineStr">
         <is>
@@ -1388,7 +1374,7 @@
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
@@ -1405,10 +1391,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="6" t="n">
         <v>27</v>
@@ -1420,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" s="7" t="n">
         <v>27</v>
@@ -1437,10 +1423,8 @@
       <c r="T5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U5" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V5" s="7" t="inlineStr">
         <is>
@@ -1584,7 +1568,7 @@
           <t>221176@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1603,10 +1587,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>27</v>
@@ -1618,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="7" t="n">
         <v>27</v>
@@ -1635,10 +1619,8 @@
       <c r="T6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U6" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U6" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V6" s="7" t="inlineStr">
         <is>
@@ -1784,7 +1766,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
@@ -1801,10 +1783,10 @@
         <v>18</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>27</v>
@@ -1816,7 +1798,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="7" t="n">
         <v>27</v>
@@ -1833,10 +1815,8 @@
       <c r="T7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U7" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V7" s="7" t="inlineStr">
         <is>
@@ -1980,7 +1960,7 @@
           <t>221180@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -1999,10 +1979,10 @@
         <v>19</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="6" t="n">
         <v>27</v>
@@ -2014,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="7" t="n">
         <v>27</v>
@@ -2031,10 +2011,8 @@
       <c r="T8" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U8" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U8" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V8" s="7" t="inlineStr">
         <is>
@@ -2180,7 +2158,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -2197,10 +2175,10 @@
         <v>18</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="6" t="n">
         <v>27</v>
@@ -2212,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="7" t="n">
         <v>27</v>
@@ -2229,10 +2207,8 @@
       <c r="T9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U9" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V9" s="7" t="inlineStr">
         <is>
@@ -2378,7 +2354,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
@@ -2395,10 +2371,10 @@
         <v>18</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>27</v>
@@ -2410,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="7" t="n">
         <v>27</v>
@@ -2427,10 +2403,8 @@
       <c r="T10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U10" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V10" s="7" t="inlineStr">
         <is>
@@ -2576,7 +2550,7 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
@@ -2593,10 +2567,10 @@
         <v>18</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>27</v>
@@ -2608,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="7" t="n">
         <v>27</v>
@@ -2625,10 +2599,8 @@
       <c r="T11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U11" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V11" s="7" t="inlineStr">
         <is>
@@ -2772,7 +2744,7 @@
           <t>221186@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F12" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -2791,10 +2763,10 @@
         <v>19</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L12" s="6" t="n">
         <v>27</v>
@@ -2806,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" s="7" t="n">
         <v>27</v>
@@ -2823,10 +2795,8 @@
       <c r="T12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U12" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U12" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V12" s="7" t="inlineStr">
         <is>
@@ -2970,7 +2940,7 @@
           <t>221187@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -2989,10 +2959,10 @@
         <v>19</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" s="6" t="n">
         <v>27</v>
@@ -3004,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="7" t="n">
         <v>27</v>
@@ -3021,10 +2991,8 @@
       <c r="T13" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U13" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V13" s="7" t="inlineStr">
         <is>
@@ -3168,7 +3136,7 @@
           <t>221188@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3187,10 +3155,10 @@
         <v>19</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>27</v>
@@ -3202,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="7" t="n">
         <v>27</v>
@@ -3219,10 +3187,8 @@
       <c r="T14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U14" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U14" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V14" s="7" t="inlineStr">
         <is>
@@ -3368,7 +3334,7 @@
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
@@ -3385,10 +3351,10 @@
         <v>18</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" s="6" t="n">
         <v>27</v>
@@ -3400,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="7" t="n">
         <v>27</v>
@@ -3417,10 +3383,8 @@
       <c r="T15" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U15" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U15" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V15" s="7" t="inlineStr">
         <is>
@@ -3564,7 +3528,7 @@
           <t>221190@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F16" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3583,10 +3547,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="6" t="n">
         <v>27</v>
@@ -3598,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="7" t="n">
         <v>27</v>
@@ -3615,10 +3579,8 @@
       <c r="T16" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U16" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U16" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V16" s="7" t="inlineStr">
         <is>
@@ -3764,7 +3726,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
@@ -3781,10 +3743,10 @@
         <v>18</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="6" t="n">
         <v>27</v>
@@ -3796,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="7" t="n">
         <v>27</v>
@@ -3813,10 +3775,8 @@
       <c r="T17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U17" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U17" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V17" s="7" t="inlineStr">
         <is>
@@ -3960,7 +3920,7 @@
           <t>221192@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -3979,10 +3939,10 @@
         <v>19</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>27</v>
@@ -3994,7 +3954,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="7" t="n">
         <v>27</v>
@@ -4011,10 +3971,8 @@
       <c r="T18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U18" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U18" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V18" s="7" t="inlineStr">
         <is>
@@ -4158,7 +4116,7 @@
           <t>221193@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4177,10 +4135,10 @@
         <v>19</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19" s="6" t="n">
         <v>27</v>
@@ -4192,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="7" t="n">
         <v>27</v>
@@ -4209,10 +4167,8 @@
       <c r="T19" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U19" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V19" s="7" t="inlineStr">
         <is>
@@ -4356,7 +4312,7 @@
           <t>221194@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F20" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -4375,10 +4331,10 @@
         <v>19</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="6" t="n">
         <v>27</v>
@@ -4390,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="7" t="n">
         <v>27</v>
@@ -4407,10 +4363,8 @@
       <c r="T20" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U20" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V20" s="7" t="inlineStr">
         <is>
@@ -4556,7 +4510,7 @@
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
@@ -4573,10 +4527,10 @@
         <v>20</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="6" t="n">
         <v>27</v>
@@ -4588,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" s="7" t="n">
         <v>27</v>
@@ -4605,10 +4559,8 @@
       <c r="T21" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U21" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V21" s="7" t="inlineStr">
         <is>
@@ -4754,7 +4706,7 @@
       </c>
       <c r="F22" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
@@ -4771,10 +4723,10 @@
         <v>20</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>27</v>
@@ -4786,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" s="7" t="n">
         <v>27</v>
@@ -4803,10 +4755,8 @@
       <c r="T22" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U22" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U22" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V22" s="7" t="inlineStr">
         <is>
@@ -4952,7 +4902,7 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
@@ -4969,10 +4919,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="6" t="n">
         <v>27</v>
@@ -4984,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="7" t="n">
         <v>27</v>
@@ -5001,10 +4951,8 @@
       <c r="T23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U23" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U23" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V23" s="7" t="inlineStr">
         <is>
@@ -5148,7 +5096,7 @@
           <t>221198@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5167,10 +5115,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K24" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" s="6" t="n">
         <v>27</v>
@@ -5182,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="7" t="n">
         <v>27</v>
@@ -5199,10 +5147,8 @@
       <c r="T24" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U24" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U24" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V24" s="7" t="inlineStr">
         <is>
@@ -5346,7 +5292,7 @@
           <t>221199@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5365,10 +5311,10 @@
         <v>19</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" s="6" t="n">
         <v>27</v>
@@ -5380,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="7" t="n">
         <v>27</v>
@@ -5397,10 +5343,8 @@
       <c r="T25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U25" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U25" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V25" s="7" t="inlineStr">
         <is>
@@ -5544,7 +5488,7 @@
           <t>221200@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F26" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -5563,10 +5507,10 @@
         <v>19</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>27</v>
@@ -5578,7 +5522,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="7" t="n">
         <v>27</v>
@@ -5595,10 +5539,8 @@
       <c r="T26" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U26" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U26" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V26" s="7" t="inlineStr">
         <is>
@@ -5744,7 +5686,7 @@
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
@@ -5761,10 +5703,10 @@
         <v>18</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>27</v>
@@ -5776,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="7" t="n">
         <v>27</v>
@@ -5793,10 +5735,8 @@
       <c r="T27" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U27" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U27" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V27" s="7" t="inlineStr">
         <is>
@@ -5942,7 +5882,7 @@
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
@@ -5959,10 +5899,10 @@
         <v>18</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L28" s="6" t="n">
         <v>27</v>
@@ -5974,7 +5914,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="7" t="n">
         <v>27</v>
@@ -5991,10 +5931,8 @@
       <c r="T28" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U28" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U28" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V28" s="7" t="inlineStr">
         <is>
@@ -6140,7 +6078,7 @@
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
@@ -6157,10 +6095,10 @@
         <v>18</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29" s="6" t="n">
         <v>27</v>
@@ -6172,7 +6110,7 @@
         <v>3</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="7" t="n">
         <v>27</v>
@@ -6189,10 +6127,8 @@
       <c r="T29" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U29" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U29" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V29" s="7" t="inlineStr">
         <is>
@@ -6338,7 +6274,7 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
@@ -6355,10 +6291,10 @@
         <v>18</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L30" s="6" t="n">
         <v>27</v>
@@ -6370,7 +6306,7 @@
         <v>3</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="7" t="n">
         <v>27</v>
@@ -6387,10 +6323,8 @@
       <c r="T30" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U30" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V30" s="7" t="inlineStr">
         <is>
@@ -6534,7 +6468,7 @@
           <t>221208@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -6553,10 +6487,10 @@
         <v>19</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L31" s="6" t="n">
         <v>27</v>
@@ -6568,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" s="7" t="n">
         <v>27</v>
@@ -6585,10 +6519,8 @@
       <c r="T31" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U31" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V31" s="7" t="inlineStr">
         <is>
@@ -6734,7 +6666,7 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
@@ -6751,10 +6683,10 @@
         <v>18</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32" s="6" t="n">
         <v>27</v>
@@ -6766,7 +6698,7 @@
         <v>3</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="7" t="n">
         <v>27</v>
@@ -6783,10 +6715,8 @@
       <c r="T32" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U32" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V32" s="7" t="inlineStr">
         <is>
@@ -6930,7 +6860,7 @@
           <t>221213@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -6949,10 +6879,10 @@
         <v>19</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33" s="6" t="n">
         <v>27</v>
@@ -6964,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="7" t="n">
         <v>27</v>
@@ -6981,10 +6911,8 @@
       <c r="T33" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U33" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V33" s="7" t="inlineStr">
         <is>
@@ -7130,7 +7058,7 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
@@ -7147,10 +7075,10 @@
         <v>18</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34" s="6" t="n">
         <v>27</v>
@@ -7162,7 +7090,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="7" t="n">
         <v>27</v>
@@ -7179,10 +7107,8 @@
       <c r="T34" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U34" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V34" s="7" t="inlineStr">
         <is>
@@ -7326,7 +7252,7 @@
           <t>221216@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7345,10 +7271,10 @@
         <v>19</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L35" s="6" t="n">
         <v>27</v>
@@ -7360,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P35" s="7" t="n">
         <v>27</v>
@@ -7377,10 +7303,8 @@
       <c r="T35" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U35" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V35" s="7" t="inlineStr">
         <is>
@@ -7526,7 +7450,7 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
@@ -7543,10 +7467,10 @@
         <v>18</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L36" s="6" t="n">
         <v>27</v>
@@ -7558,7 +7482,7 @@
         <v>3</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="7" t="n">
         <v>27</v>
@@ -7575,10 +7499,8 @@
       <c r="T36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U36" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V36" s="7" t="inlineStr">
         <is>
@@ -7722,7 +7644,7 @@
           <t>221220@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F37" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -7741,10 +7663,10 @@
         <v>19</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="6" t="n">
         <v>27</v>
@@ -7756,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P37" s="7" t="n">
         <v>27</v>
@@ -7773,10 +7695,8 @@
       <c r="T37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U37" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V37" s="7" t="inlineStr">
         <is>
@@ -7922,7 +7842,7 @@
       </c>
       <c r="F38" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
@@ -7939,10 +7859,10 @@
         <v>20</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="6" t="n">
         <v>27</v>
@@ -7954,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="7" t="n">
         <v>27</v>
@@ -7971,10 +7891,8 @@
       <c r="T38" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U38" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V38" s="7" t="inlineStr">
         <is>
@@ -8120,7 +8038,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
@@ -8137,10 +8055,10 @@
         <v>18</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L39" s="6" t="n">
         <v>27</v>
@@ -8152,7 +8070,7 @@
         <v>3</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="7" t="n">
         <v>27</v>
@@ -8169,10 +8087,8 @@
       <c r="T39" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U39" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V39" s="7" t="inlineStr">
         <is>
@@ -8318,7 +8234,7 @@
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
@@ -8335,10 +8251,10 @@
         <v>18</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K40" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" s="6" t="n">
         <v>27</v>
@@ -8350,7 +8266,7 @@
         <v>3</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="7" t="n">
         <v>27</v>
@@ -8367,10 +8283,8 @@
       <c r="T40" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U40" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V40" s="7" t="inlineStr">
         <is>
@@ -8514,7 +8428,7 @@
           <t>221226@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F41" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -8533,10 +8447,10 @@
         <v>19</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" s="6" t="n">
         <v>27</v>
@@ -8548,7 +8462,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="7" t="n">
         <v>27</v>
@@ -8565,10 +8479,8 @@
       <c r="T41" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U41" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U41" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V41" s="7" t="inlineStr">
         <is>
@@ -8714,7 +8626,7 @@
       </c>
       <c r="F42" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
@@ -8731,10 +8643,10 @@
         <v>20</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L42" s="6" t="n">
         <v>27</v>
@@ -8746,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42" s="7" t="n">
         <v>27</v>
@@ -8763,10 +8675,8 @@
       <c r="T42" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U42" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U42" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V42" s="7" t="inlineStr">
         <is>
@@ -8912,7 +8822,7 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
@@ -8929,10 +8839,10 @@
         <v>18</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43" s="6" t="n">
         <v>27</v>
@@ -8944,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="7" t="n">
         <v>27</v>
@@ -8961,10 +8871,8 @@
       <c r="T43" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U43" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V43" s="7" t="inlineStr">
         <is>
@@ -9110,7 +9018,7 @@
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
@@ -9127,10 +9035,10 @@
         <v>18</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44" s="6" t="n">
         <v>27</v>
@@ -9142,7 +9050,7 @@
         <v>3</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="7" t="n">
         <v>27</v>
@@ -9159,10 +9067,8 @@
       <c r="T44" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U44" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U44" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V44" s="7" t="inlineStr">
         <is>
@@ -9308,7 +9214,7 @@
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
@@ -9325,10 +9231,10 @@
         <v>18</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L45" s="6" t="n">
         <v>27</v>
@@ -9340,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="7" t="n">
         <v>27</v>
@@ -9357,10 +9263,8 @@
       <c r="T45" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U45" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V45" s="7" t="inlineStr">
         <is>
@@ -9504,7 +9408,7 @@
           <t>221239@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F46" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -9523,10 +9427,10 @@
         <v>19</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K46" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L46" s="6" t="n">
         <v>27</v>
@@ -9538,7 +9442,7 @@
         <v>2</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="7" t="n">
         <v>27</v>
@@ -9555,10 +9459,8 @@
       <c r="T46" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U46" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V46" s="7" t="inlineStr">
         <is>
@@ -9702,7 +9604,7 @@
           <t>221240@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F47" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -9721,10 +9623,10 @@
         <v>19</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K47" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" s="6" t="n">
         <v>27</v>
@@ -9736,7 +9638,7 @@
         <v>2</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" s="7" t="n">
         <v>27</v>
@@ -9753,10 +9655,8 @@
       <c r="T47" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U47" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V47" s="7" t="inlineStr">
         <is>
@@ -9902,7 +9802,7 @@
       </c>
       <c r="F48" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
@@ -9919,10 +9819,10 @@
         <v>20</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K48" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="6" t="n">
         <v>27</v>
@@ -9934,7 +9834,7 @@
         <v>1</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P48" s="7" t="n">
         <v>27</v>
@@ -9951,10 +9851,8 @@
       <c r="T48" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U48" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U48" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V48" s="7" t="inlineStr">
         <is>
@@ -10098,7 +9996,7 @@
           <t>221242@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10117,10 +10015,10 @@
         <v>19</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" s="6" t="n">
         <v>27</v>
@@ -10132,7 +10030,7 @@
         <v>2</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="7" t="n">
         <v>27</v>
@@ -10149,10 +10047,8 @@
       <c r="T49" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U49" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U49" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V49" s="7" t="inlineStr">
         <is>
@@ -10298,7 +10194,7 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
@@ -10315,10 +10211,10 @@
         <v>18</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" s="6" t="n">
         <v>27</v>
@@ -10330,7 +10226,7 @@
         <v>3</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="7" t="n">
         <v>27</v>
@@ -10347,10 +10243,8 @@
       <c r="T50" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U50" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U50" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V50" s="7" t="inlineStr">
         <is>
@@ -10496,7 +10390,7 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
@@ -10513,10 +10407,10 @@
         <v>18</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L51" s="6" t="n">
         <v>27</v>
@@ -10528,7 +10422,7 @@
         <v>3</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="7" t="n">
         <v>27</v>
@@ -10545,10 +10439,8 @@
       <c r="T51" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U51" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U51" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V51" s="7" t="inlineStr">
         <is>
@@ -10692,7 +10584,7 @@
           <t>221245@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F52" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -10711,10 +10603,10 @@
         <v>19</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L52" s="6" t="n">
         <v>27</v>
@@ -10726,7 +10618,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P52" s="7" t="n">
         <v>27</v>
@@ -10743,10 +10635,8 @@
       <c r="T52" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U52" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V52" s="7" t="inlineStr">
         <is>
@@ -10892,7 +10782,7 @@
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
@@ -10909,10 +10799,10 @@
         <v>18</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K53" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53" s="6" t="n">
         <v>27</v>
@@ -10924,7 +10814,7 @@
         <v>3</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="7" t="n">
         <v>27</v>
@@ -10941,10 +10831,8 @@
       <c r="T53" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U53" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U53" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V53" s="7" t="inlineStr">
         <is>
@@ -11088,7 +10976,7 @@
           <t>221249@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11107,10 +10995,10 @@
         <v>19</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K54" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" s="6" t="n">
         <v>27</v>
@@ -11122,7 +11010,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="7" t="n">
         <v>27</v>
@@ -11139,10 +11027,8 @@
       <c r="T54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U54" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V54" s="7" t="inlineStr">
         <is>
@@ -11286,7 +11172,7 @@
           <t>221251@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11305,10 +11191,10 @@
         <v>19</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L55" s="6" t="n">
         <v>27</v>
@@ -11320,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="7" t="n">
         <v>27</v>
@@ -11337,10 +11223,8 @@
       <c r="T55" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U55" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V55" s="7" t="inlineStr">
         <is>
@@ -11486,7 +11370,7 @@
       </c>
       <c r="F56" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G56" s="5" t="inlineStr">
@@ -11503,10 +11387,10 @@
         <v>20</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56" s="6" t="n">
         <v>27</v>
@@ -11518,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P56" s="7" t="n">
         <v>27</v>
@@ -11535,10 +11419,8 @@
       <c r="T56" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U56" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V56" s="7" t="inlineStr">
         <is>
@@ -11682,7 +11564,7 @@
           <t>221258@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="F57" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -11701,10 +11583,10 @@
         <v>19</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L57" s="6" t="n">
         <v>27</v>
@@ -11716,7 +11598,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" s="7" t="n">
         <v>27</v>
@@ -11733,10 +11615,8 @@
       <c r="T57" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U57" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V57" s="7" t="inlineStr">
         <is>
@@ -11882,7 +11762,7 @@
       </c>
       <c r="F58" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G58" s="5" t="inlineStr">
@@ -11899,10 +11779,10 @@
         <v>20</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K58" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L58" s="6" t="n">
         <v>27</v>
@@ -11914,7 +11794,7 @@
         <v>1</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P58" s="7" t="n">
         <v>27</v>
@@ -11931,10 +11811,8 @@
       <c r="T58" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U58" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V58" s="7" t="inlineStr">
         <is>
@@ -12078,7 +11956,7 @@
           <t>221261@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="F59" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12097,10 +11975,10 @@
         <v>19</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K59" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L59" s="6" t="n">
         <v>27</v>
@@ -12112,7 +11990,7 @@
         <v>2</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" s="7" t="n">
         <v>27</v>
@@ -12129,10 +12007,8 @@
       <c r="T59" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U59" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V59" s="7" t="inlineStr">
         <is>
@@ -12276,7 +12152,7 @@
           <t>221267@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F60" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -12295,10 +12171,10 @@
         <v>19</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K60" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60" s="6" t="n">
         <v>27</v>
@@ -12310,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P60" s="7" t="n">
         <v>27</v>
@@ -12327,10 +12203,8 @@
       <c r="T60" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U60" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V60" s="7" t="inlineStr">
         <is>
@@ -12476,7 +12350,7 @@
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
@@ -12493,10 +12367,10 @@
         <v>18</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K61" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L61" s="6" t="n">
         <v>27</v>
@@ -12508,7 +12382,7 @@
         <v>3</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="7" t="n">
         <v>27</v>
@@ -12525,10 +12399,8 @@
       <c r="T61" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U61" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V61" s="7" t="inlineStr">
         <is>
@@ -12674,7 +12546,7 @@
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G62" s="5" t="inlineStr">
@@ -12691,10 +12563,10 @@
         <v>18</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K62" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L62" s="6" t="n">
         <v>27</v>
@@ -12706,7 +12578,7 @@
         <v>3</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="7" t="n">
         <v>27</v>
@@ -12723,10 +12595,8 @@
       <c r="T62" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U62" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V62" s="7" t="inlineStr">
         <is>
@@ -12872,7 +12742,7 @@
       </c>
       <c r="F63" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
@@ -12889,10 +12759,10 @@
         <v>20</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K63" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" s="6" t="n">
         <v>27</v>
@@ -12904,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63" s="7" t="n">
         <v>27</v>
@@ -12921,10 +12791,8 @@
       <c r="T63" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U63" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V63" s="7" t="inlineStr">
         <is>
@@ -13070,7 +12938,7 @@
       </c>
       <c r="F64" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G64" s="5" t="inlineStr">
@@ -13087,10 +12955,10 @@
         <v>20</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K64" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L64" s="6" t="n">
         <v>27</v>
@@ -13102,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64" s="7" t="n">
         <v>27</v>
@@ -13119,10 +12987,8 @@
       <c r="T64" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U64" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V64" s="7" t="inlineStr">
         <is>
@@ -13266,7 +13132,7 @@
           <t>221277@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="F65" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13285,10 +13151,10 @@
         <v>19</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K65" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L65" s="6" t="n">
         <v>27</v>
@@ -13300,7 +13166,7 @@
         <v>2</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" s="7" t="n">
         <v>27</v>
@@ -13317,10 +13183,8 @@
       <c r="T65" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U65" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V65" s="7" t="inlineStr">
         <is>
@@ -13464,7 +13328,7 @@
           <t>221280@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="F66" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13483,10 +13347,10 @@
         <v>19</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K66" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L66" s="6" t="n">
         <v>27</v>
@@ -13498,7 +13362,7 @@
         <v>2</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P66" s="7" t="n">
         <v>27</v>
@@ -13515,10 +13379,8 @@
       <c r="T66" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U66" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V66" s="7" t="inlineStr">
         <is>
@@ -13664,7 +13526,7 @@
       </c>
       <c r="F67" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G67" s="5" t="inlineStr">
@@ -13681,10 +13543,10 @@
         <v>20</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K67" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L67" s="6" t="n">
         <v>27</v>
@@ -13696,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" s="7" t="n">
         <v>27</v>
@@ -13713,10 +13575,8 @@
       <c r="T67" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U67" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U67" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V67" s="7" t="inlineStr">
         <is>
@@ -13860,7 +13720,7 @@
           <t>221287@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F68" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -13879,10 +13739,10 @@
         <v>19</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K68" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" s="6" t="n">
         <v>27</v>
@@ -13894,7 +13754,7 @@
         <v>2</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P68" s="7" t="n">
         <v>27</v>
@@ -13911,10 +13771,8 @@
       <c r="T68" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U68" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V68" s="7" t="inlineStr">
         <is>
@@ -14060,7 +13918,7 @@
       </c>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G69" s="5" t="inlineStr">
@@ -14077,10 +13935,10 @@
         <v>20</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K69" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="6" t="n">
         <v>27</v>
@@ -14092,7 +13950,7 @@
         <v>1</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P69" s="7" t="n">
         <v>27</v>
@@ -14109,10 +13967,8 @@
       <c r="T69" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U69" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V69" s="7" t="inlineStr">
         <is>
@@ -14258,7 +14114,7 @@
       </c>
       <c r="F70" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G70" s="5" t="inlineStr">
@@ -14275,10 +14131,10 @@
         <v>20</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K70" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L70" s="6" t="n">
         <v>27</v>
@@ -14290,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P70" s="7" t="n">
         <v>27</v>
@@ -14307,10 +14163,8 @@
       <c r="T70" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U70" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U70" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="7" t="inlineStr">
         <is>
@@ -14456,7 +14310,7 @@
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G71" s="5" t="inlineStr">
@@ -14473,10 +14327,10 @@
         <v>20</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K71" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L71" s="6" t="n">
         <v>27</v>
@@ -14488,7 +14342,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71" s="7" t="n">
         <v>27</v>
@@ -14505,10 +14359,8 @@
       <c r="T71" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U71" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U71" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V71" s="7" t="inlineStr">
         <is>
@@ -14652,7 +14504,7 @@
           <t>221301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14671,10 +14523,10 @@
         <v>19</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K72" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L72" s="6" t="n">
         <v>27</v>
@@ -14686,7 +14538,7 @@
         <v>2</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P72" s="7" t="n">
         <v>27</v>
@@ -14703,10 +14555,8 @@
       <c r="T72" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U72" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U72" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V72" s="7" t="inlineStr">
         <is>
@@ -14850,7 +14700,7 @@
           <t>221302@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="F73" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -14869,10 +14719,10 @@
         <v>19</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K73" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L73" s="6" t="n">
         <v>27</v>
@@ -14884,7 +14734,7 @@
         <v>2</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P73" s="7" t="n">
         <v>27</v>
@@ -14901,10 +14751,8 @@
       <c r="T73" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U73" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U73" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V73" s="7" t="inlineStr">
         <is>
@@ -15050,7 +14898,7 @@
       </c>
       <c r="F74" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G74" s="5" t="inlineStr">
@@ -15067,10 +14915,10 @@
         <v>20</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K74" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L74" s="6" t="n">
         <v>27</v>
@@ -15082,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>27</v>
@@ -15099,10 +14947,8 @@
       <c r="T74" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U74" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U74" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V74" s="7" t="inlineStr">
         <is>
@@ -15246,7 +15092,7 @@
           <t>221309@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15265,10 +15111,10 @@
         <v>19</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K75" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L75" s="6" t="n">
         <v>27</v>
@@ -15280,7 +15126,7 @@
         <v>2</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>27</v>
@@ -15297,10 +15143,8 @@
       <c r="T75" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U75" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V75" s="7" t="inlineStr">
         <is>
@@ -15446,7 +15290,7 @@
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G76" s="5" t="inlineStr">
@@ -15463,10 +15307,10 @@
         <v>18</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K76" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L76" s="6" t="n">
         <v>27</v>
@@ -15478,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" s="7" t="n">
         <v>27</v>
@@ -15495,10 +15339,8 @@
       <c r="T76" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U76" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V76" s="7" t="inlineStr">
         <is>
@@ -15644,7 +15486,7 @@
       </c>
       <c r="F77" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G77" s="5" t="inlineStr">
@@ -15661,10 +15503,10 @@
         <v>20</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K77" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L77" s="6" t="n">
         <v>27</v>
@@ -15676,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P77" s="7" t="n">
         <v>27</v>
@@ -15693,10 +15535,8 @@
       <c r="T77" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U77" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V77" s="7" t="inlineStr">
         <is>
@@ -15840,7 +15680,7 @@
           <t>221320@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F78" s="8" t="inlineStr">
+      <c r="F78" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -15859,10 +15699,10 @@
         <v>19</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L78" s="6" t="n">
         <v>27</v>
@@ -15874,7 +15714,7 @@
         <v>2</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="7" t="n">
         <v>27</v>
@@ -15891,10 +15731,8 @@
       <c r="T78" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U78" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V78" s="7" t="inlineStr">
         <is>
@@ -16038,7 +15876,7 @@
           <t>221327@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F79" s="8" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16057,10 +15895,10 @@
         <v>19</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K79" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L79" s="6" t="n">
         <v>27</v>
@@ -16072,7 +15910,7 @@
         <v>2</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P79" s="7" t="n">
         <v>27</v>
@@ -16089,10 +15927,8 @@
       <c r="T79" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U79" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V79" s="7" t="inlineStr">
         <is>
@@ -16236,7 +16072,7 @@
           <t>221330@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F80" s="8" t="inlineStr">
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16255,10 +16091,10 @@
         <v>19</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K80" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80" s="6" t="n">
         <v>27</v>
@@ -16270,7 +16106,7 @@
         <v>2</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P80" s="7" t="n">
         <v>27</v>
@@ -16287,10 +16123,8 @@
       <c r="T80" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U80" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U80" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V80" s="7" t="inlineStr">
         <is>
@@ -16436,7 +16270,7 @@
       </c>
       <c r="F81" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G81" s="5" t="inlineStr">
@@ -16453,10 +16287,10 @@
         <v>20</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L81" s="6" t="n">
         <v>27</v>
@@ -16468,7 +16302,7 @@
         <v>1</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P81" s="7" t="n">
         <v>27</v>
@@ -16485,10 +16319,8 @@
       <c r="T81" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U81" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U81" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V81" s="7" t="inlineStr">
         <is>
@@ -16632,7 +16464,7 @@
           <t>221339@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F82" s="8" t="inlineStr">
+      <c r="F82" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16651,10 +16483,10 @@
         <v>19</v>
       </c>
       <c r="J82" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K82" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L82" s="6" t="n">
         <v>27</v>
@@ -16666,7 +16498,7 @@
         <v>2</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P82" s="7" t="n">
         <v>27</v>
@@ -16683,10 +16515,8 @@
       <c r="T82" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U82" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V82" s="7" t="inlineStr">
         <is>
@@ -16830,7 +16660,7 @@
           <t>221353@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F83" s="8" t="inlineStr">
+      <c r="F83" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -16849,10 +16679,10 @@
         <v>19</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K83" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L83" s="6" t="n">
         <v>27</v>
@@ -16864,7 +16694,7 @@
         <v>2</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P83" s="7" t="n">
         <v>27</v>
@@ -16881,10 +16711,8 @@
       <c r="T83" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U83" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V83" s="7" t="inlineStr">
         <is>
@@ -17028,7 +16856,7 @@
           <t>221372@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F84" s="8" t="inlineStr">
+      <c r="F84" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17047,10 +16875,10 @@
         <v>19</v>
       </c>
       <c r="J84" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K84" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L84" s="6" t="n">
         <v>27</v>
@@ -17062,7 +16890,7 @@
         <v>2</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" s="7" t="n">
         <v>27</v>
@@ -17079,10 +16907,8 @@
       <c r="T84" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U84" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U84" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V84" s="7" t="inlineStr">
         <is>
@@ -17228,7 +17054,7 @@
       </c>
       <c r="F85" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G85" s="5" t="inlineStr">
@@ -17245,10 +17071,10 @@
         <v>20</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K85" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L85" s="6" t="n">
         <v>27</v>
@@ -17260,7 +17086,7 @@
         <v>1</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P85" s="7" t="n">
         <v>27</v>
@@ -17277,10 +17103,8 @@
       <c r="T85" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U85" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U85" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V85" s="7" t="inlineStr">
         <is>
@@ -17426,7 +17250,7 @@
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G86" s="5" t="inlineStr">
@@ -17443,10 +17267,10 @@
         <v>18</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K86" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L86" s="6" t="n">
         <v>27</v>
@@ -17458,7 +17282,7 @@
         <v>3</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" s="7" t="n">
         <v>27</v>
@@ -17475,10 +17299,8 @@
       <c r="T86" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U86" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U86" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V86" s="7" t="inlineStr">
         <is>
@@ -17622,7 +17444,7 @@
           <t>221384@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="F87" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17641,10 +17463,10 @@
         <v>19</v>
       </c>
       <c r="J87" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K87" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L87" s="6" t="n">
         <v>27</v>
@@ -17656,7 +17478,7 @@
         <v>2</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" s="7" t="n">
         <v>27</v>
@@ -17673,10 +17495,8 @@
       <c r="T87" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U87" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V87" s="7" t="inlineStr">
         <is>
@@ -17820,7 +17640,7 @@
           <t>221385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F88" s="8" t="inlineStr">
+      <c r="F88" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -17839,10 +17659,10 @@
         <v>19</v>
       </c>
       <c r="J88" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K88" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L88" s="6" t="n">
         <v>27</v>
@@ -17854,7 +17674,7 @@
         <v>2</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P88" s="7" t="n">
         <v>27</v>
@@ -17871,10 +17691,8 @@
       <c r="T88" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U88" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V88" s="7" t="inlineStr">
         <is>
@@ -18020,7 +17838,7 @@
       </c>
       <c r="F89" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G89" s="5" t="inlineStr">
@@ -18037,10 +17855,10 @@
         <v>20</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K89" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L89" s="6" t="n">
         <v>27</v>
@@ -18052,7 +17870,7 @@
         <v>1</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P89" s="7" t="n">
         <v>27</v>
@@ -18069,10 +17887,8 @@
       <c r="T89" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U89" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U89" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V89" s="7" t="inlineStr">
         <is>
@@ -18216,7 +18032,7 @@
           <t>221399@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F90" s="9" t="inlineStr">
+      <c r="F90" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -18235,10 +18051,10 @@
         <v>21</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K90" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L90" s="6" t="n">
         <v>27</v>
@@ -18250,7 +18066,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P90" s="7" t="n">
         <v>27</v>
@@ -18267,10 +18083,8 @@
       <c r="T90" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U90" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U90" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="V90" s="7" t="inlineStr">
         <is>
@@ -18414,7 +18228,7 @@
           <t>221402@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F91" s="9" t="inlineStr">
+      <c r="F91" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -18433,10 +18247,10 @@
         <v>21</v>
       </c>
       <c r="J91" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K91" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L91" s="6" t="n">
         <v>27</v>
@@ -18448,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P91" s="7" t="n">
         <v>27</v>
@@ -18465,10 +18279,8 @@
       <c r="T91" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U91" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U91" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="V91" s="7" t="inlineStr">
         <is>
@@ -18612,7 +18424,7 @@
           <t>221419@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="F92" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18631,10 +18443,10 @@
         <v>19</v>
       </c>
       <c r="J92" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K92" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L92" s="6" t="n">
         <v>27</v>
@@ -18646,7 +18458,7 @@
         <v>2</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" s="7" t="n">
         <v>27</v>
@@ -18663,10 +18475,8 @@
       <c r="T92" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U92" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V92" s="7" t="inlineStr">
         <is>
@@ -18810,7 +18620,7 @@
           <t>221424@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F93" s="8" t="inlineStr">
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -18829,10 +18639,10 @@
         <v>19</v>
       </c>
       <c r="J93" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K93" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L93" s="6" t="n">
         <v>27</v>
@@ -18844,7 +18654,7 @@
         <v>2</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P93" s="7" t="n">
         <v>27</v>
@@ -18861,10 +18671,8 @@
       <c r="T93" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U93" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U93" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V93" s="7" t="inlineStr">
         <is>
@@ -19010,7 +18818,7 @@
       </c>
       <c r="F94" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G94" s="5" t="inlineStr">
@@ -19027,10 +18835,10 @@
         <v>20</v>
       </c>
       <c r="J94" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K94" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L94" s="6" t="n">
         <v>27</v>
@@ -19042,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="O94" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P94" s="7" t="n">
         <v>27</v>
@@ -19059,10 +18867,8 @@
       <c r="T94" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U94" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V94" s="7" t="inlineStr">
         <is>
@@ -19206,7 +19012,7 @@
           <t>221431@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F95" s="8" t="inlineStr">
+      <c r="F95" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19225,10 +19031,10 @@
         <v>19</v>
       </c>
       <c r="J95" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K95" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L95" s="6" t="n">
         <v>27</v>
@@ -19240,7 +19046,7 @@
         <v>2</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" s="7" t="n">
         <v>27</v>
@@ -19257,10 +19063,8 @@
       <c r="T95" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U95" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V95" s="7" t="inlineStr">
         <is>
@@ -19406,7 +19210,7 @@
       </c>
       <c r="F96" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G96" s="5" t="inlineStr">
@@ -19423,10 +19227,10 @@
         <v>20</v>
       </c>
       <c r="J96" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K96" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" s="6" t="n">
         <v>27</v>
@@ -19438,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P96" s="7" t="n">
         <v>27</v>
@@ -19455,10 +19259,8 @@
       <c r="T96" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U96" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U96" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V96" s="7" t="inlineStr">
         <is>
@@ -19602,7 +19404,7 @@
           <t>221440@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F97" s="8" t="inlineStr">
+      <c r="F97" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19621,10 +19423,10 @@
         <v>19</v>
       </c>
       <c r="J97" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K97" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L97" s="6" t="n">
         <v>27</v>
@@ -19636,7 +19438,7 @@
         <v>2</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P97" s="7" t="n">
         <v>27</v>
@@ -19653,10 +19455,8 @@
       <c r="T97" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U97" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V97" s="7" t="inlineStr">
         <is>
@@ -19800,7 +19600,7 @@
           <t>221441@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F98" s="8" t="inlineStr">
+      <c r="F98" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -19819,10 +19619,10 @@
         <v>19</v>
       </c>
       <c r="J98" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K98" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L98" s="6" t="n">
         <v>27</v>
@@ -19834,7 +19634,7 @@
         <v>2</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P98" s="7" t="n">
         <v>27</v>
@@ -19851,10 +19651,8 @@
       <c r="T98" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U98" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U98" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V98" s="7" t="inlineStr">
         <is>
@@ -20000,7 +19798,7 @@
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G99" s="5" t="inlineStr">
@@ -20017,10 +19815,10 @@
         <v>18</v>
       </c>
       <c r="J99" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K99" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L99" s="6" t="n">
         <v>27</v>
@@ -20032,7 +19830,7 @@
         <v>3</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" s="7" t="n">
         <v>27</v>
@@ -20049,10 +19847,8 @@
       <c r="T99" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U99" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U99" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V99" s="7" t="inlineStr">
         <is>
@@ -20198,7 +19994,7 @@
       </c>
       <c r="F100" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G100" s="5" t="inlineStr">
@@ -20215,10 +20011,10 @@
         <v>20</v>
       </c>
       <c r="J100" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K100" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" s="6" t="n">
         <v>27</v>
@@ -20230,7 +20026,7 @@
         <v>1</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100" s="7" t="n">
         <v>27</v>
@@ -20247,10 +20043,8 @@
       <c r="T100" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U100" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V100" s="7" t="inlineStr">
         <is>
@@ -20394,7 +20188,7 @@
           <t>221452@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F101" s="8" t="inlineStr">
+      <c r="F101" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -20413,10 +20207,10 @@
         <v>19</v>
       </c>
       <c r="J101" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K101" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L101" s="6" t="n">
         <v>27</v>
@@ -20428,7 +20222,7 @@
         <v>2</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" s="7" t="n">
         <v>27</v>
@@ -20445,10 +20239,8 @@
       <c r="T101" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U101" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U101" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V101" s="7" t="inlineStr">
         <is>
@@ -20594,7 +20386,7 @@
       </c>
       <c r="F102" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G102" s="5" t="inlineStr">
@@ -20611,10 +20403,10 @@
         <v>20</v>
       </c>
       <c r="J102" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K102" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L102" s="6" t="n">
         <v>27</v>
@@ -20626,7 +20418,7 @@
         <v>1</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P102" s="7" t="n">
         <v>27</v>
@@ -20643,10 +20435,8 @@
       <c r="T102" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U102" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V102" s="7" t="inlineStr">
         <is>
@@ -20792,7 +20582,7 @@
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G103" s="5" t="inlineStr">
@@ -20809,10 +20599,10 @@
         <v>18</v>
       </c>
       <c r="J103" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K103" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L103" s="6" t="n">
         <v>27</v>
@@ -20824,7 +20614,7 @@
         <v>3</v>
       </c>
       <c r="O103" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" s="7" t="n">
         <v>27</v>
@@ -20841,10 +20631,8 @@
       <c r="T103" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U103" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U103" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V103" s="7" t="inlineStr">
         <is>
@@ -20990,7 +20778,7 @@
       </c>
       <c r="F104" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G104" s="5" t="inlineStr">
@@ -21007,10 +20795,10 @@
         <v>20</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K104" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L104" s="6" t="n">
         <v>27</v>
@@ -21022,7 +20810,7 @@
         <v>1</v>
       </c>
       <c r="O104" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P104" s="7" t="n">
         <v>27</v>
@@ -21039,10 +20827,8 @@
       <c r="T104" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U104" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U104" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V104" s="7" t="inlineStr">
         <is>
@@ -21188,7 +20974,7 @@
       </c>
       <c r="F105" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G105" s="5" t="inlineStr">
@@ -21205,10 +20991,10 @@
         <v>20</v>
       </c>
       <c r="J105" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K105" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L105" s="6" t="n">
         <v>27</v>
@@ -21220,7 +21006,7 @@
         <v>1</v>
       </c>
       <c r="O105" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P105" s="7" t="n">
         <v>27</v>
@@ -21237,10 +21023,8 @@
       <c r="T105" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U105" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U105" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V105" s="7" t="inlineStr">
         <is>
@@ -21386,7 +21170,7 @@
       </c>
       <c r="F106" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G106" s="5" t="inlineStr">
@@ -21403,10 +21187,10 @@
         <v>20</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K106" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L106" s="6" t="n">
         <v>27</v>
@@ -21418,7 +21202,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P106" s="7" t="n">
         <v>27</v>
@@ -21435,10 +21219,8 @@
       <c r="T106" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U106" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U106" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V106" s="7" t="inlineStr">
         <is>
@@ -21584,7 +21366,7 @@
       </c>
       <c r="F107" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G107" s="5" t="inlineStr">
@@ -21601,10 +21383,10 @@
         <v>20</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K107" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L107" s="6" t="n">
         <v>27</v>
@@ -21616,7 +21398,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P107" s="7" t="n">
         <v>27</v>
@@ -21633,10 +21415,8 @@
       <c r="T107" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U107" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U107" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V107" s="7" t="inlineStr">
         <is>
@@ -21782,7 +21562,7 @@
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G108" s="5" t="inlineStr">
@@ -21799,10 +21579,10 @@
         <v>18</v>
       </c>
       <c r="J108" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K108" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L108" s="6" t="n">
         <v>27</v>
@@ -21814,7 +21594,7 @@
         <v>3</v>
       </c>
       <c r="O108" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" s="7" t="n">
         <v>27</v>
@@ -21831,10 +21611,8 @@
       <c r="T108" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U108" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U108" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V108" s="7" t="inlineStr">
         <is>
@@ -21978,7 +21756,7 @@
           <t>221465@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F109" s="8" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -21997,10 +21775,10 @@
         <v>19</v>
       </c>
       <c r="J109" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K109" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L109" s="6" t="n">
         <v>27</v>
@@ -22012,7 +21790,7 @@
         <v>2</v>
       </c>
       <c r="O109" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P109" s="7" t="n">
         <v>27</v>
@@ -22029,10 +21807,8 @@
       <c r="T109" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U109" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V109" s="7" t="inlineStr">
         <is>
@@ -22178,7 +21954,7 @@
       </c>
       <c r="F110" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G110" s="5" t="inlineStr">
@@ -22195,10 +21971,10 @@
         <v>20</v>
       </c>
       <c r="J110" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K110" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L110" s="6" t="n">
         <v>27</v>
@@ -22210,7 +21986,7 @@
         <v>1</v>
       </c>
       <c r="O110" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P110" s="7" t="n">
         <v>27</v>
@@ -22227,10 +22003,8 @@
       <c r="T110" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U110" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V110" s="7" t="inlineStr">
         <is>
@@ -22376,7 +22150,7 @@
       </c>
       <c r="F111" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G111" s="5" t="inlineStr">
@@ -22393,10 +22167,10 @@
         <v>20</v>
       </c>
       <c r="J111" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K111" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L111" s="6" t="n">
         <v>27</v>
@@ -22408,7 +22182,7 @@
         <v>1</v>
       </c>
       <c r="O111" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P111" s="7" t="n">
         <v>27</v>
@@ -22425,10 +22199,8 @@
       <c r="T111" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U111" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V111" s="7" t="inlineStr">
         <is>
@@ -22574,7 +22346,7 @@
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G112" s="5" t="inlineStr">
@@ -22591,10 +22363,10 @@
         <v>18</v>
       </c>
       <c r="J112" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K112" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L112" s="6" t="n">
         <v>27</v>
@@ -22606,7 +22378,7 @@
         <v>3</v>
       </c>
       <c r="O112" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="7" t="n">
         <v>27</v>
@@ -22623,10 +22395,8 @@
       <c r="T112" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U112" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V112" s="7" t="inlineStr">
         <is>
@@ -22772,7 +22542,7 @@
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G113" s="5" t="inlineStr">
@@ -22789,10 +22559,10 @@
         <v>20</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K113" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L113" s="6" t="n">
         <v>27</v>
@@ -22804,7 +22574,7 @@
         <v>1</v>
       </c>
       <c r="O113" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P113" s="7" t="n">
         <v>27</v>
@@ -22821,10 +22591,8 @@
       <c r="T113" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U113" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V113" s="7" t="inlineStr">
         <is>
@@ -22970,7 +22738,7 @@
       </c>
       <c r="F114" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G114" s="5" t="inlineStr">
@@ -22987,10 +22755,10 @@
         <v>20</v>
       </c>
       <c r="J114" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K114" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L114" s="6" t="n">
         <v>27</v>
@@ -23002,7 +22770,7 @@
         <v>1</v>
       </c>
       <c r="O114" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P114" s="7" t="n">
         <v>27</v>
@@ -23019,10 +22787,8 @@
       <c r="T114" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U114" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U114" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V114" s="7" t="inlineStr">
         <is>
@@ -23168,7 +22934,7 @@
       </c>
       <c r="F115" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G115" s="5" t="inlineStr">
@@ -23185,10 +22951,10 @@
         <v>20</v>
       </c>
       <c r="J115" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K115" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L115" s="6" t="n">
         <v>27</v>
@@ -23200,7 +22966,7 @@
         <v>1</v>
       </c>
       <c r="O115" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P115" s="7" t="n">
         <v>27</v>
@@ -23217,10 +22983,8 @@
       <c r="T115" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U115" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U115" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V115" s="7" t="inlineStr">
         <is>
@@ -23366,7 +23130,7 @@
       </c>
       <c r="F116" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G116" s="5" t="inlineStr">
@@ -23383,10 +23147,10 @@
         <v>20</v>
       </c>
       <c r="J116" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K116" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L116" s="6" t="n">
         <v>27</v>
@@ -23398,7 +23162,7 @@
         <v>1</v>
       </c>
       <c r="O116" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P116" s="7" t="n">
         <v>27</v>
@@ -23415,10 +23179,8 @@
       <c r="T116" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U116" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U116" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V116" s="7" t="inlineStr">
         <is>
@@ -23564,7 +23326,7 @@
       </c>
       <c r="F117" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G117" s="5" t="inlineStr">
@@ -23581,10 +23343,10 @@
         <v>20</v>
       </c>
       <c r="J117" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K117" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L117" s="6" t="n">
         <v>27</v>
@@ -23596,7 +23358,7 @@
         <v>1</v>
       </c>
       <c r="O117" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117" s="7" t="n">
         <v>27</v>
@@ -23613,10 +23375,8 @@
       <c r="T117" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U117" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U117" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V117" s="7" t="inlineStr">
         <is>
@@ -23762,7 +23522,7 @@
       </c>
       <c r="F118" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G118" s="5" t="inlineStr">
@@ -23779,10 +23539,10 @@
         <v>18</v>
       </c>
       <c r="J118" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K118" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L118" s="6" t="n">
         <v>27</v>
@@ -23794,7 +23554,7 @@
         <v>3</v>
       </c>
       <c r="O118" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P118" s="7" t="n">
         <v>27</v>
@@ -23811,10 +23571,8 @@
       <c r="T118" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U118" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U118" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V118" s="7" t="inlineStr">
         <is>
@@ -23960,7 +23718,7 @@
       </c>
       <c r="F119" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G119" s="5" t="inlineStr">
@@ -23977,10 +23735,10 @@
         <v>18</v>
       </c>
       <c r="J119" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K119" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L119" s="6" t="n">
         <v>27</v>
@@ -23992,7 +23750,7 @@
         <v>3</v>
       </c>
       <c r="O119" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" s="7" t="n">
         <v>27</v>
@@ -24009,10 +23767,8 @@
       <c r="T119" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U119" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U119" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V119" s="7" t="inlineStr">
         <is>
@@ -24158,7 +23914,7 @@
       </c>
       <c r="F120" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G120" s="5" t="inlineStr">
@@ -24175,10 +23931,10 @@
         <v>20</v>
       </c>
       <c r="J120" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K120" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L120" s="6" t="n">
         <v>27</v>
@@ -24190,7 +23946,7 @@
         <v>1</v>
       </c>
       <c r="O120" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P120" s="7" t="n">
         <v>27</v>
@@ -24207,10 +23963,8 @@
       <c r="T120" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U120" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U120" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V120" s="7" t="inlineStr">
         <is>
@@ -24356,7 +24110,7 @@
       </c>
       <c r="F121" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G121" s="5" t="inlineStr">
@@ -24373,10 +24127,10 @@
         <v>18</v>
       </c>
       <c r="J121" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K121" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L121" s="6" t="n">
         <v>27</v>
@@ -24388,7 +24142,7 @@
         <v>3</v>
       </c>
       <c r="O121" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="7" t="n">
         <v>27</v>
@@ -24405,10 +24159,8 @@
       <c r="T121" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U121" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V121" s="7" t="inlineStr">
         <is>
@@ -24554,7 +24306,7 @@
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G122" s="5" t="inlineStr">
@@ -24571,10 +24323,10 @@
         <v>18</v>
       </c>
       <c r="J122" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K122" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L122" s="6" t="n">
         <v>27</v>
@@ -24586,7 +24338,7 @@
         <v>3</v>
       </c>
       <c r="O122" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="7" t="n">
         <v>27</v>
@@ -24603,10 +24355,8 @@
       <c r="T122" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U122" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V122" s="7" t="inlineStr">
         <is>
@@ -24752,7 +24502,7 @@
       </c>
       <c r="F123" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G123" s="5" t="inlineStr">
@@ -24769,10 +24519,10 @@
         <v>18</v>
       </c>
       <c r="J123" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K123" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L123" s="6" t="n">
         <v>27</v>
@@ -24784,7 +24534,7 @@
         <v>3</v>
       </c>
       <c r="O123" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" s="7" t="n">
         <v>27</v>
@@ -24801,10 +24551,8 @@
       <c r="T123" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U123" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U123" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V123" s="7" t="inlineStr">
         <is>
@@ -24948,7 +24696,7 @@
           <t>221533@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F124" s="8" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -24967,10 +24715,10 @@
         <v>19</v>
       </c>
       <c r="J124" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K124" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L124" s="6" t="n">
         <v>27</v>
@@ -24982,7 +24730,7 @@
         <v>2</v>
       </c>
       <c r="O124" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P124" s="7" t="n">
         <v>27</v>
@@ -24999,10 +24747,8 @@
       <c r="T124" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U124" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U124" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V124" s="7" t="inlineStr">
         <is>
@@ -25148,7 +24894,7 @@
       </c>
       <c r="F125" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G125" s="5" t="inlineStr">
@@ -25165,10 +24911,10 @@
         <v>20</v>
       </c>
       <c r="J125" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K125" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L125" s="6" t="n">
         <v>27</v>
@@ -25180,7 +24926,7 @@
         <v>1</v>
       </c>
       <c r="O125" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P125" s="7" t="n">
         <v>27</v>
@@ -25197,10 +24943,8 @@
       <c r="T125" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U125" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U125" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V125" s="7" t="inlineStr">
         <is>
@@ -25346,7 +25090,7 @@
       </c>
       <c r="F126" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G126" s="5" t="inlineStr">
@@ -25363,10 +25107,10 @@
         <v>20</v>
       </c>
       <c r="J126" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K126" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L126" s="6" t="n">
         <v>27</v>
@@ -25378,7 +25122,7 @@
         <v>1</v>
       </c>
       <c r="O126" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P126" s="7" t="n">
         <v>27</v>
@@ -25395,10 +25139,8 @@
       <c r="T126" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U126" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U126" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V126" s="7" t="inlineStr">
         <is>
@@ -25544,7 +25286,7 @@
       </c>
       <c r="F127" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G127" s="5" t="inlineStr">
@@ -25561,10 +25303,10 @@
         <v>20</v>
       </c>
       <c r="J127" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K127" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L127" s="6" t="n">
         <v>27</v>
@@ -25576,7 +25318,7 @@
         <v>1</v>
       </c>
       <c r="O127" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P127" s="7" t="n">
         <v>27</v>
@@ -25593,10 +25335,8 @@
       <c r="T127" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U127" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U127" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V127" s="7" t="inlineStr">
         <is>
@@ -25740,7 +25480,7 @@
           <t>221547@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25759,10 +25499,10 @@
         <v>19</v>
       </c>
       <c r="J128" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K128" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L128" s="6" t="n">
         <v>27</v>
@@ -25774,7 +25514,7 @@
         <v>2</v>
       </c>
       <c r="O128" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P128" s="7" t="n">
         <v>27</v>
@@ -25791,10 +25531,8 @@
       <c r="T128" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U128" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U128" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V128" s="7" t="inlineStr">
         <is>
@@ -25938,7 +25676,7 @@
           <t>221548@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -25957,10 +25695,10 @@
         <v>19</v>
       </c>
       <c r="J129" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K129" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L129" s="6" t="n">
         <v>27</v>
@@ -25972,7 +25710,7 @@
         <v>2</v>
       </c>
       <c r="O129" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P129" s="7" t="n">
         <v>27</v>
@@ -25989,10 +25727,8 @@
       <c r="T129" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U129" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U129" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V129" s="7" t="inlineStr">
         <is>
@@ -26136,7 +25872,7 @@
           <t>221552@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F130" s="8" t="inlineStr">
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26155,10 +25891,10 @@
         <v>19</v>
       </c>
       <c r="J130" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K130" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L130" s="6" t="n">
         <v>27</v>
@@ -26170,7 +25906,7 @@
         <v>2</v>
       </c>
       <c r="O130" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" s="7" t="n">
         <v>27</v>
@@ -26187,10 +25923,8 @@
       <c r="T130" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U130" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U130" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V130" s="7" t="inlineStr">
         <is>
@@ -26334,7 +26068,7 @@
           <t>221556@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F131" s="8" t="inlineStr">
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26353,10 +26087,10 @@
         <v>19</v>
       </c>
       <c r="J131" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K131" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L131" s="6" t="n">
         <v>27</v>
@@ -26368,7 +26102,7 @@
         <v>2</v>
       </c>
       <c r="O131" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P131" s="7" t="n">
         <v>27</v>
@@ -26385,10 +26119,8 @@
       <c r="T131" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U131" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U131" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V131" s="7" t="inlineStr">
         <is>
@@ -26534,7 +26266,7 @@
       </c>
       <c r="F132" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G132" s="5" t="inlineStr">
@@ -26551,10 +26283,10 @@
         <v>20</v>
       </c>
       <c r="J132" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K132" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L132" s="6" t="n">
         <v>27</v>
@@ -26566,7 +26298,7 @@
         <v>1</v>
       </c>
       <c r="O132" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P132" s="7" t="n">
         <v>27</v>
@@ -26583,10 +26315,8 @@
       <c r="T132" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U132" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U132" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V132" s="7" t="inlineStr">
         <is>
@@ -26730,7 +26460,7 @@
           <t>221707@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F133" s="8" t="inlineStr">
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -26749,10 +26479,10 @@
         <v>19</v>
       </c>
       <c r="J133" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K133" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L133" s="6" t="n">
         <v>27</v>
@@ -26764,7 +26494,7 @@
         <v>2</v>
       </c>
       <c r="O133" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P133" s="7" t="n">
         <v>27</v>
@@ -26781,10 +26511,8 @@
       <c r="T133" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U133" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U133" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V133" s="7" t="inlineStr">
         <is>
@@ -26930,7 +26658,7 @@
       </c>
       <c r="F134" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G134" s="5" t="inlineStr">
@@ -26947,10 +26675,10 @@
         <v>18</v>
       </c>
       <c r="J134" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K134" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L134" s="6" t="n">
         <v>27</v>
@@ -26962,7 +26690,7 @@
         <v>3</v>
       </c>
       <c r="O134" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P134" s="7" t="n">
         <v>27</v>
@@ -26979,10 +26707,8 @@
       <c r="T134" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U134" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U134" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V134" s="7" t="inlineStr">
         <is>
@@ -27126,7 +26852,7 @@
           <t>221719@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F135" s="8" t="inlineStr">
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27145,10 +26871,10 @@
         <v>19</v>
       </c>
       <c r="J135" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K135" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L135" s="6" t="n">
         <v>27</v>
@@ -27160,7 +26886,7 @@
         <v>2</v>
       </c>
       <c r="O135" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P135" s="7" t="n">
         <v>27</v>
@@ -27177,10 +26903,8 @@
       <c r="T135" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U135" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U135" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V135" s="7" t="inlineStr">
         <is>
@@ -27324,7 +27048,7 @@
           <t>221872@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F136" s="8" t="inlineStr">
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27343,10 +27067,10 @@
         <v>19</v>
       </c>
       <c r="J136" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K136" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L136" s="6" t="n">
         <v>27</v>
@@ -27358,7 +27082,7 @@
         <v>2</v>
       </c>
       <c r="O136" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P136" s="7" t="n">
         <v>27</v>
@@ -27375,10 +27099,8 @@
       <c r="T136" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U136" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U136" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V136" s="7" t="inlineStr">
         <is>
@@ -27522,7 +27244,7 @@
           <t>221913@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F137" s="8" t="inlineStr">
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27541,10 +27263,10 @@
         <v>19</v>
       </c>
       <c r="J137" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K137" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L137" s="6" t="n">
         <v>27</v>
@@ -27556,7 +27278,7 @@
         <v>2</v>
       </c>
       <c r="O137" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P137" s="7" t="n">
         <v>27</v>
@@ -27573,10 +27295,8 @@
       <c r="T137" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U137" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U137" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V137" s="7" t="inlineStr">
         <is>
@@ -27720,7 +27440,7 @@
           <t>221568@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F138" s="8" t="inlineStr">
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27739,10 +27459,10 @@
         <v>19</v>
       </c>
       <c r="J138" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K138" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L138" s="6" t="n">
         <v>27</v>
@@ -27754,7 +27474,7 @@
         <v>2</v>
       </c>
       <c r="O138" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P138" s="7" t="n">
         <v>27</v>
@@ -27771,10 +27491,8 @@
       <c r="T138" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U138" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U138" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V138" s="7" t="inlineStr">
         <is>
@@ -27918,7 +27636,7 @@
           <t>221581@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F139" s="8" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -27937,10 +27655,10 @@
         <v>19</v>
       </c>
       <c r="J139" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K139" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L139" s="6" t="n">
         <v>27</v>
@@ -27952,7 +27670,7 @@
         <v>2</v>
       </c>
       <c r="O139" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P139" s="7" t="n">
         <v>27</v>
@@ -27969,10 +27687,8 @@
       <c r="T139" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U139" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U139" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V139" s="7" t="inlineStr">
         <is>
@@ -28116,7 +27832,7 @@
           <t>221585@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F140" s="8" t="inlineStr">
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28135,10 +27851,10 @@
         <v>19</v>
       </c>
       <c r="J140" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K140" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L140" s="6" t="n">
         <v>27</v>
@@ -28150,7 +27866,7 @@
         <v>2</v>
       </c>
       <c r="O140" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P140" s="7" t="n">
         <v>27</v>
@@ -28167,10 +27883,8 @@
       <c r="T140" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U140" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U140" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V140" s="7" t="inlineStr">
         <is>
@@ -28316,7 +28030,7 @@
       </c>
       <c r="F141" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G141" s="5" t="inlineStr">
@@ -28333,10 +28047,10 @@
         <v>20</v>
       </c>
       <c r="J141" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K141" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L141" s="6" t="n">
         <v>27</v>
@@ -28348,7 +28062,7 @@
         <v>1</v>
       </c>
       <c r="O141" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P141" s="7" t="n">
         <v>27</v>
@@ -28365,10 +28079,8 @@
       <c r="T141" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U141" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U141" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V141" s="7" t="inlineStr">
         <is>
@@ -28512,7 +28224,7 @@
           <t>221592@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F142" s="8" t="inlineStr">
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28531,10 +28243,10 @@
         <v>19</v>
       </c>
       <c r="J142" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K142" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L142" s="6" t="n">
         <v>27</v>
@@ -28546,7 +28258,7 @@
         <v>2</v>
       </c>
       <c r="O142" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P142" s="7" t="n">
         <v>27</v>
@@ -28563,10 +28275,8 @@
       <c r="T142" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U142" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U142" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V142" s="7" t="inlineStr">
         <is>
@@ -28710,7 +28420,7 @@
           <t>221594@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F143" s="8" t="inlineStr">
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -28729,10 +28439,10 @@
         <v>19</v>
       </c>
       <c r="J143" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K143" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L143" s="6" t="n">
         <v>27</v>
@@ -28744,7 +28454,7 @@
         <v>2</v>
       </c>
       <c r="O143" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P143" s="7" t="n">
         <v>27</v>
@@ -28761,10 +28471,8 @@
       <c r="T143" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U143" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U143" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V143" s="7" t="inlineStr">
         <is>
@@ -28910,7 +28618,7 @@
       </c>
       <c r="F144" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G144" s="5" t="inlineStr">
@@ -28927,10 +28635,10 @@
         <v>20</v>
       </c>
       <c r="J144" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K144" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L144" s="6" t="n">
         <v>27</v>
@@ -28942,7 +28650,7 @@
         <v>1</v>
       </c>
       <c r="O144" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P144" s="7" t="n">
         <v>27</v>
@@ -28959,10 +28667,8 @@
       <c r="T144" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U144" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U144" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V144" s="7" t="inlineStr">
         <is>
@@ -29106,7 +28812,7 @@
           <t>221596@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F145" s="8" t="inlineStr">
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29125,10 +28831,10 @@
         <v>19</v>
       </c>
       <c r="J145" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K145" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L145" s="6" t="n">
         <v>27</v>
@@ -29140,7 +28846,7 @@
         <v>2</v>
       </c>
       <c r="O145" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P145" s="7" t="n">
         <v>27</v>
@@ -29157,10 +28863,8 @@
       <c r="T145" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U145" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U145" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V145" s="7" t="inlineStr">
         <is>
@@ -29304,7 +29008,7 @@
           <t>221603@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F146" s="8" t="inlineStr">
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29323,10 +29027,10 @@
         <v>19</v>
       </c>
       <c r="J146" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K146" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L146" s="6" t="n">
         <v>27</v>
@@ -29338,7 +29042,7 @@
         <v>2</v>
       </c>
       <c r="O146" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P146" s="7" t="n">
         <v>27</v>
@@ -29355,10 +29059,8 @@
       <c r="T146" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U146" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U146" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V146" s="7" t="inlineStr">
         <is>
@@ -29504,7 +29206,7 @@
       </c>
       <c r="F147" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G147" s="5" t="inlineStr">
@@ -29521,10 +29223,10 @@
         <v>18</v>
       </c>
       <c r="J147" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K147" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L147" s="6" t="n">
         <v>27</v>
@@ -29536,7 +29238,7 @@
         <v>3</v>
       </c>
       <c r="O147" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147" s="7" t="n">
         <v>27</v>
@@ -29553,10 +29255,8 @@
       <c r="T147" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U147" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U147" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V147" s="7" t="inlineStr">
         <is>
@@ -29700,7 +29400,7 @@
           <t>221608@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F148" s="8" t="inlineStr">
+      <c r="F148" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -29719,10 +29419,10 @@
         <v>19</v>
       </c>
       <c r="J148" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K148" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L148" s="6" t="n">
         <v>27</v>
@@ -29734,7 +29434,7 @@
         <v>2</v>
       </c>
       <c r="O148" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P148" s="7" t="n">
         <v>27</v>
@@ -29751,10 +29451,8 @@
       <c r="T148" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U148" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U148" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V148" s="7" t="inlineStr">
         <is>
@@ -29900,7 +29598,7 @@
       </c>
       <c r="F149" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G149" s="5" t="inlineStr">
@@ -29917,10 +29615,10 @@
         <v>20</v>
       </c>
       <c r="J149" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K149" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L149" s="6" t="n">
         <v>27</v>
@@ -29932,7 +29630,7 @@
         <v>1</v>
       </c>
       <c r="O149" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P149" s="7" t="n">
         <v>27</v>
@@ -29949,10 +29647,8 @@
       <c r="T149" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U149" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U149" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V149" s="7" t="inlineStr">
         <is>
@@ -30098,7 +29794,7 @@
       </c>
       <c r="F150" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G150" s="5" t="inlineStr">
@@ -30115,10 +29811,10 @@
         <v>20</v>
       </c>
       <c r="J150" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K150" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L150" s="6" t="n">
         <v>27</v>
@@ -30130,7 +29826,7 @@
         <v>1</v>
       </c>
       <c r="O150" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P150" s="7" t="n">
         <v>27</v>
@@ -30147,10 +29843,8 @@
       <c r="T150" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U150" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U150" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V150" s="7" t="inlineStr">
         <is>
@@ -30294,7 +29988,7 @@
           <t>221621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F151" s="8" t="inlineStr">
+      <c r="F151" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30313,10 +30007,10 @@
         <v>19</v>
       </c>
       <c r="J151" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K151" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L151" s="6" t="n">
         <v>27</v>
@@ -30328,7 +30022,7 @@
         <v>2</v>
       </c>
       <c r="O151" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P151" s="7" t="n">
         <v>27</v>
@@ -30345,10 +30039,8 @@
       <c r="T151" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U151" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U151" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V151" s="7" t="inlineStr">
         <is>
@@ -30492,7 +30184,7 @@
           <t>221624@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F152" s="8" t="inlineStr">
+      <c r="F152" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30511,10 +30203,10 @@
         <v>19</v>
       </c>
       <c r="J152" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K152" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L152" s="6" t="n">
         <v>27</v>
@@ -30526,7 +30218,7 @@
         <v>2</v>
       </c>
       <c r="O152" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P152" s="7" t="n">
         <v>27</v>
@@ -30543,10 +30235,8 @@
       <c r="T152" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U152" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U152" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V152" s="7" t="inlineStr">
         <is>
@@ -30690,7 +30380,7 @@
           <t>221627@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F153" s="8" t="inlineStr">
+      <c r="F153" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30709,10 +30399,10 @@
         <v>19</v>
       </c>
       <c r="J153" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K153" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L153" s="6" t="n">
         <v>27</v>
@@ -30724,7 +30414,7 @@
         <v>2</v>
       </c>
       <c r="O153" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P153" s="7" t="n">
         <v>27</v>
@@ -30741,10 +30431,8 @@
       <c r="T153" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U153" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U153" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V153" s="7" t="inlineStr">
         <is>
@@ -30888,7 +30576,7 @@
           <t>221628@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F154" s="8" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -30907,10 +30595,10 @@
         <v>19</v>
       </c>
       <c r="J154" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K154" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L154" s="6" t="n">
         <v>27</v>
@@ -30922,7 +30610,7 @@
         <v>2</v>
       </c>
       <c r="O154" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P154" s="7" t="n">
         <v>27</v>
@@ -30939,10 +30627,8 @@
       <c r="T154" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U154" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U154" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V154" s="7" t="inlineStr">
         <is>
@@ -31088,7 +30774,7 @@
       </c>
       <c r="F155" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G155" s="5" t="inlineStr">
@@ -31105,10 +30791,10 @@
         <v>20</v>
       </c>
       <c r="J155" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K155" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L155" s="6" t="n">
         <v>27</v>
@@ -31120,7 +30806,7 @@
         <v>1</v>
       </c>
       <c r="O155" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P155" s="7" t="n">
         <v>27</v>
@@ -31137,10 +30823,8 @@
       <c r="T155" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U155" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U155" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V155" s="7" t="inlineStr">
         <is>
@@ -31284,7 +30968,7 @@
           <t>221642@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F156" s="8" t="inlineStr">
+      <c r="F156" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31303,10 +30987,10 @@
         <v>19</v>
       </c>
       <c r="J156" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K156" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L156" s="6" t="n">
         <v>27</v>
@@ -31318,7 +31002,7 @@
         <v>2</v>
       </c>
       <c r="O156" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P156" s="7" t="n">
         <v>27</v>
@@ -31335,10 +31019,8 @@
       <c r="T156" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U156" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U156" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V156" s="7" t="inlineStr">
         <is>
@@ -31482,7 +31164,7 @@
           <t>221652@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F157" s="8" t="inlineStr">
+      <c r="F157" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31501,10 +31183,10 @@
         <v>19</v>
       </c>
       <c r="J157" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K157" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L157" s="6" t="n">
         <v>27</v>
@@ -31516,7 +31198,7 @@
         <v>2</v>
       </c>
       <c r="O157" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P157" s="7" t="n">
         <v>27</v>
@@ -31533,10 +31215,8 @@
       <c r="T157" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U157" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U157" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V157" s="7" t="inlineStr">
         <is>
@@ -31682,7 +31362,7 @@
       </c>
       <c r="F158" s="4" t="inlineStr">
         <is>
-          <t>No Risk</t>
+          <t>Low Risk</t>
         </is>
       </c>
       <c r="G158" s="5" t="inlineStr">
@@ -31699,10 +31379,10 @@
         <v>18</v>
       </c>
       <c r="J158" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K158" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L158" s="6" t="n">
         <v>27</v>
@@ -31714,7 +31394,7 @@
         <v>3</v>
       </c>
       <c r="O158" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P158" s="7" t="n">
         <v>27</v>
@@ -31731,10 +31411,8 @@
       <c r="T158" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U158" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U158" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V158" s="7" t="inlineStr">
         <is>
@@ -31878,7 +31556,7 @@
           <t>221658@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F159" s="8" t="inlineStr">
+      <c r="F159" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -31897,10 +31575,10 @@
         <v>19</v>
       </c>
       <c r="J159" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K159" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L159" s="6" t="n">
         <v>27</v>
@@ -31912,7 +31590,7 @@
         <v>2</v>
       </c>
       <c r="O159" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P159" s="7" t="n">
         <v>27</v>
@@ -31929,10 +31607,8 @@
       <c r="T159" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="U159" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U159" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V159" s="7" t="inlineStr">
         <is>
@@ -32078,7 +31754,7 @@
       </c>
       <c r="F160" s="8" t="inlineStr">
         <is>
-          <t>Low Risk</t>
+          <t>Moderate Risk</t>
         </is>
       </c>
       <c r="G160" s="5" t="inlineStr">
@@ -32095,10 +31771,10 @@
         <v>20</v>
       </c>
       <c r="J160" s="6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K160" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L160" s="6" t="n">
         <v>27</v>
@@ -32110,7 +31786,7 @@
         <v>1</v>
       </c>
       <c r="O160" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P160" s="7" t="n">
         <v>27</v>
@@ -32127,10 +31803,8 @@
       <c r="T160" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="U160" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="U160" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="V160" s="7" t="inlineStr">
         <is>
@@ -32274,7 +31948,7 @@
           <t>221674@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F161" s="8" t="inlineStr">
+      <c r="F161" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32472,7 +32146,7 @@
           <t>221676@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F162" s="8" t="inlineStr">
+      <c r="F162" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32670,7 +32344,7 @@
           <t>221677@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F163" s="8" t="inlineStr">
+      <c r="F163" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -32868,7 +32542,7 @@
           <t>221683@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F164" s="8" t="inlineStr">
+      <c r="F164" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33066,7 +32740,7 @@
           <t>221686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F165" s="8" t="inlineStr">
+      <c r="F165" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33264,7 +32938,7 @@
           <t>221688@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F166" s="8" t="inlineStr">
+      <c r="F166" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33462,7 +33136,7 @@
           <t>221689@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F167" s="8" t="inlineStr">
+      <c r="F167" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33660,7 +33334,7 @@
           <t>221694@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F168" s="8" t="inlineStr">
+      <c r="F168" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -33858,7 +33532,7 @@
           <t>221697@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F169" s="8" t="inlineStr">
+      <c r="F169" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -34056,7 +33730,7 @@
           <t>221700@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F170" s="8" t="inlineStr">
+      <c r="F170" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -34254,7 +33928,7 @@
           <t>221701@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F171" s="8" t="inlineStr">
+      <c r="F171" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -34452,7 +34126,7 @@
           <t>221702@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F172" s="8" t="inlineStr">
+      <c r="F172" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -34650,7 +34324,7 @@
           <t>221706@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F173" s="8" t="inlineStr">
+      <c r="F173" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -34848,7 +34522,7 @@
           <t>221711@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F174" s="8" t="inlineStr">
+      <c r="F174" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35046,7 +34720,7 @@
           <t>221712@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F175" s="8" t="inlineStr">
+      <c r="F175" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35244,7 +34918,7 @@
           <t>221713@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F176" s="8" t="inlineStr">
+      <c r="F176" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35442,7 +35116,7 @@
           <t>221716@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F177" s="8" t="inlineStr">
+      <c r="F177" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35640,7 +35314,7 @@
           <t>221722@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F178" s="8" t="inlineStr">
+      <c r="F178" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -35838,7 +35512,7 @@
           <t>221729@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F179" s="8" t="inlineStr">
+      <c r="F179" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36036,7 +35710,7 @@
           <t>221740@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F180" s="9" t="inlineStr">
+      <c r="F180" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -36234,7 +35908,7 @@
           <t>221745@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F181" s="8" t="inlineStr">
+      <c r="F181" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36432,7 +36106,7 @@
           <t>221751@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F182" s="8" t="inlineStr">
+      <c r="F182" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36630,7 +36304,7 @@
           <t>221752@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F183" s="8" t="inlineStr">
+      <c r="F183" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -36828,7 +36502,7 @@
           <t>221641@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F184" s="8" t="inlineStr">
+      <c r="F184" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -37026,7 +36700,7 @@
           <t>221657@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F185" s="8" t="inlineStr">
+      <c r="F185" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -37224,7 +36898,7 @@
           <t>221672@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F186" s="9" t="inlineStr">
+      <c r="F186" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -37422,7 +37096,7 @@
           <t>221757@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F187" s="8" t="inlineStr">
+      <c r="F187" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -37620,7 +37294,7 @@
           <t>221761@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F188" s="8" t="inlineStr">
+      <c r="F188" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -37818,7 +37492,7 @@
           <t>221763@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F189" s="8" t="inlineStr">
+      <c r="F189" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38016,7 +37690,7 @@
           <t>221766@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F190" s="8" t="inlineStr">
+      <c r="F190" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38214,7 +37888,7 @@
           <t>221767@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F191" s="8" t="inlineStr">
+      <c r="F191" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38412,7 +38086,7 @@
           <t>221773@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F192" s="8" t="inlineStr">
+      <c r="F192" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38610,7 +38284,7 @@
           <t>221775@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F193" s="8" t="inlineStr">
+      <c r="F193" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -38808,7 +38482,7 @@
           <t>221781@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F194" s="8" t="inlineStr">
+      <c r="F194" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39006,7 +38680,7 @@
           <t>221784@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F195" s="8" t="inlineStr">
+      <c r="F195" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39204,7 +38878,7 @@
           <t>221786@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F196" s="8" t="inlineStr">
+      <c r="F196" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39402,7 +39076,7 @@
           <t>221797@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F197" s="8" t="inlineStr">
+      <c r="F197" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39600,7 +39274,7 @@
           <t>221803@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F198" s="8" t="inlineStr">
+      <c r="F198" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39798,7 +39472,7 @@
           <t>221805@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F199" s="8" t="inlineStr">
+      <c r="F199" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -39996,7 +39670,7 @@
           <t>221809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F200" s="8" t="inlineStr">
+      <c r="F200" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -40194,7 +39868,7 @@
           <t>221813@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F201" s="8" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -40392,7 +40066,7 @@
           <t>221816@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F202" s="8" t="inlineStr">
+      <c r="F202" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -40590,7 +40264,7 @@
           <t>221817@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F203" s="9" t="inlineStr">
+      <c r="F203" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -40788,7 +40462,7 @@
           <t>221830@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F204" s="8" t="inlineStr">
+      <c r="F204" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -40986,7 +40660,7 @@
           <t>221832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F205" s="8" t="inlineStr">
+      <c r="F205" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41184,7 +40858,7 @@
           <t>221834@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F206" s="8" t="inlineStr">
+      <c r="F206" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41382,7 +41056,7 @@
           <t>221841@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F207" s="8" t="inlineStr">
+      <c r="F207" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41580,7 +41254,7 @@
           <t>221844@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F208" s="8" t="inlineStr">
+      <c r="F208" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41778,7 +41452,7 @@
           <t>221847@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F209" s="8" t="inlineStr">
+      <c r="F209" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -41976,7 +41650,7 @@
           <t>221853@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F210" s="8" t="inlineStr">
+      <c r="F210" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -42174,7 +41848,7 @@
           <t>221854@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F211" s="8" t="inlineStr">
+      <c r="F211" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -42372,7 +42046,7 @@
           <t>221859@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F212" s="8" t="inlineStr">
+      <c r="F212" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -42570,7 +42244,7 @@
           <t>221860@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F213" s="8" t="inlineStr">
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -42768,7 +42442,7 @@
           <t>221516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F214" s="9" t="inlineStr">
+      <c r="F214" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -42966,7 +42640,7 @@
           <t>221862@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F215" s="8" t="inlineStr">
+      <c r="F215" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -43164,7 +42838,7 @@
           <t>221877@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F216" s="9" t="inlineStr">
+      <c r="F216" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -43362,7 +43036,7 @@
           <t>221878@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F217" s="8" t="inlineStr">
+      <c r="F217" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -43560,7 +43234,7 @@
           <t>221880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F218" s="8" t="inlineStr">
+      <c r="F218" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -43758,7 +43432,7 @@
           <t>221885@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F219" s="8" t="inlineStr">
+      <c r="F219" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -43956,7 +43630,7 @@
           <t>221891@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F220" s="9" t="inlineStr">
+      <c r="F220" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -44154,7 +43828,7 @@
           <t>221896@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F221" s="8" t="inlineStr">
+      <c r="F221" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44352,7 +44026,7 @@
           <t>221936@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F222" s="8" t="inlineStr">
+      <c r="F222" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44550,7 +44224,7 @@
           <t>221939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F223" s="8" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44748,7 +44422,7 @@
           <t>221956@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F224" s="8" t="inlineStr">
+      <c r="F224" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -44946,7 +44620,7 @@
           <t>221957@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F225" s="8" t="inlineStr">
+      <c r="F225" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45144,7 +44818,7 @@
           <t>221961@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F226" s="8" t="inlineStr">
+      <c r="F226" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45342,7 +45016,7 @@
           <t>221967@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F227" s="8" t="inlineStr">
+      <c r="F227" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45540,7 +45214,7 @@
           <t>221974@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F228" s="8" t="inlineStr">
+      <c r="F228" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45738,7 +45412,7 @@
           <t>221994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F229" s="8" t="inlineStr">
+      <c r="F229" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -45936,7 +45610,7 @@
           <t>221999@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F230" s="8" t="inlineStr">
+      <c r="F230" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46134,7 +45808,7 @@
           <t>222009@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F231" s="8" t="inlineStr">
+      <c r="F231" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46332,7 +46006,7 @@
           <t>222048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F232" s="8" t="inlineStr">
+      <c r="F232" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46530,7 +46204,7 @@
           <t>222050@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F233" s="8" t="inlineStr">
+      <c r="F233" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46728,7 +46402,7 @@
           <t>222060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F234" s="8" t="inlineStr">
+      <c r="F234" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -46926,7 +46600,7 @@
           <t>222062@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F235" s="8" t="inlineStr">
+      <c r="F235" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47124,7 +46798,7 @@
           <t>222064@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F236" s="8" t="inlineStr">
+      <c r="F236" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47322,7 +46996,7 @@
           <t>222075@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F237" s="8" t="inlineStr">
+      <c r="F237" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47520,7 +47194,7 @@
           <t>222078@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F238" s="8" t="inlineStr">
+      <c r="F238" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47718,7 +47392,7 @@
           <t>210288@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F239" s="8" t="inlineStr">
+      <c r="F239" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -47916,7 +47590,7 @@
           <t>210301@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F240" s="8" t="inlineStr">
+      <c r="F240" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -48114,7 +47788,7 @@
           <t>210306@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F241" s="8" t="inlineStr">
+      <c r="F241" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -48312,7 +47986,7 @@
           <t>210319@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F242" s="9" t="inlineStr">
+      <c r="F242" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -48510,7 +48184,7 @@
           <t>210333@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F243" s="9" t="inlineStr">
+      <c r="F243" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -48708,7 +48382,7 @@
           <t>210334@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F244" s="8" t="inlineStr">
+      <c r="F244" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -48906,7 +48580,7 @@
           <t>210340@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F245" s="8" t="inlineStr">
+      <c r="F245" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49104,7 +48778,7 @@
           <t>210354@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F246" s="9" t="inlineStr">
+      <c r="F246" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -49302,7 +48976,7 @@
           <t>210385@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F247" s="9" t="inlineStr">
+      <c r="F247" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -49500,7 +49174,7 @@
           <t>210387@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F248" s="8" t="inlineStr">
+      <c r="F248" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49698,7 +49372,7 @@
           <t>210401@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F249" s="8" t="inlineStr">
+      <c r="F249" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -49896,7 +49570,7 @@
           <t>210421@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F250" s="8" t="inlineStr">
+      <c r="F250" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -50094,7 +49768,7 @@
           <t>210435@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F251" s="9" t="inlineStr">
+      <c r="F251" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -50292,7 +49966,7 @@
           <t>210438@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F252" s="8" t="inlineStr">
+      <c r="F252" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -50490,7 +50164,7 @@
           <t>221582@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F253" s="8" t="inlineStr">
+      <c r="F253" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -50688,7 +50362,7 @@
           <t>222080@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F254" s="8" t="inlineStr">
+      <c r="F254" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -50886,7 +50560,7 @@
           <t>222081@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F255" s="8" t="inlineStr">
+      <c r="F255" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -51084,7 +50758,7 @@
           <t>222083@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F256" s="8" t="inlineStr">
+      <c r="F256" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -51282,7 +50956,7 @@
           <t>222085@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F257" s="8" t="inlineStr">
+      <c r="F257" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -51480,7 +51154,7 @@
           <t>222089@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F258" s="9" t="inlineStr">
+      <c r="F258" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -51678,7 +51352,7 @@
           <t>222091@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F259" s="8" t="inlineStr">
+      <c r="F259" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -51876,7 +51550,7 @@
           <t>222094@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F260" s="9" t="inlineStr">
+      <c r="F260" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -52074,7 +51748,7 @@
           <t>222096@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F261" s="8" t="inlineStr">
+      <c r="F261" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -52272,7 +51946,7 @@
           <t>222098@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F262" s="8" t="inlineStr">
+      <c r="F262" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -52470,7 +52144,7 @@
           <t>222102@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F263" s="9" t="inlineStr">
+      <c r="F263" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -52668,7 +52342,7 @@
           <t>222106@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F264" s="8" t="inlineStr">
+      <c r="F264" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -52866,7 +52540,7 @@
           <t>222111@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F265" s="8" t="inlineStr">
+      <c r="F265" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53064,7 +52738,7 @@
           <t>222123@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F266" s="8" t="inlineStr">
+      <c r="F266" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53262,7 +52936,7 @@
           <t>210509@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F267" s="8" t="inlineStr">
+      <c r="F267" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53460,7 +53134,7 @@
           <t>210513@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F268" s="8" t="inlineStr">
+      <c r="F268" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53658,7 +53332,7 @@
           <t>210516@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F269" s="8" t="inlineStr">
+      <c r="F269" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -53856,7 +53530,7 @@
           <t>210558@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F270" s="8" t="inlineStr">
+      <c r="F270" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54054,7 +53728,7 @@
           <t>210621@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F271" s="8" t="inlineStr">
+      <c r="F271" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54252,7 +53926,7 @@
           <t>210686@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F272" s="8" t="inlineStr">
+      <c r="F272" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54450,7 +54124,7 @@
           <t>210703@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F273" s="8" t="inlineStr">
+      <c r="F273" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54648,7 +54322,7 @@
           <t>210727@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F274" s="8" t="inlineStr">
+      <c r="F274" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -54846,7 +54520,7 @@
           <t>210762@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F275" s="8" t="inlineStr">
+      <c r="F275" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55044,7 +54718,7 @@
           <t>210799@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F276" s="8" t="inlineStr">
+      <c r="F276" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55242,7 +54916,7 @@
           <t>210809@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F277" s="8" t="inlineStr">
+      <c r="F277" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55440,7 +55114,7 @@
           <t>210828@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F278" s="8" t="inlineStr">
+      <c r="F278" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -55638,7 +55312,7 @@
           <t>210832@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F279" s="9" t="inlineStr">
+      <c r="F279" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -55836,7 +55510,7 @@
           <t>210836@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F280" s="8" t="inlineStr">
+      <c r="F280" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56034,7 +55708,7 @@
           <t>210839@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F281" s="8" t="inlineStr">
+      <c r="F281" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56232,7 +55906,7 @@
           <t>210858@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F282" s="8" t="inlineStr">
+      <c r="F282" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56430,7 +56104,7 @@
           <t>210880@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F283" s="8" t="inlineStr">
+      <c r="F283" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56628,7 +56302,7 @@
           <t>210883@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F284" s="8" t="inlineStr">
+      <c r="F284" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -56826,7 +56500,7 @@
           <t>210887@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F285" s="9" t="inlineStr">
+      <c r="F285" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -57024,7 +56698,7 @@
           <t>210892@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F286" s="9" t="inlineStr">
+      <c r="F286" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -57222,7 +56896,7 @@
           <t>210902@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F287" s="8" t="inlineStr">
+      <c r="F287" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -57420,7 +57094,7 @@
           <t>210905@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F288" s="8" t="inlineStr">
+      <c r="F288" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -57618,7 +57292,7 @@
           <t>210910@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F289" s="8" t="inlineStr">
+      <c r="F289" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -57816,7 +57490,7 @@
           <t>210921@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F290" s="9" t="inlineStr">
+      <c r="F290" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -58014,7 +57688,7 @@
           <t>210927@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F291" s="8" t="inlineStr">
+      <c r="F291" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -58212,7 +57886,7 @@
           <t>210937@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F292" s="8" t="inlineStr">
+      <c r="F292" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -58410,7 +58084,7 @@
           <t>201577@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F293" s="8" t="inlineStr">
+      <c r="F293" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -58608,7 +58282,7 @@
           <t>210840@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F294" s="8" t="inlineStr">
+      <c r="F294" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -58806,7 +58480,7 @@
           <t>210939@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F295" s="9" t="inlineStr">
+      <c r="F295" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -59004,7 +58678,7 @@
           <t>210941@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F296" s="8" t="inlineStr">
+      <c r="F296" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -59202,7 +58876,7 @@
           <t>210947@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F297" s="8" t="inlineStr">
+      <c r="F297" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -59400,7 +59074,7 @@
           <t>210965@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F298" s="8" t="inlineStr">
+      <c r="F298" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -59598,7 +59272,7 @@
           <t>210982@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F299" s="8" t="inlineStr">
+      <c r="F299" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -59796,7 +59470,7 @@
           <t>210984@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F300" s="8" t="inlineStr">
+      <c r="F300" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -59994,7 +59668,7 @@
           <t>210994@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F301" s="8" t="inlineStr">
+      <c r="F301" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -60192,7 +59866,7 @@
           <t>211002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F302" s="8" t="inlineStr">
+      <c r="F302" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -60390,7 +60064,7 @@
           <t>211003@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F303" s="8" t="inlineStr">
+      <c r="F303" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -60588,7 +60262,7 @@
           <t>211005@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F304" s="8" t="inlineStr">
+      <c r="F304" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -60786,7 +60460,7 @@
           <t>211024@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F305" s="8" t="inlineStr">
+      <c r="F305" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -60984,7 +60658,7 @@
           <t>211025@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F306" s="9" t="inlineStr">
+      <c r="F306" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -61182,7 +60856,7 @@
           <t>211029@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F307" s="9" t="inlineStr">
+      <c r="F307" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -61380,7 +61054,7 @@
           <t>211044@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F308" s="8" t="inlineStr">
+      <c r="F308" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -61578,7 +61252,7 @@
           <t>211048@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F309" s="9" t="inlineStr">
+      <c r="F309" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -61776,7 +61450,7 @@
           <t>211056@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F310" s="8" t="inlineStr">
+      <c r="F310" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -61974,7 +61648,7 @@
           <t>211060@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F311" s="8" t="inlineStr">
+      <c r="F311" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -62172,7 +61846,7 @@
           <t>211063@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F312" s="8" t="inlineStr">
+      <c r="F312" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -62370,7 +62044,7 @@
           <t>211069@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F313" s="8" t="inlineStr">
+      <c r="F313" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -62568,7 +62242,7 @@
           <t>211073@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F314" s="8" t="inlineStr">
+      <c r="F314" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -62766,7 +62440,7 @@
           <t>211934@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F315" s="8" t="inlineStr">
+      <c r="F315" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -62964,7 +62638,7 @@
           <t>220467@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F316" s="8" t="inlineStr">
+      <c r="F316" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -63162,7 +62836,7 @@
           <t>221082@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F317" s="8" t="inlineStr">
+      <c r="F317" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -63360,7 +63034,7 @@
           <t>221105@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F318" s="8" t="inlineStr">
+      <c r="F318" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -63558,7 +63232,7 @@
           <t>223001@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F319" s="8" t="inlineStr">
+      <c r="F319" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -63756,7 +63430,7 @@
           <t>223002@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F320" s="9" t="inlineStr">
+      <c r="F320" s="8" t="inlineStr">
         <is>
           <t>Moderate Risk</t>
         </is>
@@ -63954,7 +63628,7 @@
           <t>223007@med.asu.edu.eg</t>
         </is>
       </c>
-      <c r="F321" s="8" t="inlineStr">
+      <c r="F321" s="4" t="inlineStr">
         <is>
           <t>Low Risk</t>
         </is>
@@ -64163,57 +63837,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Session</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="K1" s="10" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>Validation Group</t>
         </is>
